--- a/tests/integration_tests/mock_pf_returns/PF_Round_1_Initial_Validation_Failures.xlsx
+++ b/tests/integration_tests/mock_pf_returns/PF_Round_1_Initial_Validation_Failures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mhclg-my.sharepoint.com/personal/william_may_communities_gov_uk/Documents/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{3BFD13D3-E7E4-44F9-AB57-537CDEC19A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3A521C2-A974-4AAF-A47B-320A13D6BD3B}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{3BFD13D3-E7E4-44F9-AB57-537CDEC19A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99C6DA8F-A471-416D-B80A-9E7365DD5BCC}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" tabRatio="661" activeTab="6" xr2:uid="{F1A93CD4-AFD6-463B-B066-EB4D40A0C607}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" tabRatio="661" activeTab="7" xr2:uid="{F1A93CD4-AFD6-463B-B066-EB4D40A0C607}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="13" r:id="rId1"/>
@@ -6114,6 +6114,12 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -6132,14 +6138,20 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -6149,36 +6161,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -6210,16 +6192,127 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6243,12 +6336,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6258,119 +6345,11 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6402,22 +6381,83 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6429,6 +6469,105 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -6437,9 +6576,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -6503,142 +6639,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -7645,10 +7645,10 @@
     <row r="1" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:6" s="3" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2"/>
-      <c r="B2" s="214" t="s">
+      <c r="B2" s="216" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="215"/>
+      <c r="C2" s="217"/>
       <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
@@ -16326,10 +16326,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="214" t="s">
+      <c r="B2" s="216" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="215"/>
+      <c r="C2" s="217"/>
     </row>
     <row r="3" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B3" s="205" t="s">
@@ -16339,16 +16339,16 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="2:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="210" t="s">
+      <c r="B4" s="212" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="211"/>
+      <c r="C4" s="213"/>
     </row>
     <row r="5" spans="2:9" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="212" t="s">
+      <c r="B5" s="214" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="213" t="s">
+      <c r="C5" s="215" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="6"/>
@@ -16360,138 +16360,138 @@
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="2:9" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="B7" s="214" t="s">
+      <c r="B7" s="216" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="215"/>
+      <c r="C7" s="217"/>
       <c r="I7" s="112"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="I8" s="112"/>
     </row>
     <row r="9" spans="2:9" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B9" s="210" t="s">
+      <c r="B9" s="212" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="211"/>
+      <c r="C9" s="213"/>
     </row>
     <row r="10" spans="2:9" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="212" t="s">
+      <c r="B10" s="214" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="213"/>
+      <c r="C10" s="215"/>
     </row>
     <row r="11" spans="2:9" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="25"/>
       <c r="C11" s="19"/>
     </row>
     <row r="12" spans="2:9" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B12" s="210" t="s">
+      <c r="B12" s="212" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="211"/>
+      <c r="C12" s="213"/>
     </row>
     <row r="13" spans="2:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="216" t="s">
+      <c r="B13" s="210" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="217"/>
+      <c r="C13" s="211"/>
     </row>
     <row r="14" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B14" s="25"/>
       <c r="C14" s="19"/>
     </row>
     <row r="15" spans="2:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B15" s="210" t="s">
+      <c r="B15" s="212" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="211"/>
+      <c r="C15" s="213"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B16" s="216" t="s">
+      <c r="B16" s="210" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="217"/>
+      <c r="C16" s="211"/>
     </row>
     <row r="17" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B17" s="25"/>
       <c r="C17" s="19"/>
     </row>
     <row r="18" spans="2:3" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B18" s="210" t="s">
+      <c r="B18" s="212" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="211"/>
+      <c r="C18" s="213"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B19" s="216" t="s">
+      <c r="B19" s="210" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="217"/>
+      <c r="C19" s="211"/>
     </row>
     <row r="20" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B20" s="25"/>
       <c r="C20" s="19"/>
     </row>
     <row r="21" spans="2:3" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B21" s="210" t="s">
+      <c r="B21" s="212" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="211"/>
+      <c r="C21" s="213"/>
     </row>
     <row r="22" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="216" t="s">
+      <c r="B22" s="210" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="217"/>
+      <c r="C22" s="211"/>
     </row>
     <row r="23" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B23" s="25"/>
       <c r="C23" s="19"/>
     </row>
     <row r="24" spans="2:3" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B24" s="210" t="s">
+      <c r="B24" s="212" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="211"/>
+      <c r="C24" s="213"/>
     </row>
     <row r="25" spans="2:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="216" t="s">
+      <c r="B25" s="210" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="217"/>
+      <c r="C25" s="211"/>
     </row>
     <row r="26" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B26" s="25"/>
       <c r="C26" s="19"/>
     </row>
     <row r="27" spans="2:3" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B27" s="210" t="s">
+      <c r="B27" s="212" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="211"/>
+      <c r="C27" s="213"/>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B28" s="216" t="s">
+      <c r="B28" s="210" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="217"/>
+      <c r="C28" s="211"/>
     </row>
     <row r="29" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B29" s="25"/>
       <c r="C29" s="19"/>
     </row>
     <row r="30" spans="2:3" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B30" s="210" t="s">
+      <c r="B30" s="212" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="211"/>
+      <c r="C30" s="213"/>
     </row>
     <row r="31" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="216" t="s">
+      <c r="B31" s="210" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="217"/>
+      <c r="C31" s="211"/>
     </row>
     <row r="34" spans="3:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="35" spans="3:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -16538,6 +16538,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B27:C27"/>
@@ -16548,16 +16558,6 @@
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="1">
@@ -17613,12 +17613,12 @@
   <sheetData>
     <row r="2" spans="1:12" s="12" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="214" t="s">
+      <c r="B2" s="216" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="232"/>
-      <c r="D2" s="232"/>
-      <c r="E2" s="215"/>
+      <c r="C2" s="226"/>
+      <c r="D2" s="226"/>
+      <c r="E2" s="217"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -17633,34 +17633,34 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B4" s="219" t="s">
+      <c r="B4" s="223" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="220"/>
-      <c r="D4" s="220"/>
-      <c r="E4" s="221"/>
+      <c r="C4" s="224"/>
+      <c r="D4" s="224"/>
+      <c r="E4" s="225"/>
     </row>
     <row r="5" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B5" s="222" t="s">
+      <c r="B5" s="236" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="223"/>
-      <c r="D5" s="223"/>
-      <c r="E5" s="224"/>
+      <c r="C5" s="237"/>
+      <c r="D5" s="237"/>
+      <c r="E5" s="238"/>
     </row>
     <row r="6" spans="1:12" ht="364" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="225" t="s">
+      <c r="B6" s="218" t="s">
         <v>1069</v>
       </c>
-      <c r="C6" s="226"/>
-      <c r="D6" s="226"/>
-      <c r="E6" s="227"/>
+      <c r="C6" s="219"/>
+      <c r="D6" s="219"/>
+      <c r="E6" s="220"/>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="218" t="s">
+      <c r="B7" s="221" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="218"/>
+      <c r="C7" s="221"/>
       <c r="E7" s="59" t="s">
         <v>78</v>
       </c>
@@ -17670,37 +17670,37 @@
       <c r="C8" s="15"/>
     </row>
     <row r="9" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B9" s="236" t="s">
+      <c r="B9" s="230" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="237"/>
-      <c r="D9" s="237"/>
-      <c r="E9" s="238"/>
+      <c r="C9" s="231"/>
+      <c r="D9" s="231"/>
+      <c r="E9" s="232"/>
     </row>
     <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B10" s="233" t="s">
+      <c r="B10" s="227" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="234"/>
-      <c r="D10" s="235"/>
+      <c r="C10" s="228"/>
+      <c r="D10" s="229"/>
       <c r="E10" s="93" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="239" t="s">
+      <c r="B11" s="233" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="240"/>
-      <c r="D11" s="240"/>
-      <c r="E11" s="241"/>
+      <c r="C11" s="234"/>
+      <c r="D11" s="234"/>
+      <c r="E11" s="235"/>
     </row>
     <row r="12" spans="1:12" ht="349" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="225" t="s">
+      <c r="B12" s="218" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="226"/>
-      <c r="D12" s="231"/>
+      <c r="C12" s="219"/>
+      <c r="D12" s="222"/>
       <c r="E12" s="146" t="s">
         <v>84</v>
       </c>
@@ -18132,34 +18132,34 @@
       </c>
     </row>
     <row r="53" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="219" t="s">
+      <c r="B53" s="223" t="s">
         <v>93</v>
       </c>
-      <c r="C53" s="220"/>
-      <c r="D53" s="220"/>
-      <c r="E53" s="221"/>
+      <c r="C53" s="224"/>
+      <c r="D53" s="224"/>
+      <c r="E53" s="225"/>
     </row>
     <row r="54" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B54" s="222" t="s">
+      <c r="B54" s="236" t="s">
         <v>94</v>
       </c>
-      <c r="C54" s="223"/>
-      <c r="D54" s="223"/>
-      <c r="E54" s="224"/>
+      <c r="C54" s="237"/>
+      <c r="D54" s="237"/>
+      <c r="E54" s="238"/>
     </row>
     <row r="55" spans="2:5" ht="240" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B55" s="225" t="s">
+      <c r="B55" s="218" t="s">
         <v>1079</v>
       </c>
-      <c r="C55" s="226"/>
-      <c r="D55" s="226"/>
-      <c r="E55" s="227"/>
+      <c r="C55" s="219"/>
+      <c r="D55" s="219"/>
+      <c r="E55" s="220"/>
     </row>
     <row r="56" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="218" t="s">
+      <c r="B56" s="221" t="s">
         <v>77</v>
       </c>
-      <c r="C56" s="218"/>
+      <c r="C56" s="221"/>
       <c r="E56" s="59" t="s">
         <v>95</v>
       </c>
@@ -18171,34 +18171,34 @@
       </c>
     </row>
     <row r="59" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="219" t="s">
+      <c r="B59" s="223" t="s">
         <v>97</v>
       </c>
-      <c r="C59" s="220"/>
-      <c r="D59" s="220"/>
-      <c r="E59" s="221"/>
+      <c r="C59" s="224"/>
+      <c r="D59" s="224"/>
+      <c r="E59" s="225"/>
     </row>
     <row r="60" spans="2:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="228" t="s">
+      <c r="B60" s="239" t="s">
         <v>98</v>
       </c>
-      <c r="C60" s="229"/>
-      <c r="D60" s="229"/>
-      <c r="E60" s="230"/>
+      <c r="C60" s="240"/>
+      <c r="D60" s="240"/>
+      <c r="E60" s="241"/>
     </row>
     <row r="61" spans="2:5" ht="240" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B61" s="225" t="s">
+      <c r="B61" s="218" t="s">
         <v>1080</v>
       </c>
-      <c r="C61" s="226"/>
-      <c r="D61" s="226"/>
-      <c r="E61" s="227"/>
+      <c r="C61" s="219"/>
+      <c r="D61" s="219"/>
+      <c r="E61" s="220"/>
     </row>
     <row r="62" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B62" s="218" t="s">
+      <c r="B62" s="221" t="s">
         <v>77</v>
       </c>
-      <c r="C62" s="218"/>
+      <c r="C62" s="221"/>
       <c r="E62" s="59" t="s">
         <v>99</v>
       </c>
@@ -18223,6 +18223,14 @@
     <row r="78" spans="2:4" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="B61:E61"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B12:D12"/>
@@ -18232,14 +18240,6 @@
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="B61:E61"/>
   </mergeCells>
   <conditionalFormatting sqref="B15:E50">
     <cfRule type="expression" dxfId="47" priority="1">
@@ -18625,14 +18625,14 @@
     </row>
     <row r="2" spans="1:60" s="12" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="214" t="s">
+      <c r="B2" s="216" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="232"/>
-      <c r="D2" s="232"/>
-      <c r="E2" s="232"/>
-      <c r="F2" s="232"/>
-      <c r="G2" s="215"/>
+      <c r="C2" s="226"/>
+      <c r="D2" s="226"/>
+      <c r="E2" s="226"/>
+      <c r="F2" s="226"/>
+      <c r="G2" s="217"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -18751,14 +18751,14 @@
     </row>
     <row r="4" spans="1:60" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="112"/>
-      <c r="B4" s="246" t="s">
+      <c r="B4" s="277" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="247"/>
-      <c r="D4" s="247"/>
-      <c r="E4" s="247"/>
-      <c r="F4" s="247"/>
-      <c r="G4" s="248"/>
+      <c r="C4" s="278"/>
+      <c r="D4" s="278"/>
+      <c r="E4" s="278"/>
+      <c r="F4" s="278"/>
+      <c r="G4" s="279"/>
       <c r="H4" s="20"/>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
@@ -18815,14 +18815,14 @@
     </row>
     <row r="5" spans="1:60" ht="138.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="112"/>
-      <c r="B5" s="249" t="s">
+      <c r="B5" s="280" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="250"/>
-      <c r="D5" s="251"/>
-      <c r="E5" s="251"/>
-      <c r="F5" s="251"/>
-      <c r="G5" s="252"/>
+      <c r="C5" s="281"/>
+      <c r="D5" s="282"/>
+      <c r="E5" s="282"/>
+      <c r="F5" s="282"/>
+      <c r="G5" s="283"/>
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
       <c r="J5" s="21"/>
@@ -18879,14 +18879,14 @@
     </row>
     <row r="6" spans="1:60" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="112"/>
-      <c r="B6" s="283" t="s">
+      <c r="B6" s="258" t="s">
         <v>107</v>
       </c>
-      <c r="C6" s="284"/>
-      <c r="D6" s="284"/>
-      <c r="E6" s="285"/>
-      <c r="F6" s="285"/>
-      <c r="G6" s="286"/>
+      <c r="C6" s="259"/>
+      <c r="D6" s="259"/>
+      <c r="E6" s="260"/>
+      <c r="F6" s="260"/>
+      <c r="G6" s="261"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
@@ -18946,13 +18946,13 @@
       <c r="B7" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="C7" s="284" t="s">
+      <c r="C7" s="259" t="s">
         <v>109</v>
       </c>
-      <c r="D7" s="284"/>
-      <c r="E7" s="285"/>
-      <c r="F7" s="285"/>
-      <c r="G7" s="286"/>
+      <c r="D7" s="259"/>
+      <c r="E7" s="260"/>
+      <c r="F7" s="260"/>
+      <c r="G7" s="261"/>
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
       <c r="J7" s="21"/>
@@ -19012,13 +19012,13 @@
       <c r="B8" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="C8" s="268" t="s">
+      <c r="C8" s="262" t="s">
         <v>111</v>
       </c>
-      <c r="D8" s="268"/>
-      <c r="E8" s="269"/>
-      <c r="F8" s="269"/>
-      <c r="G8" s="270"/>
+      <c r="D8" s="262"/>
+      <c r="E8" s="263"/>
+      <c r="F8" s="263"/>
+      <c r="G8" s="264"/>
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
       <c r="J8" s="21"/>
@@ -19078,13 +19078,13 @@
       <c r="B9" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="268" t="s">
+      <c r="C9" s="262" t="s">
         <v>113</v>
       </c>
-      <c r="D9" s="268"/>
-      <c r="E9" s="269"/>
-      <c r="F9" s="269"/>
-      <c r="G9" s="270"/>
+      <c r="D9" s="262"/>
+      <c r="E9" s="263"/>
+      <c r="F9" s="263"/>
+      <c r="G9" s="264"/>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
       <c r="J9" s="21"/>
@@ -19144,13 +19144,13 @@
       <c r="B10" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="C10" s="268" t="s">
+      <c r="C10" s="262" t="s">
         <v>115</v>
       </c>
-      <c r="D10" s="268"/>
-      <c r="E10" s="269"/>
-      <c r="F10" s="269"/>
-      <c r="G10" s="270"/>
+      <c r="D10" s="262"/>
+      <c r="E10" s="263"/>
+      <c r="F10" s="263"/>
+      <c r="G10" s="264"/>
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
       <c r="J10" s="21"/>
@@ -19210,13 +19210,13 @@
       <c r="B11" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="C11" s="268" t="s">
+      <c r="C11" s="262" t="s">
         <v>117</v>
       </c>
-      <c r="D11" s="268"/>
-      <c r="E11" s="269"/>
-      <c r="F11" s="269"/>
-      <c r="G11" s="270"/>
+      <c r="D11" s="262"/>
+      <c r="E11" s="263"/>
+      <c r="F11" s="263"/>
+      <c r="G11" s="264"/>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
       <c r="J11" s="21"/>
@@ -19276,13 +19276,13 @@
       <c r="B12" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="C12" s="271" t="s">
+      <c r="C12" s="267" t="s">
         <v>119</v>
       </c>
-      <c r="D12" s="271"/>
-      <c r="E12" s="272"/>
-      <c r="F12" s="272"/>
-      <c r="G12" s="273"/>
+      <c r="D12" s="267"/>
+      <c r="E12" s="268"/>
+      <c r="F12" s="268"/>
+      <c r="G12" s="269"/>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
@@ -19486,60 +19486,60 @@
     </row>
     <row r="16" spans="1:60" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="112"/>
-      <c r="B16" s="253" t="s">
+      <c r="B16" s="251" t="s">
         <v>122</v>
       </c>
-      <c r="C16" s="274" t="s">
+      <c r="C16" s="253" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="255" t="s">
+      <c r="D16" s="284" t="s">
         <v>124</v>
       </c>
-      <c r="E16" s="279" t="s">
+      <c r="E16" s="273" t="s">
         <v>125</v>
       </c>
-      <c r="F16" s="280"/>
-      <c r="G16" s="277" t="s">
+      <c r="F16" s="274"/>
+      <c r="G16" s="271" t="s">
         <v>126</v>
       </c>
-      <c r="H16" s="277"/>
-      <c r="I16" s="277"/>
-      <c r="J16" s="277"/>
-      <c r="K16" s="278"/>
-      <c r="L16" s="265" t="s">
+      <c r="H16" s="271"/>
+      <c r="I16" s="271"/>
+      <c r="J16" s="271"/>
+      <c r="K16" s="272"/>
+      <c r="L16" s="255" t="s">
         <v>127</v>
       </c>
-      <c r="M16" s="266"/>
-      <c r="N16" s="266"/>
-      <c r="O16" s="266"/>
-      <c r="P16" s="267"/>
+      <c r="M16" s="256"/>
+      <c r="N16" s="256"/>
+      <c r="O16" s="256"/>
+      <c r="P16" s="257"/>
       <c r="Q16" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="R16" s="258" t="s">
+      <c r="R16" s="244" t="s">
         <v>129</v>
       </c>
       <c r="S16" s="112"/>
       <c r="T16" s="52"/>
       <c r="U16" s="52"/>
       <c r="V16" s="52"/>
-      <c r="W16" s="244"/>
-      <c r="X16" s="244"/>
-      <c r="Y16" s="244"/>
-      <c r="Z16" s="244"/>
-      <c r="AA16" s="244"/>
-      <c r="AB16" s="244"/>
-      <c r="AC16" s="244"/>
-      <c r="AD16" s="244"/>
-      <c r="AE16" s="244"/>
-      <c r="AF16" s="244"/>
-      <c r="AG16" s="244"/>
-      <c r="AH16" s="244"/>
-      <c r="AI16" s="244"/>
-      <c r="AJ16" s="244"/>
-      <c r="AK16" s="244"/>
+      <c r="W16" s="265"/>
+      <c r="X16" s="265"/>
+      <c r="Y16" s="265"/>
+      <c r="Z16" s="265"/>
+      <c r="AA16" s="265"/>
+      <c r="AB16" s="265"/>
+      <c r="AC16" s="265"/>
+      <c r="AD16" s="265"/>
+      <c r="AE16" s="265"/>
+      <c r="AF16" s="265"/>
+      <c r="AG16" s="265"/>
+      <c r="AH16" s="265"/>
+      <c r="AI16" s="265"/>
+      <c r="AJ16" s="265"/>
+      <c r="AK16" s="265"/>
       <c r="AL16" s="52"/>
-      <c r="AM16" s="244"/>
+      <c r="AM16" s="265"/>
       <c r="AN16" s="112"/>
       <c r="AO16" s="112"/>
       <c r="AP16" s="112"/>
@@ -19564,13 +19564,13 @@
     </row>
     <row r="17" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="112"/>
-      <c r="B17" s="254"/>
-      <c r="C17" s="275"/>
-      <c r="D17" s="256"/>
+      <c r="B17" s="252"/>
+      <c r="C17" s="254"/>
+      <c r="D17" s="285"/>
       <c r="E17" s="185" t="s">
         <v>130</v>
       </c>
-      <c r="F17" s="281" t="s">
+      <c r="F17" s="275" t="s">
         <v>131</v>
       </c>
       <c r="G17" s="85" t="s">
@@ -19585,7 +19585,7 @@
       <c r="J17" s="85" t="s">
         <v>130</v>
       </c>
-      <c r="K17" s="260" t="s">
+      <c r="K17" s="246" t="s">
         <v>131</v>
       </c>
       <c r="L17" s="84" t="s">
@@ -19600,13 +19600,13 @@
       <c r="O17" s="85" t="s">
         <v>130</v>
       </c>
-      <c r="P17" s="262" t="s">
+      <c r="P17" s="248" t="s">
         <v>131</v>
       </c>
-      <c r="Q17" s="263" t="s">
+      <c r="Q17" s="249" t="s">
         <v>131</v>
       </c>
-      <c r="R17" s="259"/>
+      <c r="R17" s="245"/>
       <c r="S17" s="112"/>
       <c r="T17" s="54"/>
       <c r="U17" s="54"/>
@@ -19615,19 +19615,19 @@
       <c r="X17" s="52"/>
       <c r="Y17" s="52"/>
       <c r="Z17" s="52"/>
-      <c r="AA17" s="245"/>
+      <c r="AA17" s="266"/>
       <c r="AB17" s="52"/>
       <c r="AC17" s="52"/>
       <c r="AD17" s="52"/>
       <c r="AE17" s="52"/>
-      <c r="AF17" s="245"/>
+      <c r="AF17" s="266"/>
       <c r="AG17" s="52"/>
       <c r="AH17" s="52"/>
       <c r="AI17" s="52"/>
       <c r="AJ17" s="52"/>
-      <c r="AK17" s="245"/>
-      <c r="AL17" s="245"/>
-      <c r="AM17" s="244"/>
+      <c r="AK17" s="266"/>
+      <c r="AL17" s="266"/>
+      <c r="AM17" s="265"/>
       <c r="AN17" s="112"/>
       <c r="AO17" s="112"/>
       <c r="AP17" s="112"/>
@@ -19652,13 +19652,13 @@
     </row>
     <row r="18" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="112"/>
-      <c r="B18" s="254"/>
-      <c r="C18" s="276"/>
-      <c r="D18" s="257"/>
+      <c r="B18" s="252"/>
+      <c r="C18" s="270"/>
+      <c r="D18" s="286"/>
       <c r="E18" s="183" t="s">
         <v>135</v>
       </c>
-      <c r="F18" s="282"/>
+      <c r="F18" s="276"/>
       <c r="G18" s="179" t="s">
         <v>136</v>
       </c>
@@ -19671,7 +19671,7 @@
       <c r="J18" s="68" t="s">
         <v>136</v>
       </c>
-      <c r="K18" s="261"/>
+      <c r="K18" s="247"/>
       <c r="L18" s="68" t="s">
         <v>136</v>
       </c>
@@ -19684,9 +19684,9 @@
       <c r="O18" s="68" t="s">
         <v>136</v>
       </c>
-      <c r="P18" s="261"/>
-      <c r="Q18" s="264"/>
-      <c r="R18" s="259"/>
+      <c r="P18" s="247"/>
+      <c r="Q18" s="250"/>
+      <c r="R18" s="245"/>
       <c r="S18" s="112"/>
       <c r="T18" s="53"/>
       <c r="U18" s="53"/>
@@ -19695,19 +19695,19 @@
       <c r="X18" s="55"/>
       <c r="Y18" s="55"/>
       <c r="Z18" s="55"/>
-      <c r="AA18" s="245"/>
+      <c r="AA18" s="266"/>
       <c r="AB18" s="55"/>
       <c r="AC18" s="55"/>
       <c r="AD18" s="55"/>
       <c r="AE18" s="55"/>
-      <c r="AF18" s="245"/>
+      <c r="AF18" s="266"/>
       <c r="AG18" s="55"/>
       <c r="AH18" s="55"/>
       <c r="AI18" s="55"/>
       <c r="AJ18" s="55"/>
-      <c r="AK18" s="245"/>
-      <c r="AL18" s="245"/>
-      <c r="AM18" s="244"/>
+      <c r="AK18" s="266"/>
+      <c r="AL18" s="266"/>
+      <c r="AM18" s="265"/>
       <c r="AN18" s="112"/>
       <c r="AO18" s="112"/>
       <c r="AP18" s="112"/>
@@ -21498,37 +21498,37 @@
     </row>
     <row r="42" spans="1:60" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="112"/>
-      <c r="B42" s="253" t="s">
+      <c r="B42" s="251" t="s">
         <v>122</v>
       </c>
-      <c r="C42" s="253" t="s">
+      <c r="C42" s="251" t="s">
         <v>123</v>
       </c>
-      <c r="D42" s="274" t="s">
+      <c r="D42" s="253" t="s">
         <v>124</v>
       </c>
-      <c r="E42" s="265" t="s">
+      <c r="E42" s="255" t="s">
         <v>125</v>
       </c>
-      <c r="F42" s="266"/>
-      <c r="G42" s="265" t="s">
+      <c r="F42" s="256"/>
+      <c r="G42" s="255" t="s">
         <v>126</v>
       </c>
-      <c r="H42" s="266"/>
-      <c r="I42" s="266"/>
-      <c r="J42" s="266"/>
-      <c r="K42" s="267"/>
-      <c r="L42" s="265" t="s">
+      <c r="H42" s="256"/>
+      <c r="I42" s="256"/>
+      <c r="J42" s="256"/>
+      <c r="K42" s="257"/>
+      <c r="L42" s="255" t="s">
         <v>127</v>
       </c>
-      <c r="M42" s="266"/>
-      <c r="N42" s="266"/>
-      <c r="O42" s="266"/>
-      <c r="P42" s="267"/>
+      <c r="M42" s="256"/>
+      <c r="N42" s="256"/>
+      <c r="O42" s="256"/>
+      <c r="P42" s="257"/>
       <c r="Q42" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="R42" s="258" t="s">
+      <c r="R42" s="244" t="s">
         <v>129</v>
       </c>
       <c r="S42" s="112"/>
@@ -21540,18 +21540,18 @@
       <c r="Y42" s="112"/>
       <c r="Z42" s="112"/>
       <c r="AA42" s="112"/>
-      <c r="AB42" s="244"/>
-      <c r="AC42" s="244"/>
-      <c r="AD42" s="244"/>
-      <c r="AE42" s="244"/>
-      <c r="AF42" s="244"/>
-      <c r="AG42" s="244"/>
-      <c r="AH42" s="244"/>
-      <c r="AI42" s="244"/>
-      <c r="AJ42" s="244"/>
-      <c r="AK42" s="244"/>
+      <c r="AB42" s="265"/>
+      <c r="AC42" s="265"/>
+      <c r="AD42" s="265"/>
+      <c r="AE42" s="265"/>
+      <c r="AF42" s="265"/>
+      <c r="AG42" s="265"/>
+      <c r="AH42" s="265"/>
+      <c r="AI42" s="265"/>
+      <c r="AJ42" s="265"/>
+      <c r="AK42" s="265"/>
       <c r="AL42" s="52"/>
-      <c r="AM42" s="244"/>
+      <c r="AM42" s="265"/>
       <c r="AN42" s="112"/>
       <c r="AO42" s="112"/>
       <c r="AP42" s="112"/>
@@ -21576,13 +21576,13 @@
     </row>
     <row r="43" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="112"/>
-      <c r="B43" s="254"/>
-      <c r="C43" s="254"/>
-      <c r="D43" s="275"/>
+      <c r="B43" s="252"/>
+      <c r="C43" s="252"/>
+      <c r="D43" s="254"/>
       <c r="E43" s="84" t="s">
         <v>130</v>
       </c>
-      <c r="F43" s="260" t="s">
+      <c r="F43" s="246" t="s">
         <v>131</v>
       </c>
       <c r="G43" s="84" t="s">
@@ -21597,7 +21597,7 @@
       <c r="J43" s="85" t="s">
         <v>130</v>
       </c>
-      <c r="K43" s="260" t="s">
+      <c r="K43" s="246" t="s">
         <v>131</v>
       </c>
       <c r="L43" s="84" t="s">
@@ -21612,13 +21612,13 @@
       <c r="O43" s="85" t="s">
         <v>130</v>
       </c>
-      <c r="P43" s="262" t="s">
+      <c r="P43" s="248" t="s">
         <v>131</v>
       </c>
-      <c r="Q43" s="263" t="s">
+      <c r="Q43" s="249" t="s">
         <v>131</v>
       </c>
-      <c r="R43" s="259"/>
+      <c r="R43" s="245"/>
       <c r="S43" s="112"/>
       <c r="T43" s="54"/>
       <c r="U43" s="54"/>
@@ -21627,19 +21627,19 @@
       <c r="X43" s="52"/>
       <c r="Y43" s="52"/>
       <c r="Z43" s="52"/>
-      <c r="AA43" s="245"/>
+      <c r="AA43" s="266"/>
       <c r="AB43" s="52"/>
       <c r="AC43" s="52"/>
       <c r="AD43" s="52"/>
       <c r="AE43" s="52"/>
-      <c r="AF43" s="245"/>
+      <c r="AF43" s="266"/>
       <c r="AG43" s="52"/>
       <c r="AH43" s="52"/>
       <c r="AI43" s="52"/>
       <c r="AJ43" s="52"/>
-      <c r="AK43" s="245"/>
-      <c r="AL43" s="245"/>
-      <c r="AM43" s="244"/>
+      <c r="AK43" s="266"/>
+      <c r="AL43" s="266"/>
+      <c r="AM43" s="265"/>
       <c r="AN43" s="112"/>
       <c r="AO43" s="112"/>
       <c r="AP43" s="112"/>
@@ -21664,13 +21664,13 @@
     </row>
     <row r="44" spans="1:60" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="112"/>
-      <c r="B44" s="254"/>
-      <c r="C44" s="254"/>
-      <c r="D44" s="254"/>
+      <c r="B44" s="252"/>
+      <c r="C44" s="252"/>
+      <c r="D44" s="252"/>
       <c r="E44" s="67" t="s">
         <v>135</v>
       </c>
-      <c r="F44" s="261"/>
+      <c r="F44" s="247"/>
       <c r="G44" s="67" t="s">
         <v>136</v>
       </c>
@@ -21683,7 +21683,7 @@
       <c r="J44" s="68" t="s">
         <v>136</v>
       </c>
-      <c r="K44" s="261"/>
+      <c r="K44" s="247"/>
       <c r="L44" s="68" t="s">
         <v>136</v>
       </c>
@@ -21696,9 +21696,9 @@
       <c r="O44" s="68" t="s">
         <v>136</v>
       </c>
-      <c r="P44" s="261"/>
-      <c r="Q44" s="264"/>
-      <c r="R44" s="259"/>
+      <c r="P44" s="247"/>
+      <c r="Q44" s="250"/>
+      <c r="R44" s="245"/>
       <c r="S44" s="112"/>
       <c r="T44" s="53"/>
       <c r="U44" s="53"/>
@@ -21707,19 +21707,19 @@
       <c r="X44" s="55"/>
       <c r="Y44" s="55"/>
       <c r="Z44" s="55"/>
-      <c r="AA44" s="245"/>
+      <c r="AA44" s="266"/>
       <c r="AB44" s="55"/>
       <c r="AC44" s="55"/>
       <c r="AD44" s="55"/>
       <c r="AE44" s="55"/>
-      <c r="AF44" s="245"/>
+      <c r="AF44" s="266"/>
       <c r="AG44" s="55"/>
       <c r="AH44" s="55"/>
       <c r="AI44" s="55"/>
       <c r="AJ44" s="55"/>
-      <c r="AK44" s="245"/>
-      <c r="AL44" s="245"/>
-      <c r="AM44" s="244"/>
+      <c r="AK44" s="266"/>
+      <c r="AL44" s="266"/>
+      <c r="AM44" s="265"/>
       <c r="AN44" s="112"/>
       <c r="AO44" s="112"/>
       <c r="AP44" s="112"/>
@@ -29354,37 +29354,6 @@
     <protectedRange sqref="L45:O45" name="Section_B_1_5"/>
   </protectedRanges>
   <mergeCells count="47">
-    <mergeCell ref="R42:R44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="P43:P44"/>
-    <mergeCell ref="Q43:Q44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="G42:K42"/>
-    <mergeCell ref="L42:P42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="AM16:AM18"/>
-    <mergeCell ref="AA17:AA18"/>
-    <mergeCell ref="AF17:AF18"/>
-    <mergeCell ref="AK17:AK18"/>
-    <mergeCell ref="AL17:AL18"/>
-    <mergeCell ref="W16:AA16"/>
-    <mergeCell ref="AB16:AF16"/>
-    <mergeCell ref="AG16:AK16"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="F17:F18"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="AB42:AF42"/>
     <mergeCell ref="AG42:AK42"/>
@@ -29401,6 +29370,37 @@
     <mergeCell ref="K17:K18"/>
     <mergeCell ref="P17:P18"/>
     <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="AM16:AM18"/>
+    <mergeCell ref="AA17:AA18"/>
+    <mergeCell ref="AF17:AF18"/>
+    <mergeCell ref="AK17:AK18"/>
+    <mergeCell ref="AL17:AL18"/>
+    <mergeCell ref="W16:AA16"/>
+    <mergeCell ref="AB16:AF16"/>
+    <mergeCell ref="AG16:AK16"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="R42:R44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="P43:P44"/>
+    <mergeCell ref="Q43:Q44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="G42:K42"/>
+    <mergeCell ref="L42:P42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="F43:F44"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="E18 G18:J18">
@@ -29545,7 +29545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B8BFA2E-EE1B-48C6-B541-4EAF9B124EE7}">
   <dimension ref="A1:AO155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="D14" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C12" sqref="C12:G12"/>
     </sheetView>
   </sheetViews>
@@ -29615,14 +29615,14 @@
     </row>
     <row r="2" spans="1:41" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="214" t="s">
+      <c r="B2" s="216" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="232"/>
-      <c r="D2" s="232"/>
-      <c r="E2" s="232"/>
-      <c r="F2" s="232"/>
-      <c r="G2" s="215"/>
+      <c r="C2" s="226"/>
+      <c r="D2" s="226"/>
+      <c r="E2" s="226"/>
+      <c r="F2" s="226"/>
+      <c r="G2" s="217"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -29703,14 +29703,14 @@
     </row>
     <row r="4" spans="1:41" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="112"/>
-      <c r="B4" s="297" t="s">
+      <c r="B4" s="290" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="298"/>
-      <c r="D4" s="298"/>
-      <c r="E4" s="298"/>
-      <c r="F4" s="298"/>
-      <c r="G4" s="299"/>
+      <c r="C4" s="291"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="291"/>
+      <c r="F4" s="291"/>
+      <c r="G4" s="292"/>
       <c r="H4" s="112"/>
       <c r="I4"/>
       <c r="J4"/>
@@ -29748,14 +29748,14 @@
     </row>
     <row r="5" spans="1:41" ht="138.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="112"/>
-      <c r="B5" s="300" t="s">
+      <c r="B5" s="293" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="301"/>
-      <c r="D5" s="301"/>
-      <c r="E5" s="301"/>
-      <c r="F5" s="301"/>
-      <c r="G5" s="302"/>
+      <c r="C5" s="294"/>
+      <c r="D5" s="294"/>
+      <c r="E5" s="294"/>
+      <c r="F5" s="294"/>
+      <c r="G5" s="295"/>
       <c r="H5" s="112"/>
       <c r="I5"/>
       <c r="J5"/>
@@ -29793,14 +29793,14 @@
     </row>
     <row r="6" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="112"/>
-      <c r="B6" s="303" t="s">
+      <c r="B6" s="296" t="s">
         <v>107</v>
       </c>
-      <c r="C6" s="304"/>
-      <c r="D6" s="304"/>
-      <c r="E6" s="304"/>
-      <c r="F6" s="304"/>
-      <c r="G6" s="305"/>
+      <c r="C6" s="297"/>
+      <c r="D6" s="297"/>
+      <c r="E6" s="297"/>
+      <c r="F6" s="297"/>
+      <c r="G6" s="298"/>
       <c r="H6" s="112"/>
       <c r="I6"/>
       <c r="J6"/>
@@ -29841,13 +29841,13 @@
       <c r="B7" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="C7" s="285" t="s">
+      <c r="C7" s="260" t="s">
         <v>109</v>
       </c>
-      <c r="D7" s="304"/>
-      <c r="E7" s="304"/>
-      <c r="F7" s="304"/>
-      <c r="G7" s="305"/>
+      <c r="D7" s="297"/>
+      <c r="E7" s="297"/>
+      <c r="F7" s="297"/>
+      <c r="G7" s="298"/>
       <c r="H7" s="112"/>
       <c r="I7"/>
       <c r="J7"/>
@@ -29888,13 +29888,13 @@
       <c r="B8" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="C8" s="269" t="s">
+      <c r="C8" s="263" t="s">
         <v>111</v>
       </c>
-      <c r="D8" s="292"/>
-      <c r="E8" s="292"/>
-      <c r="F8" s="292"/>
-      <c r="G8" s="293"/>
+      <c r="D8" s="299"/>
+      <c r="E8" s="299"/>
+      <c r="F8" s="299"/>
+      <c r="G8" s="300"/>
       <c r="H8" s="112"/>
       <c r="I8"/>
       <c r="J8"/>
@@ -29935,13 +29935,13 @@
       <c r="B9" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="269" t="s">
+      <c r="C9" s="263" t="s">
         <v>113</v>
       </c>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292"/>
-      <c r="G9" s="293"/>
+      <c r="D9" s="299"/>
+      <c r="E9" s="299"/>
+      <c r="F9" s="299"/>
+      <c r="G9" s="300"/>
       <c r="H9" s="112"/>
       <c r="I9"/>
       <c r="J9"/>
@@ -29982,13 +29982,13 @@
       <c r="B10" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="C10" s="269" t="s">
+      <c r="C10" s="263" t="s">
         <v>115</v>
       </c>
-      <c r="D10" s="292"/>
-      <c r="E10" s="292"/>
-      <c r="F10" s="292"/>
-      <c r="G10" s="293"/>
+      <c r="D10" s="299"/>
+      <c r="E10" s="299"/>
+      <c r="F10" s="299"/>
+      <c r="G10" s="300"/>
       <c r="H10" s="112"/>
       <c r="I10"/>
       <c r="J10"/>
@@ -30029,13 +30029,13 @@
       <c r="B11" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="C11" s="269" t="s">
+      <c r="C11" s="263" t="s">
         <v>117</v>
       </c>
-      <c r="D11" s="292"/>
-      <c r="E11" s="292"/>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
+      <c r="D11" s="299"/>
+      <c r="E11" s="299"/>
+      <c r="F11" s="299"/>
+      <c r="G11" s="300"/>
       <c r="H11" s="112"/>
       <c r="I11"/>
       <c r="J11"/>
@@ -30076,13 +30076,13 @@
       <c r="B12" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="C12" s="272" t="s">
+      <c r="C12" s="268" t="s">
         <v>119</v>
       </c>
-      <c r="D12" s="294"/>
-      <c r="E12" s="294"/>
-      <c r="F12" s="294"/>
-      <c r="G12" s="295"/>
+      <c r="D12" s="301"/>
+      <c r="E12" s="301"/>
+      <c r="F12" s="301"/>
+      <c r="G12" s="302"/>
       <c r="H12" s="112"/>
       <c r="I12"/>
       <c r="J12"/>
@@ -30229,37 +30229,37 @@
     </row>
     <row r="16" spans="1:41" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="112"/>
-      <c r="B16" s="253" t="s">
+      <c r="B16" s="251" t="s">
         <v>122</v>
       </c>
-      <c r="C16" s="253" t="s">
+      <c r="C16" s="251" t="s">
         <v>144</v>
       </c>
-      <c r="D16" s="274" t="s">
+      <c r="D16" s="253" t="s">
         <v>124</v>
       </c>
-      <c r="E16" s="265" t="s">
+      <c r="E16" s="255" t="s">
         <v>125</v>
       </c>
-      <c r="F16" s="266"/>
-      <c r="G16" s="265" t="s">
+      <c r="F16" s="256"/>
+      <c r="G16" s="255" t="s">
         <v>126</v>
       </c>
-      <c r="H16" s="266"/>
-      <c r="I16" s="266"/>
-      <c r="J16" s="266"/>
-      <c r="K16" s="267"/>
-      <c r="L16" s="265" t="s">
+      <c r="H16" s="256"/>
+      <c r="I16" s="256"/>
+      <c r="J16" s="256"/>
+      <c r="K16" s="257"/>
+      <c r="L16" s="255" t="s">
         <v>127</v>
       </c>
-      <c r="M16" s="266"/>
-      <c r="N16" s="266"/>
-      <c r="O16" s="266"/>
-      <c r="P16" s="267"/>
+      <c r="M16" s="256"/>
+      <c r="N16" s="256"/>
+      <c r="O16" s="256"/>
+      <c r="P16" s="257"/>
       <c r="Q16" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="R16" s="258" t="s">
+      <c r="R16" s="244" t="s">
         <v>129</v>
       </c>
       <c r="S16" s="112"/>
@@ -30288,9 +30288,9 @@
     </row>
     <row r="17" spans="1:41" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="112"/>
-      <c r="B17" s="254"/>
-      <c r="C17" s="254"/>
-      <c r="D17" s="275"/>
+      <c r="B17" s="252"/>
+      <c r="C17" s="252"/>
+      <c r="D17" s="254"/>
       <c r="E17" s="84" t="s">
         <v>130</v>
       </c>
@@ -30327,10 +30327,10 @@
       <c r="P17" s="287" t="s">
         <v>131</v>
       </c>
-      <c r="Q17" s="263" t="s">
+      <c r="Q17" s="249" t="s">
         <v>131</v>
       </c>
-      <c r="R17" s="259"/>
+      <c r="R17" s="245"/>
       <c r="S17" s="112"/>
       <c r="T17" s="112"/>
       <c r="U17" s="112"/>
@@ -30357,9 +30357,9 @@
     </row>
     <row r="18" spans="1:41" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="112"/>
-      <c r="B18" s="296"/>
-      <c r="C18" s="296"/>
-      <c r="D18" s="254"/>
+      <c r="B18" s="289"/>
+      <c r="C18" s="289"/>
+      <c r="D18" s="252"/>
       <c r="E18" s="22" t="s">
         <v>135</v>
       </c>
@@ -30390,8 +30390,8 @@
         <v>136</v>
       </c>
       <c r="P18" s="288"/>
-      <c r="Q18" s="289"/>
-      <c r="R18" s="291"/>
+      <c r="Q18" s="303"/>
+      <c r="R18" s="305"/>
       <c r="S18" s="112"/>
       <c r="T18" s="112"/>
       <c r="U18" s="112"/>
@@ -31471,9 +31471,9 @@
       <c r="W36"/>
       <c r="X36"/>
       <c r="Y36" s="112"/>
-      <c r="Z36" s="290"/>
-      <c r="AA36" s="290"/>
-      <c r="AB36" s="290"/>
+      <c r="Z36" s="304"/>
+      <c r="AA36" s="304"/>
+      <c r="AB36" s="304"/>
       <c r="AC36" s="112"/>
       <c r="AD36" s="112"/>
       <c r="AE36" s="112"/>
@@ -31726,37 +31726,37 @@
     </row>
     <row r="42" spans="1:41" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="112"/>
-      <c r="B42" s="253" t="s">
+      <c r="B42" s="251" t="s">
         <v>122</v>
       </c>
-      <c r="C42" s="253" t="s">
+      <c r="C42" s="251" t="s">
         <v>144</v>
       </c>
-      <c r="D42" s="274" t="s">
+      <c r="D42" s="253" t="s">
         <v>124</v>
       </c>
-      <c r="E42" s="265" t="s">
+      <c r="E42" s="255" t="s">
         <v>125</v>
       </c>
-      <c r="F42" s="266"/>
-      <c r="G42" s="265" t="s">
+      <c r="F42" s="256"/>
+      <c r="G42" s="255" t="s">
         <v>126</v>
       </c>
-      <c r="H42" s="266"/>
-      <c r="I42" s="266"/>
-      <c r="J42" s="266"/>
-      <c r="K42" s="267"/>
-      <c r="L42" s="265" t="s">
+      <c r="H42" s="256"/>
+      <c r="I42" s="256"/>
+      <c r="J42" s="256"/>
+      <c r="K42" s="257"/>
+      <c r="L42" s="255" t="s">
         <v>127</v>
       </c>
-      <c r="M42" s="266"/>
-      <c r="N42" s="266"/>
-      <c r="O42" s="266"/>
-      <c r="P42" s="267"/>
+      <c r="M42" s="256"/>
+      <c r="N42" s="256"/>
+      <c r="O42" s="256"/>
+      <c r="P42" s="257"/>
       <c r="Q42" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="R42" s="258" t="s">
+      <c r="R42" s="244" t="s">
         <v>129</v>
       </c>
       <c r="S42" s="112"/>
@@ -31785,9 +31785,9 @@
     </row>
     <row r="43" spans="1:41" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="112"/>
-      <c r="B43" s="254"/>
-      <c r="C43" s="254"/>
-      <c r="D43" s="275"/>
+      <c r="B43" s="252"/>
+      <c r="C43" s="252"/>
+      <c r="D43" s="254"/>
       <c r="E43" s="84" t="s">
         <v>130</v>
       </c>
@@ -31824,10 +31824,10 @@
       <c r="P43" s="287" t="s">
         <v>131</v>
       </c>
-      <c r="Q43" s="263" t="s">
+      <c r="Q43" s="249" t="s">
         <v>131</v>
       </c>
-      <c r="R43" s="259"/>
+      <c r="R43" s="245"/>
       <c r="S43" s="112"/>
       <c r="T43" s="112"/>
       <c r="U43" s="112"/>
@@ -31854,9 +31854,9 @@
     </row>
     <row r="44" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="112"/>
-      <c r="B44" s="254"/>
-      <c r="C44" s="254"/>
-      <c r="D44" s="254"/>
+      <c r="B44" s="252"/>
+      <c r="C44" s="252"/>
+      <c r="D44" s="252"/>
       <c r="E44" s="22" t="s">
         <v>135</v>
       </c>
@@ -31873,7 +31873,7 @@
       <c r="J44" s="141" t="s">
         <v>136</v>
       </c>
-      <c r="K44" s="261"/>
+      <c r="K44" s="247"/>
       <c r="L44" s="141" t="s">
         <v>136</v>
       </c>
@@ -31886,9 +31886,9 @@
       <c r="O44" s="141" t="s">
         <v>136</v>
       </c>
-      <c r="P44" s="261"/>
-      <c r="Q44" s="264"/>
-      <c r="R44" s="259"/>
+      <c r="P44" s="247"/>
+      <c r="Q44" s="250"/>
+      <c r="R44" s="245"/>
       <c r="S44" s="112"/>
       <c r="T44" s="112"/>
       <c r="U44" s="112"/>
@@ -37456,11 +37456,25 @@
     <protectedRange sqref="Q19" name="Section_B_1_3"/>
   </protectedRanges>
   <mergeCells count="33">
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="G42:K42"/>
+    <mergeCell ref="L42:P42"/>
+    <mergeCell ref="R42:R44"/>
+    <mergeCell ref="P43:P44"/>
+    <mergeCell ref="Q43:Q44"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="Z36:AB36"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="R16:R18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="F17:F18"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="C16:C18"/>
     <mergeCell ref="D16:D18"/>
@@ -37470,25 +37484,11 @@
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G8"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="Z36:AB36"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="R16:R18"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="G42:K42"/>
-    <mergeCell ref="L42:P42"/>
-    <mergeCell ref="R42:R44"/>
-    <mergeCell ref="P43:P44"/>
-    <mergeCell ref="Q43:Q44"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
   </mergeCells>
   <conditionalFormatting sqref="G18:J18">
     <cfRule type="cellIs" dxfId="18" priority="15" operator="equal">
@@ -37580,8 +37580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACD05DD0-7124-4A36-99BE-80113683F5E3}">
   <dimension ref="A2:AF90"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="U91" sqref="U91"/>
+    <sheetView tabSelected="1" topLeftCell="G62" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q64" sqref="Q64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -37606,15 +37606,15 @@
   <sheetData>
     <row r="2" spans="1:32" s="97" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
       <c r="A2" s="112"/>
-      <c r="B2" s="306" t="s">
+      <c r="B2" s="359" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="307"/>
-      <c r="D2" s="307"/>
-      <c r="E2" s="307"/>
-      <c r="F2" s="307"/>
-      <c r="G2" s="307"/>
-      <c r="H2" s="308"/>
+      <c r="C2" s="360"/>
+      <c r="D2" s="360"/>
+      <c r="E2" s="360"/>
+      <c r="F2" s="360"/>
+      <c r="G2" s="360"/>
+      <c r="H2" s="361"/>
       <c r="I2" s="18"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -37642,15 +37642,15 @@
     </row>
     <row r="4" spans="1:32" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="112"/>
-      <c r="B4" s="219" t="s">
+      <c r="B4" s="223" t="s">
         <v>149</v>
       </c>
-      <c r="C4" s="220"/>
-      <c r="D4" s="220"/>
-      <c r="E4" s="220"/>
-      <c r="F4" s="220"/>
-      <c r="G4" s="220"/>
-      <c r="H4" s="221"/>
+      <c r="C4" s="224"/>
+      <c r="D4" s="224"/>
+      <c r="E4" s="224"/>
+      <c r="F4" s="224"/>
+      <c r="G4" s="224"/>
+      <c r="H4" s="225"/>
       <c r="I4" s="112"/>
       <c r="J4" s="112"/>
       <c r="K4" s="112"/>
@@ -37678,15 +37678,15 @@
     </row>
     <row r="5" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="112"/>
-      <c r="B5" s="329" t="s">
+      <c r="B5" s="375" t="s">
         <v>150</v>
       </c>
-      <c r="C5" s="330"/>
-      <c r="D5" s="330"/>
-      <c r="E5" s="330"/>
-      <c r="F5" s="330"/>
-      <c r="G5" s="330"/>
-      <c r="H5" s="331"/>
+      <c r="C5" s="376"/>
+      <c r="D5" s="376"/>
+      <c r="E5" s="376"/>
+      <c r="F5" s="376"/>
+      <c r="G5" s="376"/>
+      <c r="H5" s="377"/>
       <c r="I5" s="112"/>
       <c r="J5" s="112"/>
       <c r="K5" s="112"/>
@@ -37749,18 +37749,18 @@
       <c r="AF6" s="112"/>
     </row>
     <row r="7" spans="1:32" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="322" t="s">
+      <c r="A7" s="368" t="s">
         <v>152</v>
       </c>
-      <c r="B7" s="332" t="s">
+      <c r="B7" s="378" t="s">
         <v>153</v>
       </c>
-      <c r="C7" s="333"/>
-      <c r="D7" s="333"/>
-      <c r="E7" s="333"/>
-      <c r="F7" s="333"/>
-      <c r="G7" s="333"/>
-      <c r="H7" s="334"/>
+      <c r="C7" s="379"/>
+      <c r="D7" s="379"/>
+      <c r="E7" s="379"/>
+      <c r="F7" s="379"/>
+      <c r="G7" s="379"/>
+      <c r="H7" s="380"/>
       <c r="I7" s="112"/>
       <c r="J7" s="112"/>
       <c r="K7" s="112"/>
@@ -37787,16 +37787,16 @@
       <c r="AF7" s="112"/>
     </row>
     <row r="8" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="322"/>
-      <c r="B8" s="323" t="s">
+      <c r="A8" s="368"/>
+      <c r="B8" s="369" t="s">
         <v>154</v>
       </c>
-      <c r="C8" s="324"/>
-      <c r="D8" s="324"/>
-      <c r="E8" s="324"/>
-      <c r="F8" s="324"/>
-      <c r="G8" s="324"/>
-      <c r="H8" s="325"/>
+      <c r="C8" s="370"/>
+      <c r="D8" s="370"/>
+      <c r="E8" s="370"/>
+      <c r="F8" s="370"/>
+      <c r="G8" s="370"/>
+      <c r="H8" s="371"/>
       <c r="I8" s="112"/>
       <c r="J8" s="112"/>
       <c r="K8" s="112"/>
@@ -37823,16 +37823,16 @@
       <c r="AF8" s="112"/>
     </row>
     <row r="9" spans="1:32" ht="70.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="322"/>
-      <c r="B9" s="335" t="s">
+      <c r="A9" s="368"/>
+      <c r="B9" s="381" t="s">
         <v>155</v>
       </c>
-      <c r="C9" s="336"/>
-      <c r="D9" s="336"/>
-      <c r="E9" s="336"/>
-      <c r="F9" s="336"/>
-      <c r="G9" s="336"/>
-      <c r="H9" s="337"/>
+      <c r="C9" s="382"/>
+      <c r="D9" s="382"/>
+      <c r="E9" s="382"/>
+      <c r="F9" s="382"/>
+      <c r="G9" s="382"/>
+      <c r="H9" s="383"/>
       <c r="I9" s="112"/>
       <c r="J9" s="112"/>
       <c r="K9" s="112"/>
@@ -37859,7 +37859,7 @@
       <c r="AF9" s="112"/>
     </row>
     <row r="10" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="322"/>
+      <c r="A10" s="368"/>
       <c r="B10" s="112"/>
       <c r="C10" s="112"/>
       <c r="D10" s="112"/>
@@ -37893,7 +37893,7 @@
       <c r="AF10" s="112"/>
     </row>
     <row r="11" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="322"/>
+      <c r="A11" s="368"/>
       <c r="B11" s="169" t="s">
         <v>259</v>
       </c>
@@ -38001,18 +38001,18 @@
       <c r="AF13" s="112"/>
     </row>
     <row r="14" spans="1:32" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="338" t="s">
+      <c r="A14" s="384" t="s">
         <v>158</v>
       </c>
-      <c r="B14" s="319" t="s">
+      <c r="B14" s="365" t="s">
         <v>159</v>
       </c>
-      <c r="C14" s="320"/>
-      <c r="D14" s="320"/>
-      <c r="E14" s="320"/>
-      <c r="F14" s="320"/>
-      <c r="G14" s="320"/>
-      <c r="H14" s="321"/>
+      <c r="C14" s="366"/>
+      <c r="D14" s="366"/>
+      <c r="E14" s="366"/>
+      <c r="F14" s="366"/>
+      <c r="G14" s="366"/>
+      <c r="H14" s="367"/>
       <c r="I14" s="112"/>
       <c r="J14" s="112"/>
       <c r="K14" s="112"/>
@@ -38039,16 +38039,16 @@
       <c r="AF14" s="112"/>
     </row>
     <row r="15" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="338"/>
-      <c r="B15" s="326" t="s">
+      <c r="A15" s="384"/>
+      <c r="B15" s="372" t="s">
         <v>160</v>
       </c>
-      <c r="C15" s="327"/>
-      <c r="D15" s="327"/>
-      <c r="E15" s="327"/>
-      <c r="F15" s="327"/>
-      <c r="G15" s="327"/>
-      <c r="H15" s="328"/>
+      <c r="C15" s="373"/>
+      <c r="D15" s="373"/>
+      <c r="E15" s="373"/>
+      <c r="F15" s="373"/>
+      <c r="G15" s="373"/>
+      <c r="H15" s="374"/>
       <c r="I15" s="112"/>
       <c r="J15" s="112"/>
       <c r="K15" s="112"/>
@@ -38075,7 +38075,7 @@
       <c r="AF15" s="112"/>
     </row>
     <row r="16" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="338"/>
+      <c r="A16" s="384"/>
       <c r="B16" s="340" t="s">
         <v>161</v>
       </c>
@@ -38111,7 +38111,7 @@
       <c r="AF16" s="112"/>
     </row>
     <row r="17" spans="1:32" s="97" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="338"/>
+      <c r="A17" s="384"/>
       <c r="B17" s="171" t="s">
         <v>162</v>
       </c>
@@ -38147,7 +38147,7 @@
       <c r="AF17" s="3"/>
     </row>
     <row r="18" spans="1:32" s="97" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="338"/>
+      <c r="A18" s="384"/>
       <c r="B18" s="128">
         <v>120</v>
       </c>
@@ -38255,18 +38255,18 @@
       <c r="AF20" s="3"/>
     </row>
     <row r="21" spans="1:32" s="97" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="338" t="s">
+      <c r="A21" s="384" t="s">
         <v>165</v>
       </c>
-      <c r="B21" s="319" t="s">
+      <c r="B21" s="365" t="s">
         <v>166</v>
       </c>
-      <c r="C21" s="320"/>
-      <c r="D21" s="320"/>
-      <c r="E21" s="320"/>
-      <c r="F21" s="320"/>
-      <c r="G21" s="320"/>
-      <c r="H21" s="321"/>
+      <c r="C21" s="366"/>
+      <c r="D21" s="366"/>
+      <c r="E21" s="366"/>
+      <c r="F21" s="366"/>
+      <c r="G21" s="366"/>
+      <c r="H21" s="367"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -38293,16 +38293,16 @@
       <c r="AF21" s="3"/>
     </row>
     <row r="22" spans="1:32" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="338"/>
-      <c r="B22" s="326" t="s">
+      <c r="A22" s="384"/>
+      <c r="B22" s="372" t="s">
         <v>167</v>
       </c>
-      <c r="C22" s="327"/>
-      <c r="D22" s="327"/>
-      <c r="E22" s="327"/>
-      <c r="F22" s="327"/>
-      <c r="G22" s="327"/>
-      <c r="H22" s="328"/>
+      <c r="C22" s="373"/>
+      <c r="D22" s="373"/>
+      <c r="E22" s="373"/>
+      <c r="F22" s="373"/>
+      <c r="G22" s="373"/>
+      <c r="H22" s="374"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -38329,16 +38329,16 @@
       <c r="AF22" s="3"/>
     </row>
     <row r="23" spans="1:32" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="338"/>
-      <c r="B23" s="309" t="s">
+      <c r="A23" s="384"/>
+      <c r="B23" s="343" t="s">
         <v>161</v>
       </c>
-      <c r="C23" s="310"/>
-      <c r="D23" s="310"/>
-      <c r="E23" s="310"/>
-      <c r="F23" s="310"/>
-      <c r="G23" s="310"/>
-      <c r="H23" s="311"/>
+      <c r="C23" s="344"/>
+      <c r="D23" s="344"/>
+      <c r="E23" s="344"/>
+      <c r="F23" s="344"/>
+      <c r="G23" s="344"/>
+      <c r="H23" s="345"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -38365,7 +38365,7 @@
       <c r="AF23" s="3"/>
     </row>
     <row r="24" spans="1:32" s="97" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="338"/>
+      <c r="A24" s="384"/>
       <c r="B24" s="171" t="s">
         <v>162</v>
       </c>
@@ -38401,7 +38401,7 @@
       <c r="AF24" s="3"/>
     </row>
     <row r="25" spans="1:32" s="97" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="338"/>
+      <c r="A25" s="384"/>
       <c r="B25" s="128">
         <v>119</v>
       </c>
@@ -38509,18 +38509,18 @@
       <c r="AF27" s="3"/>
     </row>
     <row r="28" spans="1:32" s="97" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="339" t="s">
+      <c r="A28" s="385" t="s">
         <v>170</v>
       </c>
-      <c r="B28" s="319" t="s">
+      <c r="B28" s="365" t="s">
         <v>171</v>
       </c>
-      <c r="C28" s="320"/>
-      <c r="D28" s="320"/>
-      <c r="E28" s="320"/>
-      <c r="F28" s="320"/>
-      <c r="G28" s="320"/>
-      <c r="H28" s="321"/>
+      <c r="C28" s="366"/>
+      <c r="D28" s="366"/>
+      <c r="E28" s="366"/>
+      <c r="F28" s="366"/>
+      <c r="G28" s="366"/>
+      <c r="H28" s="367"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
@@ -38547,16 +38547,16 @@
       <c r="AF28" s="3"/>
     </row>
     <row r="29" spans="1:32" s="97" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="339"/>
-      <c r="B29" s="326" t="s">
+      <c r="A29" s="385"/>
+      <c r="B29" s="372" t="s">
         <v>172</v>
       </c>
-      <c r="C29" s="327"/>
-      <c r="D29" s="327"/>
-      <c r="E29" s="327"/>
-      <c r="F29" s="327"/>
-      <c r="G29" s="327"/>
-      <c r="H29" s="328"/>
+      <c r="C29" s="373"/>
+      <c r="D29" s="373"/>
+      <c r="E29" s="373"/>
+      <c r="F29" s="373"/>
+      <c r="G29" s="373"/>
+      <c r="H29" s="374"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
@@ -38583,16 +38583,16 @@
       <c r="AF29" s="3"/>
     </row>
     <row r="30" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="339"/>
-      <c r="B30" s="309" t="s">
+      <c r="A30" s="385"/>
+      <c r="B30" s="343" t="s">
         <v>161</v>
       </c>
-      <c r="C30" s="310"/>
-      <c r="D30" s="310"/>
-      <c r="E30" s="310"/>
-      <c r="F30" s="310"/>
-      <c r="G30" s="310"/>
-      <c r="H30" s="311"/>
+      <c r="C30" s="344"/>
+      <c r="D30" s="344"/>
+      <c r="E30" s="344"/>
+      <c r="F30" s="344"/>
+      <c r="G30" s="344"/>
+      <c r="H30" s="345"/>
       <c r="I30" s="112"/>
       <c r="J30" s="112"/>
       <c r="K30" s="112"/>
@@ -38619,16 +38619,16 @@
       <c r="AF30" s="112"/>
     </row>
     <row r="31" spans="1:32" ht="239.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="339"/>
-      <c r="B31" s="312" t="s">
+      <c r="A31" s="385"/>
+      <c r="B31" s="326" t="s">
         <v>1090</v>
       </c>
-      <c r="C31" s="231"/>
-      <c r="D31" s="231"/>
-      <c r="E31" s="313"/>
-      <c r="F31" s="313"/>
-      <c r="G31" s="313"/>
-      <c r="H31" s="314"/>
+      <c r="C31" s="222"/>
+      <c r="D31" s="222"/>
+      <c r="E31" s="327"/>
+      <c r="F31" s="327"/>
+      <c r="G31" s="327"/>
+      <c r="H31" s="328"/>
       <c r="I31" s="112"/>
       <c r="J31" s="112"/>
       <c r="K31" s="112"/>
@@ -38655,13 +38655,13 @@
       <c r="AF31" s="112"/>
     </row>
     <row r="32" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="339"/>
-      <c r="B32" s="218" t="s">
+      <c r="A32" s="385"/>
+      <c r="B32" s="221" t="s">
         <v>77</v>
       </c>
-      <c r="C32" s="218"/>
-      <c r="D32" s="218"/>
-      <c r="E32" s="218"/>
+      <c r="C32" s="221"/>
+      <c r="D32" s="221"/>
+      <c r="E32" s="221"/>
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
       <c r="H32" s="59" t="s">
@@ -38729,18 +38729,18 @@
       <c r="AF33" s="112"/>
     </row>
     <row r="34" spans="1:32" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="322" t="s">
+      <c r="A34" s="368" t="s">
         <v>175</v>
       </c>
-      <c r="B34" s="319" t="s">
+      <c r="B34" s="365" t="s">
         <v>176</v>
       </c>
-      <c r="C34" s="320"/>
-      <c r="D34" s="320"/>
-      <c r="E34" s="320"/>
-      <c r="F34" s="320"/>
-      <c r="G34" s="320"/>
-      <c r="H34" s="321"/>
+      <c r="C34" s="366"/>
+      <c r="D34" s="366"/>
+      <c r="E34" s="366"/>
+      <c r="F34" s="366"/>
+      <c r="G34" s="366"/>
+      <c r="H34" s="367"/>
       <c r="I34" s="112"/>
       <c r="J34" s="112"/>
       <c r="K34" s="112"/>
@@ -38767,16 +38767,16 @@
       <c r="AF34" s="112"/>
     </row>
     <row r="35" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="322"/>
-      <c r="B35" s="326" t="s">
+      <c r="A35" s="368"/>
+      <c r="B35" s="372" t="s">
         <v>177</v>
       </c>
-      <c r="C35" s="327"/>
-      <c r="D35" s="327"/>
-      <c r="E35" s="327"/>
-      <c r="F35" s="327"/>
-      <c r="G35" s="327"/>
-      <c r="H35" s="328"/>
+      <c r="C35" s="373"/>
+      <c r="D35" s="373"/>
+      <c r="E35" s="373"/>
+      <c r="F35" s="373"/>
+      <c r="G35" s="373"/>
+      <c r="H35" s="374"/>
       <c r="I35" s="112"/>
       <c r="J35" s="112"/>
       <c r="K35" s="112"/>
@@ -38803,16 +38803,16 @@
       <c r="AF35" s="112"/>
     </row>
     <row r="36" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="322"/>
+      <c r="A36" s="368"/>
       <c r="B36" s="356" t="s">
         <v>178</v>
       </c>
       <c r="C36" s="357"/>
       <c r="D36" s="357"/>
-      <c r="E36" s="310"/>
-      <c r="F36" s="310"/>
-      <c r="G36" s="310"/>
-      <c r="H36" s="311"/>
+      <c r="E36" s="344"/>
+      <c r="F36" s="344"/>
+      <c r="G36" s="344"/>
+      <c r="H36" s="345"/>
       <c r="I36" s="112"/>
       <c r="J36" s="112"/>
       <c r="K36" s="112"/>
@@ -38839,7 +38839,7 @@
       <c r="AF36" s="112"/>
     </row>
     <row r="37" spans="1:32" s="97" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="322"/>
+      <c r="A37" s="368"/>
       <c r="B37" s="171" t="s">
         <v>162</v>
       </c>
@@ -38875,7 +38875,7 @@
       <c r="AF37" s="3"/>
     </row>
     <row r="38" spans="1:32" s="97" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="322"/>
+      <c r="A38" s="368"/>
       <c r="B38" s="128">
         <v>120</v>
       </c>
@@ -38948,22 +38948,22 @@
     </row>
     <row r="40" spans="1:32" s="107" customFormat="1" ht="21" x14ac:dyDescent="0.5">
       <c r="A40" s="105"/>
-      <c r="B40" s="343" t="s">
+      <c r="B40" s="346" t="s">
         <v>180</v>
       </c>
-      <c r="C40" s="344"/>
-      <c r="D40" s="344"/>
-      <c r="E40" s="344"/>
-      <c r="F40" s="344"/>
-      <c r="G40" s="344"/>
-      <c r="H40" s="344"/>
-      <c r="I40" s="344"/>
-      <c r="J40" s="344"/>
-      <c r="K40" s="344"/>
-      <c r="L40" s="344"/>
-      <c r="M40" s="344"/>
-      <c r="N40" s="344"/>
-      <c r="O40" s="345"/>
+      <c r="C40" s="347"/>
+      <c r="D40" s="347"/>
+      <c r="E40" s="347"/>
+      <c r="F40" s="347"/>
+      <c r="G40" s="347"/>
+      <c r="H40" s="347"/>
+      <c r="I40" s="347"/>
+      <c r="J40" s="347"/>
+      <c r="K40" s="347"/>
+      <c r="L40" s="347"/>
+      <c r="M40" s="347"/>
+      <c r="N40" s="347"/>
+      <c r="O40" s="348"/>
       <c r="P40" s="112"/>
       <c r="Q40" s="105"/>
       <c r="R40" s="105"/>
@@ -39020,28 +39020,28 @@
     </row>
     <row r="42" spans="1:32" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="112"/>
-      <c r="B42" s="364" t="s">
+      <c r="B42" s="329" t="s">
         <v>182</v>
       </c>
-      <c r="C42" s="265" t="s">
+      <c r="C42" s="255" t="s">
         <v>125</v>
       </c>
-      <c r="D42" s="266"/>
-      <c r="E42" s="265" t="s">
+      <c r="D42" s="256"/>
+      <c r="E42" s="255" t="s">
         <v>126</v>
       </c>
-      <c r="F42" s="266"/>
-      <c r="G42" s="266"/>
-      <c r="H42" s="266"/>
+      <c r="F42" s="256"/>
+      <c r="G42" s="256"/>
+      <c r="H42" s="256"/>
       <c r="I42" s="358"/>
-      <c r="J42" s="266" t="s">
+      <c r="J42" s="256" t="s">
         <v>127</v>
       </c>
-      <c r="K42" s="266"/>
-      <c r="L42" s="266"/>
-      <c r="M42" s="266"/>
-      <c r="N42" s="267"/>
-      <c r="O42" s="352" t="s">
+      <c r="K42" s="256"/>
+      <c r="L42" s="256"/>
+      <c r="M42" s="256"/>
+      <c r="N42" s="257"/>
+      <c r="O42" s="353" t="s">
         <v>129</v>
       </c>
       <c r="P42" s="112"/>
@@ -39064,11 +39064,11 @@
     </row>
     <row r="43" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="112"/>
-      <c r="B43" s="365"/>
+      <c r="B43" s="330"/>
       <c r="C43" s="173" t="s">
         <v>130</v>
       </c>
-      <c r="D43" s="318" t="s">
+      <c r="D43" s="355" t="s">
         <v>131</v>
       </c>
       <c r="E43" s="173" t="s">
@@ -39083,7 +39083,7 @@
       <c r="H43" s="174" t="s">
         <v>130</v>
       </c>
-      <c r="I43" s="318" t="s">
+      <c r="I43" s="355" t="s">
         <v>131</v>
       </c>
       <c r="J43" s="173" t="s">
@@ -39098,10 +39098,10 @@
       <c r="M43" s="174" t="s">
         <v>130</v>
       </c>
-      <c r="N43" s="318" t="s">
+      <c r="N43" s="355" t="s">
         <v>131</v>
       </c>
-      <c r="O43" s="353"/>
+      <c r="O43" s="354"/>
       <c r="P43" s="112"/>
       <c r="Q43" s="112"/>
       <c r="R43" s="112"/>
@@ -39122,11 +39122,11 @@
     </row>
     <row r="44" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="112"/>
-      <c r="B44" s="365"/>
+      <c r="B44" s="330"/>
       <c r="C44" s="175" t="s">
         <v>135</v>
       </c>
-      <c r="D44" s="281"/>
+      <c r="D44" s="275"/>
       <c r="E44" s="176" t="s">
         <v>136</v>
       </c>
@@ -39139,7 +39139,7 @@
       <c r="H44" s="176" t="s">
         <v>136</v>
       </c>
-      <c r="I44" s="281"/>
+      <c r="I44" s="275"/>
       <c r="J44" s="175" t="s">
         <v>136</v>
       </c>
@@ -39152,8 +39152,8 @@
       <c r="M44" s="176" t="s">
         <v>136</v>
       </c>
-      <c r="N44" s="281"/>
-      <c r="O44" s="353"/>
+      <c r="N44" s="275"/>
+      <c r="O44" s="354"/>
       <c r="P44" s="112"/>
       <c r="Q44" s="112"/>
       <c r="R44" s="112"/>
@@ -39749,15 +39749,15 @@
     </row>
     <row r="54" spans="1:32" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A54" s="112"/>
-      <c r="B54" s="372" t="s">
+      <c r="B54" s="337" t="s">
         <v>192</v>
       </c>
-      <c r="C54" s="373"/>
-      <c r="D54" s="373"/>
-      <c r="E54" s="373"/>
-      <c r="F54" s="373"/>
-      <c r="G54" s="373"/>
-      <c r="H54" s="374"/>
+      <c r="C54" s="338"/>
+      <c r="D54" s="338"/>
+      <c r="E54" s="338"/>
+      <c r="F54" s="338"/>
+      <c r="G54" s="338"/>
+      <c r="H54" s="339"/>
       <c r="I54" s="112"/>
       <c r="J54" s="112"/>
       <c r="K54" s="112"/>
@@ -39785,15 +39785,15 @@
     </row>
     <row r="55" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="112"/>
-      <c r="B55" s="366" t="s">
+      <c r="B55" s="331" t="s">
         <v>193</v>
       </c>
-      <c r="C55" s="367"/>
-      <c r="D55" s="367"/>
-      <c r="E55" s="367"/>
-      <c r="F55" s="367"/>
-      <c r="G55" s="367"/>
-      <c r="H55" s="368"/>
+      <c r="C55" s="332"/>
+      <c r="D55" s="332"/>
+      <c r="E55" s="332"/>
+      <c r="F55" s="332"/>
+      <c r="G55" s="332"/>
+      <c r="H55" s="333"/>
       <c r="I55" s="112"/>
       <c r="J55" s="112"/>
       <c r="K55" s="112"/>
@@ -39821,15 +39821,15 @@
     </row>
     <row r="56" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="112"/>
-      <c r="B56" s="348" t="s">
+      <c r="B56" s="350" t="s">
         <v>194</v>
       </c>
-      <c r="C56" s="349"/>
-      <c r="D56" s="349"/>
-      <c r="E56" s="349"/>
-      <c r="F56" s="349"/>
-      <c r="G56" s="349"/>
-      <c r="H56" s="350"/>
+      <c r="C56" s="351"/>
+      <c r="D56" s="351"/>
+      <c r="E56" s="351"/>
+      <c r="F56" s="351"/>
+      <c r="G56" s="351"/>
+      <c r="H56" s="352"/>
       <c r="I56" s="112"/>
       <c r="J56" s="112"/>
       <c r="K56" s="112"/>
@@ -39857,15 +39857,15 @@
     </row>
     <row r="57" spans="1:32" ht="238.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="112"/>
-      <c r="B57" s="312" t="s">
+      <c r="B57" s="326" t="s">
         <v>1091</v>
       </c>
-      <c r="C57" s="231"/>
-      <c r="D57" s="231"/>
-      <c r="E57" s="313"/>
-      <c r="F57" s="313"/>
-      <c r="G57" s="313"/>
-      <c r="H57" s="314"/>
+      <c r="C57" s="222"/>
+      <c r="D57" s="222"/>
+      <c r="E57" s="327"/>
+      <c r="F57" s="327"/>
+      <c r="G57" s="327"/>
+      <c r="H57" s="328"/>
       <c r="I57" s="112"/>
       <c r="J57" s="112"/>
       <c r="K57" s="112"/>
@@ -39893,12 +39893,12 @@
     </row>
     <row r="58" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="112"/>
-      <c r="B58" s="218" t="s">
+      <c r="B58" s="221" t="s">
         <v>77</v>
       </c>
-      <c r="C58" s="218"/>
-      <c r="D58" s="218"/>
-      <c r="E58" s="218"/>
+      <c r="C58" s="221"/>
+      <c r="D58" s="221"/>
+      <c r="E58" s="221"/>
       <c r="F58" s="15"/>
       <c r="G58" s="15"/>
       <c r="H58" s="59" t="s">
@@ -39967,15 +39967,15 @@
     </row>
     <row r="60" spans="1:32" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A60" s="112"/>
-      <c r="B60" s="315" t="s">
+      <c r="B60" s="362" t="s">
         <v>197</v>
       </c>
-      <c r="C60" s="316"/>
-      <c r="D60" s="316"/>
-      <c r="E60" s="316"/>
-      <c r="F60" s="316"/>
-      <c r="G60" s="316"/>
-      <c r="H60" s="317"/>
+      <c r="C60" s="363"/>
+      <c r="D60" s="363"/>
+      <c r="E60" s="363"/>
+      <c r="F60" s="363"/>
+      <c r="G60" s="363"/>
+      <c r="H60" s="364"/>
       <c r="I60" s="112"/>
       <c r="J60" s="112"/>
       <c r="K60" s="112"/>
@@ -40003,15 +40003,15 @@
     </row>
     <row r="61" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="112"/>
-      <c r="B61" s="369" t="s">
+      <c r="B61" s="334" t="s">
         <v>198</v>
       </c>
-      <c r="C61" s="370"/>
-      <c r="D61" s="370"/>
-      <c r="E61" s="370"/>
-      <c r="F61" s="370"/>
-      <c r="G61" s="370"/>
-      <c r="H61" s="371"/>
+      <c r="C61" s="335"/>
+      <c r="D61" s="335"/>
+      <c r="E61" s="335"/>
+      <c r="F61" s="335"/>
+      <c r="G61" s="335"/>
+      <c r="H61" s="336"/>
       <c r="I61" s="112"/>
       <c r="J61" s="112"/>
       <c r="K61" s="112"/>
@@ -40039,15 +40039,15 @@
     </row>
     <row r="62" spans="1:32" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="112"/>
-      <c r="B62" s="361" t="s">
+      <c r="B62" s="323" t="s">
         <v>199</v>
       </c>
-      <c r="C62" s="362"/>
-      <c r="D62" s="362"/>
-      <c r="E62" s="362"/>
-      <c r="F62" s="362"/>
-      <c r="G62" s="362"/>
-      <c r="H62" s="363"/>
+      <c r="C62" s="324"/>
+      <c r="D62" s="324"/>
+      <c r="E62" s="324"/>
+      <c r="F62" s="324"/>
+      <c r="G62" s="324"/>
+      <c r="H62" s="325"/>
       <c r="I62" s="112"/>
       <c r="J62" s="112"/>
       <c r="K62" s="112"/>
@@ -40075,15 +40075,15 @@
     </row>
     <row r="63" spans="1:32" ht="238.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="112"/>
-      <c r="B63" s="312" t="s">
+      <c r="B63" s="326" t="s">
         <v>1092</v>
       </c>
-      <c r="C63" s="231"/>
-      <c r="D63" s="231"/>
-      <c r="E63" s="313"/>
-      <c r="F63" s="313"/>
-      <c r="G63" s="313"/>
-      <c r="H63" s="314"/>
+      <c r="C63" s="222"/>
+      <c r="D63" s="222"/>
+      <c r="E63" s="327"/>
+      <c r="F63" s="327"/>
+      <c r="G63" s="327"/>
+      <c r="H63" s="328"/>
       <c r="I63" s="112"/>
       <c r="J63" s="112"/>
       <c r="K63" s="112"/>
@@ -40294,41 +40294,41 @@
       <c r="B69" s="178" t="s">
         <v>205</v>
       </c>
-      <c r="C69" s="354" t="s">
+      <c r="C69" s="314" t="s">
         <v>206</v>
       </c>
-      <c r="D69" s="355"/>
-      <c r="E69" s="354" t="s">
+      <c r="D69" s="315"/>
+      <c r="E69" s="314" t="s">
         <v>207</v>
       </c>
-      <c r="F69" s="355"/>
-      <c r="G69" s="346" t="s">
+      <c r="F69" s="315"/>
+      <c r="G69" s="316" t="s">
         <v>208</v>
       </c>
-      <c r="H69" s="351"/>
-      <c r="I69" s="354" t="s">
+      <c r="H69" s="317"/>
+      <c r="I69" s="314" t="s">
         <v>209</v>
       </c>
-      <c r="J69" s="355"/>
+      <c r="J69" s="315"/>
       <c r="K69" s="130" t="s">
         <v>210</v>
       </c>
-      <c r="L69" s="383" t="s">
+      <c r="L69" s="312" t="s">
         <v>211</v>
       </c>
-      <c r="M69" s="384"/>
-      <c r="N69" s="346" t="s">
+      <c r="M69" s="313"/>
+      <c r="N69" s="316" t="s">
         <v>212</v>
       </c>
-      <c r="O69" s="351"/>
-      <c r="P69" s="354" t="s">
+      <c r="O69" s="317"/>
+      <c r="P69" s="314" t="s">
         <v>213</v>
       </c>
-      <c r="Q69" s="355"/>
-      <c r="R69" s="346" t="s">
+      <c r="Q69" s="315"/>
+      <c r="R69" s="316" t="s">
         <v>214</v>
       </c>
-      <c r="S69" s="347"/>
+      <c r="S69" s="349"/>
       <c r="T69" s="112"/>
       <c r="U69" s="112"/>
       <c r="V69" s="112"/>
@@ -40348,41 +40348,41 @@
       <c r="B70" s="123">
         <v>1</v>
       </c>
-      <c r="C70" s="379" t="s">
+      <c r="C70" s="310" t="s">
         <v>423</v>
       </c>
-      <c r="D70" s="379"/>
-      <c r="E70" s="359" t="s">
+      <c r="D70" s="310"/>
+      <c r="E70" s="311" t="s">
         <v>301</v>
       </c>
-      <c r="F70" s="359"/>
-      <c r="G70" s="379" t="s">
+      <c r="F70" s="311"/>
+      <c r="G70" s="310" t="s">
         <v>420</v>
       </c>
-      <c r="H70" s="379"/>
-      <c r="I70" s="359" t="s">
+      <c r="H70" s="310"/>
+      <c r="I70" s="311" t="s">
         <v>304</v>
       </c>
-      <c r="J70" s="359"/>
+      <c r="J70" s="311"/>
       <c r="K70" s="114">
         <v>20</v>
       </c>
-      <c r="L70" s="385" t="s">
+      <c r="L70" s="318" t="s">
         <v>1093</v>
       </c>
-      <c r="M70" s="385"/>
-      <c r="N70" s="376" t="s">
+      <c r="M70" s="318"/>
+      <c r="N70" s="321" t="s">
         <v>1094</v>
       </c>
-      <c r="O70" s="376"/>
-      <c r="P70" s="379" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q70" s="379"/>
-      <c r="R70" s="359" t="s">
+      <c r="O70" s="321"/>
+      <c r="P70" s="310" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q70" s="310"/>
+      <c r="R70" s="311" t="s">
         <v>6</v>
       </c>
-      <c r="S70" s="378"/>
+      <c r="S70" s="322"/>
       <c r="T70" s="112"/>
       <c r="U70" s="112"/>
       <c r="V70" s="112"/>
@@ -40400,45 +40400,45 @@
     <row r="71" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A71" s="112"/>
       <c r="B71" s="194"/>
-      <c r="C71" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="D71" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="E71" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="F71" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="G71" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="H71" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="I71" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="J71" s="360" t="s">
+      <c r="C71" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="D71" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="E71" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="F71" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="G71" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="H71" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="I71" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="J71" s="308" t="s">
         <v>90</v>
       </c>
       <c r="K71" s="193"/>
-      <c r="L71" s="375"/>
-      <c r="M71" s="375"/>
-      <c r="N71" s="360"/>
-      <c r="O71" s="360"/>
-      <c r="P71" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q71" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="R71" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="S71" s="377" t="s">
+      <c r="L71" s="307"/>
+      <c r="M71" s="307"/>
+      <c r="N71" s="308"/>
+      <c r="O71" s="308"/>
+      <c r="P71" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q71" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="R71" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="S71" s="309" t="s">
         <v>90</v>
       </c>
       <c r="T71" s="112"/>
@@ -40458,45 +40458,45 @@
     <row r="72" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A72" s="112"/>
       <c r="B72" s="194"/>
-      <c r="C72" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="D72" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="E72" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="F72" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="G72" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="H72" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="I72" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="J72" s="360" t="s">
+      <c r="C72" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="D72" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="E72" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="F72" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="G72" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="H72" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="I72" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="J72" s="308" t="s">
         <v>90</v>
       </c>
       <c r="K72" s="193"/>
-      <c r="L72" s="375"/>
-      <c r="M72" s="375"/>
-      <c r="N72" s="360"/>
-      <c r="O72" s="360"/>
-      <c r="P72" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q72" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="R72" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="S72" s="377" t="s">
+      <c r="L72" s="307"/>
+      <c r="M72" s="307"/>
+      <c r="N72" s="308"/>
+      <c r="O72" s="308"/>
+      <c r="P72" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q72" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="R72" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="S72" s="309" t="s">
         <v>90</v>
       </c>
       <c r="T72" s="112"/>
@@ -40516,45 +40516,45 @@
     <row r="73" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A73" s="112"/>
       <c r="B73" s="194"/>
-      <c r="C73" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="D73" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="E73" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="F73" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="G73" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="H73" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="I73" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="J73" s="360" t="s">
+      <c r="C73" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="D73" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="E73" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="F73" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="G73" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="H73" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="I73" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="J73" s="308" t="s">
         <v>90</v>
       </c>
       <c r="K73" s="193"/>
-      <c r="L73" s="375"/>
-      <c r="M73" s="375"/>
-      <c r="N73" s="360"/>
-      <c r="O73" s="360"/>
-      <c r="P73" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q73" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="R73" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="S73" s="377" t="s">
+      <c r="L73" s="307"/>
+      <c r="M73" s="307"/>
+      <c r="N73" s="308"/>
+      <c r="O73" s="308"/>
+      <c r="P73" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q73" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="R73" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="S73" s="309" t="s">
         <v>90</v>
       </c>
       <c r="T73" s="112"/>
@@ -40574,45 +40574,45 @@
     <row r="74" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A74" s="112"/>
       <c r="B74" s="194"/>
-      <c r="C74" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="D74" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="E74" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="F74" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="G74" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="H74" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="I74" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="J74" s="360" t="s">
+      <c r="C74" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="D74" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="E74" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="F74" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="G74" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="H74" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="I74" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="J74" s="308" t="s">
         <v>90</v>
       </c>
       <c r="K74" s="193"/>
-      <c r="L74" s="375"/>
-      <c r="M74" s="375"/>
-      <c r="N74" s="360"/>
-      <c r="O74" s="360"/>
-      <c r="P74" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q74" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="R74" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="S74" s="377" t="s">
+      <c r="L74" s="307"/>
+      <c r="M74" s="307"/>
+      <c r="N74" s="308"/>
+      <c r="O74" s="308"/>
+      <c r="P74" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q74" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="R74" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="S74" s="309" t="s">
         <v>90</v>
       </c>
       <c r="T74" s="112"/>
@@ -40632,45 +40632,45 @@
     <row r="75" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A75" s="112"/>
       <c r="B75" s="194"/>
-      <c r="C75" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="D75" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="E75" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="F75" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="G75" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="H75" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="I75" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="J75" s="360" t="s">
+      <c r="C75" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="D75" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="E75" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="F75" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="G75" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="H75" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="I75" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="J75" s="308" t="s">
         <v>90</v>
       </c>
       <c r="K75" s="193"/>
-      <c r="L75" s="375"/>
-      <c r="M75" s="375"/>
-      <c r="N75" s="360"/>
-      <c r="O75" s="360"/>
-      <c r="P75" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q75" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="R75" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="S75" s="377" t="s">
+      <c r="L75" s="307"/>
+      <c r="M75" s="307"/>
+      <c r="N75" s="308"/>
+      <c r="O75" s="308"/>
+      <c r="P75" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q75" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="R75" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="S75" s="309" t="s">
         <v>90</v>
       </c>
       <c r="T75" s="112"/>
@@ -40690,45 +40690,45 @@
     <row r="76" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A76" s="112"/>
       <c r="B76" s="194"/>
-      <c r="C76" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="D76" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="E76" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="F76" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="G76" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="H76" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="I76" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="J76" s="360" t="s">
+      <c r="C76" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="D76" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="E76" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="F76" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="G76" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="H76" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="I76" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="J76" s="308" t="s">
         <v>90</v>
       </c>
       <c r="K76" s="193"/>
-      <c r="L76" s="375"/>
-      <c r="M76" s="375"/>
-      <c r="N76" s="360"/>
-      <c r="O76" s="360"/>
-      <c r="P76" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q76" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="R76" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="S76" s="377" t="s">
+      <c r="L76" s="307"/>
+      <c r="M76" s="307"/>
+      <c r="N76" s="308"/>
+      <c r="O76" s="308"/>
+      <c r="P76" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q76" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="R76" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="S76" s="309" t="s">
         <v>90</v>
       </c>
       <c r="T76" s="112"/>
@@ -40748,45 +40748,45 @@
     <row r="77" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A77" s="112"/>
       <c r="B77" s="194"/>
-      <c r="C77" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="D77" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="E77" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="F77" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="G77" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="H77" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="I77" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="J77" s="360" t="s">
+      <c r="C77" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="D77" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="E77" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="F77" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="G77" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="H77" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="I77" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="J77" s="308" t="s">
         <v>90</v>
       </c>
       <c r="K77" s="193"/>
-      <c r="L77" s="375"/>
-      <c r="M77" s="375"/>
-      <c r="N77" s="360"/>
-      <c r="O77" s="360"/>
-      <c r="P77" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q77" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="R77" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="S77" s="377" t="s">
+      <c r="L77" s="307"/>
+      <c r="M77" s="307"/>
+      <c r="N77" s="308"/>
+      <c r="O77" s="308"/>
+      <c r="P77" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q77" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="R77" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="S77" s="309" t="s">
         <v>90</v>
       </c>
       <c r="T77" s="112"/>
@@ -40806,45 +40806,45 @@
     <row r="78" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A78" s="112"/>
       <c r="B78" s="194"/>
-      <c r="C78" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="D78" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="E78" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="F78" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="G78" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="H78" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="I78" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="J78" s="360" t="s">
+      <c r="C78" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="D78" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="E78" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="F78" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="G78" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="H78" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="I78" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="J78" s="308" t="s">
         <v>90</v>
       </c>
       <c r="K78" s="193"/>
-      <c r="L78" s="375"/>
-      <c r="M78" s="375"/>
-      <c r="N78" s="360"/>
-      <c r="O78" s="360"/>
-      <c r="P78" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q78" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="R78" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="S78" s="377" t="s">
+      <c r="L78" s="307"/>
+      <c r="M78" s="307"/>
+      <c r="N78" s="308"/>
+      <c r="O78" s="308"/>
+      <c r="P78" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q78" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="R78" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="S78" s="309" t="s">
         <v>90</v>
       </c>
       <c r="T78" s="112"/>
@@ -40864,45 +40864,45 @@
     <row r="79" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A79" s="112"/>
       <c r="B79" s="194"/>
-      <c r="C79" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="D79" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="E79" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="F79" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="G79" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="H79" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="I79" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="J79" s="360" t="s">
+      <c r="C79" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="D79" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="E79" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="F79" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="G79" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="H79" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="I79" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="J79" s="308" t="s">
         <v>90</v>
       </c>
       <c r="K79" s="193"/>
-      <c r="L79" s="375"/>
-      <c r="M79" s="375"/>
-      <c r="N79" s="360"/>
-      <c r="O79" s="360"/>
-      <c r="P79" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q79" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="R79" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="S79" s="377" t="s">
+      <c r="L79" s="307"/>
+      <c r="M79" s="307"/>
+      <c r="N79" s="308"/>
+      <c r="O79" s="308"/>
+      <c r="P79" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q79" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="R79" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="S79" s="309" t="s">
         <v>90</v>
       </c>
       <c r="T79" s="112"/>
@@ -40922,45 +40922,45 @@
     <row r="80" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A80" s="112"/>
       <c r="B80" s="194"/>
-      <c r="C80" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="D80" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="E80" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="F80" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="G80" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="H80" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="I80" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="J80" s="360" t="s">
+      <c r="C80" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="D80" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="E80" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="F80" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="G80" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="H80" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="I80" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="J80" s="308" t="s">
         <v>90</v>
       </c>
       <c r="K80" s="193"/>
-      <c r="L80" s="375"/>
-      <c r="M80" s="375"/>
-      <c r="N80" s="360"/>
-      <c r="O80" s="360"/>
-      <c r="P80" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q80" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="R80" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="S80" s="377" t="s">
+      <c r="L80" s="307"/>
+      <c r="M80" s="307"/>
+      <c r="N80" s="308"/>
+      <c r="O80" s="308"/>
+      <c r="P80" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q80" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="R80" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="S80" s="309" t="s">
         <v>90</v>
       </c>
       <c r="T80" s="112"/>
@@ -40980,45 +40980,45 @@
     <row r="81" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A81" s="112"/>
       <c r="B81" s="194"/>
-      <c r="C81" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="D81" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="E81" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="F81" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="G81" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="H81" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="I81" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="J81" s="360" t="s">
+      <c r="C81" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="D81" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="E81" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="F81" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="G81" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="H81" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="I81" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="J81" s="308" t="s">
         <v>90</v>
       </c>
       <c r="K81" s="193"/>
-      <c r="L81" s="375"/>
-      <c r="M81" s="375"/>
-      <c r="N81" s="360"/>
-      <c r="O81" s="360"/>
-      <c r="P81" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q81" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="R81" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="S81" s="377" t="s">
+      <c r="L81" s="307"/>
+      <c r="M81" s="307"/>
+      <c r="N81" s="308"/>
+      <c r="O81" s="308"/>
+      <c r="P81" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q81" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="R81" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="S81" s="309" t="s">
         <v>90</v>
       </c>
       <c r="T81" s="112"/>
@@ -41038,45 +41038,45 @@
     <row r="82" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A82" s="112"/>
       <c r="B82" s="194"/>
-      <c r="C82" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="D82" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="E82" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="F82" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="G82" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="H82" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="I82" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="J82" s="360" t="s">
+      <c r="C82" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="D82" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="E82" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="F82" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="G82" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="H82" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="I82" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="J82" s="308" t="s">
         <v>90</v>
       </c>
       <c r="K82" s="193"/>
-      <c r="L82" s="375"/>
-      <c r="M82" s="375"/>
-      <c r="N82" s="360"/>
-      <c r="O82" s="360"/>
-      <c r="P82" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q82" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="R82" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="S82" s="377" t="s">
+      <c r="L82" s="307"/>
+      <c r="M82" s="307"/>
+      <c r="N82" s="308"/>
+      <c r="O82" s="308"/>
+      <c r="P82" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q82" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="R82" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="S82" s="309" t="s">
         <v>90</v>
       </c>
       <c r="T82" s="112"/>
@@ -41096,45 +41096,45 @@
     <row r="83" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A83" s="112"/>
       <c r="B83" s="194"/>
-      <c r="C83" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="D83" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="E83" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="F83" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="G83" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="H83" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="I83" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="J83" s="360" t="s">
+      <c r="C83" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="D83" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="E83" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="F83" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="G83" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="H83" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="I83" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="J83" s="308" t="s">
         <v>90</v>
       </c>
       <c r="K83" s="193"/>
-      <c r="L83" s="375"/>
-      <c r="M83" s="375"/>
-      <c r="N83" s="360"/>
-      <c r="O83" s="360"/>
-      <c r="P83" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q83" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="R83" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="S83" s="377" t="s">
+      <c r="L83" s="307"/>
+      <c r="M83" s="307"/>
+      <c r="N83" s="308"/>
+      <c r="O83" s="308"/>
+      <c r="P83" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q83" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="R83" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="S83" s="309" t="s">
         <v>90</v>
       </c>
       <c r="T83" s="112"/>
@@ -41154,45 +41154,45 @@
     <row r="84" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A84" s="112"/>
       <c r="B84" s="194"/>
-      <c r="C84" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="D84" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="E84" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="F84" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="G84" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="H84" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="I84" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="J84" s="360" t="s">
+      <c r="C84" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="D84" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="E84" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="F84" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="G84" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="H84" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="I84" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="J84" s="308" t="s">
         <v>90</v>
       </c>
       <c r="K84" s="193"/>
-      <c r="L84" s="375"/>
-      <c r="M84" s="375"/>
-      <c r="N84" s="360"/>
-      <c r="O84" s="360"/>
-      <c r="P84" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q84" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="R84" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="S84" s="377" t="s">
+      <c r="L84" s="307"/>
+      <c r="M84" s="307"/>
+      <c r="N84" s="308"/>
+      <c r="O84" s="308"/>
+      <c r="P84" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q84" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="R84" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="S84" s="309" t="s">
         <v>90</v>
       </c>
       <c r="T84" s="112"/>
@@ -41212,45 +41212,45 @@
     <row r="85" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A85" s="112"/>
       <c r="B85" s="194"/>
-      <c r="C85" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="D85" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="E85" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="F85" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="G85" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="H85" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="I85" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="J85" s="360" t="s">
+      <c r="C85" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="D85" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="E85" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="F85" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="G85" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="H85" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="I85" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="J85" s="308" t="s">
         <v>90</v>
       </c>
       <c r="K85" s="193"/>
-      <c r="L85" s="375"/>
-      <c r="M85" s="375"/>
-      <c r="N85" s="360"/>
-      <c r="O85" s="360"/>
-      <c r="P85" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q85" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="R85" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="S85" s="377" t="s">
+      <c r="L85" s="307"/>
+      <c r="M85" s="307"/>
+      <c r="N85" s="308"/>
+      <c r="O85" s="308"/>
+      <c r="P85" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q85" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="R85" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="S85" s="309" t="s">
         <v>90</v>
       </c>
       <c r="T85" s="112"/>
@@ -41270,45 +41270,45 @@
     <row r="86" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A86" s="112"/>
       <c r="B86" s="194"/>
-      <c r="C86" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="D86" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="E86" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="F86" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="G86" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="H86" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="I86" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="J86" s="360" t="s">
+      <c r="C86" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="D86" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="E86" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="F86" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="G86" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="H86" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="I86" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="J86" s="308" t="s">
         <v>90</v>
       </c>
       <c r="K86" s="193"/>
-      <c r="L86" s="375"/>
-      <c r="M86" s="375"/>
-      <c r="N86" s="360"/>
-      <c r="O86" s="360"/>
-      <c r="P86" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q86" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="R86" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="S86" s="377" t="s">
+      <c r="L86" s="307"/>
+      <c r="M86" s="307"/>
+      <c r="N86" s="308"/>
+      <c r="O86" s="308"/>
+      <c r="P86" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q86" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="R86" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="S86" s="309" t="s">
         <v>90</v>
       </c>
       <c r="T86" s="112"/>
@@ -41328,45 +41328,45 @@
     <row r="87" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A87" s="112"/>
       <c r="B87" s="195"/>
-      <c r="C87" s="382" t="s">
-        <v>90</v>
-      </c>
-      <c r="D87" s="382" t="s">
-        <v>90</v>
-      </c>
-      <c r="E87" s="380" t="s">
-        <v>90</v>
-      </c>
-      <c r="F87" s="380" t="s">
-        <v>90</v>
-      </c>
-      <c r="G87" s="382" t="s">
-        <v>90</v>
-      </c>
-      <c r="H87" s="382" t="s">
-        <v>90</v>
-      </c>
-      <c r="I87" s="380" t="s">
-        <v>90</v>
-      </c>
-      <c r="J87" s="380" t="s">
+      <c r="C87" s="306" t="s">
+        <v>90</v>
+      </c>
+      <c r="D87" s="306" t="s">
+        <v>90</v>
+      </c>
+      <c r="E87" s="319" t="s">
+        <v>90</v>
+      </c>
+      <c r="F87" s="319" t="s">
+        <v>90</v>
+      </c>
+      <c r="G87" s="306" t="s">
+        <v>90</v>
+      </c>
+      <c r="H87" s="306" t="s">
+        <v>90</v>
+      </c>
+      <c r="I87" s="319" t="s">
+        <v>90</v>
+      </c>
+      <c r="J87" s="319" t="s">
         <v>90</v>
       </c>
       <c r="K87" s="196"/>
-      <c r="L87" s="382"/>
-      <c r="M87" s="382"/>
-      <c r="N87" s="380"/>
-      <c r="O87" s="380"/>
-      <c r="P87" s="382" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q87" s="382" t="s">
-        <v>90</v>
-      </c>
-      <c r="R87" s="380" t="s">
-        <v>90</v>
-      </c>
-      <c r="S87" s="381" t="s">
+      <c r="L87" s="306"/>
+      <c r="M87" s="306"/>
+      <c r="N87" s="319"/>
+      <c r="O87" s="319"/>
+      <c r="P87" s="306" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q87" s="306" t="s">
+        <v>90</v>
+      </c>
+      <c r="R87" s="319" t="s">
+        <v>90</v>
+      </c>
+      <c r="S87" s="320" t="s">
         <v>90</v>
       </c>
       <c r="T87" s="112"/>
@@ -41489,6 +41489,177 @@
     </row>
   </sheetData>
   <mergeCells count="195">
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B60:H60"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B40:O40"/>
+    <mergeCell ref="R69:S69"/>
+    <mergeCell ref="B56:H56"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="O42:O44"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="J42:N42"/>
+    <mergeCell ref="N43:N44"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="I77:J77"/>
+    <mergeCell ref="B62:H62"/>
+    <mergeCell ref="B63:H63"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B55:H55"/>
+    <mergeCell ref="B61:H61"/>
+    <mergeCell ref="B54:H54"/>
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="R72:S72"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="R78:S78"/>
+    <mergeCell ref="R77:S77"/>
+    <mergeCell ref="R76:S76"/>
+    <mergeCell ref="R75:S75"/>
+    <mergeCell ref="R74:S74"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="R70:S70"/>
+    <mergeCell ref="R71:S71"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="R87:S87"/>
+    <mergeCell ref="R86:S86"/>
+    <mergeCell ref="R85:S85"/>
+    <mergeCell ref="R84:S84"/>
+    <mergeCell ref="R83:S83"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="I87:J87"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="R82:S82"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="I83:J83"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="R81:S81"/>
+    <mergeCell ref="R80:S80"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="I80:J80"/>
+    <mergeCell ref="R79:S79"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="R73:S73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="I78:J78"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="I79:J79"/>
     <mergeCell ref="C87:D87"/>
     <mergeCell ref="L87:M87"/>
     <mergeCell ref="C82:D82"/>
@@ -41513,177 +41684,6 @@
     <mergeCell ref="L86:M86"/>
     <mergeCell ref="G86:H86"/>
     <mergeCell ref="I86:J86"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="L83:M83"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="L75:M75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="L76:M76"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="I79:J79"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="L77:M77"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="R79:S79"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="L70:M70"/>
-    <mergeCell ref="L73:M73"/>
-    <mergeCell ref="N73:O73"/>
-    <mergeCell ref="R73:S73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="L74:M74"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="I78:J78"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="R82:S82"/>
-    <mergeCell ref="N83:O83"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="I83:J83"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="R81:S81"/>
-    <mergeCell ref="R80:S80"/>
-    <mergeCell ref="N82:O82"/>
-    <mergeCell ref="N81:O81"/>
-    <mergeCell ref="N80:O80"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="I80:J80"/>
-    <mergeCell ref="R87:S87"/>
-    <mergeCell ref="R86:S86"/>
-    <mergeCell ref="R85:S85"/>
-    <mergeCell ref="R84:S84"/>
-    <mergeCell ref="R83:S83"/>
-    <mergeCell ref="N87:O87"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="I87:J87"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="I85:J85"/>
-    <mergeCell ref="N85:O85"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="N86:O86"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="I84:J84"/>
-    <mergeCell ref="N84:O84"/>
-    <mergeCell ref="N70:O70"/>
-    <mergeCell ref="R72:S72"/>
-    <mergeCell ref="N77:O77"/>
-    <mergeCell ref="N78:O78"/>
-    <mergeCell ref="N74:O74"/>
-    <mergeCell ref="N79:O79"/>
-    <mergeCell ref="N75:O75"/>
-    <mergeCell ref="N76:O76"/>
-    <mergeCell ref="L71:M71"/>
-    <mergeCell ref="N71:O71"/>
-    <mergeCell ref="R78:S78"/>
-    <mergeCell ref="R77:S77"/>
-    <mergeCell ref="R76:S76"/>
-    <mergeCell ref="R75:S75"/>
-    <mergeCell ref="R74:S74"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="R70:S70"/>
-    <mergeCell ref="R71:S71"/>
-    <mergeCell ref="L72:M72"/>
-    <mergeCell ref="N72:O72"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="I77:J77"/>
-    <mergeCell ref="B62:H62"/>
-    <mergeCell ref="B63:H63"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B55:H55"/>
-    <mergeCell ref="B61:H61"/>
-    <mergeCell ref="B54:H54"/>
-    <mergeCell ref="B57:H57"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="I73:J73"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B40:O40"/>
-    <mergeCell ref="R69:S69"/>
-    <mergeCell ref="B56:H56"/>
-    <mergeCell ref="N69:O69"/>
-    <mergeCell ref="O42:O44"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="J42:N42"/>
-    <mergeCell ref="N43:N44"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B60:H60"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B35:H35"/>
   </mergeCells>
   <conditionalFormatting sqref="C44 E44:H44">
     <cfRule type="cellIs" dxfId="6" priority="11" operator="equal">
@@ -41775,12 +41775,12 @@
     <row r="1" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:41" s="12" customFormat="1" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3"/>
-      <c r="B2" s="214" t="s">
+      <c r="B2" s="216" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="232"/>
-      <c r="D2" s="232"/>
-      <c r="E2" s="215"/>
+      <c r="C2" s="226"/>
+      <c r="D2" s="226"/>
+      <c r="E2" s="217"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -41821,12 +41821,12 @@
     <row r="3" spans="1:41" ht="14.5" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:41" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="112"/>
-      <c r="B4" s="219" t="s">
+      <c r="B4" s="223" t="s">
         <v>216</v>
       </c>
-      <c r="C4" s="220"/>
-      <c r="D4" s="220"/>
-      <c r="E4" s="221"/>
+      <c r="C4" s="224"/>
+      <c r="D4" s="224"/>
+      <c r="E4" s="225"/>
       <c r="F4" s="112"/>
       <c r="G4" s="112"/>
       <c r="H4" s="112"/>
@@ -41866,12 +41866,12 @@
     </row>
     <row r="5" spans="1:41" s="7" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="112"/>
-      <c r="B5" s="309" t="s">
+      <c r="B5" s="343" t="s">
         <v>217</v>
       </c>
-      <c r="C5" s="310"/>
-      <c r="D5" s="310"/>
-      <c r="E5" s="311"/>
+      <c r="C5" s="344"/>
+      <c r="D5" s="344"/>
+      <c r="E5" s="345"/>
       <c r="F5" s="112"/>
       <c r="G5" s="112"/>
       <c r="H5" s="112"/>
@@ -42265,6 +42265,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="681fe441-c46c-4ea5-a5c5-b45872725697">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="83a87e31-bf32-46ab-8e70-9fa18461fa4d" xsi:nil="true"/>
+    <SharedWithUsers xmlns="6bac55d2-c587-47e2-866b-bbb6fe14d104">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AB5DDB95A7ECBD49AA08D06BA3EF1CDA" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fe5bfd8c052041f57bea8be2fc23aae3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="681fe441-c46c-4ea5-a5c5-b45872725697" xmlns:ns3="6bac55d2-c587-47e2-866b-bbb6fe14d104" xmlns:ns4="83a87e31-bf32-46ab-8e70-9fa18461fa4d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2f48421f1dce13a43278cc3c99628998" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -42535,36 +42564,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="681fe441-c46c-4ea5-a5c5-b45872725697">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="83a87e31-bf32-46ab-8e70-9fa18461fa4d" xsi:nil="true"/>
-    <SharedWithUsers xmlns="6bac55d2-c587-47e2-866b-bbb6fe14d104">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4FE8F99-283B-450B-9291-1D0662914CE9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12714E09-E476-4024-A743-EBE78B46D4FD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="681fe441-c46c-4ea5-a5c5-b45872725697"/>
+    <ds:schemaRef ds:uri="83a87e31-bf32-46ab-8e70-9fa18461fa4d"/>
+    <ds:schemaRef ds:uri="6bac55d2-c587-47e2-866b-bbb6fe14d104"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38A08E56-31DD-4856-904D-CF4B4BDF8261}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -42585,27 +42606,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12714E09-E476-4024-A743-EBE78B46D4FD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="681fe441-c46c-4ea5-a5c5-b45872725697"/>
-    <ds:schemaRef ds:uri="83a87e31-bf32-46ab-8e70-9fa18461fa4d"/>
-    <ds:schemaRef ds:uri="6bac55d2-c587-47e2-866b-bbb6fe14d104"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4FE8F99-283B-450B-9291-1D0662914CE9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{95c71a0f-75e1-4c8f-90e2-641c9351dd98}" enabled="1" method="Standard" siteId="{3e0088dc-0629-4ae6-aa8c-813e7a296f50}" removed="0"/>

--- a/tests/integration_tests/mock_pf_returns/PF_Round_1_Initial_Validation_Failures.xlsx
+++ b/tests/integration_tests/mock_pf_returns/PF_Round_1_Initial_Validation_Failures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mhclg-my.sharepoint.com/personal/william_may_communities_gov_uk/Documents/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{3BFD13D3-E7E4-44F9-AB57-537CDEC19A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3A521C2-A974-4AAF-A47B-320A13D6BD3B}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{3BFD13D3-E7E4-44F9-AB57-537CDEC19A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0CD172ED-12A1-477B-8DD3-5AA2A66891CC}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" tabRatio="661" activeTab="6" xr2:uid="{F1A93CD4-AFD6-463B-B066-EB4D40A0C607}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" tabRatio="661" activeTab="10" xr2:uid="{F1A93CD4-AFD6-463B-B066-EB4D40A0C607}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="13" r:id="rId1"/>
@@ -23,11 +23,11 @@
     <sheet name="Finances" sheetId="6" r:id="rId8"/>
     <sheet name="Risks" sheetId="7" r:id="rId9"/>
     <sheet name="Sign off" sheetId="8" r:id="rId10"/>
-    <sheet name="Dropdown Values" sheetId="19" state="hidden" r:id="rId11"/>
-    <sheet name="Project Details" sheetId="10" state="hidden" r:id="rId12"/>
-    <sheet name="ITValues" sheetId="20" state="hidden" r:id="rId13"/>
-    <sheet name="Bespoke Outputs" sheetId="14" state="hidden" r:id="rId14"/>
-    <sheet name="Bespoke Outcomes" sheetId="15" state="hidden" r:id="rId15"/>
+    <sheet name="Dropdown Values" sheetId="19" r:id="rId11"/>
+    <sheet name="Project Details" sheetId="10" r:id="rId12"/>
+    <sheet name="ITValues" sheetId="20" r:id="rId13"/>
+    <sheet name="Bespoke Outputs" sheetId="14" r:id="rId14"/>
+    <sheet name="Bespoke Outcomes" sheetId="15" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Project Details'!$A$2:$E$997</definedName>
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2893" uniqueCount="1113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2893" uniqueCount="1112">
   <si>
     <t>Reporting Round</t>
   </si>
@@ -1331,9 +1331,6 @@
   </si>
   <si>
     <t xml:space="preserve">Amount of land made wheelchair accessible/step free </t>
-  </si>
-  <si>
-    <t>Enhancing sub-regional and regional connectivity</t>
   </si>
   <si>
     <t>Amount of new educational space created</t>
@@ -7612,7 +7609,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -7690,7 +7687,7 @@
     </row>
     <row r="8" spans="1:6" s="3" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="39" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="3" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -7710,7 +7707,7 @@
     </row>
     <row r="12" spans="1:6" s="3" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="29" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="3" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -7900,8 +7897,8 @@
   </sheetPr>
   <dimension ref="A1:J177"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8192,12 +8189,12 @@
         <v>298</v>
       </c>
       <c r="C48" s="125" t="s">
-        <v>306</v>
+        <v>365</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B49" t="s">
         <v>298</v>
@@ -8208,7 +8205,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B50" t="s">
         <v>298</v>
@@ -8219,7 +8216,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B51" t="s">
         <v>298</v>
@@ -8230,7 +8227,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B52" t="s">
         <v>298</v>
@@ -8241,7 +8238,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B53" t="s">
         <v>298</v>
@@ -8252,7 +8249,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B54" t="s">
         <v>298</v>
@@ -8263,7 +8260,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B55" t="s">
         <v>138</v>
@@ -8274,7 +8271,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B56" t="s">
         <v>138</v>
@@ -8285,7 +8282,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B57" t="s">
         <v>138</v>
@@ -8297,7 +8294,7 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B58" t="s">
         <v>138</v>
@@ -8308,18 +8305,18 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B59" t="s">
         <v>138</v>
       </c>
       <c r="C59" s="125" t="s">
-        <v>306</v>
+        <v>365</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B60" t="s">
         <v>138</v>
@@ -8330,7 +8327,7 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B61" t="s">
         <v>138</v>
@@ -8341,7 +8338,7 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B62" t="s">
         <v>138</v>
@@ -8352,7 +8349,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B63" t="s">
         <v>138</v>
@@ -8363,7 +8360,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B64" t="s">
         <v>138</v>
@@ -8374,7 +8371,7 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B65" t="s">
         <v>138</v>
@@ -8385,7 +8382,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B66" t="s">
         <v>138</v>
@@ -8396,7 +8393,7 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B67" t="s">
         <v>138</v>
@@ -8408,7 +8405,7 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B68" t="s">
         <v>138</v>
@@ -8419,7 +8416,7 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B69" t="s">
         <v>138</v>
@@ -8430,7 +8427,7 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B70" t="s">
         <v>138</v>
@@ -8441,7 +8438,7 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B71" t="s">
         <v>138</v>
@@ -8452,83 +8449,83 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
+        <v>329</v>
+      </c>
+      <c r="B72" t="s">
         <v>330</v>
       </c>
-      <c r="B72" t="s">
-        <v>331</v>
-      </c>
       <c r="C72" s="125" t="s">
-        <v>306</v>
+        <v>365</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B73" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C73" s="125" t="s">
-        <v>306</v>
+        <v>365</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B74" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C74" s="125" t="s">
-        <v>306</v>
+        <v>365</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B75" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C75" s="125" t="s">
-        <v>306</v>
+        <v>365</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B76" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C76" s="125" t="s">
-        <v>306</v>
+        <v>365</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B77" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C77" s="125" t="s">
-        <v>306</v>
+        <v>365</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C78" s="60" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" s="60" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>296</v>
@@ -8553,7 +8550,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B82" t="s">
         <v>138</v>
@@ -8564,10 +8561,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
+        <v>340</v>
+      </c>
+      <c r="B83" t="s">
         <v>341</v>
-      </c>
-      <c r="B83" t="s">
-        <v>342</v>
       </c>
       <c r="C83" s="125" t="s">
         <v>301</v>
@@ -8575,40 +8572,40 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B84" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C84" s="125" t="s">
-        <v>306</v>
+        <v>365</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B85" t="s">
         <v>138</v>
       </c>
       <c r="C85" s="125" t="s">
-        <v>306</v>
+        <v>365</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B86" t="s">
         <v>138</v>
       </c>
       <c r="C86" s="125" t="s">
-        <v>306</v>
+        <v>365</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B87" t="s">
         <v>138</v>
@@ -8619,7 +8616,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B88" t="s">
         <v>138</v>
@@ -8630,7 +8627,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B89" t="s">
         <v>138</v>
@@ -8641,7 +8638,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B90" t="s">
         <v>138</v>
@@ -8652,7 +8649,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B91" t="s">
         <v>138</v>
@@ -8663,7 +8660,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B92" t="s">
         <v>138</v>
@@ -8674,7 +8671,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B93" t="s">
         <v>138</v>
@@ -8685,7 +8682,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B94" t="s">
         <v>138</v>
@@ -8696,7 +8693,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B95" t="s">
         <v>138</v>
@@ -8707,7 +8704,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B96" t="s">
         <v>138</v>
@@ -8718,21 +8715,21 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B97" t="s">
         <v>138</v>
       </c>
       <c r="C97" s="125" t="s">
-        <v>306</v>
+        <v>365</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B98" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C98" s="125" t="s">
         <v>304</v>
@@ -8740,10 +8737,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B99" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C99" s="125" t="s">
         <v>299</v>
@@ -8751,10 +8748,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B100" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C100" s="125" t="s">
         <v>301</v>
@@ -8762,21 +8759,21 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B101" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C101" s="125" t="s">
-        <v>306</v>
+        <v>365</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
+        <v>357</v>
+      </c>
+      <c r="B102" t="s">
         <v>358</v>
-      </c>
-      <c r="B102" t="s">
-        <v>359</v>
       </c>
       <c r="C102" s="125" t="s">
         <v>299</v>
@@ -8784,10 +8781,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B103" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C103" s="125" t="s">
         <v>299</v>
@@ -8795,23 +8792,23 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B104" t="s">
         <v>138</v>
       </c>
       <c r="C104" s="125" t="s">
-        <v>306</v>
+        <v>365</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C105" s="60" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" s="60" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
@@ -8827,7 +8824,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
@@ -8842,22 +8839,22 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A114" s="60" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A115" s="60" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.35">
@@ -8878,7 +8875,7 @@
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.35">
@@ -8898,17 +8895,17 @@
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A123" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A124" s="60" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.35">
@@ -8919,22 +8916,22 @@
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A128" s="60" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A129" s="60" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.35">
@@ -8955,12 +8952,12 @@
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A134" s="60" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A135" s="60" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.35">
@@ -8986,22 +8983,22 @@
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A141" s="60" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A142" s="60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.35">
@@ -9012,132 +9009,132 @@
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A147" s="23" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A148" s="23" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A155" s="23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A156" s="23" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A157" s="23" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A159" s="23" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A161" s="23" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A163" s="23" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A165" s="23" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A168" s="60" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A169" s="60" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.35">
@@ -9148,32 +9145,32 @@
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A177" s="60" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
   </sheetData>
@@ -9209,24 +9206,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="60" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B2" t="s">
         <v>413</v>
-      </c>
-      <c r="B2" t="s">
-        <v>414</v>
       </c>
       <c r="C2" t="s">
         <v>86</v>
       </c>
       <c r="D2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E2" t="s">
         <v>415</v>
-      </c>
-      <c r="E2" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -9234,16 +9231,16 @@
         <v>44</v>
       </c>
       <c r="B3" t="s">
+        <v>416</v>
+      </c>
+      <c r="C3" t="s">
         <v>417</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>418</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>419</v>
-      </c>
-      <c r="E3" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -9251,16 +9248,16 @@
         <v>44</v>
       </c>
       <c r="B4" t="s">
+        <v>420</v>
+      </c>
+      <c r="C4" t="s">
         <v>421</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>418</v>
+      </c>
+      <c r="E4" t="s">
         <v>422</v>
-      </c>
-      <c r="D4" t="s">
-        <v>419</v>
-      </c>
-      <c r="E4" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -9268,16 +9265,16 @@
         <v>44</v>
       </c>
       <c r="B5" t="s">
+        <v>423</v>
+      </c>
+      <c r="C5" t="s">
         <v>424</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>418</v>
+      </c>
+      <c r="E5" t="s">
         <v>425</v>
-      </c>
-      <c r="D5" t="s">
-        <v>419</v>
-      </c>
-      <c r="E5" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -9285,16 +9282,16 @@
         <v>44</v>
       </c>
       <c r="B6" t="s">
+        <v>426</v>
+      </c>
+      <c r="C6" t="s">
         <v>427</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>418</v>
+      </c>
+      <c r="E6" t="s">
         <v>428</v>
-      </c>
-      <c r="D6" t="s">
-        <v>419</v>
-      </c>
-      <c r="E6" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -9302,16 +9299,16 @@
         <v>44</v>
       </c>
       <c r="B7" t="s">
+        <v>429</v>
+      </c>
+      <c r="C7" t="s">
         <v>430</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>418</v>
+      </c>
+      <c r="E7" t="s">
         <v>431</v>
-      </c>
-      <c r="D7" t="s">
-        <v>419</v>
-      </c>
-      <c r="E7" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -9319,16 +9316,16 @@
         <v>44</v>
       </c>
       <c r="B8" t="s">
+        <v>432</v>
+      </c>
+      <c r="C8" t="s">
         <v>433</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
+        <v>418</v>
+      </c>
+      <c r="E8" t="s">
         <v>434</v>
-      </c>
-      <c r="D8" t="s">
-        <v>419</v>
-      </c>
-      <c r="E8" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -9336,16 +9333,16 @@
         <v>44</v>
       </c>
       <c r="B9" t="s">
+        <v>435</v>
+      </c>
+      <c r="C9" t="s">
         <v>436</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
+        <v>418</v>
+      </c>
+      <c r="E9" t="s">
         <v>437</v>
-      </c>
-      <c r="D9" t="s">
-        <v>419</v>
-      </c>
-      <c r="E9" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -9353,16 +9350,16 @@
         <v>44</v>
       </c>
       <c r="B10" t="s">
+        <v>438</v>
+      </c>
+      <c r="C10" t="s">
         <v>439</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
+        <v>418</v>
+      </c>
+      <c r="E10" t="s">
         <v>440</v>
-      </c>
-      <c r="D10" t="s">
-        <v>419</v>
-      </c>
-      <c r="E10" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -9370,16 +9367,16 @@
         <v>44</v>
       </c>
       <c r="B11" t="s">
+        <v>441</v>
+      </c>
+      <c r="C11" t="s">
         <v>442</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
+        <v>418</v>
+      </c>
+      <c r="E11" t="s">
         <v>443</v>
-      </c>
-      <c r="D11" t="s">
-        <v>419</v>
-      </c>
-      <c r="E11" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -9387,16 +9384,16 @@
         <v>276</v>
       </c>
       <c r="B12" t="s">
+        <v>444</v>
+      </c>
+      <c r="C12" t="s">
         <v>445</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
+        <v>418</v>
+      </c>
+      <c r="E12" t="s">
         <v>446</v>
-      </c>
-      <c r="D12" t="s">
-        <v>419</v>
-      </c>
-      <c r="E12" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -9404,16 +9401,16 @@
         <v>276</v>
       </c>
       <c r="B13" t="s">
+        <v>447</v>
+      </c>
+      <c r="C13" t="s">
         <v>448</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
+        <v>418</v>
+      </c>
+      <c r="E13" t="s">
         <v>449</v>
-      </c>
-      <c r="D13" t="s">
-        <v>419</v>
-      </c>
-      <c r="E13" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -9421,16 +9418,16 @@
         <v>276</v>
       </c>
       <c r="B14" t="s">
+        <v>450</v>
+      </c>
+      <c r="C14" t="s">
         <v>451</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
+        <v>418</v>
+      </c>
+      <c r="E14" t="s">
         <v>452</v>
-      </c>
-      <c r="D14" t="s">
-        <v>419</v>
-      </c>
-      <c r="E14" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -9438,16 +9435,16 @@
         <v>276</v>
       </c>
       <c r="B15" t="s">
+        <v>453</v>
+      </c>
+      <c r="C15" t="s">
         <v>454</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
+        <v>418</v>
+      </c>
+      <c r="E15" t="s">
         <v>455</v>
-      </c>
-      <c r="D15" t="s">
-        <v>419</v>
-      </c>
-      <c r="E15" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
@@ -9455,16 +9452,16 @@
         <v>276</v>
       </c>
       <c r="B16" t="s">
+        <v>456</v>
+      </c>
+      <c r="C16" t="s">
         <v>457</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
+        <v>418</v>
+      </c>
+      <c r="E16" t="s">
         <v>458</v>
-      </c>
-      <c r="D16" t="s">
-        <v>419</v>
-      </c>
-      <c r="E16" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -9472,16 +9469,16 @@
         <v>276</v>
       </c>
       <c r="B17" t="s">
+        <v>459</v>
+      </c>
+      <c r="C17" t="s">
         <v>460</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
+        <v>418</v>
+      </c>
+      <c r="E17" t="s">
         <v>461</v>
-      </c>
-      <c r="D17" t="s">
-        <v>419</v>
-      </c>
-      <c r="E17" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
@@ -9489,16 +9486,16 @@
         <v>276</v>
       </c>
       <c r="B18" t="s">
+        <v>462</v>
+      </c>
+      <c r="C18" t="s">
         <v>463</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
+        <v>418</v>
+      </c>
+      <c r="E18" t="s">
         <v>464</v>
-      </c>
-      <c r="D18" t="s">
-        <v>419</v>
-      </c>
-      <c r="E18" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
@@ -9506,16 +9503,16 @@
         <v>276</v>
       </c>
       <c r="B19" t="s">
+        <v>465</v>
+      </c>
+      <c r="C19" t="s">
         <v>466</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
+        <v>418</v>
+      </c>
+      <c r="E19" t="s">
         <v>467</v>
-      </c>
-      <c r="D19" t="s">
-        <v>419</v>
-      </c>
-      <c r="E19" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
@@ -9523,16 +9520,16 @@
         <v>276</v>
       </c>
       <c r="B20" t="s">
+        <v>468</v>
+      </c>
+      <c r="C20" t="s">
         <v>469</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
+        <v>418</v>
+      </c>
+      <c r="E20" t="s">
         <v>470</v>
-      </c>
-      <c r="D20" t="s">
-        <v>419</v>
-      </c>
-      <c r="E20" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
@@ -9540,16 +9537,16 @@
         <v>276</v>
       </c>
       <c r="B21" t="s">
+        <v>471</v>
+      </c>
+      <c r="C21" t="s">
         <v>472</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
+        <v>418</v>
+      </c>
+      <c r="E21" t="s">
         <v>473</v>
-      </c>
-      <c r="D21" t="s">
-        <v>419</v>
-      </c>
-      <c r="E21" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
@@ -9557,16 +9554,16 @@
         <v>276</v>
       </c>
       <c r="B22" t="s">
+        <v>474</v>
+      </c>
+      <c r="C22" t="s">
         <v>475</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
+        <v>418</v>
+      </c>
+      <c r="E22" t="s">
         <v>476</v>
-      </c>
-      <c r="D22" t="s">
-        <v>419</v>
-      </c>
-      <c r="E22" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
@@ -9574,16 +9571,16 @@
         <v>276</v>
       </c>
       <c r="B23" t="s">
+        <v>477</v>
+      </c>
+      <c r="C23" t="s">
         <v>478</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
+        <v>418</v>
+      </c>
+      <c r="E23" t="s">
         <v>479</v>
-      </c>
-      <c r="D23" t="s">
-        <v>419</v>
-      </c>
-      <c r="E23" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
@@ -9591,16 +9588,16 @@
         <v>276</v>
       </c>
       <c r="B24" t="s">
+        <v>480</v>
+      </c>
+      <c r="C24" t="s">
         <v>481</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
+        <v>418</v>
+      </c>
+      <c r="E24" t="s">
         <v>482</v>
-      </c>
-      <c r="D24" t="s">
-        <v>419</v>
-      </c>
-      <c r="E24" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
@@ -9608,16 +9605,16 @@
         <v>276</v>
       </c>
       <c r="B25" t="s">
+        <v>483</v>
+      </c>
+      <c r="C25" t="s">
         <v>484</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
+        <v>418</v>
+      </c>
+      <c r="E25" t="s">
         <v>485</v>
-      </c>
-      <c r="D25" t="s">
-        <v>419</v>
-      </c>
-      <c r="E25" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
@@ -9625,16 +9622,16 @@
         <v>276</v>
       </c>
       <c r="B26" t="s">
+        <v>486</v>
+      </c>
+      <c r="C26" t="s">
         <v>487</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
+        <v>418</v>
+      </c>
+      <c r="E26" t="s">
         <v>488</v>
-      </c>
-      <c r="D26" t="s">
-        <v>419</v>
-      </c>
-      <c r="E26" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
@@ -9642,16 +9639,16 @@
         <v>276</v>
       </c>
       <c r="B27" t="s">
+        <v>489</v>
+      </c>
+      <c r="C27" t="s">
         <v>490</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
+        <v>418</v>
+      </c>
+      <c r="E27" t="s">
         <v>491</v>
-      </c>
-      <c r="D27" t="s">
-        <v>419</v>
-      </c>
-      <c r="E27" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
@@ -9659,16 +9656,16 @@
         <v>276</v>
       </c>
       <c r="B28" t="s">
+        <v>492</v>
+      </c>
+      <c r="C28" t="s">
         <v>493</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
+        <v>418</v>
+      </c>
+      <c r="E28" t="s">
         <v>494</v>
-      </c>
-      <c r="D28" t="s">
-        <v>419</v>
-      </c>
-      <c r="E28" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
@@ -9676,16 +9673,16 @@
         <v>276</v>
       </c>
       <c r="B29" t="s">
+        <v>495</v>
+      </c>
+      <c r="C29" t="s">
         <v>496</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
+        <v>418</v>
+      </c>
+      <c r="E29" t="s">
         <v>497</v>
-      </c>
-      <c r="D29" t="s">
-        <v>419</v>
-      </c>
-      <c r="E29" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
@@ -9693,16 +9690,16 @@
         <v>276</v>
       </c>
       <c r="B30" t="s">
+        <v>498</v>
+      </c>
+      <c r="C30" t="s">
         <v>499</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
+        <v>418</v>
+      </c>
+      <c r="E30" t="s">
         <v>500</v>
-      </c>
-      <c r="D30" t="s">
-        <v>419</v>
-      </c>
-      <c r="E30" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
@@ -9710,16 +9707,16 @@
         <v>276</v>
       </c>
       <c r="B31" t="s">
+        <v>501</v>
+      </c>
+      <c r="C31" t="s">
         <v>502</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
+        <v>418</v>
+      </c>
+      <c r="E31" t="s">
         <v>503</v>
-      </c>
-      <c r="D31" t="s">
-        <v>419</v>
-      </c>
-      <c r="E31" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
@@ -9727,16 +9724,16 @@
         <v>276</v>
       </c>
       <c r="B32" t="s">
+        <v>504</v>
+      </c>
+      <c r="C32" t="s">
         <v>505</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
+        <v>418</v>
+      </c>
+      <c r="E32" t="s">
         <v>506</v>
-      </c>
-      <c r="D32" t="s">
-        <v>419</v>
-      </c>
-      <c r="E32" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
@@ -9744,16 +9741,16 @@
         <v>276</v>
       </c>
       <c r="B33" t="s">
+        <v>507</v>
+      </c>
+      <c r="C33" t="s">
         <v>508</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
+        <v>418</v>
+      </c>
+      <c r="E33" t="s">
         <v>509</v>
-      </c>
-      <c r="D33" t="s">
-        <v>419</v>
-      </c>
-      <c r="E33" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
@@ -9761,16 +9758,16 @@
         <v>276</v>
       </c>
       <c r="B34" t="s">
+        <v>510</v>
+      </c>
+      <c r="C34" t="s">
         <v>511</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
+        <v>418</v>
+      </c>
+      <c r="E34" t="s">
         <v>512</v>
-      </c>
-      <c r="D34" t="s">
-        <v>419</v>
-      </c>
-      <c r="E34" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
@@ -9778,16 +9775,16 @@
         <v>276</v>
       </c>
       <c r="B35" t="s">
+        <v>513</v>
+      </c>
+      <c r="C35" t="s">
         <v>514</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
+        <v>418</v>
+      </c>
+      <c r="E35" t="s">
         <v>515</v>
-      </c>
-      <c r="D35" t="s">
-        <v>419</v>
-      </c>
-      <c r="E35" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
@@ -9795,16 +9792,16 @@
         <v>276</v>
       </c>
       <c r="B36" t="s">
+        <v>516</v>
+      </c>
+      <c r="C36" t="s">
         <v>517</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
+        <v>418</v>
+      </c>
+      <c r="E36" t="s">
         <v>518</v>
-      </c>
-      <c r="D36" t="s">
-        <v>419</v>
-      </c>
-      <c r="E36" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
@@ -9812,16 +9809,16 @@
         <v>276</v>
       </c>
       <c r="B37" t="s">
+        <v>519</v>
+      </c>
+      <c r="C37" t="s">
         <v>520</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
+        <v>418</v>
+      </c>
+      <c r="E37" t="s">
         <v>521</v>
-      </c>
-      <c r="D37" t="s">
-        <v>419</v>
-      </c>
-      <c r="E37" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
@@ -9829,16 +9826,16 @@
         <v>276</v>
       </c>
       <c r="B38" t="s">
+        <v>522</v>
+      </c>
+      <c r="C38" t="s">
         <v>523</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
+        <v>418</v>
+      </c>
+      <c r="E38" t="s">
         <v>524</v>
-      </c>
-      <c r="D38" t="s">
-        <v>419</v>
-      </c>
-      <c r="E38" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
@@ -9846,16 +9843,16 @@
         <v>276</v>
       </c>
       <c r="B39" t="s">
+        <v>525</v>
+      </c>
+      <c r="C39" t="s">
         <v>526</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
+        <v>418</v>
+      </c>
+      <c r="E39" t="s">
         <v>527</v>
-      </c>
-      <c r="D39" t="s">
-        <v>419</v>
-      </c>
-      <c r="E39" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
@@ -9863,16 +9860,16 @@
         <v>276</v>
       </c>
       <c r="B40" t="s">
+        <v>528</v>
+      </c>
+      <c r="C40" t="s">
         <v>529</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
+        <v>418</v>
+      </c>
+      <c r="E40" t="s">
         <v>530</v>
-      </c>
-      <c r="D40" t="s">
-        <v>419</v>
-      </c>
-      <c r="E40" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
@@ -9880,16 +9877,16 @@
         <v>277</v>
       </c>
       <c r="B41" t="s">
+        <v>531</v>
+      </c>
+      <c r="C41" t="s">
         <v>532</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
+        <v>418</v>
+      </c>
+      <c r="E41" t="s">
         <v>533</v>
-      </c>
-      <c r="D41" t="s">
-        <v>419</v>
-      </c>
-      <c r="E41" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
@@ -9897,16 +9894,16 @@
         <v>277</v>
       </c>
       <c r="B42" t="s">
+        <v>534</v>
+      </c>
+      <c r="C42" t="s">
         <v>535</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
+        <v>418</v>
+      </c>
+      <c r="E42" t="s">
         <v>536</v>
-      </c>
-      <c r="D42" t="s">
-        <v>419</v>
-      </c>
-      <c r="E42" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
@@ -9914,16 +9911,16 @@
         <v>277</v>
       </c>
       <c r="B43" t="s">
+        <v>537</v>
+      </c>
+      <c r="C43" t="s">
         <v>538</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
+        <v>418</v>
+      </c>
+      <c r="E43" t="s">
         <v>539</v>
-      </c>
-      <c r="D43" t="s">
-        <v>419</v>
-      </c>
-      <c r="E43" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
@@ -9931,16 +9928,16 @@
         <v>277</v>
       </c>
       <c r="B44" t="s">
+        <v>540</v>
+      </c>
+      <c r="C44" t="s">
         <v>541</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
+        <v>418</v>
+      </c>
+      <c r="E44" t="s">
         <v>542</v>
-      </c>
-      <c r="D44" t="s">
-        <v>419</v>
-      </c>
-      <c r="E44" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
@@ -9948,16 +9945,16 @@
         <v>277</v>
       </c>
       <c r="B45" t="s">
+        <v>543</v>
+      </c>
+      <c r="C45" t="s">
         <v>544</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
+        <v>418</v>
+      </c>
+      <c r="E45" t="s">
         <v>545</v>
-      </c>
-      <c r="D45" t="s">
-        <v>419</v>
-      </c>
-      <c r="E45" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
@@ -9965,16 +9962,16 @@
         <v>277</v>
       </c>
       <c r="B46" t="s">
+        <v>546</v>
+      </c>
+      <c r="C46" t="s">
         <v>547</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
+        <v>418</v>
+      </c>
+      <c r="E46" t="s">
         <v>548</v>
-      </c>
-      <c r="D46" t="s">
-        <v>419</v>
-      </c>
-      <c r="E46" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
@@ -9982,16 +9979,16 @@
         <v>277</v>
       </c>
       <c r="B47" t="s">
+        <v>549</v>
+      </c>
+      <c r="C47" t="s">
         <v>550</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
+        <v>418</v>
+      </c>
+      <c r="E47" t="s">
         <v>551</v>
-      </c>
-      <c r="D47" t="s">
-        <v>419</v>
-      </c>
-      <c r="E47" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
@@ -9999,16 +9996,16 @@
         <v>277</v>
       </c>
       <c r="B48" t="s">
+        <v>552</v>
+      </c>
+      <c r="C48" t="s">
         <v>553</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
+        <v>418</v>
+      </c>
+      <c r="E48" t="s">
         <v>554</v>
-      </c>
-      <c r="D48" t="s">
-        <v>419</v>
-      </c>
-      <c r="E48" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
@@ -10016,16 +10013,16 @@
         <v>277</v>
       </c>
       <c r="B49" t="s">
+        <v>555</v>
+      </c>
+      <c r="C49" t="s">
         <v>556</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
+        <v>418</v>
+      </c>
+      <c r="E49" t="s">
         <v>557</v>
-      </c>
-      <c r="D49" t="s">
-        <v>419</v>
-      </c>
-      <c r="E49" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
@@ -10033,16 +10030,16 @@
         <v>277</v>
       </c>
       <c r="B50" t="s">
+        <v>558</v>
+      </c>
+      <c r="C50" t="s">
         <v>559</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
+        <v>418</v>
+      </c>
+      <c r="E50" t="s">
         <v>560</v>
-      </c>
-      <c r="D50" t="s">
-        <v>419</v>
-      </c>
-      <c r="E50" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
@@ -10050,16 +10047,16 @@
         <v>277</v>
       </c>
       <c r="B51" t="s">
+        <v>561</v>
+      </c>
+      <c r="C51" t="s">
         <v>562</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
+        <v>418</v>
+      </c>
+      <c r="E51" t="s">
         <v>563</v>
-      </c>
-      <c r="D51" t="s">
-        <v>419</v>
-      </c>
-      <c r="E51" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
@@ -10067,16 +10064,16 @@
         <v>277</v>
       </c>
       <c r="B52" t="s">
+        <v>564</v>
+      </c>
+      <c r="C52" t="s">
         <v>565</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
+        <v>418</v>
+      </c>
+      <c r="E52" t="s">
         <v>566</v>
-      </c>
-      <c r="D52" t="s">
-        <v>419</v>
-      </c>
-      <c r="E52" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
@@ -10084,16 +10081,16 @@
         <v>278</v>
       </c>
       <c r="B53" t="s">
+        <v>567</v>
+      </c>
+      <c r="C53" t="s">
         <v>568</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
+        <v>418</v>
+      </c>
+      <c r="E53" t="s">
         <v>569</v>
-      </c>
-      <c r="D53" t="s">
-        <v>419</v>
-      </c>
-      <c r="E53" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
@@ -10101,16 +10098,16 @@
         <v>278</v>
       </c>
       <c r="B54" t="s">
+        <v>570</v>
+      </c>
+      <c r="C54" t="s">
         <v>571</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
+        <v>418</v>
+      </c>
+      <c r="E54" t="s">
         <v>572</v>
-      </c>
-      <c r="D54" t="s">
-        <v>419</v>
-      </c>
-      <c r="E54" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
@@ -10118,16 +10115,16 @@
         <v>278</v>
       </c>
       <c r="B55" t="s">
+        <v>573</v>
+      </c>
+      <c r="C55" t="s">
         <v>574</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
+        <v>418</v>
+      </c>
+      <c r="E55" t="s">
         <v>575</v>
-      </c>
-      <c r="D55" t="s">
-        <v>419</v>
-      </c>
-      <c r="E55" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
@@ -10135,16 +10132,16 @@
         <v>278</v>
       </c>
       <c r="B56" t="s">
+        <v>576</v>
+      </c>
+      <c r="C56" t="s">
         <v>577</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
+        <v>418</v>
+      </c>
+      <c r="E56" t="s">
         <v>578</v>
-      </c>
-      <c r="D56" t="s">
-        <v>419</v>
-      </c>
-      <c r="E56" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
@@ -10152,16 +10149,16 @@
         <v>278</v>
       </c>
       <c r="B57" t="s">
+        <v>579</v>
+      </c>
+      <c r="C57" t="s">
         <v>580</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
+        <v>418</v>
+      </c>
+      <c r="E57" t="s">
         <v>581</v>
-      </c>
-      <c r="D57" t="s">
-        <v>419</v>
-      </c>
-      <c r="E57" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
@@ -10169,16 +10166,16 @@
         <v>278</v>
       </c>
       <c r="B58" t="s">
+        <v>582</v>
+      </c>
+      <c r="C58" t="s">
         <v>583</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
+        <v>418</v>
+      </c>
+      <c r="E58" t="s">
         <v>584</v>
-      </c>
-      <c r="D58" t="s">
-        <v>419</v>
-      </c>
-      <c r="E58" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
@@ -10186,16 +10183,16 @@
         <v>278</v>
       </c>
       <c r="B59" t="s">
+        <v>585</v>
+      </c>
+      <c r="C59" t="s">
         <v>586</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
+        <v>418</v>
+      </c>
+      <c r="E59" t="s">
         <v>587</v>
-      </c>
-      <c r="D59" t="s">
-        <v>419</v>
-      </c>
-      <c r="E59" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
@@ -10203,16 +10200,16 @@
         <v>278</v>
       </c>
       <c r="B60" t="s">
+        <v>588</v>
+      </c>
+      <c r="C60" t="s">
         <v>589</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
+        <v>418</v>
+      </c>
+      <c r="E60" t="s">
         <v>590</v>
-      </c>
-      <c r="D60" t="s">
-        <v>419</v>
-      </c>
-      <c r="E60" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
@@ -10220,16 +10217,16 @@
         <v>278</v>
       </c>
       <c r="B61" t="s">
+        <v>591</v>
+      </c>
+      <c r="C61" t="s">
         <v>592</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
+        <v>418</v>
+      </c>
+      <c r="E61" t="s">
         <v>593</v>
-      </c>
-      <c r="D61" t="s">
-        <v>419</v>
-      </c>
-      <c r="E61" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
@@ -10237,16 +10234,16 @@
         <v>278</v>
       </c>
       <c r="B62" t="s">
+        <v>594</v>
+      </c>
+      <c r="C62" t="s">
         <v>595</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
+        <v>418</v>
+      </c>
+      <c r="E62" t="s">
         <v>596</v>
-      </c>
-      <c r="D62" t="s">
-        <v>419</v>
-      </c>
-      <c r="E62" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
@@ -10254,16 +10251,16 @@
         <v>278</v>
       </c>
       <c r="B63" t="s">
+        <v>597</v>
+      </c>
+      <c r="C63" t="s">
         <v>598</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
+        <v>418</v>
+      </c>
+      <c r="E63" t="s">
         <v>599</v>
-      </c>
-      <c r="D63" t="s">
-        <v>419</v>
-      </c>
-      <c r="E63" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
@@ -10271,16 +10268,16 @@
         <v>278</v>
       </c>
       <c r="B64" t="s">
+        <v>600</v>
+      </c>
+      <c r="C64" t="s">
         <v>601</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
+        <v>418</v>
+      </c>
+      <c r="E64" t="s">
         <v>602</v>
-      </c>
-      <c r="D64" t="s">
-        <v>419</v>
-      </c>
-      <c r="E64" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
@@ -10288,16 +10285,16 @@
         <v>278</v>
       </c>
       <c r="B65" t="s">
+        <v>603</v>
+      </c>
+      <c r="C65" t="s">
         <v>604</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
+        <v>418</v>
+      </c>
+      <c r="E65" t="s">
         <v>605</v>
-      </c>
-      <c r="D65" t="s">
-        <v>419</v>
-      </c>
-      <c r="E65" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
@@ -10305,16 +10302,16 @@
         <v>279</v>
       </c>
       <c r="B66" t="s">
+        <v>606</v>
+      </c>
+      <c r="C66" t="s">
         <v>607</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
+        <v>418</v>
+      </c>
+      <c r="E66" t="s">
         <v>608</v>
-      </c>
-      <c r="D66" t="s">
-        <v>419</v>
-      </c>
-      <c r="E66" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
@@ -10322,16 +10319,16 @@
         <v>279</v>
       </c>
       <c r="B67" t="s">
+        <v>609</v>
+      </c>
+      <c r="C67" t="s">
         <v>610</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
+        <v>418</v>
+      </c>
+      <c r="E67" t="s">
         <v>611</v>
-      </c>
-      <c r="D67" t="s">
-        <v>419</v>
-      </c>
-      <c r="E67" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
@@ -10339,16 +10336,16 @@
         <v>279</v>
       </c>
       <c r="B68" t="s">
+        <v>612</v>
+      </c>
+      <c r="C68" t="s">
         <v>613</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
+        <v>418</v>
+      </c>
+      <c r="E68" t="s">
         <v>614</v>
-      </c>
-      <c r="D68" t="s">
-        <v>419</v>
-      </c>
-      <c r="E68" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
@@ -10356,16 +10353,16 @@
         <v>279</v>
       </c>
       <c r="B69" t="s">
+        <v>615</v>
+      </c>
+      <c r="C69" t="s">
         <v>616</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
+        <v>418</v>
+      </c>
+      <c r="E69" t="s">
         <v>617</v>
-      </c>
-      <c r="D69" t="s">
-        <v>419</v>
-      </c>
-      <c r="E69" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
@@ -10373,16 +10370,16 @@
         <v>279</v>
       </c>
       <c r="B70" t="s">
+        <v>618</v>
+      </c>
+      <c r="C70" t="s">
         <v>619</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
+        <v>418</v>
+      </c>
+      <c r="E70" t="s">
         <v>620</v>
-      </c>
-      <c r="D70" t="s">
-        <v>419</v>
-      </c>
-      <c r="E70" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
@@ -10390,16 +10387,16 @@
         <v>279</v>
       </c>
       <c r="B71" t="s">
+        <v>621</v>
+      </c>
+      <c r="C71" t="s">
         <v>622</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
+        <v>418</v>
+      </c>
+      <c r="E71" t="s">
         <v>623</v>
-      </c>
-      <c r="D71" t="s">
-        <v>419</v>
-      </c>
-      <c r="E71" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
@@ -10407,16 +10404,16 @@
         <v>279</v>
       </c>
       <c r="B72" t="s">
+        <v>624</v>
+      </c>
+      <c r="C72" t="s">
         <v>625</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
+        <v>418</v>
+      </c>
+      <c r="E72" t="s">
         <v>626</v>
-      </c>
-      <c r="D72" t="s">
-        <v>419</v>
-      </c>
-      <c r="E72" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
@@ -10424,16 +10421,16 @@
         <v>279</v>
       </c>
       <c r="B73" t="s">
+        <v>627</v>
+      </c>
+      <c r="C73" t="s">
         <v>628</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
+        <v>418</v>
+      </c>
+      <c r="E73" t="s">
         <v>629</v>
-      </c>
-      <c r="D73" t="s">
-        <v>419</v>
-      </c>
-      <c r="E73" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
@@ -10441,16 +10438,16 @@
         <v>279</v>
       </c>
       <c r="B74" t="s">
+        <v>630</v>
+      </c>
+      <c r="C74" t="s">
         <v>631</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
+        <v>418</v>
+      </c>
+      <c r="E74" t="s">
         <v>632</v>
-      </c>
-      <c r="D74" t="s">
-        <v>419</v>
-      </c>
-      <c r="E74" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
@@ -10458,16 +10455,16 @@
         <v>279</v>
       </c>
       <c r="B75" t="s">
+        <v>633</v>
+      </c>
+      <c r="C75" t="s">
         <v>634</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
+        <v>418</v>
+      </c>
+      <c r="E75" t="s">
         <v>635</v>
-      </c>
-      <c r="D75" t="s">
-        <v>419</v>
-      </c>
-      <c r="E75" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
@@ -10475,16 +10472,16 @@
         <v>279</v>
       </c>
       <c r="B76" t="s">
+        <v>636</v>
+      </c>
+      <c r="C76" t="s">
         <v>637</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
+        <v>418</v>
+      </c>
+      <c r="E76" t="s">
         <v>638</v>
-      </c>
-      <c r="D76" t="s">
-        <v>419</v>
-      </c>
-      <c r="E76" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
@@ -10492,16 +10489,16 @@
         <v>279</v>
       </c>
       <c r="B77" t="s">
+        <v>639</v>
+      </c>
+      <c r="C77" t="s">
         <v>640</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
+        <v>418</v>
+      </c>
+      <c r="E77" t="s">
         <v>641</v>
-      </c>
-      <c r="D77" t="s">
-        <v>419</v>
-      </c>
-      <c r="E77" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
@@ -10509,16 +10506,16 @@
         <v>280</v>
       </c>
       <c r="B78" t="s">
+        <v>642</v>
+      </c>
+      <c r="C78" t="s">
         <v>643</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
+        <v>418</v>
+      </c>
+      <c r="E78" t="s">
         <v>644</v>
-      </c>
-      <c r="D78" t="s">
-        <v>419</v>
-      </c>
-      <c r="E78" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
@@ -10526,16 +10523,16 @@
         <v>280</v>
       </c>
       <c r="B79" t="s">
+        <v>645</v>
+      </c>
+      <c r="C79" t="s">
         <v>646</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
+        <v>418</v>
+      </c>
+      <c r="E79" t="s">
         <v>647</v>
-      </c>
-      <c r="D79" t="s">
-        <v>419</v>
-      </c>
-      <c r="E79" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
@@ -10543,16 +10540,16 @@
         <v>280</v>
       </c>
       <c r="B80" t="s">
+        <v>648</v>
+      </c>
+      <c r="C80" t="s">
         <v>649</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
+        <v>418</v>
+      </c>
+      <c r="E80" t="s">
         <v>650</v>
-      </c>
-      <c r="D80" t="s">
-        <v>419</v>
-      </c>
-      <c r="E80" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
@@ -10560,16 +10557,16 @@
         <v>280</v>
       </c>
       <c r="B81" t="s">
+        <v>651</v>
+      </c>
+      <c r="C81" t="s">
         <v>652</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
+        <v>418</v>
+      </c>
+      <c r="E81" t="s">
         <v>653</v>
-      </c>
-      <c r="D81" t="s">
-        <v>419</v>
-      </c>
-      <c r="E81" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
@@ -10577,16 +10574,16 @@
         <v>280</v>
       </c>
       <c r="B82" t="s">
+        <v>654</v>
+      </c>
+      <c r="C82" t="s">
         <v>655</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
+        <v>418</v>
+      </c>
+      <c r="E82" t="s">
         <v>656</v>
-      </c>
-      <c r="D82" t="s">
-        <v>419</v>
-      </c>
-      <c r="E82" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
@@ -10594,16 +10591,16 @@
         <v>280</v>
       </c>
       <c r="B83" t="s">
+        <v>657</v>
+      </c>
+      <c r="C83" t="s">
         <v>658</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
+        <v>418</v>
+      </c>
+      <c r="E83" t="s">
         <v>659</v>
-      </c>
-      <c r="D83" t="s">
-        <v>419</v>
-      </c>
-      <c r="E83" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
@@ -10611,16 +10608,16 @@
         <v>280</v>
       </c>
       <c r="B84" t="s">
+        <v>660</v>
+      </c>
+      <c r="C84" t="s">
         <v>661</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
+        <v>418</v>
+      </c>
+      <c r="E84" t="s">
         <v>662</v>
-      </c>
-      <c r="D84" t="s">
-        <v>419</v>
-      </c>
-      <c r="E84" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
@@ -10628,16 +10625,16 @@
         <v>280</v>
       </c>
       <c r="B85" t="s">
+        <v>663</v>
+      </c>
+      <c r="C85" t="s">
         <v>664</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
+        <v>418</v>
+      </c>
+      <c r="E85" t="s">
         <v>665</v>
-      </c>
-      <c r="D85" t="s">
-        <v>419</v>
-      </c>
-      <c r="E85" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
@@ -10645,16 +10642,16 @@
         <v>280</v>
       </c>
       <c r="B86" t="s">
+        <v>666</v>
+      </c>
+      <c r="C86" t="s">
         <v>667</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
+        <v>418</v>
+      </c>
+      <c r="E86" t="s">
         <v>668</v>
-      </c>
-      <c r="D86" t="s">
-        <v>419</v>
-      </c>
-      <c r="E86" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
@@ -10662,16 +10659,16 @@
         <v>280</v>
       </c>
       <c r="B87" t="s">
+        <v>669</v>
+      </c>
+      <c r="C87" t="s">
         <v>670</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
+        <v>418</v>
+      </c>
+      <c r="E87" t="s">
         <v>671</v>
-      </c>
-      <c r="D87" t="s">
-        <v>419</v>
-      </c>
-      <c r="E87" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
@@ -10679,16 +10676,16 @@
         <v>280</v>
       </c>
       <c r="B88" t="s">
+        <v>672</v>
+      </c>
+      <c r="C88" t="s">
         <v>673</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
+        <v>418</v>
+      </c>
+      <c r="E88" t="s">
         <v>674</v>
-      </c>
-      <c r="D88" t="s">
-        <v>419</v>
-      </c>
-      <c r="E88" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
@@ -10696,16 +10693,16 @@
         <v>280</v>
       </c>
       <c r="B89" t="s">
+        <v>675</v>
+      </c>
+      <c r="C89" t="s">
         <v>676</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
+        <v>418</v>
+      </c>
+      <c r="E89" t="s">
         <v>677</v>
-      </c>
-      <c r="D89" t="s">
-        <v>419</v>
-      </c>
-      <c r="E89" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
@@ -10713,16 +10710,16 @@
         <v>280</v>
       </c>
       <c r="B90" t="s">
+        <v>678</v>
+      </c>
+      <c r="C90" t="s">
         <v>679</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
+        <v>418</v>
+      </c>
+      <c r="E90" t="s">
         <v>680</v>
-      </c>
-      <c r="D90" t="s">
-        <v>419</v>
-      </c>
-      <c r="E90" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
@@ -10730,16 +10727,16 @@
         <v>281</v>
       </c>
       <c r="B91" t="s">
+        <v>681</v>
+      </c>
+      <c r="C91" t="s">
         <v>682</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
+        <v>418</v>
+      </c>
+      <c r="E91" t="s">
         <v>683</v>
-      </c>
-      <c r="D91" t="s">
-        <v>419</v>
-      </c>
-      <c r="E91" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
@@ -10747,16 +10744,16 @@
         <v>281</v>
       </c>
       <c r="B92" t="s">
+        <v>684</v>
+      </c>
+      <c r="C92" t="s">
         <v>685</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
+        <v>418</v>
+      </c>
+      <c r="E92" t="s">
         <v>686</v>
-      </c>
-      <c r="D92" t="s">
-        <v>419</v>
-      </c>
-      <c r="E92" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
@@ -10764,16 +10761,16 @@
         <v>281</v>
       </c>
       <c r="B93" t="s">
+        <v>687</v>
+      </c>
+      <c r="C93" t="s">
         <v>688</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
+        <v>418</v>
+      </c>
+      <c r="E93" t="s">
         <v>689</v>
-      </c>
-      <c r="D93" t="s">
-        <v>419</v>
-      </c>
-      <c r="E93" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
@@ -10781,16 +10778,16 @@
         <v>281</v>
       </c>
       <c r="B94" t="s">
+        <v>690</v>
+      </c>
+      <c r="C94" t="s">
         <v>691</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
+        <v>418</v>
+      </c>
+      <c r="E94" t="s">
         <v>692</v>
-      </c>
-      <c r="D94" t="s">
-        <v>419</v>
-      </c>
-      <c r="E94" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
@@ -10798,16 +10795,16 @@
         <v>281</v>
       </c>
       <c r="B95" t="s">
+        <v>693</v>
+      </c>
+      <c r="C95" t="s">
         <v>694</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
+        <v>418</v>
+      </c>
+      <c r="E95" t="s">
         <v>695</v>
-      </c>
-      <c r="D95" t="s">
-        <v>419</v>
-      </c>
-      <c r="E95" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
@@ -10815,16 +10812,16 @@
         <v>281</v>
       </c>
       <c r="B96" t="s">
+        <v>696</v>
+      </c>
+      <c r="C96" t="s">
         <v>697</v>
       </c>
-      <c r="C96" t="s">
+      <c r="D96" t="s">
+        <v>418</v>
+      </c>
+      <c r="E96" t="s">
         <v>698</v>
-      </c>
-      <c r="D96" t="s">
-        <v>419</v>
-      </c>
-      <c r="E96" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
@@ -10832,16 +10829,16 @@
         <v>281</v>
       </c>
       <c r="B97" t="s">
+        <v>699</v>
+      </c>
+      <c r="C97" t="s">
         <v>700</v>
       </c>
-      <c r="C97" t="s">
+      <c r="D97" t="s">
+        <v>418</v>
+      </c>
+      <c r="E97" t="s">
         <v>701</v>
-      </c>
-      <c r="D97" t="s">
-        <v>419</v>
-      </c>
-      <c r="E97" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
@@ -10849,16 +10846,16 @@
         <v>281</v>
       </c>
       <c r="B98" t="s">
+        <v>702</v>
+      </c>
+      <c r="C98" t="s">
         <v>703</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D98" t="s">
+        <v>418</v>
+      </c>
+      <c r="E98" t="s">
         <v>704</v>
-      </c>
-      <c r="D98" t="s">
-        <v>419</v>
-      </c>
-      <c r="E98" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
@@ -10866,16 +10863,16 @@
         <v>281</v>
       </c>
       <c r="B99" t="s">
+        <v>705</v>
+      </c>
+      <c r="C99" t="s">
         <v>706</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
+        <v>418</v>
+      </c>
+      <c r="E99" t="s">
         <v>707</v>
-      </c>
-      <c r="D99" t="s">
-        <v>419</v>
-      </c>
-      <c r="E99" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
@@ -10883,16 +10880,16 @@
         <v>281</v>
       </c>
       <c r="B100" t="s">
+        <v>708</v>
+      </c>
+      <c r="C100" t="s">
         <v>709</v>
       </c>
-      <c r="C100" t="s">
+      <c r="D100" t="s">
+        <v>418</v>
+      </c>
+      <c r="E100" t="s">
         <v>710</v>
-      </c>
-      <c r="D100" t="s">
-        <v>419</v>
-      </c>
-      <c r="E100" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
@@ -10900,16 +10897,16 @@
         <v>281</v>
       </c>
       <c r="B101" t="s">
+        <v>711</v>
+      </c>
+      <c r="C101" t="s">
         <v>712</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D101" t="s">
+        <v>418</v>
+      </c>
+      <c r="E101" t="s">
         <v>713</v>
-      </c>
-      <c r="D101" t="s">
-        <v>419</v>
-      </c>
-      <c r="E101" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
@@ -10917,16 +10914,16 @@
         <v>281</v>
       </c>
       <c r="B102" t="s">
+        <v>714</v>
+      </c>
+      <c r="C102" t="s">
         <v>715</v>
       </c>
-      <c r="C102" t="s">
+      <c r="D102" t="s">
+        <v>418</v>
+      </c>
+      <c r="E102" t="s">
         <v>716</v>
-      </c>
-      <c r="D102" t="s">
-        <v>419</v>
-      </c>
-      <c r="E102" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
@@ -10934,16 +10931,16 @@
         <v>281</v>
       </c>
       <c r="B103" t="s">
+        <v>717</v>
+      </c>
+      <c r="C103" t="s">
         <v>718</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
+        <v>418</v>
+      </c>
+      <c r="E103" t="s">
         <v>719</v>
-      </c>
-      <c r="D103" t="s">
-        <v>419</v>
-      </c>
-      <c r="E103" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
@@ -10951,16 +10948,16 @@
         <v>281</v>
       </c>
       <c r="B104" t="s">
+        <v>720</v>
+      </c>
+      <c r="C104" t="s">
         <v>721</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D104" t="s">
+        <v>418</v>
+      </c>
+      <c r="E104" t="s">
         <v>722</v>
-      </c>
-      <c r="D104" t="s">
-        <v>419</v>
-      </c>
-      <c r="E104" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
@@ -10968,16 +10965,16 @@
         <v>281</v>
       </c>
       <c r="B105" t="s">
+        <v>723</v>
+      </c>
+      <c r="C105" t="s">
         <v>724</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
+        <v>418</v>
+      </c>
+      <c r="E105" t="s">
         <v>725</v>
-      </c>
-      <c r="D105" t="s">
-        <v>419</v>
-      </c>
-      <c r="E105" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
@@ -10985,16 +10982,16 @@
         <v>281</v>
       </c>
       <c r="B106" t="s">
+        <v>726</v>
+      </c>
+      <c r="C106" t="s">
         <v>727</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
+        <v>418</v>
+      </c>
+      <c r="E106" t="s">
         <v>728</v>
-      </c>
-      <c r="D106" t="s">
-        <v>419</v>
-      </c>
-      <c r="E106" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
@@ -11002,16 +10999,16 @@
         <v>281</v>
       </c>
       <c r="B107" t="s">
+        <v>729</v>
+      </c>
+      <c r="C107" t="s">
         <v>730</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D107" t="s">
+        <v>418</v>
+      </c>
+      <c r="E107" t="s">
         <v>731</v>
-      </c>
-      <c r="D107" t="s">
-        <v>419</v>
-      </c>
-      <c r="E107" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
@@ -11019,16 +11016,16 @@
         <v>281</v>
       </c>
       <c r="B108" t="s">
+        <v>732</v>
+      </c>
+      <c r="C108" t="s">
         <v>733</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D108" t="s">
+        <v>418</v>
+      </c>
+      <c r="E108" t="s">
         <v>734</v>
-      </c>
-      <c r="D108" t="s">
-        <v>419</v>
-      </c>
-      <c r="E108" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
@@ -11036,16 +11033,16 @@
         <v>281</v>
       </c>
       <c r="B109" t="s">
+        <v>735</v>
+      </c>
+      <c r="C109" t="s">
         <v>736</v>
       </c>
-      <c r="C109" t="s">
+      <c r="D109" t="s">
+        <v>418</v>
+      </c>
+      <c r="E109" t="s">
         <v>737</v>
-      </c>
-      <c r="D109" t="s">
-        <v>419</v>
-      </c>
-      <c r="E109" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
@@ -11053,16 +11050,16 @@
         <v>282</v>
       </c>
       <c r="B110" t="s">
+        <v>738</v>
+      </c>
+      <c r="C110" t="s">
         <v>739</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D110" t="s">
+        <v>418</v>
+      </c>
+      <c r="E110" t="s">
         <v>740</v>
-      </c>
-      <c r="D110" t="s">
-        <v>419</v>
-      </c>
-      <c r="E110" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
@@ -11070,16 +11067,16 @@
         <v>282</v>
       </c>
       <c r="B111" t="s">
+        <v>741</v>
+      </c>
+      <c r="C111" t="s">
         <v>742</v>
       </c>
-      <c r="C111" t="s">
+      <c r="D111" t="s">
+        <v>418</v>
+      </c>
+      <c r="E111" t="s">
         <v>743</v>
-      </c>
-      <c r="D111" t="s">
-        <v>419</v>
-      </c>
-      <c r="E111" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
@@ -11087,16 +11084,16 @@
         <v>282</v>
       </c>
       <c r="B112" t="s">
+        <v>744</v>
+      </c>
+      <c r="C112" t="s">
         <v>745</v>
       </c>
-      <c r="C112" t="s">
+      <c r="D112" t="s">
+        <v>418</v>
+      </c>
+      <c r="E112" t="s">
         <v>746</v>
-      </c>
-      <c r="D112" t="s">
-        <v>419</v>
-      </c>
-      <c r="E112" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.35">
@@ -11104,16 +11101,16 @@
         <v>282</v>
       </c>
       <c r="B113" t="s">
+        <v>747</v>
+      </c>
+      <c r="C113" t="s">
         <v>748</v>
       </c>
-      <c r="C113" t="s">
+      <c r="D113" t="s">
+        <v>418</v>
+      </c>
+      <c r="E113" t="s">
         <v>749</v>
-      </c>
-      <c r="D113" t="s">
-        <v>419</v>
-      </c>
-      <c r="E113" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.35">
@@ -11121,16 +11118,16 @@
         <v>282</v>
       </c>
       <c r="B114" t="s">
+        <v>750</v>
+      </c>
+      <c r="C114" t="s">
         <v>751</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D114" t="s">
+        <v>418</v>
+      </c>
+      <c r="E114" t="s">
         <v>752</v>
-      </c>
-      <c r="D114" t="s">
-        <v>419</v>
-      </c>
-      <c r="E114" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.35">
@@ -11138,16 +11135,16 @@
         <v>282</v>
       </c>
       <c r="B115" t="s">
+        <v>753</v>
+      </c>
+      <c r="C115" t="s">
         <v>754</v>
       </c>
-      <c r="C115" t="s">
+      <c r="D115" t="s">
+        <v>418</v>
+      </c>
+      <c r="E115" t="s">
         <v>755</v>
-      </c>
-      <c r="D115" t="s">
-        <v>419</v>
-      </c>
-      <c r="E115" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.35">
@@ -11155,16 +11152,16 @@
         <v>282</v>
       </c>
       <c r="B116" t="s">
+        <v>756</v>
+      </c>
+      <c r="C116" t="s">
         <v>757</v>
       </c>
-      <c r="C116" t="s">
+      <c r="D116" t="s">
+        <v>418</v>
+      </c>
+      <c r="E116" t="s">
         <v>758</v>
-      </c>
-      <c r="D116" t="s">
-        <v>419</v>
-      </c>
-      <c r="E116" t="s">
-        <v>759</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.35">
@@ -11172,16 +11169,16 @@
         <v>282</v>
       </c>
       <c r="B117" t="s">
+        <v>759</v>
+      </c>
+      <c r="C117" t="s">
         <v>760</v>
       </c>
-      <c r="C117" t="s">
+      <c r="D117" t="s">
+        <v>418</v>
+      </c>
+      <c r="E117" t="s">
         <v>761</v>
-      </c>
-      <c r="D117" t="s">
-        <v>419</v>
-      </c>
-      <c r="E117" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.35">
@@ -11189,16 +11186,16 @@
         <v>282</v>
       </c>
       <c r="B118" t="s">
+        <v>762</v>
+      </c>
+      <c r="C118" t="s">
         <v>763</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D118" t="s">
+        <v>418</v>
+      </c>
+      <c r="E118" t="s">
         <v>764</v>
-      </c>
-      <c r="D118" t="s">
-        <v>419</v>
-      </c>
-      <c r="E118" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.35">
@@ -11206,16 +11203,16 @@
         <v>283</v>
       </c>
       <c r="B119" t="s">
+        <v>765</v>
+      </c>
+      <c r="C119" t="s">
         <v>766</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D119" t="s">
+        <v>418</v>
+      </c>
+      <c r="E119" t="s">
         <v>767</v>
-      </c>
-      <c r="D119" t="s">
-        <v>419</v>
-      </c>
-      <c r="E119" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.35">
@@ -11223,16 +11220,16 @@
         <v>283</v>
       </c>
       <c r="B120" t="s">
+        <v>768</v>
+      </c>
+      <c r="C120" t="s">
         <v>769</v>
       </c>
-      <c r="C120" t="s">
+      <c r="D120" t="s">
+        <v>418</v>
+      </c>
+      <c r="E120" t="s">
         <v>770</v>
-      </c>
-      <c r="D120" t="s">
-        <v>419</v>
-      </c>
-      <c r="E120" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.35">
@@ -11240,16 +11237,16 @@
         <v>283</v>
       </c>
       <c r="B121" t="s">
+        <v>771</v>
+      </c>
+      <c r="C121" t="s">
         <v>772</v>
       </c>
-      <c r="C121" t="s">
+      <c r="D121" t="s">
+        <v>418</v>
+      </c>
+      <c r="E121" t="s">
         <v>773</v>
-      </c>
-      <c r="D121" t="s">
-        <v>419</v>
-      </c>
-      <c r="E121" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.35">
@@ -11257,16 +11254,16 @@
         <v>283</v>
       </c>
       <c r="B122" t="s">
+        <v>774</v>
+      </c>
+      <c r="C122" t="s">
         <v>775</v>
       </c>
-      <c r="C122" t="s">
+      <c r="D122" t="s">
+        <v>418</v>
+      </c>
+      <c r="E122" t="s">
         <v>776</v>
-      </c>
-      <c r="D122" t="s">
-        <v>419</v>
-      </c>
-      <c r="E122" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.35">
@@ -11274,16 +11271,16 @@
         <v>283</v>
       </c>
       <c r="B123" t="s">
+        <v>777</v>
+      </c>
+      <c r="C123" t="s">
         <v>778</v>
       </c>
-      <c r="C123" t="s">
+      <c r="D123" t="s">
+        <v>418</v>
+      </c>
+      <c r="E123" t="s">
         <v>779</v>
-      </c>
-      <c r="D123" t="s">
-        <v>419</v>
-      </c>
-      <c r="E123" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.35">
@@ -11291,16 +11288,16 @@
         <v>283</v>
       </c>
       <c r="B124" t="s">
+        <v>780</v>
+      </c>
+      <c r="C124" t="s">
         <v>781</v>
       </c>
-      <c r="C124" t="s">
+      <c r="D124" t="s">
+        <v>418</v>
+      </c>
+      <c r="E124" t="s">
         <v>782</v>
-      </c>
-      <c r="D124" t="s">
-        <v>419</v>
-      </c>
-      <c r="E124" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
@@ -11308,16 +11305,16 @@
         <v>283</v>
       </c>
       <c r="B125" t="s">
+        <v>783</v>
+      </c>
+      <c r="C125" t="s">
         <v>784</v>
       </c>
-      <c r="C125" t="s">
+      <c r="D125" t="s">
+        <v>418</v>
+      </c>
+      <c r="E125" t="s">
         <v>785</v>
-      </c>
-      <c r="D125" t="s">
-        <v>419</v>
-      </c>
-      <c r="E125" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.35">
@@ -11325,16 +11322,16 @@
         <v>283</v>
       </c>
       <c r="B126" t="s">
+        <v>786</v>
+      </c>
+      <c r="C126" t="s">
         <v>787</v>
       </c>
-      <c r="C126" t="s">
+      <c r="D126" t="s">
+        <v>418</v>
+      </c>
+      <c r="E126" t="s">
         <v>788</v>
-      </c>
-      <c r="D126" t="s">
-        <v>419</v>
-      </c>
-      <c r="E126" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.35">
@@ -11342,16 +11339,16 @@
         <v>283</v>
       </c>
       <c r="B127" t="s">
+        <v>789</v>
+      </c>
+      <c r="C127" t="s">
         <v>790</v>
       </c>
-      <c r="C127" t="s">
+      <c r="D127" t="s">
+        <v>418</v>
+      </c>
+      <c r="E127" t="s">
         <v>791</v>
-      </c>
-      <c r="D127" t="s">
-        <v>419</v>
-      </c>
-      <c r="E127" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.35">
@@ -11359,16 +11356,16 @@
         <v>283</v>
       </c>
       <c r="B128" t="s">
+        <v>792</v>
+      </c>
+      <c r="C128" t="s">
         <v>793</v>
       </c>
-      <c r="C128" t="s">
+      <c r="D128" t="s">
+        <v>418</v>
+      </c>
+      <c r="E128" t="s">
         <v>794</v>
-      </c>
-      <c r="D128" t="s">
-        <v>419</v>
-      </c>
-      <c r="E128" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.35">
@@ -11376,16 +11373,16 @@
         <v>283</v>
       </c>
       <c r="B129" t="s">
+        <v>795</v>
+      </c>
+      <c r="C129" t="s">
         <v>796</v>
       </c>
-      <c r="C129" t="s">
+      <c r="D129" t="s">
+        <v>418</v>
+      </c>
+      <c r="E129" t="s">
         <v>797</v>
-      </c>
-      <c r="D129" t="s">
-        <v>419</v>
-      </c>
-      <c r="E129" t="s">
-        <v>798</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.35">
@@ -11393,16 +11390,16 @@
         <v>283</v>
       </c>
       <c r="B130" t="s">
+        <v>798</v>
+      </c>
+      <c r="C130" t="s">
         <v>799</v>
       </c>
-      <c r="C130" t="s">
+      <c r="D130" t="s">
+        <v>418</v>
+      </c>
+      <c r="E130" t="s">
         <v>800</v>
-      </c>
-      <c r="D130" t="s">
-        <v>419</v>
-      </c>
-      <c r="E130" t="s">
-        <v>801</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.35">
@@ -11410,16 +11407,16 @@
         <v>283</v>
       </c>
       <c r="B131" t="s">
+        <v>801</v>
+      </c>
+      <c r="C131" t="s">
         <v>802</v>
       </c>
-      <c r="C131" t="s">
+      <c r="D131" t="s">
+        <v>418</v>
+      </c>
+      <c r="E131" t="s">
         <v>803</v>
-      </c>
-      <c r="D131" t="s">
-        <v>419</v>
-      </c>
-      <c r="E131" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.35">
@@ -11427,16 +11424,16 @@
         <v>284</v>
       </c>
       <c r="B132" t="s">
+        <v>804</v>
+      </c>
+      <c r="C132" t="s">
         <v>805</v>
       </c>
-      <c r="C132" t="s">
+      <c r="D132" t="s">
+        <v>418</v>
+      </c>
+      <c r="E132" t="s">
         <v>806</v>
-      </c>
-      <c r="D132" t="s">
-        <v>419</v>
-      </c>
-      <c r="E132" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.35">
@@ -11444,16 +11441,16 @@
         <v>284</v>
       </c>
       <c r="B133" t="s">
+        <v>807</v>
+      </c>
+      <c r="C133" t="s">
         <v>808</v>
       </c>
-      <c r="C133" t="s">
+      <c r="D133" t="s">
+        <v>418</v>
+      </c>
+      <c r="E133" t="s">
         <v>809</v>
-      </c>
-      <c r="D133" t="s">
-        <v>419</v>
-      </c>
-      <c r="E133" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.35">
@@ -11461,16 +11458,16 @@
         <v>284</v>
       </c>
       <c r="B134" t="s">
+        <v>810</v>
+      </c>
+      <c r="C134" t="s">
         <v>811</v>
       </c>
-      <c r="C134" t="s">
+      <c r="D134" t="s">
+        <v>418</v>
+      </c>
+      <c r="E134" t="s">
         <v>812</v>
-      </c>
-      <c r="D134" t="s">
-        <v>419</v>
-      </c>
-      <c r="E134" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.35">
@@ -11478,16 +11475,16 @@
         <v>284</v>
       </c>
       <c r="B135" t="s">
+        <v>813</v>
+      </c>
+      <c r="C135" t="s">
         <v>814</v>
       </c>
-      <c r="C135" t="s">
+      <c r="D135" t="s">
+        <v>418</v>
+      </c>
+      <c r="E135" t="s">
         <v>815</v>
-      </c>
-      <c r="D135" t="s">
-        <v>419</v>
-      </c>
-      <c r="E135" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.35">
@@ -11495,16 +11492,16 @@
         <v>284</v>
       </c>
       <c r="B136" t="s">
+        <v>816</v>
+      </c>
+      <c r="C136" t="s">
         <v>817</v>
       </c>
-      <c r="C136" t="s">
+      <c r="D136" t="s">
+        <v>418</v>
+      </c>
+      <c r="E136" t="s">
         <v>818</v>
-      </c>
-      <c r="D136" t="s">
-        <v>419</v>
-      </c>
-      <c r="E136" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.35">
@@ -11512,16 +11509,16 @@
         <v>284</v>
       </c>
       <c r="B137" t="s">
+        <v>819</v>
+      </c>
+      <c r="C137" t="s">
         <v>820</v>
       </c>
-      <c r="C137" t="s">
+      <c r="D137" t="s">
+        <v>418</v>
+      </c>
+      <c r="E137" t="s">
         <v>821</v>
-      </c>
-      <c r="D137" t="s">
-        <v>419</v>
-      </c>
-      <c r="E137" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.35">
@@ -11529,16 +11526,16 @@
         <v>284</v>
       </c>
       <c r="B138" t="s">
+        <v>822</v>
+      </c>
+      <c r="C138" t="s">
         <v>823</v>
       </c>
-      <c r="C138" t="s">
+      <c r="D138" t="s">
+        <v>418</v>
+      </c>
+      <c r="E138" t="s">
         <v>824</v>
-      </c>
-      <c r="D138" t="s">
-        <v>419</v>
-      </c>
-      <c r="E138" t="s">
-        <v>825</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.35">
@@ -11546,16 +11543,16 @@
         <v>284</v>
       </c>
       <c r="B139" t="s">
+        <v>825</v>
+      </c>
+      <c r="C139" t="s">
         <v>826</v>
       </c>
-      <c r="C139" t="s">
+      <c r="D139" t="s">
+        <v>418</v>
+      </c>
+      <c r="E139" t="s">
         <v>827</v>
-      </c>
-      <c r="D139" t="s">
-        <v>419</v>
-      </c>
-      <c r="E139" t="s">
-        <v>828</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.35">
@@ -11563,16 +11560,16 @@
         <v>284</v>
       </c>
       <c r="B140" t="s">
+        <v>828</v>
+      </c>
+      <c r="C140" t="s">
         <v>829</v>
       </c>
-      <c r="C140" t="s">
+      <c r="D140" t="s">
+        <v>418</v>
+      </c>
+      <c r="E140" t="s">
         <v>830</v>
-      </c>
-      <c r="D140" t="s">
-        <v>419</v>
-      </c>
-      <c r="E140" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.35">
@@ -11580,16 +11577,16 @@
         <v>284</v>
       </c>
       <c r="B141" t="s">
+        <v>831</v>
+      </c>
+      <c r="C141" t="s">
         <v>832</v>
       </c>
-      <c r="C141" t="s">
+      <c r="D141" t="s">
+        <v>418</v>
+      </c>
+      <c r="E141" t="s">
         <v>833</v>
-      </c>
-      <c r="D141" t="s">
-        <v>419</v>
-      </c>
-      <c r="E141" t="s">
-        <v>834</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.35">
@@ -11597,16 +11594,16 @@
         <v>284</v>
       </c>
       <c r="B142" t="s">
+        <v>834</v>
+      </c>
+      <c r="C142" t="s">
         <v>835</v>
       </c>
-      <c r="C142" t="s">
+      <c r="D142" t="s">
+        <v>418</v>
+      </c>
+      <c r="E142" t="s">
         <v>836</v>
-      </c>
-      <c r="D142" t="s">
-        <v>419</v>
-      </c>
-      <c r="E142" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.35">
@@ -11614,16 +11611,16 @@
         <v>284</v>
       </c>
       <c r="B143" t="s">
+        <v>837</v>
+      </c>
+      <c r="C143" t="s">
         <v>838</v>
       </c>
-      <c r="C143" t="s">
+      <c r="D143" t="s">
+        <v>418</v>
+      </c>
+      <c r="E143" t="s">
         <v>839</v>
-      </c>
-      <c r="D143" t="s">
-        <v>419</v>
-      </c>
-      <c r="E143" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.35">
@@ -11631,16 +11628,16 @@
         <v>284</v>
       </c>
       <c r="B144" t="s">
+        <v>840</v>
+      </c>
+      <c r="C144" t="s">
         <v>841</v>
       </c>
-      <c r="C144" t="s">
+      <c r="D144" t="s">
+        <v>418</v>
+      </c>
+      <c r="E144" t="s">
         <v>842</v>
-      </c>
-      <c r="D144" t="s">
-        <v>419</v>
-      </c>
-      <c r="E144" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.35">
@@ -11648,16 +11645,16 @@
         <v>284</v>
       </c>
       <c r="B145" t="s">
+        <v>843</v>
+      </c>
+      <c r="C145" t="s">
         <v>844</v>
       </c>
-      <c r="C145" t="s">
+      <c r="D145" t="s">
+        <v>418</v>
+      </c>
+      <c r="E145" t="s">
         <v>845</v>
-      </c>
-      <c r="D145" t="s">
-        <v>419</v>
-      </c>
-      <c r="E145" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.35">
@@ -11665,16 +11662,16 @@
         <v>284</v>
       </c>
       <c r="B146" t="s">
+        <v>846</v>
+      </c>
+      <c r="C146" t="s">
         <v>847</v>
       </c>
-      <c r="C146" t="s">
+      <c r="D146" t="s">
+        <v>418</v>
+      </c>
+      <c r="E146" t="s">
         <v>848</v>
-      </c>
-      <c r="D146" t="s">
-        <v>419</v>
-      </c>
-      <c r="E146" t="s">
-        <v>849</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.35">
@@ -11682,16 +11679,16 @@
         <v>284</v>
       </c>
       <c r="B147" t="s">
+        <v>849</v>
+      </c>
+      <c r="C147" t="s">
         <v>850</v>
       </c>
-      <c r="C147" t="s">
+      <c r="D147" t="s">
+        <v>418</v>
+      </c>
+      <c r="E147" t="s">
         <v>851</v>
-      </c>
-      <c r="D147" t="s">
-        <v>419</v>
-      </c>
-      <c r="E147" t="s">
-        <v>852</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.35">
@@ -11699,16 +11696,16 @@
         <v>284</v>
       </c>
       <c r="B148" t="s">
+        <v>852</v>
+      </c>
+      <c r="C148" t="s">
         <v>853</v>
       </c>
-      <c r="C148" t="s">
+      <c r="D148" t="s">
+        <v>418</v>
+      </c>
+      <c r="E148" t="s">
         <v>854</v>
-      </c>
-      <c r="D148" t="s">
-        <v>419</v>
-      </c>
-      <c r="E148" t="s">
-        <v>855</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.35">
@@ -11716,16 +11713,16 @@
         <v>284</v>
       </c>
       <c r="B149" t="s">
+        <v>855</v>
+      </c>
+      <c r="C149" t="s">
         <v>856</v>
       </c>
-      <c r="C149" t="s">
+      <c r="D149" t="s">
+        <v>418</v>
+      </c>
+      <c r="E149" t="s">
         <v>857</v>
-      </c>
-      <c r="D149" t="s">
-        <v>419</v>
-      </c>
-      <c r="E149" t="s">
-        <v>858</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.35">
@@ -11733,16 +11730,16 @@
         <v>284</v>
       </c>
       <c r="B150" t="s">
+        <v>858</v>
+      </c>
+      <c r="C150" t="s">
         <v>859</v>
       </c>
-      <c r="C150" t="s">
+      <c r="D150" t="s">
+        <v>418</v>
+      </c>
+      <c r="E150" t="s">
         <v>860</v>
-      </c>
-      <c r="D150" t="s">
-        <v>419</v>
-      </c>
-      <c r="E150" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.35">
@@ -11750,16 +11747,16 @@
         <v>284</v>
       </c>
       <c r="B151" t="s">
+        <v>861</v>
+      </c>
+      <c r="C151" t="s">
         <v>862</v>
       </c>
-      <c r="C151" t="s">
+      <c r="D151" t="s">
+        <v>418</v>
+      </c>
+      <c r="E151" t="s">
         <v>863</v>
-      </c>
-      <c r="D151" t="s">
-        <v>419</v>
-      </c>
-      <c r="E151" t="s">
-        <v>864</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.35">
@@ -11767,16 +11764,16 @@
         <v>284</v>
       </c>
       <c r="B152" t="s">
+        <v>864</v>
+      </c>
+      <c r="C152" t="s">
         <v>865</v>
       </c>
-      <c r="C152" t="s">
+      <c r="D152" t="s">
+        <v>418</v>
+      </c>
+      <c r="E152" t="s">
         <v>866</v>
-      </c>
-      <c r="D152" t="s">
-        <v>419</v>
-      </c>
-      <c r="E152" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.35">
@@ -11784,16 +11781,16 @@
         <v>284</v>
       </c>
       <c r="B153" t="s">
+        <v>867</v>
+      </c>
+      <c r="C153" t="s">
         <v>868</v>
       </c>
-      <c r="C153" t="s">
+      <c r="D153" t="s">
+        <v>418</v>
+      </c>
+      <c r="E153" t="s">
         <v>869</v>
-      </c>
-      <c r="D153" t="s">
-        <v>419</v>
-      </c>
-      <c r="E153" t="s">
-        <v>870</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.35">
@@ -11801,21 +11798,21 @@
         <v>284</v>
       </c>
       <c r="B154" t="s">
+        <v>870</v>
+      </c>
+      <c r="C154" t="s">
         <v>871</v>
       </c>
-      <c r="C154" t="s">
+      <c r="D154" t="s">
+        <v>418</v>
+      </c>
+      <c r="E154" t="s">
         <v>872</v>
-      </c>
-      <c r="D154" t="s">
-        <v>419</v>
-      </c>
-      <c r="E154" t="s">
-        <v>873</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E155" s="60" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.35"/>
@@ -12701,16 +12698,16 @@
   <sheetData>
     <row r="2" spans="2:20" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="126" t="s">
+        <v>874</v>
+      </c>
+      <c r="L2" s="126" t="s">
         <v>875</v>
-      </c>
-      <c r="L2" s="126" t="s">
-        <v>876</v>
       </c>
     </row>
     <row r="3" spans="2:20" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B4" s="400" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C4" s="400"/>
       <c r="D4" s="400"/>
@@ -12733,7 +12730,7 @@
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B5" s="400" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C5" s="400"/>
       <c r="D5" s="400"/>
@@ -12768,7 +12765,7 @@
         <v>304</v>
       </c>
       <c r="J7" s="127" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L7" s="127" t="s">
         <v>299</v>
@@ -12783,7 +12780,7 @@
         <v>304</v>
       </c>
       <c r="T7" s="127" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.35">
@@ -12791,7 +12788,7 @@
         <v>297</v>
       </c>
       <c r="D8" s="125" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F8" s="125" t="s">
         <v>300</v>
@@ -12803,19 +12800,19 @@
         <v>305</v>
       </c>
       <c r="L8" s="125" t="s">
+        <v>339</v>
+      </c>
+      <c r="N8" s="125" t="s">
+        <v>878</v>
+      </c>
+      <c r="P8" s="125" t="s">
         <v>340</v>
       </c>
-      <c r="N8" s="125" t="s">
-        <v>879</v>
-      </c>
-      <c r="P8" s="125" t="s">
-        <v>341</v>
-      </c>
       <c r="R8" s="125" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="T8" s="125" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.35">
@@ -12823,132 +12820,132 @@
         <v>302</v>
       </c>
       <c r="D9" s="125" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F9" s="125" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H9" s="125" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J9" s="125" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="L9" s="125" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="N9" s="125"/>
       <c r="P9" s="125" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="R9" s="125" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="T9" s="125" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B10" s="125" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D10" s="125" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F10" s="125" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H10" s="125" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J10" s="125" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L10" s="125" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N10" s="125"/>
       <c r="P10" s="125" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R10" s="125" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="T10" s="125" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B11" s="125" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D11" s="125" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F11" s="125" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J11" s="125" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L11" s="125" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N11" s="125"/>
       <c r="P11" s="125" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="R11" s="125"/>
       <c r="T11" s="125" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B12" s="125" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D12" s="125" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J12" s="125" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L12" s="125" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N12" s="125"/>
       <c r="P12" s="125"/>
       <c r="R12" s="125"/>
       <c r="T12" s="125" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B13" s="125" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J13" s="125" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L13" s="125" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="N13" s="125"/>
       <c r="P13" s="125"/>
       <c r="R13" s="125"/>
       <c r="T13" s="125" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B14" s="125" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J14" s="125" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="L14" s="125" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N14" s="125"/>
       <c r="P14" s="125"/>
@@ -12957,13 +12954,13 @@
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B15" s="125" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J15" s="125" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="L15" s="125" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N15" s="125"/>
       <c r="P15" s="125"/>
@@ -12972,10 +12969,10 @@
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B16" s="125" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L16" s="125" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N16" s="125"/>
       <c r="P16" s="125"/>
@@ -12984,10 +12981,10 @@
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B17" s="125" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L17" s="125" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N17" s="125"/>
       <c r="P17" s="125"/>
@@ -12995,22 +12992,22 @@
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B18" s="125" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B19" s="125" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B20" s="125" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B21" s="125" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -13045,7 +13042,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="30" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B1" s="129"/>
     </row>
@@ -13057,18 +13054,18 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D3" s="60" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="30" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B4" s="129" t="s">
         <v>296</v>
       </c>
       <c r="D4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E4" t="s">
         <v>123</v>
@@ -13100,7 +13097,7 @@
         <v>#N/A</v>
       </c>
       <c r="G5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -13114,13 +13111,13 @@
         <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F6" t="s">
         <v>298</v>
       </c>
       <c r="G6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -13134,13 +13131,13 @@
         <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F7" t="s">
         <v>138</v>
       </c>
       <c r="G7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -13154,13 +13151,13 @@
         <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="F8" t="s">
         <v>298</v>
       </c>
       <c r="G8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -13174,13 +13171,13 @@
         <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="F9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -13194,13 +13191,13 @@
         <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="F10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -13214,13 +13211,13 @@
         <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="F11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -13234,13 +13231,13 @@
         <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="F12" t="s">
         <v>138</v>
       </c>
       <c r="G12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -13254,13 +13251,13 @@
         <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F13" t="s">
         <v>298</v>
       </c>
       <c r="G13" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -13274,13 +13271,13 @@
         <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="F14" t="s">
         <v>138</v>
       </c>
       <c r="G14" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -13294,13 +13291,13 @@
         <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F15" t="s">
         <v>138</v>
       </c>
       <c r="G15" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -13314,13 +13311,13 @@
         <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="F16" t="s">
         <v>138</v>
       </c>
       <c r="G16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -13334,13 +13331,13 @@
         <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="F17" t="s">
         <v>138</v>
       </c>
       <c r="G17" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -13354,13 +13351,13 @@
         <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="F18" t="s">
         <v>138</v>
       </c>
       <c r="G18" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -13374,13 +13371,13 @@
         <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="F19" t="s">
         <v>138</v>
       </c>
       <c r="G19" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -13394,13 +13391,13 @@
         <v>44</v>
       </c>
       <c r="E20" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="F20" t="s">
         <v>138</v>
       </c>
       <c r="G20" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -13414,13 +13411,13 @@
         <v>44</v>
       </c>
       <c r="E21" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="F21" t="s">
         <v>298</v>
       </c>
       <c r="G21" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -13434,13 +13431,13 @@
         <v>44</v>
       </c>
       <c r="E22" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F22" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G22" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -13454,13 +13451,13 @@
         <v>44</v>
       </c>
       <c r="E23" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="F23" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G23" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -13474,13 +13471,13 @@
         <v>44</v>
       </c>
       <c r="E24" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F24" t="s">
         <v>138</v>
       </c>
       <c r="G24" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -13494,13 +13491,13 @@
         <v>44</v>
       </c>
       <c r="E25" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="F25" t="s">
         <v>138</v>
       </c>
       <c r="G25" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -13514,13 +13511,13 @@
         <v>44</v>
       </c>
       <c r="E26" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="F26" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G26" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
@@ -13534,13 +13531,13 @@
         <v>44</v>
       </c>
       <c r="E27" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="F27" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G27" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -13554,13 +13551,13 @@
         <v>44</v>
       </c>
       <c r="E28" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="F28" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G28" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -13574,13 +13571,13 @@
         <v>44</v>
       </c>
       <c r="E29" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F29" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G29" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -13594,13 +13591,13 @@
         <v>44</v>
       </c>
       <c r="E30" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="F30" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G30" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
@@ -13614,13 +13611,13 @@
         <v>44</v>
       </c>
       <c r="E31" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="F31" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G31" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
@@ -13634,13 +13631,13 @@
         <v>44</v>
       </c>
       <c r="E32" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F32" t="s">
         <v>298</v>
       </c>
       <c r="G32" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
@@ -13654,13 +13651,13 @@
         <v>44</v>
       </c>
       <c r="E33" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F33" t="s">
         <v>138</v>
       </c>
       <c r="G33" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
@@ -13674,13 +13671,13 @@
         <v>44</v>
       </c>
       <c r="E34" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="F34" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G34" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
@@ -13694,13 +13691,13 @@
         <v>44</v>
       </c>
       <c r="E35" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="F35" t="s">
         <v>298</v>
       </c>
       <c r="G35" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
@@ -13714,13 +13711,13 @@
         <v>44</v>
       </c>
       <c r="E36" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="F36" t="s">
         <v>138</v>
       </c>
       <c r="G36" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
@@ -13734,13 +13731,13 @@
         <v>44</v>
       </c>
       <c r="E37" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="F37" t="s">
         <v>138</v>
       </c>
       <c r="G37" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
@@ -13754,13 +13751,13 @@
         <v>44</v>
       </c>
       <c r="E38" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="F38" t="s">
         <v>138</v>
       </c>
       <c r="G38" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
@@ -13774,13 +13771,13 @@
         <v>44</v>
       </c>
       <c r="E39" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="F39" t="s">
         <v>138</v>
       </c>
       <c r="G39" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
@@ -13794,13 +13791,13 @@
         <v>44</v>
       </c>
       <c r="E40" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="F40" t="s">
         <v>298</v>
       </c>
       <c r="G40" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
@@ -13814,13 +13811,13 @@
         <v>44</v>
       </c>
       <c r="E41" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="F41" t="s">
         <v>138</v>
       </c>
       <c r="G41" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
@@ -13834,13 +13831,13 @@
         <v>44</v>
       </c>
       <c r="E42" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="F42" t="s">
         <v>138</v>
       </c>
       <c r="G42" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
@@ -13854,13 +13851,13 @@
         <v>44</v>
       </c>
       <c r="E43" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="F43" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G43" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">
@@ -13868,14 +13865,14 @@
         <v>276</v>
       </c>
       <c r="E44" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="F44" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
       <c r="G44" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.35">
@@ -13891,7 +13888,7 @@
         <v>#N/A</v>
       </c>
       <c r="G45" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J45" s="111"/>
     </row>
@@ -13900,13 +13897,13 @@
         <v>277</v>
       </c>
       <c r="E46" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F46" t="s">
         <v>138</v>
       </c>
       <c r="G46" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J46" s="111"/>
     </row>
@@ -13915,13 +13912,13 @@
         <v>277</v>
       </c>
       <c r="E47" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F47" t="s">
         <v>138</v>
       </c>
       <c r="G47" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J47" s="111"/>
     </row>
@@ -13930,13 +13927,13 @@
         <v>277</v>
       </c>
       <c r="E48" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="F48" t="s">
         <v>138</v>
       </c>
       <c r="G48" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J48" s="111"/>
     </row>
@@ -13945,13 +13942,13 @@
         <v>277</v>
       </c>
       <c r="E49" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="F49" t="s">
         <v>138</v>
       </c>
       <c r="G49" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="50" spans="4:7" x14ac:dyDescent="0.35">
@@ -13959,13 +13956,13 @@
         <v>277</v>
       </c>
       <c r="E50" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="F50" t="s">
         <v>138</v>
       </c>
       <c r="G50" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="51" spans="4:7" x14ac:dyDescent="0.35">
@@ -13973,13 +13970,13 @@
         <v>277</v>
       </c>
       <c r="E51" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="F51" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G51" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="52" spans="4:7" x14ac:dyDescent="0.35">
@@ -13987,13 +13984,13 @@
         <v>277</v>
       </c>
       <c r="E52" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="F52" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G52" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="53" spans="4:7" x14ac:dyDescent="0.35">
@@ -14001,13 +13998,13 @@
         <v>277</v>
       </c>
       <c r="E53" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="F53" t="s">
         <v>138</v>
       </c>
       <c r="G53" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="54" spans="4:7" x14ac:dyDescent="0.35">
@@ -14015,13 +14012,13 @@
         <v>277</v>
       </c>
       <c r="E54" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="F54" t="s">
         <v>138</v>
       </c>
       <c r="G54" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="55" spans="4:7" x14ac:dyDescent="0.35">
@@ -14029,13 +14026,13 @@
         <v>277</v>
       </c>
       <c r="E55" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="F55" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G55" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="56" spans="4:7" x14ac:dyDescent="0.35">
@@ -14043,13 +14040,13 @@
         <v>277</v>
       </c>
       <c r="E56" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="F56" t="s">
         <v>298</v>
       </c>
       <c r="G56" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="57" spans="4:7" x14ac:dyDescent="0.35">
@@ -14057,13 +14054,13 @@
         <v>277</v>
       </c>
       <c r="E57" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="F57" t="s">
         <v>138</v>
       </c>
       <c r="G57" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="58" spans="4:7" x14ac:dyDescent="0.35">
@@ -14071,13 +14068,13 @@
         <v>277</v>
       </c>
       <c r="E58" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="F58" t="s">
         <v>138</v>
       </c>
       <c r="G58" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="59" spans="4:7" x14ac:dyDescent="0.35">
@@ -14085,13 +14082,13 @@
         <v>277</v>
       </c>
       <c r="E59" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F59" t="s">
         <v>138</v>
       </c>
       <c r="G59" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="60" spans="4:7" x14ac:dyDescent="0.35">
@@ -14099,13 +14096,13 @@
         <v>277</v>
       </c>
       <c r="E60" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="F60" t="s">
         <v>298</v>
       </c>
       <c r="G60" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="61" spans="4:7" x14ac:dyDescent="0.35">
@@ -14113,13 +14110,13 @@
         <v>277</v>
       </c>
       <c r="E61" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F61" t="s">
         <v>298</v>
       </c>
       <c r="G61" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="62" spans="4:7" x14ac:dyDescent="0.35">
@@ -14127,13 +14124,13 @@
         <v>277</v>
       </c>
       <c r="E62" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F62" t="s">
         <v>138</v>
       </c>
       <c r="G62" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="63" spans="4:7" x14ac:dyDescent="0.35">
@@ -14149,7 +14146,7 @@
         <v>#N/A</v>
       </c>
       <c r="G63" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="64" spans="4:7" x14ac:dyDescent="0.35">
@@ -14157,13 +14154,13 @@
         <v>278</v>
       </c>
       <c r="E64" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F64" t="s">
         <v>298</v>
       </c>
       <c r="G64" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="65" spans="4:7" x14ac:dyDescent="0.35">
@@ -14171,13 +14168,13 @@
         <v>278</v>
       </c>
       <c r="E65" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="F65" t="s">
         <v>298</v>
       </c>
       <c r="G65" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="66" spans="4:7" x14ac:dyDescent="0.35">
@@ -14185,13 +14182,13 @@
         <v>278</v>
       </c>
       <c r="E66" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F66" t="s">
         <v>138</v>
       </c>
       <c r="G66" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="67" spans="4:7" x14ac:dyDescent="0.35">
@@ -14199,13 +14196,13 @@
         <v>278</v>
       </c>
       <c r="E67" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F67" t="s">
         <v>138</v>
       </c>
       <c r="G67" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="68" spans="4:7" x14ac:dyDescent="0.35">
@@ -14213,13 +14210,13 @@
         <v>278</v>
       </c>
       <c r="E68" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="F68" t="s">
         <v>138</v>
       </c>
       <c r="G68" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="69" spans="4:7" x14ac:dyDescent="0.35">
@@ -14227,13 +14224,13 @@
         <v>278</v>
       </c>
       <c r="E69" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="F69" t="s">
         <v>138</v>
       </c>
       <c r="G69" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="70" spans="4:7" x14ac:dyDescent="0.35">
@@ -14241,13 +14238,13 @@
         <v>278</v>
       </c>
       <c r="E70" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="F70" t="s">
         <v>298</v>
       </c>
       <c r="G70" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="71" spans="4:7" x14ac:dyDescent="0.35">
@@ -14255,13 +14252,13 @@
         <v>278</v>
       </c>
       <c r="E71" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F71" t="s">
         <v>138</v>
       </c>
       <c r="G71" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="72" spans="4:7" x14ac:dyDescent="0.35">
@@ -14269,13 +14266,13 @@
         <v>278</v>
       </c>
       <c r="E72" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="F72" t="s">
         <v>138</v>
       </c>
       <c r="G72" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="73" spans="4:7" x14ac:dyDescent="0.35">
@@ -14291,7 +14288,7 @@
         <v>#N/A</v>
       </c>
       <c r="G73" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="74" spans="4:7" x14ac:dyDescent="0.35">
@@ -14299,13 +14296,13 @@
         <v>279</v>
       </c>
       <c r="E74" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="F74" t="s">
         <v>298</v>
       </c>
       <c r="G74" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="75" spans="4:7" x14ac:dyDescent="0.35">
@@ -14313,13 +14310,13 @@
         <v>279</v>
       </c>
       <c r="E75" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="F75" t="s">
         <v>138</v>
       </c>
       <c r="G75" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="76" spans="4:7" x14ac:dyDescent="0.35">
@@ -14327,13 +14324,13 @@
         <v>279</v>
       </c>
       <c r="E76" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F76" t="s">
         <v>138</v>
       </c>
       <c r="G76" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="77" spans="4:7" x14ac:dyDescent="0.35">
@@ -14341,13 +14338,13 @@
         <v>279</v>
       </c>
       <c r="E77" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="F77" t="s">
         <v>138</v>
       </c>
       <c r="G77" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="78" spans="4:7" x14ac:dyDescent="0.35">
@@ -14355,13 +14352,13 @@
         <v>279</v>
       </c>
       <c r="E78" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F78" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G78" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="79" spans="4:7" x14ac:dyDescent="0.35">
@@ -14369,13 +14366,13 @@
         <v>279</v>
       </c>
       <c r="E79" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="F79" t="s">
         <v>138</v>
       </c>
       <c r="G79" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="80" spans="4:7" x14ac:dyDescent="0.35">
@@ -14383,13 +14380,13 @@
         <v>279</v>
       </c>
       <c r="E80" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="F80" t="s">
         <v>138</v>
       </c>
       <c r="G80" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="81" spans="4:7" x14ac:dyDescent="0.35">
@@ -14397,13 +14394,13 @@
         <v>279</v>
       </c>
       <c r="E81" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="F81" t="s">
         <v>138</v>
       </c>
       <c r="G81" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="82" spans="4:7" x14ac:dyDescent="0.35">
@@ -14411,13 +14408,13 @@
         <v>279</v>
       </c>
       <c r="E82" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="F82" t="s">
         <v>138</v>
       </c>
       <c r="G82" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="83" spans="4:7" x14ac:dyDescent="0.35">
@@ -14425,13 +14422,13 @@
         <v>279</v>
       </c>
       <c r="E83" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="F83" t="s">
         <v>138</v>
       </c>
       <c r="G83" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="84" spans="4:7" x14ac:dyDescent="0.35">
@@ -14439,13 +14436,13 @@
         <v>279</v>
       </c>
       <c r="E84" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="F84" t="s">
         <v>138</v>
       </c>
       <c r="G84" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="85" spans="4:7" x14ac:dyDescent="0.35">
@@ -14453,13 +14450,13 @@
         <v>279</v>
       </c>
       <c r="E85" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="F85" t="s">
         <v>138</v>
       </c>
       <c r="G85" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="86" spans="4:7" x14ac:dyDescent="0.35">
@@ -14467,13 +14464,13 @@
         <v>279</v>
       </c>
       <c r="E86" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="F86" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G86" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="87" spans="4:7" x14ac:dyDescent="0.35">
@@ -14489,7 +14486,7 @@
         <v>#N/A</v>
       </c>
       <c r="G87" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="88" spans="4:7" x14ac:dyDescent="0.35">
@@ -14497,13 +14494,13 @@
         <v>280</v>
       </c>
       <c r="E88" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F88" t="s">
         <v>138</v>
       </c>
       <c r="G88" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="89" spans="4:7" x14ac:dyDescent="0.35">
@@ -14511,13 +14508,13 @@
         <v>280</v>
       </c>
       <c r="E89" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F89" t="s">
         <v>298</v>
       </c>
       <c r="G89" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="90" spans="4:7" x14ac:dyDescent="0.35">
@@ -14525,13 +14522,13 @@
         <v>280</v>
       </c>
       <c r="E90" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F90" t="s">
         <v>298</v>
       </c>
       <c r="G90" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="91" spans="4:7" x14ac:dyDescent="0.35">
@@ -14539,13 +14536,13 @@
         <v>280</v>
       </c>
       <c r="E91" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="F91" t="s">
         <v>138</v>
       </c>
       <c r="G91" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="92" spans="4:7" x14ac:dyDescent="0.35">
@@ -14553,13 +14550,13 @@
         <v>280</v>
       </c>
       <c r="E92" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="F92" t="s">
         <v>298</v>
       </c>
       <c r="G92" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="93" spans="4:7" x14ac:dyDescent="0.35">
@@ -14567,13 +14564,13 @@
         <v>280</v>
       </c>
       <c r="E93" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="F93" t="s">
         <v>298</v>
       </c>
       <c r="G93" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="94" spans="4:7" x14ac:dyDescent="0.35">
@@ -14581,13 +14578,13 @@
         <v>280</v>
       </c>
       <c r="E94" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="F94" t="s">
         <v>298</v>
       </c>
       <c r="G94" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="95" spans="4:7" x14ac:dyDescent="0.35">
@@ -14595,13 +14592,13 @@
         <v>280</v>
       </c>
       <c r="E95" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="F95" t="s">
         <v>298</v>
       </c>
       <c r="G95" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="96" spans="4:7" x14ac:dyDescent="0.35">
@@ -14609,13 +14606,13 @@
         <v>280</v>
       </c>
       <c r="E96" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="F96" t="s">
         <v>138</v>
       </c>
       <c r="G96" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="97" spans="4:7" x14ac:dyDescent="0.35">
@@ -14623,13 +14620,13 @@
         <v>280</v>
       </c>
       <c r="E97" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="F97" t="s">
         <v>298</v>
       </c>
       <c r="G97" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="98" spans="4:7" x14ac:dyDescent="0.35">
@@ -14637,13 +14634,13 @@
         <v>280</v>
       </c>
       <c r="E98" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="F98" t="s">
         <v>298</v>
       </c>
       <c r="G98" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="99" spans="4:7" x14ac:dyDescent="0.35">
@@ -14651,13 +14648,13 @@
         <v>280</v>
       </c>
       <c r="E99" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="F99" t="s">
         <v>298</v>
       </c>
       <c r="G99" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="100" spans="4:7" x14ac:dyDescent="0.35">
@@ -14665,13 +14662,13 @@
         <v>280</v>
       </c>
       <c r="E100" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="F100" t="s">
         <v>138</v>
       </c>
       <c r="G100" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="101" spans="4:7" x14ac:dyDescent="0.35">
@@ -14679,13 +14676,13 @@
         <v>280</v>
       </c>
       <c r="E101" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="F101" t="s">
         <v>298</v>
       </c>
       <c r="G101" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="102" spans="4:7" x14ac:dyDescent="0.35">
@@ -14693,13 +14690,13 @@
         <v>280</v>
       </c>
       <c r="E102" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="F102" t="s">
         <v>298</v>
       </c>
       <c r="G102" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="103" spans="4:7" x14ac:dyDescent="0.35">
@@ -14707,13 +14704,13 @@
         <v>280</v>
       </c>
       <c r="E103" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="F103" t="s">
         <v>298</v>
       </c>
       <c r="G103" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="104" spans="4:7" x14ac:dyDescent="0.35">
@@ -14721,13 +14718,13 @@
         <v>280</v>
       </c>
       <c r="E104" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="F104" t="s">
         <v>298</v>
       </c>
       <c r="G104" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="105" spans="4:7" x14ac:dyDescent="0.35">
@@ -14735,13 +14732,13 @@
         <v>280</v>
       </c>
       <c r="E105" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="F105" t="s">
         <v>298</v>
       </c>
       <c r="G105" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="106" spans="4:7" x14ac:dyDescent="0.35">
@@ -14749,13 +14746,13 @@
         <v>280</v>
       </c>
       <c r="E106" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="F106" t="s">
         <v>298</v>
       </c>
       <c r="G106" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="107" spans="4:7" x14ac:dyDescent="0.35">
@@ -14771,7 +14768,7 @@
         <v>#N/A</v>
       </c>
       <c r="G107" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="108" spans="4:7" x14ac:dyDescent="0.35">
@@ -14779,13 +14776,13 @@
         <v>281</v>
       </c>
       <c r="E108" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F108" t="s">
         <v>138</v>
       </c>
       <c r="G108" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="109" spans="4:7" x14ac:dyDescent="0.35">
@@ -14793,13 +14790,13 @@
         <v>281</v>
       </c>
       <c r="E109" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F109" t="s">
         <v>138</v>
       </c>
       <c r="G109" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="110" spans="4:7" x14ac:dyDescent="0.35">
@@ -14807,13 +14804,13 @@
         <v>281</v>
       </c>
       <c r="E110" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="F110" t="s">
         <v>138</v>
       </c>
       <c r="G110" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="111" spans="4:7" x14ac:dyDescent="0.35">
@@ -14821,13 +14818,13 @@
         <v>281</v>
       </c>
       <c r="E111" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="F111" t="s">
         <v>138</v>
       </c>
       <c r="G111" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="112" spans="4:7" x14ac:dyDescent="0.35">
@@ -14835,13 +14832,13 @@
         <v>281</v>
       </c>
       <c r="E112" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="F112" t="s">
         <v>138</v>
       </c>
       <c r="G112" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="113" spans="4:7" x14ac:dyDescent="0.35">
@@ -14849,13 +14846,13 @@
         <v>281</v>
       </c>
       <c r="E113" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="F113" t="s">
         <v>138</v>
       </c>
       <c r="G113" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="114" spans="4:7" x14ac:dyDescent="0.35">
@@ -14863,13 +14860,13 @@
         <v>281</v>
       </c>
       <c r="E114" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="F114" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G114" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="115" spans="4:7" x14ac:dyDescent="0.35">
@@ -14877,13 +14874,13 @@
         <v>281</v>
       </c>
       <c r="E115" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="F115" t="s">
         <v>298</v>
       </c>
       <c r="G115" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="116" spans="4:7" x14ac:dyDescent="0.35">
@@ -14891,13 +14888,13 @@
         <v>281</v>
       </c>
       <c r="E116" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="F116" t="s">
         <v>138</v>
       </c>
       <c r="G116" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="117" spans="4:7" x14ac:dyDescent="0.35">
@@ -14905,13 +14902,13 @@
         <v>281</v>
       </c>
       <c r="E117" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="F117" t="s">
         <v>138</v>
       </c>
       <c r="G117" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="118" spans="4:7" x14ac:dyDescent="0.35">
@@ -14919,13 +14916,13 @@
         <v>281</v>
       </c>
       <c r="E118" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="F118" t="s">
         <v>298</v>
       </c>
       <c r="G118" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="119" spans="4:7" x14ac:dyDescent="0.35">
@@ -14933,13 +14930,13 @@
         <v>281</v>
       </c>
       <c r="E119" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="F119" t="s">
         <v>138</v>
       </c>
       <c r="G119" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="120" spans="4:7" x14ac:dyDescent="0.35">
@@ -14947,13 +14944,13 @@
         <v>281</v>
       </c>
       <c r="E120" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="F120" t="s">
         <v>138</v>
       </c>
       <c r="G120" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="121" spans="4:7" x14ac:dyDescent="0.35">
@@ -14961,13 +14958,13 @@
         <v>281</v>
       </c>
       <c r="E121" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F121" t="s">
         <v>298</v>
       </c>
       <c r="G121" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="122" spans="4:7" x14ac:dyDescent="0.35">
@@ -14975,13 +14972,13 @@
         <v>281</v>
       </c>
       <c r="E122" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="F122" t="s">
         <v>138</v>
       </c>
       <c r="G122" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="123" spans="4:7" x14ac:dyDescent="0.35">
@@ -14989,13 +14986,13 @@
         <v>281</v>
       </c>
       <c r="E123" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F123" t="s">
         <v>298</v>
       </c>
       <c r="G123" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="124" spans="4:7" x14ac:dyDescent="0.35">
@@ -15003,13 +15000,13 @@
         <v>281</v>
       </c>
       <c r="E124" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="F124" t="s">
         <v>138</v>
       </c>
       <c r="G124" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="125" spans="4:7" x14ac:dyDescent="0.35">
@@ -15017,13 +15014,13 @@
         <v>281</v>
       </c>
       <c r="E125" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="F125" t="s">
         <v>138</v>
       </c>
       <c r="G125" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="126" spans="4:7" x14ac:dyDescent="0.35">
@@ -15031,13 +15028,13 @@
         <v>281</v>
       </c>
       <c r="E126" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="F126" t="s">
         <v>138</v>
       </c>
       <c r="G126" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="127" spans="4:7" x14ac:dyDescent="0.35">
@@ -15045,13 +15042,13 @@
         <v>281</v>
       </c>
       <c r="E127" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="F127" t="s">
         <v>138</v>
       </c>
       <c r="G127" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="128" spans="4:7" x14ac:dyDescent="0.35">
@@ -15059,13 +15056,13 @@
         <v>281</v>
       </c>
       <c r="E128" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="F128" t="s">
         <v>138</v>
       </c>
       <c r="G128" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="129" spans="4:7" x14ac:dyDescent="0.35">
@@ -15073,13 +15070,13 @@
         <v>281</v>
       </c>
       <c r="E129" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="F129" t="s">
         <v>298</v>
       </c>
       <c r="G129" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="130" spans="4:7" x14ac:dyDescent="0.35">
@@ -15087,13 +15084,13 @@
         <v>281</v>
       </c>
       <c r="E130" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F130" t="s">
         <v>138</v>
       </c>
       <c r="G130" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="131" spans="4:7" x14ac:dyDescent="0.35">
@@ -15101,13 +15098,13 @@
         <v>281</v>
       </c>
       <c r="E131" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="F131" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G131" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="132" spans="4:7" x14ac:dyDescent="0.35">
@@ -15115,13 +15112,13 @@
         <v>281</v>
       </c>
       <c r="E132" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="F132" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G132" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="133" spans="4:7" x14ac:dyDescent="0.35">
@@ -15129,13 +15126,13 @@
         <v>281</v>
       </c>
       <c r="E133" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="F133" t="s">
         <v>298</v>
       </c>
       <c r="G133" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="134" spans="4:7" x14ac:dyDescent="0.35">
@@ -15151,7 +15148,7 @@
         <v>#N/A</v>
       </c>
       <c r="G134" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="135" spans="4:7" x14ac:dyDescent="0.35">
@@ -15159,13 +15156,13 @@
         <v>282</v>
       </c>
       <c r="E135" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F135" t="s">
         <v>138</v>
       </c>
       <c r="G135" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="136" spans="4:7" x14ac:dyDescent="0.35">
@@ -15173,13 +15170,13 @@
         <v>282</v>
       </c>
       <c r="E136" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F136" t="s">
         <v>138</v>
       </c>
       <c r="G136" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="137" spans="4:7" x14ac:dyDescent="0.35">
@@ -15187,13 +15184,13 @@
         <v>282</v>
       </c>
       <c r="E137" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F137" t="s">
         <v>138</v>
       </c>
       <c r="G137" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="138" spans="4:7" x14ac:dyDescent="0.35">
@@ -15201,13 +15198,13 @@
         <v>282</v>
       </c>
       <c r="E138" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="F138" t="s">
         <v>138</v>
       </c>
       <c r="G138" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="139" spans="4:7" x14ac:dyDescent="0.35">
@@ -15215,13 +15212,13 @@
         <v>282</v>
       </c>
       <c r="E139" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="F139" t="s">
         <v>298</v>
       </c>
       <c r="G139" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="140" spans="4:7" x14ac:dyDescent="0.35">
@@ -15229,13 +15226,13 @@
         <v>282</v>
       </c>
       <c r="E140" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F140" t="s">
         <v>138</v>
       </c>
       <c r="G140" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="141" spans="4:7" x14ac:dyDescent="0.35">
@@ -15243,13 +15240,13 @@
         <v>282</v>
       </c>
       <c r="E141" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="F141" t="s">
         <v>138</v>
       </c>
       <c r="G141" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="142" spans="4:7" x14ac:dyDescent="0.35">
@@ -15257,13 +15254,13 @@
         <v>282</v>
       </c>
       <c r="E142" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="F142" t="s">
         <v>138</v>
       </c>
       <c r="G142" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="143" spans="4:7" x14ac:dyDescent="0.35">
@@ -15271,13 +15268,13 @@
         <v>282</v>
       </c>
       <c r="E143" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="F143" t="s">
         <v>298</v>
       </c>
       <c r="G143" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="144" spans="4:7" x14ac:dyDescent="0.35">
@@ -15285,13 +15282,13 @@
         <v>282</v>
       </c>
       <c r="E144" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F144" t="s">
         <v>298</v>
       </c>
       <c r="G144" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="145" spans="4:7" x14ac:dyDescent="0.35">
@@ -15299,13 +15296,13 @@
         <v>282</v>
       </c>
       <c r="E145" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="F145" t="s">
         <v>298</v>
       </c>
       <c r="G145" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="146" spans="4:7" x14ac:dyDescent="0.35">
@@ -15313,13 +15310,13 @@
         <v>282</v>
       </c>
       <c r="E146" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="F146" t="s">
         <v>298</v>
       </c>
       <c r="G146" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="147" spans="4:7" x14ac:dyDescent="0.35">
@@ -15327,14 +15324,14 @@
         <v>283</v>
       </c>
       <c r="E147" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="F147" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
       <c r="G147" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="148" spans="4:7" x14ac:dyDescent="0.35">
@@ -15350,7 +15347,7 @@
         <v>#N/A</v>
       </c>
       <c r="G148" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="149" spans="4:7" x14ac:dyDescent="0.35">
@@ -15358,13 +15355,13 @@
         <v>284</v>
       </c>
       <c r="E149" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="F149" t="s">
         <v>298</v>
       </c>
       <c r="G149" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="150" spans="4:7" x14ac:dyDescent="0.35">
@@ -15372,13 +15369,13 @@
         <v>284</v>
       </c>
       <c r="E150" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="F150" t="s">
         <v>138</v>
       </c>
       <c r="G150" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="151" spans="4:7" x14ac:dyDescent="0.35">
@@ -15386,13 +15383,13 @@
         <v>284</v>
       </c>
       <c r="E151" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="F151" t="s">
         <v>138</v>
       </c>
       <c r="G151" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="152" spans="4:7" x14ac:dyDescent="0.35">
@@ -15400,13 +15397,13 @@
         <v>284</v>
       </c>
       <c r="E152" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="F152" t="s">
         <v>138</v>
       </c>
       <c r="G152" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="153" spans="4:7" x14ac:dyDescent="0.35">
@@ -15414,13 +15411,13 @@
         <v>284</v>
       </c>
       <c r="E153" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="F153" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G153" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="154" spans="4:7" x14ac:dyDescent="0.35">
@@ -15428,13 +15425,13 @@
         <v>284</v>
       </c>
       <c r="E154" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="F154" t="s">
         <v>138</v>
       </c>
       <c r="G154" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="155" spans="4:7" x14ac:dyDescent="0.35">
@@ -15442,13 +15439,13 @@
         <v>284</v>
       </c>
       <c r="E155" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F155" t="s">
         <v>138</v>
       </c>
       <c r="G155" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="156" spans="4:7" x14ac:dyDescent="0.35">
@@ -15456,13 +15453,13 @@
         <v>284</v>
       </c>
       <c r="E156" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F156" t="s">
         <v>138</v>
       </c>
       <c r="G156" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="157" spans="4:7" x14ac:dyDescent="0.35">
@@ -15470,13 +15467,13 @@
         <v>284</v>
       </c>
       <c r="E157" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="F157" t="s">
         <v>298</v>
       </c>
       <c r="G157" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="158" spans="4:7" x14ac:dyDescent="0.35">
@@ -15484,18 +15481,18 @@
         <v>284</v>
       </c>
       <c r="E158" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="F158" t="s">
         <v>138</v>
       </c>
       <c r="G158" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="159" spans="4:7" x14ac:dyDescent="0.35">
       <c r="G159" s="60" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
   </sheetData>
@@ -15537,7 +15534,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="30" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B1" s="129"/>
     </row>
@@ -15549,18 +15546,18 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D3" s="60" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="30" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B4" s="129" t="s">
         <v>296</v>
       </c>
       <c r="D4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E4" t="s">
         <v>144</v>
@@ -15592,7 +15589,7 @@
         <v>#N/A</v>
       </c>
       <c r="G5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -15606,13 +15603,13 @@
         <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="F6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -15626,13 +15623,13 @@
         <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="F7" t="s">
         <v>138</v>
       </c>
       <c r="G7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -15646,13 +15643,13 @@
         <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="F8" t="s">
         <v>138</v>
       </c>
       <c r="G8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -15666,13 +15663,13 @@
         <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="F9" t="s">
         <v>138</v>
       </c>
       <c r="G9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -15686,13 +15683,13 @@
         <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="F10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -15706,13 +15703,13 @@
         <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="F11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -15726,13 +15723,13 @@
         <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="F12" t="s">
         <v>138</v>
       </c>
       <c r="G12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -15746,13 +15743,13 @@
         <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="F13" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G13" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -15760,14 +15757,14 @@
         <v>276</v>
       </c>
       <c r="E14" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F14" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
       <c r="G14" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -15783,7 +15780,7 @@
         <v>#N/A</v>
       </c>
       <c r="G15" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -15791,13 +15788,13 @@
         <v>277</v>
       </c>
       <c r="E16" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="F16" t="s">
         <v>138</v>
       </c>
       <c r="G16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="17" spans="4:7" x14ac:dyDescent="0.35">
@@ -15805,13 +15802,13 @@
         <v>277</v>
       </c>
       <c r="E17" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="F17" t="s">
         <v>138</v>
       </c>
       <c r="G17" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="18" spans="4:7" x14ac:dyDescent="0.35">
@@ -15819,14 +15816,14 @@
         <v>278</v>
       </c>
       <c r="E18" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F18" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
       <c r="G18" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="19" spans="4:7" x14ac:dyDescent="0.35">
@@ -15842,7 +15839,7 @@
         <v>#N/A</v>
       </c>
       <c r="G19" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="20" spans="4:7" x14ac:dyDescent="0.35">
@@ -15850,13 +15847,13 @@
         <v>279</v>
       </c>
       <c r="E20" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="F20" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G20" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="21" spans="4:7" x14ac:dyDescent="0.35">
@@ -15864,13 +15861,13 @@
         <v>279</v>
       </c>
       <c r="E21" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="F21" t="s">
         <v>138</v>
       </c>
       <c r="G21" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="22" spans="4:7" x14ac:dyDescent="0.35">
@@ -15878,13 +15875,13 @@
         <v>279</v>
       </c>
       <c r="E22" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="F22" t="s">
         <v>138</v>
       </c>
       <c r="G22" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="23" spans="4:7" x14ac:dyDescent="0.35">
@@ -15892,13 +15889,13 @@
         <v>279</v>
       </c>
       <c r="E23" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="F23" t="s">
         <v>138</v>
       </c>
       <c r="G23" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="24" spans="4:7" x14ac:dyDescent="0.35">
@@ -15906,13 +15903,13 @@
         <v>279</v>
       </c>
       <c r="E24" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="F24" t="s">
         <v>138</v>
       </c>
       <c r="G24" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="25" spans="4:7" x14ac:dyDescent="0.35">
@@ -15920,13 +15917,13 @@
         <v>279</v>
       </c>
       <c r="E25" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="F25" t="s">
         <v>138</v>
       </c>
       <c r="G25" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="26" spans="4:7" x14ac:dyDescent="0.35">
@@ -15934,13 +15931,13 @@
         <v>279</v>
       </c>
       <c r="E26" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F26" t="s">
         <v>138</v>
       </c>
       <c r="G26" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="27" spans="4:7" x14ac:dyDescent="0.35">
@@ -15948,13 +15945,13 @@
         <v>279</v>
       </c>
       <c r="E27" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="F27" t="s">
         <v>138</v>
       </c>
       <c r="G27" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="28" spans="4:7" x14ac:dyDescent="0.35">
@@ -15962,13 +15959,13 @@
         <v>279</v>
       </c>
       <c r="E28" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="F28" t="s">
         <v>138</v>
       </c>
       <c r="G28" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="29" spans="4:7" x14ac:dyDescent="0.35">
@@ -15976,13 +15973,13 @@
         <v>279</v>
       </c>
       <c r="E29" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="F29" t="s">
         <v>138</v>
       </c>
       <c r="G29" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="30" spans="4:7" x14ac:dyDescent="0.35">
@@ -15990,13 +15987,13 @@
         <v>279</v>
       </c>
       <c r="E30" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="F30" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G30" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="31" spans="4:7" x14ac:dyDescent="0.35">
@@ -16004,13 +16001,13 @@
         <v>279</v>
       </c>
       <c r="E31" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="F31" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G31" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="32" spans="4:7" x14ac:dyDescent="0.35">
@@ -16026,7 +16023,7 @@
         <v>#N/A</v>
       </c>
       <c r="G32" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="33" spans="4:7" x14ac:dyDescent="0.35">
@@ -16034,13 +16031,13 @@
         <v>280</v>
       </c>
       <c r="E33" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="F33" t="s">
         <v>138</v>
       </c>
       <c r="G33" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="34" spans="4:7" x14ac:dyDescent="0.35">
@@ -16048,13 +16045,13 @@
         <v>280</v>
       </c>
       <c r="E34" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="F34" t="s">
         <v>138</v>
       </c>
       <c r="G34" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="35" spans="4:7" x14ac:dyDescent="0.35">
@@ -16062,13 +16059,13 @@
         <v>280</v>
       </c>
       <c r="E35" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="F35" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G35" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="36" spans="4:7" x14ac:dyDescent="0.35">
@@ -16076,13 +16073,13 @@
         <v>280</v>
       </c>
       <c r="E36" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="F36" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G36" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="37" spans="4:7" x14ac:dyDescent="0.35">
@@ -16098,7 +16095,7 @@
         <v>#N/A</v>
       </c>
       <c r="G37" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="38" spans="4:7" x14ac:dyDescent="0.35">
@@ -16106,13 +16103,13 @@
         <v>281</v>
       </c>
       <c r="E38" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="F38" t="s">
         <v>138</v>
       </c>
       <c r="G38" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="39" spans="4:7" x14ac:dyDescent="0.35">
@@ -16120,13 +16117,13 @@
         <v>281</v>
       </c>
       <c r="E39" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="F39" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G39" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="40" spans="4:7" x14ac:dyDescent="0.35">
@@ -16134,13 +16131,13 @@
         <v>281</v>
       </c>
       <c r="E40" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="F40" t="s">
         <v>138</v>
       </c>
       <c r="G40" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="41" spans="4:7" x14ac:dyDescent="0.35">
@@ -16148,13 +16145,13 @@
         <v>281</v>
       </c>
       <c r="E41" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="F41" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G41" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="42" spans="4:7" x14ac:dyDescent="0.35">
@@ -16162,13 +16159,13 @@
         <v>281</v>
       </c>
       <c r="E42" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="F42" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G42" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="43" spans="4:7" x14ac:dyDescent="0.35">
@@ -16176,13 +16173,13 @@
         <v>281</v>
       </c>
       <c r="E43" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="F43" t="s">
         <v>138</v>
       </c>
       <c r="G43" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="44" spans="4:7" x14ac:dyDescent="0.35">
@@ -16190,13 +16187,13 @@
         <v>281</v>
       </c>
       <c r="E44" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="F44" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G44" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="45" spans="4:7" x14ac:dyDescent="0.35">
@@ -16204,13 +16201,13 @@
         <v>281</v>
       </c>
       <c r="E45" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="F45" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G45" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="46" spans="4:7" x14ac:dyDescent="0.35">
@@ -16226,7 +16223,7 @@
         <v>#N/A</v>
       </c>
       <c r="G46" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="47" spans="4:7" x14ac:dyDescent="0.35">
@@ -16234,13 +16231,13 @@
         <v>282</v>
       </c>
       <c r="E47" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="F47" t="s">
         <v>138</v>
       </c>
       <c r="G47" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="48" spans="4:7" x14ac:dyDescent="0.35">
@@ -16248,13 +16245,13 @@
         <v>282</v>
       </c>
       <c r="E48" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="F48" t="s">
         <v>138</v>
       </c>
       <c r="G48" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="49" spans="4:7" x14ac:dyDescent="0.35">
@@ -16262,14 +16259,14 @@
         <v>283</v>
       </c>
       <c r="E49" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F49" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
       <c r="G49" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="50" spans="4:7" x14ac:dyDescent="0.35">
@@ -16277,19 +16274,19 @@
         <v>284</v>
       </c>
       <c r="E50" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F50" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
       <c r="G50" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="51" spans="4:7" x14ac:dyDescent="0.35">
       <c r="G51" s="60" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
   </sheetData>
@@ -16992,7 +16989,7 @@
     <row r="20" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="29" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -17076,7 +17073,7 @@
     <row r="24" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
       <c r="B24" s="181" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -17650,7 +17647,7 @@
     </row>
     <row r="6" spans="1:12" ht="364" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="225" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C6" s="226"/>
       <c r="D6" s="226"/>
@@ -17746,7 +17743,7 @@
         <v>288</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -17760,7 +17757,7 @@
         <v>288</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -17774,7 +17771,7 @@
         <v>291</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -17788,7 +17785,7 @@
         <v>288</v>
       </c>
       <c r="E19" s="34" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -17802,7 +17799,7 @@
         <v>290</v>
       </c>
       <c r="E20" s="34" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -17816,7 +17813,7 @@
         <v>291</v>
       </c>
       <c r="E21" s="34" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -17830,7 +17827,7 @@
         <v>288</v>
       </c>
       <c r="E22" s="34" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -17844,7 +17841,7 @@
         <v>288</v>
       </c>
       <c r="E23" s="34" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -17858,7 +17855,7 @@
         <v>289</v>
       </c>
       <c r="E24" s="34" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -18149,7 +18146,7 @@
     </row>
     <row r="55" spans="2:5" ht="240" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B55" s="225" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C55" s="226"/>
       <c r="D55" s="226"/>
@@ -18188,7 +18185,7 @@
     </row>
     <row r="61" spans="2:5" ht="240" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B61" s="225" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C61" s="226"/>
       <c r="D61" s="226"/>
@@ -18327,7 +18324,7 @@
         <v>PF-BOL-001: Wellsprings Innovation Hub</v>
       </c>
       <c r="C6" s="206" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.35">
@@ -18335,7 +18332,7 @@
         <v>PF-BOL-002: Bolton Market Upgrades</v>
       </c>
       <c r="C7" s="206" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.35">
@@ -18343,7 +18340,7 @@
         <v>PF-BOL-003: Bolton Library &amp; Museum Upgrade</v>
       </c>
       <c r="C8" s="206" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.35">
@@ -18351,7 +18348,7 @@
         <v>PF-BOL-004: Public Realm Improvements</v>
       </c>
       <c r="C9" s="206" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.35">
@@ -18359,7 +18356,7 @@
         <v>PF-BOL-005: Accelerated Funding £1 million Public Realm Improvements</v>
       </c>
       <c r="C10" s="206" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.35">
@@ -18367,7 +18364,7 @@
         <v>PF-BOL-006: Farnworth Market Precinct</v>
       </c>
       <c r="C11" s="206" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.35">
@@ -18375,7 +18372,7 @@
         <v>PF-BOL-007: Farnworth Leisure Centre Expansion</v>
       </c>
       <c r="C12" s="206" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.35">
@@ -18383,7 +18380,7 @@
         <v>PF-BOL-008: Streets for All - Farnworth</v>
       </c>
       <c r="C13" s="206" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.35">
@@ -18391,7 +18388,7 @@
         <v>PF-BOL-009: Bolton College of Medical Science</v>
       </c>
       <c r="C14" s="207" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.35">
@@ -18530,7 +18527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{504D5B1B-461C-4DE2-9E08-BF956850FFFF}">
   <dimension ref="A1:BH154"/>
   <sheetViews>
-    <sheetView topLeftCell="C23" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
@@ -19736,7 +19733,7 @@
         <v>118</v>
       </c>
       <c r="C19" s="142" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D19" s="180" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C19, 'Dropdown Values'!$A$43:$B$77, 2, FALSE), "")</f>
@@ -19837,7 +19834,7 @@
         <v>299</v>
       </c>
       <c r="C20" s="143" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D20" s="73" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C20, 'Dropdown Values'!$A$43:$B$77, 2, FALSE), "")</f>
@@ -21745,10 +21742,10 @@
     <row r="45" spans="1:60" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A45" s="112"/>
       <c r="B45" s="142" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C45" s="142" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D45" s="72" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C45, Filtered_Bespoke_Outputs, 2, FALSE), "")</f>
@@ -29545,7 +29542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B8BFA2E-EE1B-48C6-B541-4EAF9B124EE7}">
   <dimension ref="A1:AO155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C12" sqref="C12:G12"/>
     </sheetView>
   </sheetViews>
@@ -30422,7 +30419,7 @@
         <v>301</v>
       </c>
       <c r="C19" s="142" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D19" s="72" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C19, 'Dropdown Values'!$A$82:$B$104, 2, FALSE), "")</f>
@@ -37580,8 +37577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACD05DD0-7124-4A36-99BE-80113683F5E3}">
   <dimension ref="A2:AF90"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="U91" sqref="U91"/>
+    <sheetView topLeftCell="A61" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q64" sqref="Q64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -38621,7 +38618,7 @@
     <row r="31" spans="1:32" ht="239.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="339"/>
       <c r="B31" s="312" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C31" s="231"/>
       <c r="D31" s="231"/>
@@ -39858,7 +39855,7 @@
     <row r="57" spans="1:32" ht="238.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="112"/>
       <c r="B57" s="312" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C57" s="231"/>
       <c r="D57" s="231"/>
@@ -40076,7 +40073,7 @@
     <row r="63" spans="1:32" ht="238.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="112"/>
       <c r="B63" s="312" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="C63" s="231"/>
       <c r="D63" s="231"/>
@@ -40349,7 +40346,7 @@
         <v>1</v>
       </c>
       <c r="C70" s="379" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D70" s="379"/>
       <c r="E70" s="359" t="s">
@@ -40357,7 +40354,7 @@
       </c>
       <c r="F70" s="359"/>
       <c r="G70" s="379" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H70" s="379"/>
       <c r="I70" s="359" t="s">
@@ -40368,15 +40365,15 @@
         <v>20</v>
       </c>
       <c r="L70" s="385" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="M70" s="385"/>
       <c r="N70" s="376" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="O70" s="376"/>
       <c r="P70" s="379" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q70" s="379"/>
       <c r="R70" s="359" t="s">
@@ -41978,32 +41975,32 @@
     </row>
     <row r="9" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B9" s="76" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G9" s="80">
         <f>IFERROR(VALUE(LEFT(E9,1))*VALUE(LEFT(F9,1)),"N/A")</f>
         <v>25</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K9" s="139">
         <f>IFERROR(VALUE(LEFT(I9,1))*VALUE(LEFT(J9,1)),"N/A")</f>
@@ -42012,32 +42009,32 @@
     </row>
     <row r="10" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B10" s="76" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G10" s="80">
         <f t="shared" ref="G10:G13" si="0">IFERROR(VALUE(LEFT(E10,1))*VALUE(LEFT(F10,1)),"N/A")</f>
         <v>8</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="K10" s="139">
         <f t="shared" ref="K10:K13" si="1">IFERROR(VALUE(LEFT(I10,1))*VALUE(LEFT(J10,1)),"N/A")</f>
@@ -42046,32 +42043,32 @@
     </row>
     <row r="11" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B11" s="76" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>1101</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>1102</v>
-      </c>
       <c r="E11" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G11" s="80">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="K11" s="139">
         <f t="shared" si="1"/>
@@ -42080,32 +42077,32 @@
     </row>
     <row r="12" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B12" s="76" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>1104</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>1105</v>
-      </c>
       <c r="E12" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G12" s="80">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="K12" s="139">
         <f t="shared" si="1"/>
@@ -42114,32 +42111,32 @@
     </row>
     <row r="13" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B13" s="78" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C13" s="75" t="s">
+        <v>379</v>
+      </c>
+      <c r="D13" s="75" t="s">
         <v>1107</v>
       </c>
-      <c r="C13" s="75" t="s">
-        <v>380</v>
-      </c>
-      <c r="D13" s="75" t="s">
-        <v>1108</v>
-      </c>
       <c r="E13" s="75" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F13" s="75" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G13" s="81">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="H13" s="75" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I13" s="75" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="J13" s="75" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="K13" s="140">
         <f t="shared" si="1"/>

--- a/tests/integration_tests/mock_pf_returns/PF_Round_1_Initial_Validation_Failures.xlsx
+++ b/tests/integration_tests/mock_pf_returns/PF_Round_1_Initial_Validation_Failures.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mhclg-my.sharepoint.com/personal/william_may_communities_gov_uk/Documents/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PearceJ\stash\funding-service-design-post-award-data-store\tests\integration_tests\mock_pf_returns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{3BFD13D3-E7E4-44F9-AB57-537CDEC19A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0CD172ED-12A1-477B-8DD3-5AA2A66891CC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1FE906-94C4-469D-9456-F9251558A81A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" tabRatio="661" activeTab="10" xr2:uid="{F1A93CD4-AFD6-463B-B066-EB4D40A0C607}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="661" activeTab="10" xr2:uid="{F1A93CD4-AFD6-463B-B066-EB4D40A0C607}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="13" r:id="rId1"/>
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2893" uniqueCount="1112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2893" uniqueCount="1113">
   <si>
     <t>Reporting Round</t>
   </si>
@@ -3749,6 +3749,9 @@
   </si>
   <si>
     <t>Towns Fund</t>
+  </si>
+  <si>
+    <t>Enhancing sub-regional and regional connectivity</t>
   </si>
 </sst>
 </file>
@@ -6111,6 +6114,12 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -6129,14 +6138,20 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -6146,36 +6161,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -6207,16 +6192,127 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6240,12 +6336,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6255,119 +6345,11 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6399,22 +6381,83 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6426,6 +6469,105 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -6434,9 +6576,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -6501,142 +6640,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -6679,14 +6682,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="48">
+  <dxfs count="47">
     <dxf>
       <font>
         <color theme="1" tint="0.249977111117893"/>
@@ -7079,13 +7082,6 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7642,10 +7638,10 @@
     <row r="1" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:6" s="3" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2"/>
-      <c r="B2" s="214" t="s">
+      <c r="B2" s="216" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="215"/>
+      <c r="C2" s="217"/>
       <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
@@ -7897,8 +7893,8 @@
   </sheetPr>
   <dimension ref="A1:J177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="C177" sqref="A1:C177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8189,7 +8185,7 @@
         <v>298</v>
       </c>
       <c r="C48" s="125" t="s">
-        <v>365</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.35">
@@ -8311,7 +8307,7 @@
         <v>138</v>
       </c>
       <c r="C59" s="125" t="s">
-        <v>365</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.35">
@@ -8578,7 +8574,7 @@
         <v>341</v>
       </c>
       <c r="C84" s="125" t="s">
-        <v>365</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
@@ -8589,7 +8585,7 @@
         <v>138</v>
       </c>
       <c r="C85" s="125" t="s">
-        <v>365</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
@@ -8600,7 +8596,7 @@
         <v>138</v>
       </c>
       <c r="C86" s="125" t="s">
-        <v>365</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
@@ -8721,7 +8717,7 @@
         <v>138</v>
       </c>
       <c r="C97" s="125" t="s">
-        <v>365</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
@@ -8765,7 +8761,7 @@
         <v>341</v>
       </c>
       <c r="C101" s="125" t="s">
-        <v>365</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
@@ -8798,7 +8794,7 @@
         <v>138</v>
       </c>
       <c r="C104" s="125" t="s">
-        <v>365</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
@@ -16323,10 +16319,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="214" t="s">
+      <c r="B2" s="216" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="215"/>
+      <c r="C2" s="217"/>
     </row>
     <row r="3" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B3" s="205" t="s">
@@ -16336,16 +16332,16 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="2:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="210" t="s">
+      <c r="B4" s="212" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="211"/>
+      <c r="C4" s="213"/>
     </row>
     <row r="5" spans="2:9" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="212" t="s">
+      <c r="B5" s="214" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="213" t="s">
+      <c r="C5" s="215" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="6"/>
@@ -16357,138 +16353,138 @@
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="2:9" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="B7" s="214" t="s">
+      <c r="B7" s="216" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="215"/>
+      <c r="C7" s="217"/>
       <c r="I7" s="112"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="I8" s="112"/>
     </row>
     <row r="9" spans="2:9" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B9" s="210" t="s">
+      <c r="B9" s="212" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="211"/>
+      <c r="C9" s="213"/>
     </row>
     <row r="10" spans="2:9" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="212" t="s">
+      <c r="B10" s="214" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="213"/>
+      <c r="C10" s="215"/>
     </row>
     <row r="11" spans="2:9" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="25"/>
       <c r="C11" s="19"/>
     </row>
     <row r="12" spans="2:9" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B12" s="210" t="s">
+      <c r="B12" s="212" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="211"/>
+      <c r="C12" s="213"/>
     </row>
     <row r="13" spans="2:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="216" t="s">
+      <c r="B13" s="210" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="217"/>
+      <c r="C13" s="211"/>
     </row>
     <row r="14" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B14" s="25"/>
       <c r="C14" s="19"/>
     </row>
     <row r="15" spans="2:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B15" s="210" t="s">
+      <c r="B15" s="212" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="211"/>
+      <c r="C15" s="213"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B16" s="216" t="s">
+      <c r="B16" s="210" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="217"/>
+      <c r="C16" s="211"/>
     </row>
     <row r="17" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B17" s="25"/>
       <c r="C17" s="19"/>
     </row>
     <row r="18" spans="2:3" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B18" s="210" t="s">
+      <c r="B18" s="212" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="211"/>
+      <c r="C18" s="213"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B19" s="216" t="s">
+      <c r="B19" s="210" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="217"/>
+      <c r="C19" s="211"/>
     </row>
     <row r="20" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B20" s="25"/>
       <c r="C20" s="19"/>
     </row>
     <row r="21" spans="2:3" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B21" s="210" t="s">
+      <c r="B21" s="212" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="211"/>
+      <c r="C21" s="213"/>
     </row>
     <row r="22" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="216" t="s">
+      <c r="B22" s="210" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="217"/>
+      <c r="C22" s="211"/>
     </row>
     <row r="23" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B23" s="25"/>
       <c r="C23" s="19"/>
     </row>
     <row r="24" spans="2:3" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B24" s="210" t="s">
+      <c r="B24" s="212" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="211"/>
+      <c r="C24" s="213"/>
     </row>
     <row r="25" spans="2:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="216" t="s">
+      <c r="B25" s="210" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="217"/>
+      <c r="C25" s="211"/>
     </row>
     <row r="26" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B26" s="25"/>
       <c r="C26" s="19"/>
     </row>
     <row r="27" spans="2:3" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B27" s="210" t="s">
+      <c r="B27" s="212" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="211"/>
+      <c r="C27" s="213"/>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B28" s="216" t="s">
+      <c r="B28" s="210" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="217"/>
+      <c r="C28" s="211"/>
     </row>
     <row r="29" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B29" s="25"/>
       <c r="C29" s="19"/>
     </row>
     <row r="30" spans="2:3" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B30" s="210" t="s">
+      <c r="B30" s="212" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="211"/>
+      <c r="C30" s="213"/>
     </row>
     <row r="31" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="216" t="s">
+      <c r="B31" s="210" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="217"/>
+      <c r="C31" s="211"/>
     </row>
     <row r="34" spans="3:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="35" spans="3:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -16535,6 +16531,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B27:C27"/>
@@ -16545,16 +16551,6 @@
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="1">
@@ -17610,12 +17606,12 @@
   <sheetData>
     <row r="2" spans="1:12" s="12" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="214" t="s">
+      <c r="B2" s="216" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="232"/>
-      <c r="D2" s="232"/>
-      <c r="E2" s="215"/>
+      <c r="C2" s="226"/>
+      <c r="D2" s="226"/>
+      <c r="E2" s="217"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -17630,34 +17626,34 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B4" s="219" t="s">
+      <c r="B4" s="223" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="220"/>
-      <c r="D4" s="220"/>
-      <c r="E4" s="221"/>
+      <c r="C4" s="224"/>
+      <c r="D4" s="224"/>
+      <c r="E4" s="225"/>
     </row>
     <row r="5" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B5" s="222" t="s">
+      <c r="B5" s="236" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="223"/>
-      <c r="D5" s="223"/>
-      <c r="E5" s="224"/>
+      <c r="C5" s="237"/>
+      <c r="D5" s="237"/>
+      <c r="E5" s="238"/>
     </row>
     <row r="6" spans="1:12" ht="364" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="225" t="s">
+      <c r="B6" s="218" t="s">
         <v>1068</v>
       </c>
-      <c r="C6" s="226"/>
-      <c r="D6" s="226"/>
-      <c r="E6" s="227"/>
+      <c r="C6" s="219"/>
+      <c r="D6" s="219"/>
+      <c r="E6" s="220"/>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="218" t="s">
+      <c r="B7" s="221" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="218"/>
+      <c r="C7" s="221"/>
       <c r="E7" s="59" t="s">
         <v>78</v>
       </c>
@@ -17667,37 +17663,37 @@
       <c r="C8" s="15"/>
     </row>
     <row r="9" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B9" s="236" t="s">
+      <c r="B9" s="230" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="237"/>
-      <c r="D9" s="237"/>
-      <c r="E9" s="238"/>
+      <c r="C9" s="231"/>
+      <c r="D9" s="231"/>
+      <c r="E9" s="232"/>
     </row>
     <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B10" s="233" t="s">
+      <c r="B10" s="227" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="234"/>
-      <c r="D10" s="235"/>
+      <c r="C10" s="228"/>
+      <c r="D10" s="229"/>
       <c r="E10" s="93" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="239" t="s">
+      <c r="B11" s="233" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="240"/>
-      <c r="D11" s="240"/>
-      <c r="E11" s="241"/>
+      <c r="C11" s="234"/>
+      <c r="D11" s="234"/>
+      <c r="E11" s="235"/>
     </row>
     <row r="12" spans="1:12" ht="349" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="225" t="s">
+      <c r="B12" s="218" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="226"/>
-      <c r="D12" s="231"/>
+      <c r="C12" s="219"/>
+      <c r="D12" s="222"/>
       <c r="E12" s="146" t="s">
         <v>84</v>
       </c>
@@ -18129,34 +18125,34 @@
       </c>
     </row>
     <row r="53" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="219" t="s">
+      <c r="B53" s="223" t="s">
         <v>93</v>
       </c>
-      <c r="C53" s="220"/>
-      <c r="D53" s="220"/>
-      <c r="E53" s="221"/>
+      <c r="C53" s="224"/>
+      <c r="D53" s="224"/>
+      <c r="E53" s="225"/>
     </row>
     <row r="54" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B54" s="222" t="s">
+      <c r="B54" s="236" t="s">
         <v>94</v>
       </c>
-      <c r="C54" s="223"/>
-      <c r="D54" s="223"/>
-      <c r="E54" s="224"/>
+      <c r="C54" s="237"/>
+      <c r="D54" s="237"/>
+      <c r="E54" s="238"/>
     </row>
     <row r="55" spans="2:5" ht="240" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B55" s="225" t="s">
+      <c r="B55" s="218" t="s">
         <v>1078</v>
       </c>
-      <c r="C55" s="226"/>
-      <c r="D55" s="226"/>
-      <c r="E55" s="227"/>
+      <c r="C55" s="219"/>
+      <c r="D55" s="219"/>
+      <c r="E55" s="220"/>
     </row>
     <row r="56" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="218" t="s">
+      <c r="B56" s="221" t="s">
         <v>77</v>
       </c>
-      <c r="C56" s="218"/>
+      <c r="C56" s="221"/>
       <c r="E56" s="59" t="s">
         <v>95</v>
       </c>
@@ -18168,34 +18164,34 @@
       </c>
     </row>
     <row r="59" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="219" t="s">
+      <c r="B59" s="223" t="s">
         <v>97</v>
       </c>
-      <c r="C59" s="220"/>
-      <c r="D59" s="220"/>
-      <c r="E59" s="221"/>
+      <c r="C59" s="224"/>
+      <c r="D59" s="224"/>
+      <c r="E59" s="225"/>
     </row>
     <row r="60" spans="2:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="228" t="s">
+      <c r="B60" s="239" t="s">
         <v>98</v>
       </c>
-      <c r="C60" s="229"/>
-      <c r="D60" s="229"/>
-      <c r="E60" s="230"/>
+      <c r="C60" s="240"/>
+      <c r="D60" s="240"/>
+      <c r="E60" s="241"/>
     </row>
     <row r="61" spans="2:5" ht="240" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B61" s="225" t="s">
+      <c r="B61" s="218" t="s">
         <v>1079</v>
       </c>
-      <c r="C61" s="226"/>
-      <c r="D61" s="226"/>
-      <c r="E61" s="227"/>
+      <c r="C61" s="219"/>
+      <c r="D61" s="219"/>
+      <c r="E61" s="220"/>
     </row>
     <row r="62" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B62" s="218" t="s">
+      <c r="B62" s="221" t="s">
         <v>77</v>
       </c>
-      <c r="C62" s="218"/>
+      <c r="C62" s="221"/>
       <c r="E62" s="59" t="s">
         <v>99</v>
       </c>
@@ -18220,6 +18216,14 @@
     <row r="78" spans="2:4" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="B61:E61"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B12:D12"/>
@@ -18229,31 +18233,23 @@
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="B61:E61"/>
   </mergeCells>
   <conditionalFormatting sqref="B15:E50">
-    <cfRule type="expression" dxfId="47" priority="1">
+    <cfRule type="expression" dxfId="46" priority="1">
       <formula>$B15=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:D50">
-    <cfRule type="cellIs" dxfId="46" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="2" operator="equal">
       <formula>"Green"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="3" operator="equal">
       <formula>"Amber"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="4" operator="equal">
       <formula>"Red"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="5" operator="equal">
       <formula>"Select a rating"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18504,12 +18500,7 @@
   <mergeCells count="1">
     <mergeCell ref="B2:C2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B15:C40 B6:B14">
-    <cfRule type="expression" dxfId="42" priority="2">
-      <formula>$B6=""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6:C14">
+  <conditionalFormatting sqref="B6:C40">
     <cfRule type="expression" dxfId="41" priority="1">
       <formula>$B6=""</formula>
     </cfRule>
@@ -18622,14 +18613,14 @@
     </row>
     <row r="2" spans="1:60" s="12" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="214" t="s">
+      <c r="B2" s="216" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="232"/>
-      <c r="D2" s="232"/>
-      <c r="E2" s="232"/>
-      <c r="F2" s="232"/>
-      <c r="G2" s="215"/>
+      <c r="C2" s="226"/>
+      <c r="D2" s="226"/>
+      <c r="E2" s="226"/>
+      <c r="F2" s="226"/>
+      <c r="G2" s="217"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -18748,14 +18739,14 @@
     </row>
     <row r="4" spans="1:60" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="112"/>
-      <c r="B4" s="246" t="s">
+      <c r="B4" s="277" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="247"/>
-      <c r="D4" s="247"/>
-      <c r="E4" s="247"/>
-      <c r="F4" s="247"/>
-      <c r="G4" s="248"/>
+      <c r="C4" s="278"/>
+      <c r="D4" s="278"/>
+      <c r="E4" s="278"/>
+      <c r="F4" s="278"/>
+      <c r="G4" s="279"/>
       <c r="H4" s="20"/>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
@@ -18812,14 +18803,14 @@
     </row>
     <row r="5" spans="1:60" ht="138.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="112"/>
-      <c r="B5" s="249" t="s">
+      <c r="B5" s="280" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="250"/>
-      <c r="D5" s="251"/>
-      <c r="E5" s="251"/>
-      <c r="F5" s="251"/>
-      <c r="G5" s="252"/>
+      <c r="C5" s="281"/>
+      <c r="D5" s="282"/>
+      <c r="E5" s="282"/>
+      <c r="F5" s="282"/>
+      <c r="G5" s="283"/>
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
       <c r="J5" s="21"/>
@@ -18876,14 +18867,14 @@
     </row>
     <row r="6" spans="1:60" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="112"/>
-      <c r="B6" s="283" t="s">
+      <c r="B6" s="258" t="s">
         <v>107</v>
       </c>
-      <c r="C6" s="284"/>
-      <c r="D6" s="284"/>
-      <c r="E6" s="285"/>
-      <c r="F6" s="285"/>
-      <c r="G6" s="286"/>
+      <c r="C6" s="259"/>
+      <c r="D6" s="259"/>
+      <c r="E6" s="260"/>
+      <c r="F6" s="260"/>
+      <c r="G6" s="261"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
@@ -18943,13 +18934,13 @@
       <c r="B7" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="C7" s="284" t="s">
+      <c r="C7" s="259" t="s">
         <v>109</v>
       </c>
-      <c r="D7" s="284"/>
-      <c r="E7" s="285"/>
-      <c r="F7" s="285"/>
-      <c r="G7" s="286"/>
+      <c r="D7" s="259"/>
+      <c r="E7" s="260"/>
+      <c r="F7" s="260"/>
+      <c r="G7" s="261"/>
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
       <c r="J7" s="21"/>
@@ -19009,13 +19000,13 @@
       <c r="B8" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="C8" s="268" t="s">
+      <c r="C8" s="262" t="s">
         <v>111</v>
       </c>
-      <c r="D8" s="268"/>
-      <c r="E8" s="269"/>
-      <c r="F8" s="269"/>
-      <c r="G8" s="270"/>
+      <c r="D8" s="262"/>
+      <c r="E8" s="263"/>
+      <c r="F8" s="263"/>
+      <c r="G8" s="264"/>
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
       <c r="J8" s="21"/>
@@ -19075,13 +19066,13 @@
       <c r="B9" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="268" t="s">
+      <c r="C9" s="262" t="s">
         <v>113</v>
       </c>
-      <c r="D9" s="268"/>
-      <c r="E9" s="269"/>
-      <c r="F9" s="269"/>
-      <c r="G9" s="270"/>
+      <c r="D9" s="262"/>
+      <c r="E9" s="263"/>
+      <c r="F9" s="263"/>
+      <c r="G9" s="264"/>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
       <c r="J9" s="21"/>
@@ -19141,13 +19132,13 @@
       <c r="B10" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="C10" s="268" t="s">
+      <c r="C10" s="262" t="s">
         <v>115</v>
       </c>
-      <c r="D10" s="268"/>
-      <c r="E10" s="269"/>
-      <c r="F10" s="269"/>
-      <c r="G10" s="270"/>
+      <c r="D10" s="262"/>
+      <c r="E10" s="263"/>
+      <c r="F10" s="263"/>
+      <c r="G10" s="264"/>
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
       <c r="J10" s="21"/>
@@ -19207,13 +19198,13 @@
       <c r="B11" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="C11" s="268" t="s">
+      <c r="C11" s="262" t="s">
         <v>117</v>
       </c>
-      <c r="D11" s="268"/>
-      <c r="E11" s="269"/>
-      <c r="F11" s="269"/>
-      <c r="G11" s="270"/>
+      <c r="D11" s="262"/>
+      <c r="E11" s="263"/>
+      <c r="F11" s="263"/>
+      <c r="G11" s="264"/>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
       <c r="J11" s="21"/>
@@ -19273,13 +19264,13 @@
       <c r="B12" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="C12" s="271" t="s">
+      <c r="C12" s="267" t="s">
         <v>119</v>
       </c>
-      <c r="D12" s="271"/>
-      <c r="E12" s="272"/>
-      <c r="F12" s="272"/>
-      <c r="G12" s="273"/>
+      <c r="D12" s="267"/>
+      <c r="E12" s="268"/>
+      <c r="F12" s="268"/>
+      <c r="G12" s="269"/>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
@@ -19483,60 +19474,60 @@
     </row>
     <row r="16" spans="1:60" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="112"/>
-      <c r="B16" s="253" t="s">
+      <c r="B16" s="251" t="s">
         <v>122</v>
       </c>
-      <c r="C16" s="274" t="s">
+      <c r="C16" s="253" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="255" t="s">
+      <c r="D16" s="284" t="s">
         <v>124</v>
       </c>
-      <c r="E16" s="279" t="s">
+      <c r="E16" s="273" t="s">
         <v>125</v>
       </c>
-      <c r="F16" s="280"/>
-      <c r="G16" s="277" t="s">
+      <c r="F16" s="274"/>
+      <c r="G16" s="271" t="s">
         <v>126</v>
       </c>
-      <c r="H16" s="277"/>
-      <c r="I16" s="277"/>
-      <c r="J16" s="277"/>
-      <c r="K16" s="278"/>
-      <c r="L16" s="265" t="s">
+      <c r="H16" s="271"/>
+      <c r="I16" s="271"/>
+      <c r="J16" s="271"/>
+      <c r="K16" s="272"/>
+      <c r="L16" s="255" t="s">
         <v>127</v>
       </c>
-      <c r="M16" s="266"/>
-      <c r="N16" s="266"/>
-      <c r="O16" s="266"/>
-      <c r="P16" s="267"/>
+      <c r="M16" s="256"/>
+      <c r="N16" s="256"/>
+      <c r="O16" s="256"/>
+      <c r="P16" s="257"/>
       <c r="Q16" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="R16" s="258" t="s">
+      <c r="R16" s="244" t="s">
         <v>129</v>
       </c>
       <c r="S16" s="112"/>
       <c r="T16" s="52"/>
       <c r="U16" s="52"/>
       <c r="V16" s="52"/>
-      <c r="W16" s="244"/>
-      <c r="X16" s="244"/>
-      <c r="Y16" s="244"/>
-      <c r="Z16" s="244"/>
-      <c r="AA16" s="244"/>
-      <c r="AB16" s="244"/>
-      <c r="AC16" s="244"/>
-      <c r="AD16" s="244"/>
-      <c r="AE16" s="244"/>
-      <c r="AF16" s="244"/>
-      <c r="AG16" s="244"/>
-      <c r="AH16" s="244"/>
-      <c r="AI16" s="244"/>
-      <c r="AJ16" s="244"/>
-      <c r="AK16" s="244"/>
+      <c r="W16" s="265"/>
+      <c r="X16" s="265"/>
+      <c r="Y16" s="265"/>
+      <c r="Z16" s="265"/>
+      <c r="AA16" s="265"/>
+      <c r="AB16" s="265"/>
+      <c r="AC16" s="265"/>
+      <c r="AD16" s="265"/>
+      <c r="AE16" s="265"/>
+      <c r="AF16" s="265"/>
+      <c r="AG16" s="265"/>
+      <c r="AH16" s="265"/>
+      <c r="AI16" s="265"/>
+      <c r="AJ16" s="265"/>
+      <c r="AK16" s="265"/>
       <c r="AL16" s="52"/>
-      <c r="AM16" s="244"/>
+      <c r="AM16" s="265"/>
       <c r="AN16" s="112"/>
       <c r="AO16" s="112"/>
       <c r="AP16" s="112"/>
@@ -19561,13 +19552,13 @@
     </row>
     <row r="17" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="112"/>
-      <c r="B17" s="254"/>
-      <c r="C17" s="275"/>
-      <c r="D17" s="256"/>
+      <c r="B17" s="252"/>
+      <c r="C17" s="254"/>
+      <c r="D17" s="285"/>
       <c r="E17" s="185" t="s">
         <v>130</v>
       </c>
-      <c r="F17" s="281" t="s">
+      <c r="F17" s="275" t="s">
         <v>131</v>
       </c>
       <c r="G17" s="85" t="s">
@@ -19582,7 +19573,7 @@
       <c r="J17" s="85" t="s">
         <v>130</v>
       </c>
-      <c r="K17" s="260" t="s">
+      <c r="K17" s="246" t="s">
         <v>131</v>
       </c>
       <c r="L17" s="84" t="s">
@@ -19597,13 +19588,13 @@
       <c r="O17" s="85" t="s">
         <v>130</v>
       </c>
-      <c r="P17" s="262" t="s">
+      <c r="P17" s="248" t="s">
         <v>131</v>
       </c>
-      <c r="Q17" s="263" t="s">
+      <c r="Q17" s="249" t="s">
         <v>131</v>
       </c>
-      <c r="R17" s="259"/>
+      <c r="R17" s="245"/>
       <c r="S17" s="112"/>
       <c r="T17" s="54"/>
       <c r="U17" s="54"/>
@@ -19612,19 +19603,19 @@
       <c r="X17" s="52"/>
       <c r="Y17" s="52"/>
       <c r="Z17" s="52"/>
-      <c r="AA17" s="245"/>
+      <c r="AA17" s="266"/>
       <c r="AB17" s="52"/>
       <c r="AC17" s="52"/>
       <c r="AD17" s="52"/>
       <c r="AE17" s="52"/>
-      <c r="AF17" s="245"/>
+      <c r="AF17" s="266"/>
       <c r="AG17" s="52"/>
       <c r="AH17" s="52"/>
       <c r="AI17" s="52"/>
       <c r="AJ17" s="52"/>
-      <c r="AK17" s="245"/>
-      <c r="AL17" s="245"/>
-      <c r="AM17" s="244"/>
+      <c r="AK17" s="266"/>
+      <c r="AL17" s="266"/>
+      <c r="AM17" s="265"/>
       <c r="AN17" s="112"/>
       <c r="AO17" s="112"/>
       <c r="AP17" s="112"/>
@@ -19649,13 +19640,13 @@
     </row>
     <row r="18" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="112"/>
-      <c r="B18" s="254"/>
-      <c r="C18" s="276"/>
-      <c r="D18" s="257"/>
+      <c r="B18" s="252"/>
+      <c r="C18" s="270"/>
+      <c r="D18" s="286"/>
       <c r="E18" s="183" t="s">
         <v>135</v>
       </c>
-      <c r="F18" s="282"/>
+      <c r="F18" s="276"/>
       <c r="G18" s="179" t="s">
         <v>136</v>
       </c>
@@ -19668,7 +19659,7 @@
       <c r="J18" s="68" t="s">
         <v>136</v>
       </c>
-      <c r="K18" s="261"/>
+      <c r="K18" s="247"/>
       <c r="L18" s="68" t="s">
         <v>136</v>
       </c>
@@ -19681,9 +19672,9 @@
       <c r="O18" s="68" t="s">
         <v>136</v>
       </c>
-      <c r="P18" s="261"/>
-      <c r="Q18" s="264"/>
-      <c r="R18" s="259"/>
+      <c r="P18" s="247"/>
+      <c r="Q18" s="250"/>
+      <c r="R18" s="245"/>
       <c r="S18" s="112"/>
       <c r="T18" s="53"/>
       <c r="U18" s="53"/>
@@ -19692,19 +19683,19 @@
       <c r="X18" s="55"/>
       <c r="Y18" s="55"/>
       <c r="Z18" s="55"/>
-      <c r="AA18" s="245"/>
+      <c r="AA18" s="266"/>
       <c r="AB18" s="55"/>
       <c r="AC18" s="55"/>
       <c r="AD18" s="55"/>
       <c r="AE18" s="55"/>
-      <c r="AF18" s="245"/>
+      <c r="AF18" s="266"/>
       <c r="AG18" s="55"/>
       <c r="AH18" s="55"/>
       <c r="AI18" s="55"/>
       <c r="AJ18" s="55"/>
-      <c r="AK18" s="245"/>
-      <c r="AL18" s="245"/>
-      <c r="AM18" s="244"/>
+      <c r="AK18" s="266"/>
+      <c r="AL18" s="266"/>
+      <c r="AM18" s="265"/>
       <c r="AN18" s="112"/>
       <c r="AO18" s="112"/>
       <c r="AP18" s="112"/>
@@ -21495,37 +21486,37 @@
     </row>
     <row r="42" spans="1:60" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="112"/>
-      <c r="B42" s="253" t="s">
+      <c r="B42" s="251" t="s">
         <v>122</v>
       </c>
-      <c r="C42" s="253" t="s">
+      <c r="C42" s="251" t="s">
         <v>123</v>
       </c>
-      <c r="D42" s="274" t="s">
+      <c r="D42" s="253" t="s">
         <v>124</v>
       </c>
-      <c r="E42" s="265" t="s">
+      <c r="E42" s="255" t="s">
         <v>125</v>
       </c>
-      <c r="F42" s="266"/>
-      <c r="G42" s="265" t="s">
+      <c r="F42" s="256"/>
+      <c r="G42" s="255" t="s">
         <v>126</v>
       </c>
-      <c r="H42" s="266"/>
-      <c r="I42" s="266"/>
-      <c r="J42" s="266"/>
-      <c r="K42" s="267"/>
-      <c r="L42" s="265" t="s">
+      <c r="H42" s="256"/>
+      <c r="I42" s="256"/>
+      <c r="J42" s="256"/>
+      <c r="K42" s="257"/>
+      <c r="L42" s="255" t="s">
         <v>127</v>
       </c>
-      <c r="M42" s="266"/>
-      <c r="N42" s="266"/>
-      <c r="O42" s="266"/>
-      <c r="P42" s="267"/>
+      <c r="M42" s="256"/>
+      <c r="N42" s="256"/>
+      <c r="O42" s="256"/>
+      <c r="P42" s="257"/>
       <c r="Q42" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="R42" s="258" t="s">
+      <c r="R42" s="244" t="s">
         <v>129</v>
       </c>
       <c r="S42" s="112"/>
@@ -21537,18 +21528,18 @@
       <c r="Y42" s="112"/>
       <c r="Z42" s="112"/>
       <c r="AA42" s="112"/>
-      <c r="AB42" s="244"/>
-      <c r="AC42" s="244"/>
-      <c r="AD42" s="244"/>
-      <c r="AE42" s="244"/>
-      <c r="AF42" s="244"/>
-      <c r="AG42" s="244"/>
-      <c r="AH42" s="244"/>
-      <c r="AI42" s="244"/>
-      <c r="AJ42" s="244"/>
-      <c r="AK42" s="244"/>
+      <c r="AB42" s="265"/>
+      <c r="AC42" s="265"/>
+      <c r="AD42" s="265"/>
+      <c r="AE42" s="265"/>
+      <c r="AF42" s="265"/>
+      <c r="AG42" s="265"/>
+      <c r="AH42" s="265"/>
+      <c r="AI42" s="265"/>
+      <c r="AJ42" s="265"/>
+      <c r="AK42" s="265"/>
       <c r="AL42" s="52"/>
-      <c r="AM42" s="244"/>
+      <c r="AM42" s="265"/>
       <c r="AN42" s="112"/>
       <c r="AO42" s="112"/>
       <c r="AP42" s="112"/>
@@ -21573,13 +21564,13 @@
     </row>
     <row r="43" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="112"/>
-      <c r="B43" s="254"/>
-      <c r="C43" s="254"/>
-      <c r="D43" s="275"/>
+      <c r="B43" s="252"/>
+      <c r="C43" s="252"/>
+      <c r="D43" s="254"/>
       <c r="E43" s="84" t="s">
         <v>130</v>
       </c>
-      <c r="F43" s="260" t="s">
+      <c r="F43" s="246" t="s">
         <v>131</v>
       </c>
       <c r="G43" s="84" t="s">
@@ -21594,7 +21585,7 @@
       <c r="J43" s="85" t="s">
         <v>130</v>
       </c>
-      <c r="K43" s="260" t="s">
+      <c r="K43" s="246" t="s">
         <v>131</v>
       </c>
       <c r="L43" s="84" t="s">
@@ -21609,13 +21600,13 @@
       <c r="O43" s="85" t="s">
         <v>130</v>
       </c>
-      <c r="P43" s="262" t="s">
+      <c r="P43" s="248" t="s">
         <v>131</v>
       </c>
-      <c r="Q43" s="263" t="s">
+      <c r="Q43" s="249" t="s">
         <v>131</v>
       </c>
-      <c r="R43" s="259"/>
+      <c r="R43" s="245"/>
       <c r="S43" s="112"/>
       <c r="T43" s="54"/>
       <c r="U43" s="54"/>
@@ -21624,19 +21615,19 @@
       <c r="X43" s="52"/>
       <c r="Y43" s="52"/>
       <c r="Z43" s="52"/>
-      <c r="AA43" s="245"/>
+      <c r="AA43" s="266"/>
       <c r="AB43" s="52"/>
       <c r="AC43" s="52"/>
       <c r="AD43" s="52"/>
       <c r="AE43" s="52"/>
-      <c r="AF43" s="245"/>
+      <c r="AF43" s="266"/>
       <c r="AG43" s="52"/>
       <c r="AH43" s="52"/>
       <c r="AI43" s="52"/>
       <c r="AJ43" s="52"/>
-      <c r="AK43" s="245"/>
-      <c r="AL43" s="245"/>
-      <c r="AM43" s="244"/>
+      <c r="AK43" s="266"/>
+      <c r="AL43" s="266"/>
+      <c r="AM43" s="265"/>
       <c r="AN43" s="112"/>
       <c r="AO43" s="112"/>
       <c r="AP43" s="112"/>
@@ -21661,13 +21652,13 @@
     </row>
     <row r="44" spans="1:60" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="112"/>
-      <c r="B44" s="254"/>
-      <c r="C44" s="254"/>
-      <c r="D44" s="254"/>
+      <c r="B44" s="252"/>
+      <c r="C44" s="252"/>
+      <c r="D44" s="252"/>
       <c r="E44" s="67" t="s">
         <v>135</v>
       </c>
-      <c r="F44" s="261"/>
+      <c r="F44" s="247"/>
       <c r="G44" s="67" t="s">
         <v>136</v>
       </c>
@@ -21680,7 +21671,7 @@
       <c r="J44" s="68" t="s">
         <v>136</v>
       </c>
-      <c r="K44" s="261"/>
+      <c r="K44" s="247"/>
       <c r="L44" s="68" t="s">
         <v>136</v>
       </c>
@@ -21693,9 +21684,9 @@
       <c r="O44" s="68" t="s">
         <v>136</v>
       </c>
-      <c r="P44" s="261"/>
-      <c r="Q44" s="264"/>
-      <c r="R44" s="259"/>
+      <c r="P44" s="247"/>
+      <c r="Q44" s="250"/>
+      <c r="R44" s="245"/>
       <c r="S44" s="112"/>
       <c r="T44" s="53"/>
       <c r="U44" s="53"/>
@@ -21704,19 +21695,19 @@
       <c r="X44" s="55"/>
       <c r="Y44" s="55"/>
       <c r="Z44" s="55"/>
-      <c r="AA44" s="245"/>
+      <c r="AA44" s="266"/>
       <c r="AB44" s="55"/>
       <c r="AC44" s="55"/>
       <c r="AD44" s="55"/>
       <c r="AE44" s="55"/>
-      <c r="AF44" s="245"/>
+      <c r="AF44" s="266"/>
       <c r="AG44" s="55"/>
       <c r="AH44" s="55"/>
       <c r="AI44" s="55"/>
       <c r="AJ44" s="55"/>
-      <c r="AK44" s="245"/>
-      <c r="AL44" s="245"/>
-      <c r="AM44" s="244"/>
+      <c r="AK44" s="266"/>
+      <c r="AL44" s="266"/>
+      <c r="AM44" s="265"/>
       <c r="AN44" s="112"/>
       <c r="AO44" s="112"/>
       <c r="AP44" s="112"/>
@@ -29351,37 +29342,6 @@
     <protectedRange sqref="L45:O45" name="Section_B_1_5"/>
   </protectedRanges>
   <mergeCells count="47">
-    <mergeCell ref="R42:R44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="P43:P44"/>
-    <mergeCell ref="Q43:Q44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="G42:K42"/>
-    <mergeCell ref="L42:P42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="AM16:AM18"/>
-    <mergeCell ref="AA17:AA18"/>
-    <mergeCell ref="AF17:AF18"/>
-    <mergeCell ref="AK17:AK18"/>
-    <mergeCell ref="AL17:AL18"/>
-    <mergeCell ref="W16:AA16"/>
-    <mergeCell ref="AB16:AF16"/>
-    <mergeCell ref="AG16:AK16"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="F17:F18"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="AB42:AF42"/>
     <mergeCell ref="AG42:AK42"/>
@@ -29398,6 +29358,37 @@
     <mergeCell ref="K17:K18"/>
     <mergeCell ref="P17:P18"/>
     <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="AM16:AM18"/>
+    <mergeCell ref="AA17:AA18"/>
+    <mergeCell ref="AF17:AF18"/>
+    <mergeCell ref="AK17:AK18"/>
+    <mergeCell ref="AL17:AL18"/>
+    <mergeCell ref="W16:AA16"/>
+    <mergeCell ref="AB16:AF16"/>
+    <mergeCell ref="AG16:AK16"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="R42:R44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="P43:P44"/>
+    <mergeCell ref="Q43:Q44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="G42:K42"/>
+    <mergeCell ref="L42:P42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="F43:F44"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="E18 G18:J18">
@@ -29408,83 +29399,83 @@
       <formula>"Forecast"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G44:J44">
-    <cfRule type="cellIs" dxfId="38" priority="5" operator="equal">
+  <conditionalFormatting sqref="E44">
+    <cfRule type="cellIs" dxfId="38" priority="1" operator="equal">
       <formula>"Actual"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="2" operator="equal">
+      <formula>"Forecast"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G44:J44">
+    <cfRule type="cellIs" dxfId="36" priority="5" operator="equal">
+      <formula>"Actual"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="6" operator="equal">
       <formula>"Forecast"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L18:O18">
-    <cfRule type="cellIs" dxfId="36" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="85" operator="equal">
       <formula>"Actual"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="86" operator="equal">
       <formula>"Forecast"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L44:O44">
-    <cfRule type="cellIs" dxfId="34" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="3" operator="equal">
       <formula>"Actual"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="4" operator="equal">
       <formula>"Forecast"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W18:Z18">
-    <cfRule type="cellIs" dxfId="32" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="41" operator="equal">
       <formula>"Actual"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="42" operator="equal">
       <formula>"Forecast"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W44:Z44">
-    <cfRule type="cellIs" dxfId="30" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="19" operator="equal">
       <formula>"Actual"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="20" operator="equal">
       <formula>"Forecast"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18:AE18">
-    <cfRule type="cellIs" dxfId="28" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="39" operator="equal">
       <formula>"Actual"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="40" operator="equal">
       <formula>"Forecast"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB44:AE44">
-    <cfRule type="cellIs" dxfId="26" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="17" operator="equal">
       <formula>"Actual"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="18" operator="equal">
       <formula>"Forecast"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG18:AJ18">
-    <cfRule type="cellIs" dxfId="24" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="37" operator="equal">
       <formula>"Actual"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="38" operator="equal">
       <formula>"Forecast"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG44:AJ44">
-    <cfRule type="cellIs" dxfId="22" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="15" operator="equal">
       <formula>"Actual"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="16" operator="equal">
-      <formula>"Forecast"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
-      <formula>"Actual"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
       <formula>"Forecast"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29612,14 +29603,14 @@
     </row>
     <row r="2" spans="1:41" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="214" t="s">
+      <c r="B2" s="216" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="232"/>
-      <c r="D2" s="232"/>
-      <c r="E2" s="232"/>
-      <c r="F2" s="232"/>
-      <c r="G2" s="215"/>
+      <c r="C2" s="226"/>
+      <c r="D2" s="226"/>
+      <c r="E2" s="226"/>
+      <c r="F2" s="226"/>
+      <c r="G2" s="217"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -29700,14 +29691,14 @@
     </row>
     <row r="4" spans="1:41" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="112"/>
-      <c r="B4" s="297" t="s">
+      <c r="B4" s="290" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="298"/>
-      <c r="D4" s="298"/>
-      <c r="E4" s="298"/>
-      <c r="F4" s="298"/>
-      <c r="G4" s="299"/>
+      <c r="C4" s="291"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="291"/>
+      <c r="F4" s="291"/>
+      <c r="G4" s="292"/>
       <c r="H4" s="112"/>
       <c r="I4"/>
       <c r="J4"/>
@@ -29745,14 +29736,14 @@
     </row>
     <row r="5" spans="1:41" ht="138.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="112"/>
-      <c r="B5" s="300" t="s">
+      <c r="B5" s="293" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="301"/>
-      <c r="D5" s="301"/>
-      <c r="E5" s="301"/>
-      <c r="F5" s="301"/>
-      <c r="G5" s="302"/>
+      <c r="C5" s="294"/>
+      <c r="D5" s="294"/>
+      <c r="E5" s="294"/>
+      <c r="F5" s="294"/>
+      <c r="G5" s="295"/>
       <c r="H5" s="112"/>
       <c r="I5"/>
       <c r="J5"/>
@@ -29790,14 +29781,14 @@
     </row>
     <row r="6" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="112"/>
-      <c r="B6" s="303" t="s">
+      <c r="B6" s="296" t="s">
         <v>107</v>
       </c>
-      <c r="C6" s="304"/>
-      <c r="D6" s="304"/>
-      <c r="E6" s="304"/>
-      <c r="F6" s="304"/>
-      <c r="G6" s="305"/>
+      <c r="C6" s="297"/>
+      <c r="D6" s="297"/>
+      <c r="E6" s="297"/>
+      <c r="F6" s="297"/>
+      <c r="G6" s="298"/>
       <c r="H6" s="112"/>
       <c r="I6"/>
       <c r="J6"/>
@@ -29838,13 +29829,13 @@
       <c r="B7" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="C7" s="285" t="s">
+      <c r="C7" s="260" t="s">
         <v>109</v>
       </c>
-      <c r="D7" s="304"/>
-      <c r="E7" s="304"/>
-      <c r="F7" s="304"/>
-      <c r="G7" s="305"/>
+      <c r="D7" s="297"/>
+      <c r="E7" s="297"/>
+      <c r="F7" s="297"/>
+      <c r="G7" s="298"/>
       <c r="H7" s="112"/>
       <c r="I7"/>
       <c r="J7"/>
@@ -29885,13 +29876,13 @@
       <c r="B8" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="C8" s="269" t="s">
+      <c r="C8" s="263" t="s">
         <v>111</v>
       </c>
-      <c r="D8" s="292"/>
-      <c r="E8" s="292"/>
-      <c r="F8" s="292"/>
-      <c r="G8" s="293"/>
+      <c r="D8" s="299"/>
+      <c r="E8" s="299"/>
+      <c r="F8" s="299"/>
+      <c r="G8" s="300"/>
       <c r="H8" s="112"/>
       <c r="I8"/>
       <c r="J8"/>
@@ -29932,13 +29923,13 @@
       <c r="B9" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="269" t="s">
+      <c r="C9" s="263" t="s">
         <v>113</v>
       </c>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="292"/>
-      <c r="G9" s="293"/>
+      <c r="D9" s="299"/>
+      <c r="E9" s="299"/>
+      <c r="F9" s="299"/>
+      <c r="G9" s="300"/>
       <c r="H9" s="112"/>
       <c r="I9"/>
       <c r="J9"/>
@@ -29979,13 +29970,13 @@
       <c r="B10" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="C10" s="269" t="s">
+      <c r="C10" s="263" t="s">
         <v>115</v>
       </c>
-      <c r="D10" s="292"/>
-      <c r="E10" s="292"/>
-      <c r="F10" s="292"/>
-      <c r="G10" s="293"/>
+      <c r="D10" s="299"/>
+      <c r="E10" s="299"/>
+      <c r="F10" s="299"/>
+      <c r="G10" s="300"/>
       <c r="H10" s="112"/>
       <c r="I10"/>
       <c r="J10"/>
@@ -30026,13 +30017,13 @@
       <c r="B11" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="C11" s="269" t="s">
+      <c r="C11" s="263" t="s">
         <v>117</v>
       </c>
-      <c r="D11" s="292"/>
-      <c r="E11" s="292"/>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
+      <c r="D11" s="299"/>
+      <c r="E11" s="299"/>
+      <c r="F11" s="299"/>
+      <c r="G11" s="300"/>
       <c r="H11" s="112"/>
       <c r="I11"/>
       <c r="J11"/>
@@ -30073,13 +30064,13 @@
       <c r="B12" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="C12" s="272" t="s">
+      <c r="C12" s="268" t="s">
         <v>119</v>
       </c>
-      <c r="D12" s="294"/>
-      <c r="E12" s="294"/>
-      <c r="F12" s="294"/>
-      <c r="G12" s="295"/>
+      <c r="D12" s="301"/>
+      <c r="E12" s="301"/>
+      <c r="F12" s="301"/>
+      <c r="G12" s="302"/>
       <c r="H12" s="112"/>
       <c r="I12"/>
       <c r="J12"/>
@@ -30226,37 +30217,37 @@
     </row>
     <row r="16" spans="1:41" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="112"/>
-      <c r="B16" s="253" t="s">
+      <c r="B16" s="251" t="s">
         <v>122</v>
       </c>
-      <c r="C16" s="253" t="s">
+      <c r="C16" s="251" t="s">
         <v>144</v>
       </c>
-      <c r="D16" s="274" t="s">
+      <c r="D16" s="253" t="s">
         <v>124</v>
       </c>
-      <c r="E16" s="265" t="s">
+      <c r="E16" s="255" t="s">
         <v>125</v>
       </c>
-      <c r="F16" s="266"/>
-      <c r="G16" s="265" t="s">
+      <c r="F16" s="256"/>
+      <c r="G16" s="255" t="s">
         <v>126</v>
       </c>
-      <c r="H16" s="266"/>
-      <c r="I16" s="266"/>
-      <c r="J16" s="266"/>
-      <c r="K16" s="267"/>
-      <c r="L16" s="265" t="s">
+      <c r="H16" s="256"/>
+      <c r="I16" s="256"/>
+      <c r="J16" s="256"/>
+      <c r="K16" s="257"/>
+      <c r="L16" s="255" t="s">
         <v>127</v>
       </c>
-      <c r="M16" s="266"/>
-      <c r="N16" s="266"/>
-      <c r="O16" s="266"/>
-      <c r="P16" s="267"/>
+      <c r="M16" s="256"/>
+      <c r="N16" s="256"/>
+      <c r="O16" s="256"/>
+      <c r="P16" s="257"/>
       <c r="Q16" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="R16" s="258" t="s">
+      <c r="R16" s="244" t="s">
         <v>129</v>
       </c>
       <c r="S16" s="112"/>
@@ -30285,9 +30276,9 @@
     </row>
     <row r="17" spans="1:41" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="112"/>
-      <c r="B17" s="254"/>
-      <c r="C17" s="254"/>
-      <c r="D17" s="275"/>
+      <c r="B17" s="252"/>
+      <c r="C17" s="252"/>
+      <c r="D17" s="254"/>
       <c r="E17" s="84" t="s">
         <v>130</v>
       </c>
@@ -30324,10 +30315,10 @@
       <c r="P17" s="287" t="s">
         <v>131</v>
       </c>
-      <c r="Q17" s="263" t="s">
+      <c r="Q17" s="249" t="s">
         <v>131</v>
       </c>
-      <c r="R17" s="259"/>
+      <c r="R17" s="245"/>
       <c r="S17" s="112"/>
       <c r="T17" s="112"/>
       <c r="U17" s="112"/>
@@ -30354,9 +30345,9 @@
     </row>
     <row r="18" spans="1:41" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="112"/>
-      <c r="B18" s="296"/>
-      <c r="C18" s="296"/>
-      <c r="D18" s="254"/>
+      <c r="B18" s="289"/>
+      <c r="C18" s="289"/>
+      <c r="D18" s="252"/>
       <c r="E18" s="22" t="s">
         <v>135</v>
       </c>
@@ -30387,8 +30378,8 @@
         <v>136</v>
       </c>
       <c r="P18" s="288"/>
-      <c r="Q18" s="289"/>
-      <c r="R18" s="291"/>
+      <c r="Q18" s="303"/>
+      <c r="R18" s="305"/>
       <c r="S18" s="112"/>
       <c r="T18" s="112"/>
       <c r="U18" s="112"/>
@@ -31468,9 +31459,9 @@
       <c r="W36"/>
       <c r="X36"/>
       <c r="Y36" s="112"/>
-      <c r="Z36" s="290"/>
-      <c r="AA36" s="290"/>
-      <c r="AB36" s="290"/>
+      <c r="Z36" s="304"/>
+      <c r="AA36" s="304"/>
+      <c r="AB36" s="304"/>
       <c r="AC36" s="112"/>
       <c r="AD36" s="112"/>
       <c r="AE36" s="112"/>
@@ -31723,37 +31714,37 @@
     </row>
     <row r="42" spans="1:41" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="112"/>
-      <c r="B42" s="253" t="s">
+      <c r="B42" s="251" t="s">
         <v>122</v>
       </c>
-      <c r="C42" s="253" t="s">
+      <c r="C42" s="251" t="s">
         <v>144</v>
       </c>
-      <c r="D42" s="274" t="s">
+      <c r="D42" s="253" t="s">
         <v>124</v>
       </c>
-      <c r="E42" s="265" t="s">
+      <c r="E42" s="255" t="s">
         <v>125</v>
       </c>
-      <c r="F42" s="266"/>
-      <c r="G42" s="265" t="s">
+      <c r="F42" s="256"/>
+      <c r="G42" s="255" t="s">
         <v>126</v>
       </c>
-      <c r="H42" s="266"/>
-      <c r="I42" s="266"/>
-      <c r="J42" s="266"/>
-      <c r="K42" s="267"/>
-      <c r="L42" s="265" t="s">
+      <c r="H42" s="256"/>
+      <c r="I42" s="256"/>
+      <c r="J42" s="256"/>
+      <c r="K42" s="257"/>
+      <c r="L42" s="255" t="s">
         <v>127</v>
       </c>
-      <c r="M42" s="266"/>
-      <c r="N42" s="266"/>
-      <c r="O42" s="266"/>
-      <c r="P42" s="267"/>
+      <c r="M42" s="256"/>
+      <c r="N42" s="256"/>
+      <c r="O42" s="256"/>
+      <c r="P42" s="257"/>
       <c r="Q42" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="R42" s="258" t="s">
+      <c r="R42" s="244" t="s">
         <v>129</v>
       </c>
       <c r="S42" s="112"/>
@@ -31782,9 +31773,9 @@
     </row>
     <row r="43" spans="1:41" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="112"/>
-      <c r="B43" s="254"/>
-      <c r="C43" s="254"/>
-      <c r="D43" s="275"/>
+      <c r="B43" s="252"/>
+      <c r="C43" s="252"/>
+      <c r="D43" s="254"/>
       <c r="E43" s="84" t="s">
         <v>130</v>
       </c>
@@ -31821,10 +31812,10 @@
       <c r="P43" s="287" t="s">
         <v>131</v>
       </c>
-      <c r="Q43" s="263" t="s">
+      <c r="Q43" s="249" t="s">
         <v>131</v>
       </c>
-      <c r="R43" s="259"/>
+      <c r="R43" s="245"/>
       <c r="S43" s="112"/>
       <c r="T43" s="112"/>
       <c r="U43" s="112"/>
@@ -31851,9 +31842,9 @@
     </row>
     <row r="44" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="112"/>
-      <c r="B44" s="254"/>
-      <c r="C44" s="254"/>
-      <c r="D44" s="254"/>
+      <c r="B44" s="252"/>
+      <c r="C44" s="252"/>
+      <c r="D44" s="252"/>
       <c r="E44" s="22" t="s">
         <v>135</v>
       </c>
@@ -31870,7 +31861,7 @@
       <c r="J44" s="141" t="s">
         <v>136</v>
       </c>
-      <c r="K44" s="261"/>
+      <c r="K44" s="247"/>
       <c r="L44" s="141" t="s">
         <v>136</v>
       </c>
@@ -31883,9 +31874,9 @@
       <c r="O44" s="141" t="s">
         <v>136</v>
       </c>
-      <c r="P44" s="261"/>
-      <c r="Q44" s="264"/>
-      <c r="R44" s="259"/>
+      <c r="P44" s="247"/>
+      <c r="Q44" s="250"/>
+      <c r="R44" s="245"/>
       <c r="S44" s="112"/>
       <c r="T44" s="112"/>
       <c r="U44" s="112"/>
@@ -37453,11 +37444,25 @@
     <protectedRange sqref="Q19" name="Section_B_1_3"/>
   </protectedRanges>
   <mergeCells count="33">
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="G42:K42"/>
+    <mergeCell ref="L42:P42"/>
+    <mergeCell ref="R42:R44"/>
+    <mergeCell ref="P43:P44"/>
+    <mergeCell ref="Q43:Q44"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="Z36:AB36"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="R16:R18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="F17:F18"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="C16:C18"/>
     <mergeCell ref="D16:D18"/>
@@ -37467,71 +37472,57 @@
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G8"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="Z36:AB36"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="R16:R18"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="G42:K42"/>
-    <mergeCell ref="L42:P42"/>
-    <mergeCell ref="R42:R44"/>
-    <mergeCell ref="P43:P44"/>
-    <mergeCell ref="Q43:Q44"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
   </mergeCells>
-  <conditionalFormatting sqref="G18:J18">
-    <cfRule type="cellIs" dxfId="18" priority="15" operator="equal">
+  <conditionalFormatting sqref="E18">
+    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
       <formula>"Actual"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
+      <formula>"Forecast"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
+      <formula>"Actual"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+      <formula>"Forecast"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18:J18">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+      <formula>"Actual"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="16" operator="equal">
       <formula>"Forecast"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44:J44">
-    <cfRule type="cellIs" dxfId="16" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
       <formula>"Actual"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"Forecast"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L18:O18">
-    <cfRule type="cellIs" dxfId="14" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>"Actual"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
       <formula>"Forecast"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L44:O44">
-    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"Actual"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
-      <formula>"Forecast"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
-      <formula>"Actual"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
-      <formula>"Forecast"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
-      <formula>"Actual"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"Forecast"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37603,15 +37594,15 @@
   <sheetData>
     <row r="2" spans="1:32" s="97" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
       <c r="A2" s="112"/>
-      <c r="B2" s="306" t="s">
+      <c r="B2" s="359" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="307"/>
-      <c r="D2" s="307"/>
-      <c r="E2" s="307"/>
-      <c r="F2" s="307"/>
-      <c r="G2" s="307"/>
-      <c r="H2" s="308"/>
+      <c r="C2" s="360"/>
+      <c r="D2" s="360"/>
+      <c r="E2" s="360"/>
+      <c r="F2" s="360"/>
+      <c r="G2" s="360"/>
+      <c r="H2" s="361"/>
       <c r="I2" s="18"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -37639,15 +37630,15 @@
     </row>
     <row r="4" spans="1:32" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="112"/>
-      <c r="B4" s="219" t="s">
+      <c r="B4" s="223" t="s">
         <v>149</v>
       </c>
-      <c r="C4" s="220"/>
-      <c r="D4" s="220"/>
-      <c r="E4" s="220"/>
-      <c r="F4" s="220"/>
-      <c r="G4" s="220"/>
-      <c r="H4" s="221"/>
+      <c r="C4" s="224"/>
+      <c r="D4" s="224"/>
+      <c r="E4" s="224"/>
+      <c r="F4" s="224"/>
+      <c r="G4" s="224"/>
+      <c r="H4" s="225"/>
       <c r="I4" s="112"/>
       <c r="J4" s="112"/>
       <c r="K4" s="112"/>
@@ -37675,15 +37666,15 @@
     </row>
     <row r="5" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="112"/>
-      <c r="B5" s="329" t="s">
+      <c r="B5" s="375" t="s">
         <v>150</v>
       </c>
-      <c r="C5" s="330"/>
-      <c r="D5" s="330"/>
-      <c r="E5" s="330"/>
-      <c r="F5" s="330"/>
-      <c r="G5" s="330"/>
-      <c r="H5" s="331"/>
+      <c r="C5" s="376"/>
+      <c r="D5" s="376"/>
+      <c r="E5" s="376"/>
+      <c r="F5" s="376"/>
+      <c r="G5" s="376"/>
+      <c r="H5" s="377"/>
       <c r="I5" s="112"/>
       <c r="J5" s="112"/>
       <c r="K5" s="112"/>
@@ -37746,18 +37737,18 @@
       <c r="AF6" s="112"/>
     </row>
     <row r="7" spans="1:32" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="322" t="s">
+      <c r="A7" s="368" t="s">
         <v>152</v>
       </c>
-      <c r="B7" s="332" t="s">
+      <c r="B7" s="378" t="s">
         <v>153</v>
       </c>
-      <c r="C7" s="333"/>
-      <c r="D7" s="333"/>
-      <c r="E7" s="333"/>
-      <c r="F7" s="333"/>
-      <c r="G7" s="333"/>
-      <c r="H7" s="334"/>
+      <c r="C7" s="379"/>
+      <c r="D7" s="379"/>
+      <c r="E7" s="379"/>
+      <c r="F7" s="379"/>
+      <c r="G7" s="379"/>
+      <c r="H7" s="380"/>
       <c r="I7" s="112"/>
       <c r="J7" s="112"/>
       <c r="K7" s="112"/>
@@ -37784,16 +37775,16 @@
       <c r="AF7" s="112"/>
     </row>
     <row r="8" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="322"/>
-      <c r="B8" s="323" t="s">
+      <c r="A8" s="368"/>
+      <c r="B8" s="369" t="s">
         <v>154</v>
       </c>
-      <c r="C8" s="324"/>
-      <c r="D8" s="324"/>
-      <c r="E8" s="324"/>
-      <c r="F8" s="324"/>
-      <c r="G8" s="324"/>
-      <c r="H8" s="325"/>
+      <c r="C8" s="370"/>
+      <c r="D8" s="370"/>
+      <c r="E8" s="370"/>
+      <c r="F8" s="370"/>
+      <c r="G8" s="370"/>
+      <c r="H8" s="371"/>
       <c r="I8" s="112"/>
       <c r="J8" s="112"/>
       <c r="K8" s="112"/>
@@ -37820,16 +37811,16 @@
       <c r="AF8" s="112"/>
     </row>
     <row r="9" spans="1:32" ht="70.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="322"/>
-      <c r="B9" s="335" t="s">
+      <c r="A9" s="368"/>
+      <c r="B9" s="381" t="s">
         <v>155</v>
       </c>
-      <c r="C9" s="336"/>
-      <c r="D9" s="336"/>
-      <c r="E9" s="336"/>
-      <c r="F9" s="336"/>
-      <c r="G9" s="336"/>
-      <c r="H9" s="337"/>
+      <c r="C9" s="382"/>
+      <c r="D9" s="382"/>
+      <c r="E9" s="382"/>
+      <c r="F9" s="382"/>
+      <c r="G9" s="382"/>
+      <c r="H9" s="383"/>
       <c r="I9" s="112"/>
       <c r="J9" s="112"/>
       <c r="K9" s="112"/>
@@ -37856,7 +37847,7 @@
       <c r="AF9" s="112"/>
     </row>
     <row r="10" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="322"/>
+      <c r="A10" s="368"/>
       <c r="B10" s="112"/>
       <c r="C10" s="112"/>
       <c r="D10" s="112"/>
@@ -37890,7 +37881,7 @@
       <c r="AF10" s="112"/>
     </row>
     <row r="11" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="322"/>
+      <c r="A11" s="368"/>
       <c r="B11" s="169" t="s">
         <v>259</v>
       </c>
@@ -37998,18 +37989,18 @@
       <c r="AF13" s="112"/>
     </row>
     <row r="14" spans="1:32" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="338" t="s">
+      <c r="A14" s="384" t="s">
         <v>158</v>
       </c>
-      <c r="B14" s="319" t="s">
+      <c r="B14" s="365" t="s">
         <v>159</v>
       </c>
-      <c r="C14" s="320"/>
-      <c r="D14" s="320"/>
-      <c r="E14" s="320"/>
-      <c r="F14" s="320"/>
-      <c r="G14" s="320"/>
-      <c r="H14" s="321"/>
+      <c r="C14" s="366"/>
+      <c r="D14" s="366"/>
+      <c r="E14" s="366"/>
+      <c r="F14" s="366"/>
+      <c r="G14" s="366"/>
+      <c r="H14" s="367"/>
       <c r="I14" s="112"/>
       <c r="J14" s="112"/>
       <c r="K14" s="112"/>
@@ -38036,16 +38027,16 @@
       <c r="AF14" s="112"/>
     </row>
     <row r="15" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="338"/>
-      <c r="B15" s="326" t="s">
+      <c r="A15" s="384"/>
+      <c r="B15" s="372" t="s">
         <v>160</v>
       </c>
-      <c r="C15" s="327"/>
-      <c r="D15" s="327"/>
-      <c r="E15" s="327"/>
-      <c r="F15" s="327"/>
-      <c r="G15" s="327"/>
-      <c r="H15" s="328"/>
+      <c r="C15" s="373"/>
+      <c r="D15" s="373"/>
+      <c r="E15" s="373"/>
+      <c r="F15" s="373"/>
+      <c r="G15" s="373"/>
+      <c r="H15" s="374"/>
       <c r="I15" s="112"/>
       <c r="J15" s="112"/>
       <c r="K15" s="112"/>
@@ -38072,7 +38063,7 @@
       <c r="AF15" s="112"/>
     </row>
     <row r="16" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="338"/>
+      <c r="A16" s="384"/>
       <c r="B16" s="340" t="s">
         <v>161</v>
       </c>
@@ -38108,7 +38099,7 @@
       <c r="AF16" s="112"/>
     </row>
     <row r="17" spans="1:32" s="97" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="338"/>
+      <c r="A17" s="384"/>
       <c r="B17" s="171" t="s">
         <v>162</v>
       </c>
@@ -38144,7 +38135,7 @@
       <c r="AF17" s="3"/>
     </row>
     <row r="18" spans="1:32" s="97" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="338"/>
+      <c r="A18" s="384"/>
       <c r="B18" s="128">
         <v>120</v>
       </c>
@@ -38252,18 +38243,18 @@
       <c r="AF20" s="3"/>
     </row>
     <row r="21" spans="1:32" s="97" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="338" t="s">
+      <c r="A21" s="384" t="s">
         <v>165</v>
       </c>
-      <c r="B21" s="319" t="s">
+      <c r="B21" s="365" t="s">
         <v>166</v>
       </c>
-      <c r="C21" s="320"/>
-      <c r="D21" s="320"/>
-      <c r="E21" s="320"/>
-      <c r="F21" s="320"/>
-      <c r="G21" s="320"/>
-      <c r="H21" s="321"/>
+      <c r="C21" s="366"/>
+      <c r="D21" s="366"/>
+      <c r="E21" s="366"/>
+      <c r="F21" s="366"/>
+      <c r="G21" s="366"/>
+      <c r="H21" s="367"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -38290,16 +38281,16 @@
       <c r="AF21" s="3"/>
     </row>
     <row r="22" spans="1:32" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="338"/>
-      <c r="B22" s="326" t="s">
+      <c r="A22" s="384"/>
+      <c r="B22" s="372" t="s">
         <v>167</v>
       </c>
-      <c r="C22" s="327"/>
-      <c r="D22" s="327"/>
-      <c r="E22" s="327"/>
-      <c r="F22" s="327"/>
-      <c r="G22" s="327"/>
-      <c r="H22" s="328"/>
+      <c r="C22" s="373"/>
+      <c r="D22" s="373"/>
+      <c r="E22" s="373"/>
+      <c r="F22" s="373"/>
+      <c r="G22" s="373"/>
+      <c r="H22" s="374"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -38326,16 +38317,16 @@
       <c r="AF22" s="3"/>
     </row>
     <row r="23" spans="1:32" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="338"/>
-      <c r="B23" s="309" t="s">
+      <c r="A23" s="384"/>
+      <c r="B23" s="343" t="s">
         <v>161</v>
       </c>
-      <c r="C23" s="310"/>
-      <c r="D23" s="310"/>
-      <c r="E23" s="310"/>
-      <c r="F23" s="310"/>
-      <c r="G23" s="310"/>
-      <c r="H23" s="311"/>
+      <c r="C23" s="344"/>
+      <c r="D23" s="344"/>
+      <c r="E23" s="344"/>
+      <c r="F23" s="344"/>
+      <c r="G23" s="344"/>
+      <c r="H23" s="345"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -38362,7 +38353,7 @@
       <c r="AF23" s="3"/>
     </row>
     <row r="24" spans="1:32" s="97" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="338"/>
+      <c r="A24" s="384"/>
       <c r="B24" s="171" t="s">
         <v>162</v>
       </c>
@@ -38398,7 +38389,7 @@
       <c r="AF24" s="3"/>
     </row>
     <row r="25" spans="1:32" s="97" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="338"/>
+      <c r="A25" s="384"/>
       <c r="B25" s="128">
         <v>119</v>
       </c>
@@ -38506,18 +38497,18 @@
       <c r="AF27" s="3"/>
     </row>
     <row r="28" spans="1:32" s="97" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="339" t="s">
+      <c r="A28" s="385" t="s">
         <v>170</v>
       </c>
-      <c r="B28" s="319" t="s">
+      <c r="B28" s="365" t="s">
         <v>171</v>
       </c>
-      <c r="C28" s="320"/>
-      <c r="D28" s="320"/>
-      <c r="E28" s="320"/>
-      <c r="F28" s="320"/>
-      <c r="G28" s="320"/>
-      <c r="H28" s="321"/>
+      <c r="C28" s="366"/>
+      <c r="D28" s="366"/>
+      <c r="E28" s="366"/>
+      <c r="F28" s="366"/>
+      <c r="G28" s="366"/>
+      <c r="H28" s="367"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
@@ -38544,16 +38535,16 @@
       <c r="AF28" s="3"/>
     </row>
     <row r="29" spans="1:32" s="97" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="339"/>
-      <c r="B29" s="326" t="s">
+      <c r="A29" s="385"/>
+      <c r="B29" s="372" t="s">
         <v>172</v>
       </c>
-      <c r="C29" s="327"/>
-      <c r="D29" s="327"/>
-      <c r="E29" s="327"/>
-      <c r="F29" s="327"/>
-      <c r="G29" s="327"/>
-      <c r="H29" s="328"/>
+      <c r="C29" s="373"/>
+      <c r="D29" s="373"/>
+      <c r="E29" s="373"/>
+      <c r="F29" s="373"/>
+      <c r="G29" s="373"/>
+      <c r="H29" s="374"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
@@ -38580,16 +38571,16 @@
       <c r="AF29" s="3"/>
     </row>
     <row r="30" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="339"/>
-      <c r="B30" s="309" t="s">
+      <c r="A30" s="385"/>
+      <c r="B30" s="343" t="s">
         <v>161</v>
       </c>
-      <c r="C30" s="310"/>
-      <c r="D30" s="310"/>
-      <c r="E30" s="310"/>
-      <c r="F30" s="310"/>
-      <c r="G30" s="310"/>
-      <c r="H30" s="311"/>
+      <c r="C30" s="344"/>
+      <c r="D30" s="344"/>
+      <c r="E30" s="344"/>
+      <c r="F30" s="344"/>
+      <c r="G30" s="344"/>
+      <c r="H30" s="345"/>
       <c r="I30" s="112"/>
       <c r="J30" s="112"/>
       <c r="K30" s="112"/>
@@ -38616,16 +38607,16 @@
       <c r="AF30" s="112"/>
     </row>
     <row r="31" spans="1:32" ht="239.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="339"/>
-      <c r="B31" s="312" t="s">
+      <c r="A31" s="385"/>
+      <c r="B31" s="326" t="s">
         <v>1089</v>
       </c>
-      <c r="C31" s="231"/>
-      <c r="D31" s="231"/>
-      <c r="E31" s="313"/>
-      <c r="F31" s="313"/>
-      <c r="G31" s="313"/>
-      <c r="H31" s="314"/>
+      <c r="C31" s="222"/>
+      <c r="D31" s="222"/>
+      <c r="E31" s="327"/>
+      <c r="F31" s="327"/>
+      <c r="G31" s="327"/>
+      <c r="H31" s="328"/>
       <c r="I31" s="112"/>
       <c r="J31" s="112"/>
       <c r="K31" s="112"/>
@@ -38652,13 +38643,13 @@
       <c r="AF31" s="112"/>
     </row>
     <row r="32" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="339"/>
-      <c r="B32" s="218" t="s">
+      <c r="A32" s="385"/>
+      <c r="B32" s="221" t="s">
         <v>77</v>
       </c>
-      <c r="C32" s="218"/>
-      <c r="D32" s="218"/>
-      <c r="E32" s="218"/>
+      <c r="C32" s="221"/>
+      <c r="D32" s="221"/>
+      <c r="E32" s="221"/>
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
       <c r="H32" s="59" t="s">
@@ -38726,18 +38717,18 @@
       <c r="AF33" s="112"/>
     </row>
     <row r="34" spans="1:32" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="322" t="s">
+      <c r="A34" s="368" t="s">
         <v>175</v>
       </c>
-      <c r="B34" s="319" t="s">
+      <c r="B34" s="365" t="s">
         <v>176</v>
       </c>
-      <c r="C34" s="320"/>
-      <c r="D34" s="320"/>
-      <c r="E34" s="320"/>
-      <c r="F34" s="320"/>
-      <c r="G34" s="320"/>
-      <c r="H34" s="321"/>
+      <c r="C34" s="366"/>
+      <c r="D34" s="366"/>
+      <c r="E34" s="366"/>
+      <c r="F34" s="366"/>
+      <c r="G34" s="366"/>
+      <c r="H34" s="367"/>
       <c r="I34" s="112"/>
       <c r="J34" s="112"/>
       <c r="K34" s="112"/>
@@ -38764,16 +38755,16 @@
       <c r="AF34" s="112"/>
     </row>
     <row r="35" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="322"/>
-      <c r="B35" s="326" t="s">
+      <c r="A35" s="368"/>
+      <c r="B35" s="372" t="s">
         <v>177</v>
       </c>
-      <c r="C35" s="327"/>
-      <c r="D35" s="327"/>
-      <c r="E35" s="327"/>
-      <c r="F35" s="327"/>
-      <c r="G35" s="327"/>
-      <c r="H35" s="328"/>
+      <c r="C35" s="373"/>
+      <c r="D35" s="373"/>
+      <c r="E35" s="373"/>
+      <c r="F35" s="373"/>
+      <c r="G35" s="373"/>
+      <c r="H35" s="374"/>
       <c r="I35" s="112"/>
       <c r="J35" s="112"/>
       <c r="K35" s="112"/>
@@ -38800,16 +38791,16 @@
       <c r="AF35" s="112"/>
     </row>
     <row r="36" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="322"/>
+      <c r="A36" s="368"/>
       <c r="B36" s="356" t="s">
         <v>178</v>
       </c>
       <c r="C36" s="357"/>
       <c r="D36" s="357"/>
-      <c r="E36" s="310"/>
-      <c r="F36" s="310"/>
-      <c r="G36" s="310"/>
-      <c r="H36" s="311"/>
+      <c r="E36" s="344"/>
+      <c r="F36" s="344"/>
+      <c r="G36" s="344"/>
+      <c r="H36" s="345"/>
       <c r="I36" s="112"/>
       <c r="J36" s="112"/>
       <c r="K36" s="112"/>
@@ -38836,7 +38827,7 @@
       <c r="AF36" s="112"/>
     </row>
     <row r="37" spans="1:32" s="97" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="322"/>
+      <c r="A37" s="368"/>
       <c r="B37" s="171" t="s">
         <v>162</v>
       </c>
@@ -38872,7 +38863,7 @@
       <c r="AF37" s="3"/>
     </row>
     <row r="38" spans="1:32" s="97" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="322"/>
+      <c r="A38" s="368"/>
       <c r="B38" s="128">
         <v>120</v>
       </c>
@@ -38945,22 +38936,22 @@
     </row>
     <row r="40" spans="1:32" s="107" customFormat="1" ht="21" x14ac:dyDescent="0.5">
       <c r="A40" s="105"/>
-      <c r="B40" s="343" t="s">
+      <c r="B40" s="346" t="s">
         <v>180</v>
       </c>
-      <c r="C40" s="344"/>
-      <c r="D40" s="344"/>
-      <c r="E40" s="344"/>
-      <c r="F40" s="344"/>
-      <c r="G40" s="344"/>
-      <c r="H40" s="344"/>
-      <c r="I40" s="344"/>
-      <c r="J40" s="344"/>
-      <c r="K40" s="344"/>
-      <c r="L40" s="344"/>
-      <c r="M40" s="344"/>
-      <c r="N40" s="344"/>
-      <c r="O40" s="345"/>
+      <c r="C40" s="347"/>
+      <c r="D40" s="347"/>
+      <c r="E40" s="347"/>
+      <c r="F40" s="347"/>
+      <c r="G40" s="347"/>
+      <c r="H40" s="347"/>
+      <c r="I40" s="347"/>
+      <c r="J40" s="347"/>
+      <c r="K40" s="347"/>
+      <c r="L40" s="347"/>
+      <c r="M40" s="347"/>
+      <c r="N40" s="347"/>
+      <c r="O40" s="348"/>
       <c r="P40" s="112"/>
       <c r="Q40" s="105"/>
       <c r="R40" s="105"/>
@@ -39017,28 +39008,28 @@
     </row>
     <row r="42" spans="1:32" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="112"/>
-      <c r="B42" s="364" t="s">
+      <c r="B42" s="329" t="s">
         <v>182</v>
       </c>
-      <c r="C42" s="265" t="s">
+      <c r="C42" s="255" t="s">
         <v>125</v>
       </c>
-      <c r="D42" s="266"/>
-      <c r="E42" s="265" t="s">
+      <c r="D42" s="256"/>
+      <c r="E42" s="255" t="s">
         <v>126</v>
       </c>
-      <c r="F42" s="266"/>
-      <c r="G42" s="266"/>
-      <c r="H42" s="266"/>
+      <c r="F42" s="256"/>
+      <c r="G42" s="256"/>
+      <c r="H42" s="256"/>
       <c r="I42" s="358"/>
-      <c r="J42" s="266" t="s">
+      <c r="J42" s="256" t="s">
         <v>127</v>
       </c>
-      <c r="K42" s="266"/>
-      <c r="L42" s="266"/>
-      <c r="M42" s="266"/>
-      <c r="N42" s="267"/>
-      <c r="O42" s="352" t="s">
+      <c r="K42" s="256"/>
+      <c r="L42" s="256"/>
+      <c r="M42" s="256"/>
+      <c r="N42" s="257"/>
+      <c r="O42" s="353" t="s">
         <v>129</v>
       </c>
       <c r="P42" s="112"/>
@@ -39061,11 +39052,11 @@
     </row>
     <row r="43" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="112"/>
-      <c r="B43" s="365"/>
+      <c r="B43" s="330"/>
       <c r="C43" s="173" t="s">
         <v>130</v>
       </c>
-      <c r="D43" s="318" t="s">
+      <c r="D43" s="355" t="s">
         <v>131</v>
       </c>
       <c r="E43" s="173" t="s">
@@ -39080,7 +39071,7 @@
       <c r="H43" s="174" t="s">
         <v>130</v>
       </c>
-      <c r="I43" s="318" t="s">
+      <c r="I43" s="355" t="s">
         <v>131</v>
       </c>
       <c r="J43" s="173" t="s">
@@ -39095,10 +39086,10 @@
       <c r="M43" s="174" t="s">
         <v>130</v>
       </c>
-      <c r="N43" s="318" t="s">
+      <c r="N43" s="355" t="s">
         <v>131</v>
       </c>
-      <c r="O43" s="353"/>
+      <c r="O43" s="354"/>
       <c r="P43" s="112"/>
       <c r="Q43" s="112"/>
       <c r="R43" s="112"/>
@@ -39119,11 +39110,11 @@
     </row>
     <row r="44" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="112"/>
-      <c r="B44" s="365"/>
+      <c r="B44" s="330"/>
       <c r="C44" s="175" t="s">
         <v>135</v>
       </c>
-      <c r="D44" s="281"/>
+      <c r="D44" s="275"/>
       <c r="E44" s="176" t="s">
         <v>136</v>
       </c>
@@ -39136,7 +39127,7 @@
       <c r="H44" s="176" t="s">
         <v>136</v>
       </c>
-      <c r="I44" s="281"/>
+      <c r="I44" s="275"/>
       <c r="J44" s="175" t="s">
         <v>136</v>
       </c>
@@ -39149,8 +39140,8 @@
       <c r="M44" s="176" t="s">
         <v>136</v>
       </c>
-      <c r="N44" s="281"/>
-      <c r="O44" s="353"/>
+      <c r="N44" s="275"/>
+      <c r="O44" s="354"/>
       <c r="P44" s="112"/>
       <c r="Q44" s="112"/>
       <c r="R44" s="112"/>
@@ -39746,15 +39737,15 @@
     </row>
     <row r="54" spans="1:32" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A54" s="112"/>
-      <c r="B54" s="372" t="s">
+      <c r="B54" s="337" t="s">
         <v>192</v>
       </c>
-      <c r="C54" s="373"/>
-      <c r="D54" s="373"/>
-      <c r="E54" s="373"/>
-      <c r="F54" s="373"/>
-      <c r="G54" s="373"/>
-      <c r="H54" s="374"/>
+      <c r="C54" s="338"/>
+      <c r="D54" s="338"/>
+      <c r="E54" s="338"/>
+      <c r="F54" s="338"/>
+      <c r="G54" s="338"/>
+      <c r="H54" s="339"/>
       <c r="I54" s="112"/>
       <c r="J54" s="112"/>
       <c r="K54" s="112"/>
@@ -39782,15 +39773,15 @@
     </row>
     <row r="55" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="112"/>
-      <c r="B55" s="366" t="s">
+      <c r="B55" s="331" t="s">
         <v>193</v>
       </c>
-      <c r="C55" s="367"/>
-      <c r="D55" s="367"/>
-      <c r="E55" s="367"/>
-      <c r="F55" s="367"/>
-      <c r="G55" s="367"/>
-      <c r="H55" s="368"/>
+      <c r="C55" s="332"/>
+      <c r="D55" s="332"/>
+      <c r="E55" s="332"/>
+      <c r="F55" s="332"/>
+      <c r="G55" s="332"/>
+      <c r="H55" s="333"/>
       <c r="I55" s="112"/>
       <c r="J55" s="112"/>
       <c r="K55" s="112"/>
@@ -39818,15 +39809,15 @@
     </row>
     <row r="56" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="112"/>
-      <c r="B56" s="348" t="s">
+      <c r="B56" s="350" t="s">
         <v>194</v>
       </c>
-      <c r="C56" s="349"/>
-      <c r="D56" s="349"/>
-      <c r="E56" s="349"/>
-      <c r="F56" s="349"/>
-      <c r="G56" s="349"/>
-      <c r="H56" s="350"/>
+      <c r="C56" s="351"/>
+      <c r="D56" s="351"/>
+      <c r="E56" s="351"/>
+      <c r="F56" s="351"/>
+      <c r="G56" s="351"/>
+      <c r="H56" s="352"/>
       <c r="I56" s="112"/>
       <c r="J56" s="112"/>
       <c r="K56" s="112"/>
@@ -39854,15 +39845,15 @@
     </row>
     <row r="57" spans="1:32" ht="238.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="112"/>
-      <c r="B57" s="312" t="s">
+      <c r="B57" s="326" t="s">
         <v>1090</v>
       </c>
-      <c r="C57" s="231"/>
-      <c r="D57" s="231"/>
-      <c r="E57" s="313"/>
-      <c r="F57" s="313"/>
-      <c r="G57" s="313"/>
-      <c r="H57" s="314"/>
+      <c r="C57" s="222"/>
+      <c r="D57" s="222"/>
+      <c r="E57" s="327"/>
+      <c r="F57" s="327"/>
+      <c r="G57" s="327"/>
+      <c r="H57" s="328"/>
       <c r="I57" s="112"/>
       <c r="J57" s="112"/>
       <c r="K57" s="112"/>
@@ -39890,12 +39881,12 @@
     </row>
     <row r="58" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="112"/>
-      <c r="B58" s="218" t="s">
+      <c r="B58" s="221" t="s">
         <v>77</v>
       </c>
-      <c r="C58" s="218"/>
-      <c r="D58" s="218"/>
-      <c r="E58" s="218"/>
+      <c r="C58" s="221"/>
+      <c r="D58" s="221"/>
+      <c r="E58" s="221"/>
       <c r="F58" s="15"/>
       <c r="G58" s="15"/>
       <c r="H58" s="59" t="s">
@@ -39964,15 +39955,15 @@
     </row>
     <row r="60" spans="1:32" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A60" s="112"/>
-      <c r="B60" s="315" t="s">
+      <c r="B60" s="362" t="s">
         <v>197</v>
       </c>
-      <c r="C60" s="316"/>
-      <c r="D60" s="316"/>
-      <c r="E60" s="316"/>
-      <c r="F60" s="316"/>
-      <c r="G60" s="316"/>
-      <c r="H60" s="317"/>
+      <c r="C60" s="363"/>
+      <c r="D60" s="363"/>
+      <c r="E60" s="363"/>
+      <c r="F60" s="363"/>
+      <c r="G60" s="363"/>
+      <c r="H60" s="364"/>
       <c r="I60" s="112"/>
       <c r="J60" s="112"/>
       <c r="K60" s="112"/>
@@ -40000,15 +39991,15 @@
     </row>
     <row r="61" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="112"/>
-      <c r="B61" s="369" t="s">
+      <c r="B61" s="334" t="s">
         <v>198</v>
       </c>
-      <c r="C61" s="370"/>
-      <c r="D61" s="370"/>
-      <c r="E61" s="370"/>
-      <c r="F61" s="370"/>
-      <c r="G61" s="370"/>
-      <c r="H61" s="371"/>
+      <c r="C61" s="335"/>
+      <c r="D61" s="335"/>
+      <c r="E61" s="335"/>
+      <c r="F61" s="335"/>
+      <c r="G61" s="335"/>
+      <c r="H61" s="336"/>
       <c r="I61" s="112"/>
       <c r="J61" s="112"/>
       <c r="K61" s="112"/>
@@ -40036,15 +40027,15 @@
     </row>
     <row r="62" spans="1:32" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="112"/>
-      <c r="B62" s="361" t="s">
+      <c r="B62" s="323" t="s">
         <v>199</v>
       </c>
-      <c r="C62" s="362"/>
-      <c r="D62" s="362"/>
-      <c r="E62" s="362"/>
-      <c r="F62" s="362"/>
-      <c r="G62" s="362"/>
-      <c r="H62" s="363"/>
+      <c r="C62" s="324"/>
+      <c r="D62" s="324"/>
+      <c r="E62" s="324"/>
+      <c r="F62" s="324"/>
+      <c r="G62" s="324"/>
+      <c r="H62" s="325"/>
       <c r="I62" s="112"/>
       <c r="J62" s="112"/>
       <c r="K62" s="112"/>
@@ -40072,15 +40063,15 @@
     </row>
     <row r="63" spans="1:32" ht="238.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="112"/>
-      <c r="B63" s="312" t="s">
+      <c r="B63" s="326" t="s">
         <v>1091</v>
       </c>
-      <c r="C63" s="231"/>
-      <c r="D63" s="231"/>
-      <c r="E63" s="313"/>
-      <c r="F63" s="313"/>
-      <c r="G63" s="313"/>
-      <c r="H63" s="314"/>
+      <c r="C63" s="222"/>
+      <c r="D63" s="222"/>
+      <c r="E63" s="327"/>
+      <c r="F63" s="327"/>
+      <c r="G63" s="327"/>
+      <c r="H63" s="328"/>
       <c r="I63" s="112"/>
       <c r="J63" s="112"/>
       <c r="K63" s="112"/>
@@ -40291,41 +40282,41 @@
       <c r="B69" s="178" t="s">
         <v>205</v>
       </c>
-      <c r="C69" s="354" t="s">
+      <c r="C69" s="314" t="s">
         <v>206</v>
       </c>
-      <c r="D69" s="355"/>
-      <c r="E69" s="354" t="s">
+      <c r="D69" s="315"/>
+      <c r="E69" s="314" t="s">
         <v>207</v>
       </c>
-      <c r="F69" s="355"/>
-      <c r="G69" s="346" t="s">
+      <c r="F69" s="315"/>
+      <c r="G69" s="316" t="s">
         <v>208</v>
       </c>
-      <c r="H69" s="351"/>
-      <c r="I69" s="354" t="s">
+      <c r="H69" s="317"/>
+      <c r="I69" s="314" t="s">
         <v>209</v>
       </c>
-      <c r="J69" s="355"/>
+      <c r="J69" s="315"/>
       <c r="K69" s="130" t="s">
         <v>210</v>
       </c>
-      <c r="L69" s="383" t="s">
+      <c r="L69" s="312" t="s">
         <v>211</v>
       </c>
-      <c r="M69" s="384"/>
-      <c r="N69" s="346" t="s">
+      <c r="M69" s="313"/>
+      <c r="N69" s="316" t="s">
         <v>212</v>
       </c>
-      <c r="O69" s="351"/>
-      <c r="P69" s="354" t="s">
+      <c r="O69" s="317"/>
+      <c r="P69" s="314" t="s">
         <v>213</v>
       </c>
-      <c r="Q69" s="355"/>
-      <c r="R69" s="346" t="s">
+      <c r="Q69" s="315"/>
+      <c r="R69" s="316" t="s">
         <v>214</v>
       </c>
-      <c r="S69" s="347"/>
+      <c r="S69" s="349"/>
       <c r="T69" s="112"/>
       <c r="U69" s="112"/>
       <c r="V69" s="112"/>
@@ -40345,41 +40336,41 @@
       <c r="B70" s="123">
         <v>1</v>
       </c>
-      <c r="C70" s="379" t="s">
+      <c r="C70" s="310" t="s">
         <v>422</v>
       </c>
-      <c r="D70" s="379"/>
-      <c r="E70" s="359" t="s">
+      <c r="D70" s="310"/>
+      <c r="E70" s="311" t="s">
         <v>301</v>
       </c>
-      <c r="F70" s="359"/>
-      <c r="G70" s="379" t="s">
+      <c r="F70" s="311"/>
+      <c r="G70" s="310" t="s">
         <v>419</v>
       </c>
-      <c r="H70" s="379"/>
-      <c r="I70" s="359" t="s">
+      <c r="H70" s="310"/>
+      <c r="I70" s="311" t="s">
         <v>304</v>
       </c>
-      <c r="J70" s="359"/>
+      <c r="J70" s="311"/>
       <c r="K70" s="114">
         <v>20</v>
       </c>
-      <c r="L70" s="385" t="s">
+      <c r="L70" s="318" t="s">
         <v>1092</v>
       </c>
-      <c r="M70" s="385"/>
-      <c r="N70" s="376" t="s">
+      <c r="M70" s="318"/>
+      <c r="N70" s="321" t="s">
         <v>1093</v>
       </c>
-      <c r="O70" s="376"/>
-      <c r="P70" s="379" t="s">
+      <c r="O70" s="321"/>
+      <c r="P70" s="310" t="s">
         <v>135</v>
       </c>
-      <c r="Q70" s="379"/>
-      <c r="R70" s="359" t="s">
+      <c r="Q70" s="310"/>
+      <c r="R70" s="311" t="s">
         <v>6</v>
       </c>
-      <c r="S70" s="378"/>
+      <c r="S70" s="322"/>
       <c r="T70" s="112"/>
       <c r="U70" s="112"/>
       <c r="V70" s="112"/>
@@ -40397,45 +40388,45 @@
     <row r="71" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A71" s="112"/>
       <c r="B71" s="194"/>
-      <c r="C71" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="D71" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="E71" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="F71" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="G71" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="H71" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="I71" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="J71" s="360" t="s">
+      <c r="C71" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="D71" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="E71" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="F71" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="G71" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="H71" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="I71" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="J71" s="308" t="s">
         <v>90</v>
       </c>
       <c r="K71" s="193"/>
-      <c r="L71" s="375"/>
-      <c r="M71" s="375"/>
-      <c r="N71" s="360"/>
-      <c r="O71" s="360"/>
-      <c r="P71" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q71" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="R71" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="S71" s="377" t="s">
+      <c r="L71" s="307"/>
+      <c r="M71" s="307"/>
+      <c r="N71" s="308"/>
+      <c r="O71" s="308"/>
+      <c r="P71" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q71" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="R71" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="S71" s="309" t="s">
         <v>90</v>
       </c>
       <c r="T71" s="112"/>
@@ -40455,45 +40446,45 @@
     <row r="72" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A72" s="112"/>
       <c r="B72" s="194"/>
-      <c r="C72" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="D72" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="E72" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="F72" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="G72" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="H72" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="I72" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="J72" s="360" t="s">
+      <c r="C72" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="D72" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="E72" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="F72" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="G72" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="H72" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="I72" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="J72" s="308" t="s">
         <v>90</v>
       </c>
       <c r="K72" s="193"/>
-      <c r="L72" s="375"/>
-      <c r="M72" s="375"/>
-      <c r="N72" s="360"/>
-      <c r="O72" s="360"/>
-      <c r="P72" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q72" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="R72" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="S72" s="377" t="s">
+      <c r="L72" s="307"/>
+      <c r="M72" s="307"/>
+      <c r="N72" s="308"/>
+      <c r="O72" s="308"/>
+      <c r="P72" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q72" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="R72" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="S72" s="309" t="s">
         <v>90</v>
       </c>
       <c r="T72" s="112"/>
@@ -40513,45 +40504,45 @@
     <row r="73" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A73" s="112"/>
       <c r="B73" s="194"/>
-      <c r="C73" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="D73" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="E73" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="F73" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="G73" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="H73" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="I73" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="J73" s="360" t="s">
+      <c r="C73" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="D73" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="E73" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="F73" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="G73" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="H73" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="I73" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="J73" s="308" t="s">
         <v>90</v>
       </c>
       <c r="K73" s="193"/>
-      <c r="L73" s="375"/>
-      <c r="M73" s="375"/>
-      <c r="N73" s="360"/>
-      <c r="O73" s="360"/>
-      <c r="P73" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q73" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="R73" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="S73" s="377" t="s">
+      <c r="L73" s="307"/>
+      <c r="M73" s="307"/>
+      <c r="N73" s="308"/>
+      <c r="O73" s="308"/>
+      <c r="P73" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q73" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="R73" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="S73" s="309" t="s">
         <v>90</v>
       </c>
       <c r="T73" s="112"/>
@@ -40571,45 +40562,45 @@
     <row r="74" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A74" s="112"/>
       <c r="B74" s="194"/>
-      <c r="C74" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="D74" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="E74" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="F74" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="G74" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="H74" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="I74" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="J74" s="360" t="s">
+      <c r="C74" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="D74" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="E74" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="F74" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="G74" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="H74" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="I74" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="J74" s="308" t="s">
         <v>90</v>
       </c>
       <c r="K74" s="193"/>
-      <c r="L74" s="375"/>
-      <c r="M74" s="375"/>
-      <c r="N74" s="360"/>
-      <c r="O74" s="360"/>
-      <c r="P74" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q74" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="R74" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="S74" s="377" t="s">
+      <c r="L74" s="307"/>
+      <c r="M74" s="307"/>
+      <c r="N74" s="308"/>
+      <c r="O74" s="308"/>
+      <c r="P74" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q74" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="R74" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="S74" s="309" t="s">
         <v>90</v>
       </c>
       <c r="T74" s="112"/>
@@ -40629,45 +40620,45 @@
     <row r="75" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A75" s="112"/>
       <c r="B75" s="194"/>
-      <c r="C75" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="D75" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="E75" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="F75" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="G75" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="H75" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="I75" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="J75" s="360" t="s">
+      <c r="C75" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="D75" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="E75" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="F75" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="G75" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="H75" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="I75" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="J75" s="308" t="s">
         <v>90</v>
       </c>
       <c r="K75" s="193"/>
-      <c r="L75" s="375"/>
-      <c r="M75" s="375"/>
-      <c r="N75" s="360"/>
-      <c r="O75" s="360"/>
-      <c r="P75" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q75" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="R75" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="S75" s="377" t="s">
+      <c r="L75" s="307"/>
+      <c r="M75" s="307"/>
+      <c r="N75" s="308"/>
+      <c r="O75" s="308"/>
+      <c r="P75" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q75" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="R75" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="S75" s="309" t="s">
         <v>90</v>
       </c>
       <c r="T75" s="112"/>
@@ -40687,45 +40678,45 @@
     <row r="76" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A76" s="112"/>
       <c r="B76" s="194"/>
-      <c r="C76" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="D76" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="E76" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="F76" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="G76" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="H76" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="I76" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="J76" s="360" t="s">
+      <c r="C76" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="D76" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="E76" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="F76" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="G76" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="H76" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="I76" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="J76" s="308" t="s">
         <v>90</v>
       </c>
       <c r="K76" s="193"/>
-      <c r="L76" s="375"/>
-      <c r="M76" s="375"/>
-      <c r="N76" s="360"/>
-      <c r="O76" s="360"/>
-      <c r="P76" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q76" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="R76" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="S76" s="377" t="s">
+      <c r="L76" s="307"/>
+      <c r="M76" s="307"/>
+      <c r="N76" s="308"/>
+      <c r="O76" s="308"/>
+      <c r="P76" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q76" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="R76" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="S76" s="309" t="s">
         <v>90</v>
       </c>
       <c r="T76" s="112"/>
@@ -40745,45 +40736,45 @@
     <row r="77" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A77" s="112"/>
       <c r="B77" s="194"/>
-      <c r="C77" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="D77" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="E77" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="F77" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="G77" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="H77" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="I77" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="J77" s="360" t="s">
+      <c r="C77" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="D77" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="E77" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="F77" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="G77" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="H77" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="I77" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="J77" s="308" t="s">
         <v>90</v>
       </c>
       <c r="K77" s="193"/>
-      <c r="L77" s="375"/>
-      <c r="M77" s="375"/>
-      <c r="N77" s="360"/>
-      <c r="O77" s="360"/>
-      <c r="P77" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q77" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="R77" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="S77" s="377" t="s">
+      <c r="L77" s="307"/>
+      <c r="M77" s="307"/>
+      <c r="N77" s="308"/>
+      <c r="O77" s="308"/>
+      <c r="P77" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q77" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="R77" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="S77" s="309" t="s">
         <v>90</v>
       </c>
       <c r="T77" s="112"/>
@@ -40803,45 +40794,45 @@
     <row r="78" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A78" s="112"/>
       <c r="B78" s="194"/>
-      <c r="C78" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="D78" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="E78" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="F78" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="G78" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="H78" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="I78" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="J78" s="360" t="s">
+      <c r="C78" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="D78" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="E78" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="F78" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="G78" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="H78" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="I78" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="J78" s="308" t="s">
         <v>90</v>
       </c>
       <c r="K78" s="193"/>
-      <c r="L78" s="375"/>
-      <c r="M78" s="375"/>
-      <c r="N78" s="360"/>
-      <c r="O78" s="360"/>
-      <c r="P78" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q78" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="R78" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="S78" s="377" t="s">
+      <c r="L78" s="307"/>
+      <c r="M78" s="307"/>
+      <c r="N78" s="308"/>
+      <c r="O78" s="308"/>
+      <c r="P78" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q78" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="R78" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="S78" s="309" t="s">
         <v>90</v>
       </c>
       <c r="T78" s="112"/>
@@ -40861,45 +40852,45 @@
     <row r="79" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A79" s="112"/>
       <c r="B79" s="194"/>
-      <c r="C79" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="D79" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="E79" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="F79" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="G79" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="H79" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="I79" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="J79" s="360" t="s">
+      <c r="C79" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="D79" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="E79" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="F79" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="G79" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="H79" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="I79" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="J79" s="308" t="s">
         <v>90</v>
       </c>
       <c r="K79" s="193"/>
-      <c r="L79" s="375"/>
-      <c r="M79" s="375"/>
-      <c r="N79" s="360"/>
-      <c r="O79" s="360"/>
-      <c r="P79" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q79" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="R79" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="S79" s="377" t="s">
+      <c r="L79" s="307"/>
+      <c r="M79" s="307"/>
+      <c r="N79" s="308"/>
+      <c r="O79" s="308"/>
+      <c r="P79" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q79" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="R79" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="S79" s="309" t="s">
         <v>90</v>
       </c>
       <c r="T79" s="112"/>
@@ -40919,45 +40910,45 @@
     <row r="80" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A80" s="112"/>
       <c r="B80" s="194"/>
-      <c r="C80" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="D80" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="E80" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="F80" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="G80" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="H80" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="I80" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="J80" s="360" t="s">
+      <c r="C80" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="D80" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="E80" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="F80" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="G80" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="H80" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="I80" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="J80" s="308" t="s">
         <v>90</v>
       </c>
       <c r="K80" s="193"/>
-      <c r="L80" s="375"/>
-      <c r="M80" s="375"/>
-      <c r="N80" s="360"/>
-      <c r="O80" s="360"/>
-      <c r="P80" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q80" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="R80" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="S80" s="377" t="s">
+      <c r="L80" s="307"/>
+      <c r="M80" s="307"/>
+      <c r="N80" s="308"/>
+      <c r="O80" s="308"/>
+      <c r="P80" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q80" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="R80" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="S80" s="309" t="s">
         <v>90</v>
       </c>
       <c r="T80" s="112"/>
@@ -40977,45 +40968,45 @@
     <row r="81" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A81" s="112"/>
       <c r="B81" s="194"/>
-      <c r="C81" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="D81" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="E81" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="F81" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="G81" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="H81" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="I81" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="J81" s="360" t="s">
+      <c r="C81" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="D81" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="E81" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="F81" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="G81" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="H81" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="I81" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="J81" s="308" t="s">
         <v>90</v>
       </c>
       <c r="K81" s="193"/>
-      <c r="L81" s="375"/>
-      <c r="M81" s="375"/>
-      <c r="N81" s="360"/>
-      <c r="O81" s="360"/>
-      <c r="P81" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q81" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="R81" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="S81" s="377" t="s">
+      <c r="L81" s="307"/>
+      <c r="M81" s="307"/>
+      <c r="N81" s="308"/>
+      <c r="O81" s="308"/>
+      <c r="P81" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q81" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="R81" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="S81" s="309" t="s">
         <v>90</v>
       </c>
       <c r="T81" s="112"/>
@@ -41035,45 +41026,45 @@
     <row r="82" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A82" s="112"/>
       <c r="B82" s="194"/>
-      <c r="C82" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="D82" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="E82" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="F82" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="G82" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="H82" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="I82" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="J82" s="360" t="s">
+      <c r="C82" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="D82" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="E82" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="F82" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="G82" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="H82" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="I82" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="J82" s="308" t="s">
         <v>90</v>
       </c>
       <c r="K82" s="193"/>
-      <c r="L82" s="375"/>
-      <c r="M82" s="375"/>
-      <c r="N82" s="360"/>
-      <c r="O82" s="360"/>
-      <c r="P82" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q82" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="R82" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="S82" s="377" t="s">
+      <c r="L82" s="307"/>
+      <c r="M82" s="307"/>
+      <c r="N82" s="308"/>
+      <c r="O82" s="308"/>
+      <c r="P82" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q82" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="R82" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="S82" s="309" t="s">
         <v>90</v>
       </c>
       <c r="T82" s="112"/>
@@ -41093,45 +41084,45 @@
     <row r="83" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A83" s="112"/>
       <c r="B83" s="194"/>
-      <c r="C83" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="D83" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="E83" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="F83" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="G83" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="H83" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="I83" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="J83" s="360" t="s">
+      <c r="C83" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="D83" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="E83" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="F83" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="G83" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="H83" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="I83" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="J83" s="308" t="s">
         <v>90</v>
       </c>
       <c r="K83" s="193"/>
-      <c r="L83" s="375"/>
-      <c r="M83" s="375"/>
-      <c r="N83" s="360"/>
-      <c r="O83" s="360"/>
-      <c r="P83" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q83" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="R83" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="S83" s="377" t="s">
+      <c r="L83" s="307"/>
+      <c r="M83" s="307"/>
+      <c r="N83" s="308"/>
+      <c r="O83" s="308"/>
+      <c r="P83" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q83" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="R83" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="S83" s="309" t="s">
         <v>90</v>
       </c>
       <c r="T83" s="112"/>
@@ -41151,45 +41142,45 @@
     <row r="84" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A84" s="112"/>
       <c r="B84" s="194"/>
-      <c r="C84" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="D84" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="E84" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="F84" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="G84" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="H84" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="I84" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="J84" s="360" t="s">
+      <c r="C84" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="D84" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="E84" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="F84" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="G84" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="H84" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="I84" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="J84" s="308" t="s">
         <v>90</v>
       </c>
       <c r="K84" s="193"/>
-      <c r="L84" s="375"/>
-      <c r="M84" s="375"/>
-      <c r="N84" s="360"/>
-      <c r="O84" s="360"/>
-      <c r="P84" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q84" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="R84" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="S84" s="377" t="s">
+      <c r="L84" s="307"/>
+      <c r="M84" s="307"/>
+      <c r="N84" s="308"/>
+      <c r="O84" s="308"/>
+      <c r="P84" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q84" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="R84" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="S84" s="309" t="s">
         <v>90</v>
       </c>
       <c r="T84" s="112"/>
@@ -41209,45 +41200,45 @@
     <row r="85" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A85" s="112"/>
       <c r="B85" s="194"/>
-      <c r="C85" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="D85" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="E85" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="F85" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="G85" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="H85" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="I85" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="J85" s="360" t="s">
+      <c r="C85" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="D85" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="E85" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="F85" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="G85" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="H85" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="I85" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="J85" s="308" t="s">
         <v>90</v>
       </c>
       <c r="K85" s="193"/>
-      <c r="L85" s="375"/>
-      <c r="M85" s="375"/>
-      <c r="N85" s="360"/>
-      <c r="O85" s="360"/>
-      <c r="P85" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q85" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="R85" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="S85" s="377" t="s">
+      <c r="L85" s="307"/>
+      <c r="M85" s="307"/>
+      <c r="N85" s="308"/>
+      <c r="O85" s="308"/>
+      <c r="P85" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q85" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="R85" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="S85" s="309" t="s">
         <v>90</v>
       </c>
       <c r="T85" s="112"/>
@@ -41267,45 +41258,45 @@
     <row r="86" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A86" s="112"/>
       <c r="B86" s="194"/>
-      <c r="C86" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="D86" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="E86" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="F86" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="G86" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="H86" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="I86" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="J86" s="360" t="s">
+      <c r="C86" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="D86" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="E86" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="F86" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="G86" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="H86" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="I86" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="J86" s="308" t="s">
         <v>90</v>
       </c>
       <c r="K86" s="193"/>
-      <c r="L86" s="375"/>
-      <c r="M86" s="375"/>
-      <c r="N86" s="360"/>
-      <c r="O86" s="360"/>
-      <c r="P86" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q86" s="375" t="s">
-        <v>90</v>
-      </c>
-      <c r="R86" s="360" t="s">
-        <v>90</v>
-      </c>
-      <c r="S86" s="377" t="s">
+      <c r="L86" s="307"/>
+      <c r="M86" s="307"/>
+      <c r="N86" s="308"/>
+      <c r="O86" s="308"/>
+      <c r="P86" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q86" s="307" t="s">
+        <v>90</v>
+      </c>
+      <c r="R86" s="308" t="s">
+        <v>90</v>
+      </c>
+      <c r="S86" s="309" t="s">
         <v>90</v>
       </c>
       <c r="T86" s="112"/>
@@ -41325,45 +41316,45 @@
     <row r="87" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A87" s="112"/>
       <c r="B87" s="195"/>
-      <c r="C87" s="382" t="s">
-        <v>90</v>
-      </c>
-      <c r="D87" s="382" t="s">
-        <v>90</v>
-      </c>
-      <c r="E87" s="380" t="s">
-        <v>90</v>
-      </c>
-      <c r="F87" s="380" t="s">
-        <v>90</v>
-      </c>
-      <c r="G87" s="382" t="s">
-        <v>90</v>
-      </c>
-      <c r="H87" s="382" t="s">
-        <v>90</v>
-      </c>
-      <c r="I87" s="380" t="s">
-        <v>90</v>
-      </c>
-      <c r="J87" s="380" t="s">
+      <c r="C87" s="306" t="s">
+        <v>90</v>
+      </c>
+      <c r="D87" s="306" t="s">
+        <v>90</v>
+      </c>
+      <c r="E87" s="319" t="s">
+        <v>90</v>
+      </c>
+      <c r="F87" s="319" t="s">
+        <v>90</v>
+      </c>
+      <c r="G87" s="306" t="s">
+        <v>90</v>
+      </c>
+      <c r="H87" s="306" t="s">
+        <v>90</v>
+      </c>
+      <c r="I87" s="319" t="s">
+        <v>90</v>
+      </c>
+      <c r="J87" s="319" t="s">
         <v>90</v>
       </c>
       <c r="K87" s="196"/>
-      <c r="L87" s="382"/>
-      <c r="M87" s="382"/>
-      <c r="N87" s="380"/>
-      <c r="O87" s="380"/>
-      <c r="P87" s="382" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q87" s="382" t="s">
-        <v>90</v>
-      </c>
-      <c r="R87" s="380" t="s">
-        <v>90</v>
-      </c>
-      <c r="S87" s="381" t="s">
+      <c r="L87" s="306"/>
+      <c r="M87" s="306"/>
+      <c r="N87" s="319"/>
+      <c r="O87" s="319"/>
+      <c r="P87" s="306" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q87" s="306" t="s">
+        <v>90</v>
+      </c>
+      <c r="R87" s="319" t="s">
+        <v>90</v>
+      </c>
+      <c r="S87" s="320" t="s">
         <v>90</v>
       </c>
       <c r="T87" s="112"/>
@@ -41486,6 +41477,177 @@
     </row>
   </sheetData>
   <mergeCells count="195">
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B60:H60"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B40:O40"/>
+    <mergeCell ref="R69:S69"/>
+    <mergeCell ref="B56:H56"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="O42:O44"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="J42:N42"/>
+    <mergeCell ref="N43:N44"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="I77:J77"/>
+    <mergeCell ref="B62:H62"/>
+    <mergeCell ref="B63:H63"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B55:H55"/>
+    <mergeCell ref="B61:H61"/>
+    <mergeCell ref="B54:H54"/>
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="R72:S72"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="R78:S78"/>
+    <mergeCell ref="R77:S77"/>
+    <mergeCell ref="R76:S76"/>
+    <mergeCell ref="R75:S75"/>
+    <mergeCell ref="R74:S74"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="R70:S70"/>
+    <mergeCell ref="R71:S71"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="R87:S87"/>
+    <mergeCell ref="R86:S86"/>
+    <mergeCell ref="R85:S85"/>
+    <mergeCell ref="R84:S84"/>
+    <mergeCell ref="R83:S83"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="I87:J87"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="R82:S82"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="I83:J83"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="R81:S81"/>
+    <mergeCell ref="R80:S80"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="I80:J80"/>
+    <mergeCell ref="R79:S79"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="R73:S73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="I78:J78"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="I79:J79"/>
     <mergeCell ref="C87:D87"/>
     <mergeCell ref="L87:M87"/>
     <mergeCell ref="C82:D82"/>
@@ -41510,177 +41672,6 @@
     <mergeCell ref="L86:M86"/>
     <mergeCell ref="G86:H86"/>
     <mergeCell ref="I86:J86"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="L83:M83"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="L75:M75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="L76:M76"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="I79:J79"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="L77:M77"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="R79:S79"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="L70:M70"/>
-    <mergeCell ref="L73:M73"/>
-    <mergeCell ref="N73:O73"/>
-    <mergeCell ref="R73:S73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="L74:M74"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="I78:J78"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="R82:S82"/>
-    <mergeCell ref="N83:O83"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="I83:J83"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="R81:S81"/>
-    <mergeCell ref="R80:S80"/>
-    <mergeCell ref="N82:O82"/>
-    <mergeCell ref="N81:O81"/>
-    <mergeCell ref="N80:O80"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="I80:J80"/>
-    <mergeCell ref="R87:S87"/>
-    <mergeCell ref="R86:S86"/>
-    <mergeCell ref="R85:S85"/>
-    <mergeCell ref="R84:S84"/>
-    <mergeCell ref="R83:S83"/>
-    <mergeCell ref="N87:O87"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="I87:J87"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="I85:J85"/>
-    <mergeCell ref="N85:O85"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="N86:O86"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="I84:J84"/>
-    <mergeCell ref="N84:O84"/>
-    <mergeCell ref="N70:O70"/>
-    <mergeCell ref="R72:S72"/>
-    <mergeCell ref="N77:O77"/>
-    <mergeCell ref="N78:O78"/>
-    <mergeCell ref="N74:O74"/>
-    <mergeCell ref="N79:O79"/>
-    <mergeCell ref="N75:O75"/>
-    <mergeCell ref="N76:O76"/>
-    <mergeCell ref="L71:M71"/>
-    <mergeCell ref="N71:O71"/>
-    <mergeCell ref="R78:S78"/>
-    <mergeCell ref="R77:S77"/>
-    <mergeCell ref="R76:S76"/>
-    <mergeCell ref="R75:S75"/>
-    <mergeCell ref="R74:S74"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="R70:S70"/>
-    <mergeCell ref="R71:S71"/>
-    <mergeCell ref="L72:M72"/>
-    <mergeCell ref="N72:O72"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="I77:J77"/>
-    <mergeCell ref="B62:H62"/>
-    <mergeCell ref="B63:H63"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B55:H55"/>
-    <mergeCell ref="B61:H61"/>
-    <mergeCell ref="B54:H54"/>
-    <mergeCell ref="B57:H57"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="I73:J73"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B40:O40"/>
-    <mergeCell ref="R69:S69"/>
-    <mergeCell ref="B56:H56"/>
-    <mergeCell ref="N69:O69"/>
-    <mergeCell ref="O42:O44"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="J42:N42"/>
-    <mergeCell ref="N43:N44"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B60:H60"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B35:H35"/>
   </mergeCells>
   <conditionalFormatting sqref="C44 E44:H44">
     <cfRule type="cellIs" dxfId="6" priority="11" operator="equal">
@@ -41772,12 +41763,12 @@
     <row r="1" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:41" s="12" customFormat="1" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3"/>
-      <c r="B2" s="214" t="s">
+      <c r="B2" s="216" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="232"/>
-      <c r="D2" s="232"/>
-      <c r="E2" s="215"/>
+      <c r="C2" s="226"/>
+      <c r="D2" s="226"/>
+      <c r="E2" s="217"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -41818,12 +41809,12 @@
     <row r="3" spans="1:41" ht="14.5" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:41" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="112"/>
-      <c r="B4" s="219" t="s">
+      <c r="B4" s="223" t="s">
         <v>216</v>
       </c>
-      <c r="C4" s="220"/>
-      <c r="D4" s="220"/>
-      <c r="E4" s="221"/>
+      <c r="C4" s="224"/>
+      <c r="D4" s="224"/>
+      <c r="E4" s="225"/>
       <c r="F4" s="112"/>
       <c r="G4" s="112"/>
       <c r="H4" s="112"/>
@@ -41863,12 +41854,12 @@
     </row>
     <row r="5" spans="1:41" s="7" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="112"/>
-      <c r="B5" s="309" t="s">
+      <c r="B5" s="343" t="s">
         <v>217</v>
       </c>
-      <c r="C5" s="310"/>
-      <c r="D5" s="310"/>
-      <c r="E5" s="311"/>
+      <c r="C5" s="344"/>
+      <c r="D5" s="344"/>
+      <c r="E5" s="345"/>
       <c r="F5" s="112"/>
       <c r="G5" s="112"/>
       <c r="H5" s="112"/>
@@ -42262,6 +42253,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="681fe441-c46c-4ea5-a5c5-b45872725697">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="83a87e31-bf32-46ab-8e70-9fa18461fa4d" xsi:nil="true"/>
+    <SharedWithUsers xmlns="6bac55d2-c587-47e2-866b-bbb6fe14d104">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AB5DDB95A7ECBD49AA08D06BA3EF1CDA" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fe5bfd8c052041f57bea8be2fc23aae3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="681fe441-c46c-4ea5-a5c5-b45872725697" xmlns:ns3="6bac55d2-c587-47e2-866b-bbb6fe14d104" xmlns:ns4="83a87e31-bf32-46ab-8e70-9fa18461fa4d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2f48421f1dce13a43278cc3c99628998" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -42532,36 +42552,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="681fe441-c46c-4ea5-a5c5-b45872725697">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="83a87e31-bf32-46ab-8e70-9fa18461fa4d" xsi:nil="true"/>
-    <SharedWithUsers xmlns="6bac55d2-c587-47e2-866b-bbb6fe14d104">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4FE8F99-283B-450B-9291-1D0662914CE9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12714E09-E476-4024-A743-EBE78B46D4FD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="681fe441-c46c-4ea5-a5c5-b45872725697"/>
+    <ds:schemaRef ds:uri="83a87e31-bf32-46ab-8e70-9fa18461fa4d"/>
+    <ds:schemaRef ds:uri="6bac55d2-c587-47e2-866b-bbb6fe14d104"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38A08E56-31DD-4856-904D-CF4B4BDF8261}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -42582,27 +42594,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12714E09-E476-4024-A743-EBE78B46D4FD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="681fe441-c46c-4ea5-a5c5-b45872725697"/>
-    <ds:schemaRef ds:uri="83a87e31-bf32-46ab-8e70-9fa18461fa4d"/>
-    <ds:schemaRef ds:uri="6bac55d2-c587-47e2-866b-bbb6fe14d104"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4FE8F99-283B-450B-9291-1D0662914CE9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{95c71a0f-75e1-4c8f-90e2-641c9351dd98}" enabled="1" method="Standard" siteId="{3e0088dc-0629-4ae6-aa8c-813e7a296f50}" removed="0"/>

--- a/tests/integration_tests/mock_pf_returns/PF_Round_1_Initial_Validation_Failures.xlsx
+++ b/tests/integration_tests/mock_pf_returns/PF_Round_1_Initial_Validation_Failures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PearceJ\stash\funding-service-design-post-award-data-store\tests\integration_tests\mock_pf_returns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1FE906-94C4-469D-9456-F9251558A81A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{470B08EA-F0A2-438B-A53F-9CC092EC5AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="661" activeTab="10" xr2:uid="{F1A93CD4-AFD6-463B-B066-EB4D40A0C607}"/>
   </bookViews>
@@ -6114,12 +6114,6 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -6138,6 +6132,33 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -6147,20 +6168,17 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -6192,29 +6210,53 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6237,18 +6279,6 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6257,18 +6287,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6279,12 +6297,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6292,6 +6304,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6315,41 +6333,44 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6381,83 +6402,22 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6469,105 +6429,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -6576,6 +6437,9 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -6639,6 +6503,142 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -7638,10 +7638,10 @@
     <row r="1" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:6" s="3" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2"/>
-      <c r="B2" s="216" t="s">
+      <c r="B2" s="214" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="217"/>
+      <c r="C2" s="215"/>
       <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
@@ -8451,7 +8451,7 @@
         <v>330</v>
       </c>
       <c r="C72" s="125" t="s">
-        <v>365</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.35">
@@ -8462,7 +8462,7 @@
         <v>330</v>
       </c>
       <c r="C73" s="125" t="s">
-        <v>365</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.35">
@@ -8473,7 +8473,7 @@
         <v>330</v>
       </c>
       <c r="C74" s="125" t="s">
-        <v>365</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.35">
@@ -8484,7 +8484,7 @@
         <v>330</v>
       </c>
       <c r="C75" s="125" t="s">
-        <v>365</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.35">
@@ -8495,7 +8495,7 @@
         <v>330</v>
       </c>
       <c r="C76" s="125" t="s">
-        <v>365</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.35">
@@ -8506,7 +8506,7 @@
         <v>330</v>
       </c>
       <c r="C77" s="125" t="s">
-        <v>365</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.35">
@@ -16319,10 +16319,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="216" t="s">
+      <c r="B2" s="214" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="217"/>
+      <c r="C2" s="215"/>
     </row>
     <row r="3" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B3" s="205" t="s">
@@ -16332,16 +16332,16 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="2:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="212" t="s">
+      <c r="B4" s="210" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="213"/>
+      <c r="C4" s="211"/>
     </row>
     <row r="5" spans="2:9" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="214" t="s">
+      <c r="B5" s="212" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="215" t="s">
+      <c r="C5" s="213" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="6"/>
@@ -16353,138 +16353,138 @@
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="2:9" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="B7" s="216" t="s">
+      <c r="B7" s="214" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="217"/>
+      <c r="C7" s="215"/>
       <c r="I7" s="112"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="I8" s="112"/>
     </row>
     <row r="9" spans="2:9" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B9" s="212" t="s">
+      <c r="B9" s="210" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="213"/>
+      <c r="C9" s="211"/>
     </row>
     <row r="10" spans="2:9" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="214" t="s">
+      <c r="B10" s="212" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="215"/>
+      <c r="C10" s="213"/>
     </row>
     <row r="11" spans="2:9" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="25"/>
       <c r="C11" s="19"/>
     </row>
     <row r="12" spans="2:9" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B12" s="212" t="s">
+      <c r="B12" s="210" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="213"/>
+      <c r="C12" s="211"/>
     </row>
     <row r="13" spans="2:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="210" t="s">
+      <c r="B13" s="216" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="211"/>
+      <c r="C13" s="217"/>
     </row>
     <row r="14" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B14" s="25"/>
       <c r="C14" s="19"/>
     </row>
     <row r="15" spans="2:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B15" s="212" t="s">
+      <c r="B15" s="210" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="213"/>
+      <c r="C15" s="211"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B16" s="210" t="s">
+      <c r="B16" s="216" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="211"/>
+      <c r="C16" s="217"/>
     </row>
     <row r="17" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B17" s="25"/>
       <c r="C17" s="19"/>
     </row>
     <row r="18" spans="2:3" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B18" s="212" t="s">
+      <c r="B18" s="210" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="213"/>
+      <c r="C18" s="211"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B19" s="210" t="s">
+      <c r="B19" s="216" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="211"/>
+      <c r="C19" s="217"/>
     </row>
     <row r="20" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B20" s="25"/>
       <c r="C20" s="19"/>
     </row>
     <row r="21" spans="2:3" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B21" s="212" t="s">
+      <c r="B21" s="210" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="213"/>
+      <c r="C21" s="211"/>
     </row>
     <row r="22" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="210" t="s">
+      <c r="B22" s="216" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="211"/>
+      <c r="C22" s="217"/>
     </row>
     <row r="23" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B23" s="25"/>
       <c r="C23" s="19"/>
     </row>
     <row r="24" spans="2:3" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B24" s="212" t="s">
+      <c r="B24" s="210" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="213"/>
+      <c r="C24" s="211"/>
     </row>
     <row r="25" spans="2:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="210" t="s">
+      <c r="B25" s="216" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="211"/>
+      <c r="C25" s="217"/>
     </row>
     <row r="26" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B26" s="25"/>
       <c r="C26" s="19"/>
     </row>
     <row r="27" spans="2:3" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B27" s="212" t="s">
+      <c r="B27" s="210" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="213"/>
+      <c r="C27" s="211"/>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B28" s="210" t="s">
+      <c r="B28" s="216" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="211"/>
+      <c r="C28" s="217"/>
     </row>
     <row r="29" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B29" s="25"/>
       <c r="C29" s="19"/>
     </row>
     <row r="30" spans="2:3" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="B30" s="212" t="s">
+      <c r="B30" s="210" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="213"/>
+      <c r="C30" s="211"/>
     </row>
     <row r="31" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="210" t="s">
+      <c r="B31" s="216" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="211"/>
+      <c r="C31" s="217"/>
     </row>
     <row r="34" spans="3:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="35" spans="3:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -16531,6 +16531,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B2:C2"/>
@@ -16541,16 +16551,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B21:C21"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="1">
@@ -17606,12 +17606,12 @@
   <sheetData>
     <row r="2" spans="1:12" s="12" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="216" t="s">
+      <c r="B2" s="214" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="226"/>
-      <c r="D2" s="226"/>
-      <c r="E2" s="217"/>
+      <c r="C2" s="232"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="215"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -17626,34 +17626,34 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B4" s="223" t="s">
+      <c r="B4" s="219" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="224"/>
-      <c r="D4" s="224"/>
-      <c r="E4" s="225"/>
+      <c r="C4" s="220"/>
+      <c r="D4" s="220"/>
+      <c r="E4" s="221"/>
     </row>
     <row r="5" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B5" s="236" t="s">
+      <c r="B5" s="222" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="237"/>
-      <c r="D5" s="237"/>
-      <c r="E5" s="238"/>
+      <c r="C5" s="223"/>
+      <c r="D5" s="223"/>
+      <c r="E5" s="224"/>
     </row>
     <row r="6" spans="1:12" ht="364" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="218" t="s">
+      <c r="B6" s="225" t="s">
         <v>1068</v>
       </c>
-      <c r="C6" s="219"/>
-      <c r="D6" s="219"/>
-      <c r="E6" s="220"/>
+      <c r="C6" s="226"/>
+      <c r="D6" s="226"/>
+      <c r="E6" s="227"/>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="221" t="s">
+      <c r="B7" s="218" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="221"/>
+      <c r="C7" s="218"/>
       <c r="E7" s="59" t="s">
         <v>78</v>
       </c>
@@ -17663,37 +17663,37 @@
       <c r="C8" s="15"/>
     </row>
     <row r="9" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B9" s="230" t="s">
+      <c r="B9" s="236" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="231"/>
-      <c r="D9" s="231"/>
-      <c r="E9" s="232"/>
+      <c r="C9" s="237"/>
+      <c r="D9" s="237"/>
+      <c r="E9" s="238"/>
     </row>
     <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B10" s="227" t="s">
+      <c r="B10" s="233" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="228"/>
-      <c r="D10" s="229"/>
+      <c r="C10" s="234"/>
+      <c r="D10" s="235"/>
       <c r="E10" s="93" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="233" t="s">
+      <c r="B11" s="239" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="234"/>
-      <c r="D11" s="234"/>
-      <c r="E11" s="235"/>
+      <c r="C11" s="240"/>
+      <c r="D11" s="240"/>
+      <c r="E11" s="241"/>
     </row>
     <row r="12" spans="1:12" ht="349" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="218" t="s">
+      <c r="B12" s="225" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="219"/>
-      <c r="D12" s="222"/>
+      <c r="C12" s="226"/>
+      <c r="D12" s="231"/>
       <c r="E12" s="146" t="s">
         <v>84</v>
       </c>
@@ -18125,34 +18125,34 @@
       </c>
     </row>
     <row r="53" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="223" t="s">
+      <c r="B53" s="219" t="s">
         <v>93</v>
       </c>
-      <c r="C53" s="224"/>
-      <c r="D53" s="224"/>
-      <c r="E53" s="225"/>
+      <c r="C53" s="220"/>
+      <c r="D53" s="220"/>
+      <c r="E53" s="221"/>
     </row>
     <row r="54" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B54" s="236" t="s">
+      <c r="B54" s="222" t="s">
         <v>94</v>
       </c>
-      <c r="C54" s="237"/>
-      <c r="D54" s="237"/>
-      <c r="E54" s="238"/>
+      <c r="C54" s="223"/>
+      <c r="D54" s="223"/>
+      <c r="E54" s="224"/>
     </row>
     <row r="55" spans="2:5" ht="240" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B55" s="218" t="s">
+      <c r="B55" s="225" t="s">
         <v>1078</v>
       </c>
-      <c r="C55" s="219"/>
-      <c r="D55" s="219"/>
-      <c r="E55" s="220"/>
+      <c r="C55" s="226"/>
+      <c r="D55" s="226"/>
+      <c r="E55" s="227"/>
     </row>
     <row r="56" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="221" t="s">
+      <c r="B56" s="218" t="s">
         <v>77</v>
       </c>
-      <c r="C56" s="221"/>
+      <c r="C56" s="218"/>
       <c r="E56" s="59" t="s">
         <v>95</v>
       </c>
@@ -18164,34 +18164,34 @@
       </c>
     </row>
     <row r="59" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="223" t="s">
+      <c r="B59" s="219" t="s">
         <v>97</v>
       </c>
-      <c r="C59" s="224"/>
-      <c r="D59" s="224"/>
-      <c r="E59" s="225"/>
+      <c r="C59" s="220"/>
+      <c r="D59" s="220"/>
+      <c r="E59" s="221"/>
     </row>
     <row r="60" spans="2:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="239" t="s">
+      <c r="B60" s="228" t="s">
         <v>98</v>
       </c>
-      <c r="C60" s="240"/>
-      <c r="D60" s="240"/>
-      <c r="E60" s="241"/>
+      <c r="C60" s="229"/>
+      <c r="D60" s="229"/>
+      <c r="E60" s="230"/>
     </row>
     <row r="61" spans="2:5" ht="240" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B61" s="218" t="s">
+      <c r="B61" s="225" t="s">
         <v>1079</v>
       </c>
-      <c r="C61" s="219"/>
-      <c r="D61" s="219"/>
-      <c r="E61" s="220"/>
+      <c r="C61" s="226"/>
+      <c r="D61" s="226"/>
+      <c r="E61" s="227"/>
     </row>
     <row r="62" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B62" s="221" t="s">
+      <c r="B62" s="218" t="s">
         <v>77</v>
       </c>
-      <c r="C62" s="221"/>
+      <c r="C62" s="218"/>
       <c r="E62" s="59" t="s">
         <v>99</v>
       </c>
@@ -18216,14 +18216,6 @@
     <row r="78" spans="2:4" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="B61:E61"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B12:D12"/>
@@ -18233,6 +18225,14 @@
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="B61:E61"/>
   </mergeCells>
   <conditionalFormatting sqref="B15:E50">
     <cfRule type="expression" dxfId="46" priority="1">
@@ -18613,14 +18613,14 @@
     </row>
     <row r="2" spans="1:60" s="12" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="216" t="s">
+      <c r="B2" s="214" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="226"/>
-      <c r="D2" s="226"/>
-      <c r="E2" s="226"/>
-      <c r="F2" s="226"/>
-      <c r="G2" s="217"/>
+      <c r="C2" s="232"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="232"/>
+      <c r="F2" s="232"/>
+      <c r="G2" s="215"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -18739,14 +18739,14 @@
     </row>
     <row r="4" spans="1:60" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="112"/>
-      <c r="B4" s="277" t="s">
+      <c r="B4" s="246" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="278"/>
-      <c r="D4" s="278"/>
-      <c r="E4" s="278"/>
-      <c r="F4" s="278"/>
-      <c r="G4" s="279"/>
+      <c r="C4" s="247"/>
+      <c r="D4" s="247"/>
+      <c r="E4" s="247"/>
+      <c r="F4" s="247"/>
+      <c r="G4" s="248"/>
       <c r="H4" s="20"/>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
@@ -18803,14 +18803,14 @@
     </row>
     <row r="5" spans="1:60" ht="138.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="112"/>
-      <c r="B5" s="280" t="s">
+      <c r="B5" s="249" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="281"/>
-      <c r="D5" s="282"/>
-      <c r="E5" s="282"/>
-      <c r="F5" s="282"/>
-      <c r="G5" s="283"/>
+      <c r="C5" s="250"/>
+      <c r="D5" s="251"/>
+      <c r="E5" s="251"/>
+      <c r="F5" s="251"/>
+      <c r="G5" s="252"/>
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
       <c r="J5" s="21"/>
@@ -18867,14 +18867,14 @@
     </row>
     <row r="6" spans="1:60" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="112"/>
-      <c r="B6" s="258" t="s">
+      <c r="B6" s="283" t="s">
         <v>107</v>
       </c>
-      <c r="C6" s="259"/>
-      <c r="D6" s="259"/>
-      <c r="E6" s="260"/>
-      <c r="F6" s="260"/>
-      <c r="G6" s="261"/>
+      <c r="C6" s="284"/>
+      <c r="D6" s="284"/>
+      <c r="E6" s="285"/>
+      <c r="F6" s="285"/>
+      <c r="G6" s="286"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
@@ -18934,13 +18934,13 @@
       <c r="B7" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="C7" s="259" t="s">
+      <c r="C7" s="284" t="s">
         <v>109</v>
       </c>
-      <c r="D7" s="259"/>
-      <c r="E7" s="260"/>
-      <c r="F7" s="260"/>
-      <c r="G7" s="261"/>
+      <c r="D7" s="284"/>
+      <c r="E7" s="285"/>
+      <c r="F7" s="285"/>
+      <c r="G7" s="286"/>
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
       <c r="J7" s="21"/>
@@ -19000,13 +19000,13 @@
       <c r="B8" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="C8" s="262" t="s">
+      <c r="C8" s="268" t="s">
         <v>111</v>
       </c>
-      <c r="D8" s="262"/>
-      <c r="E8" s="263"/>
-      <c r="F8" s="263"/>
-      <c r="G8" s="264"/>
+      <c r="D8" s="268"/>
+      <c r="E8" s="269"/>
+      <c r="F8" s="269"/>
+      <c r="G8" s="270"/>
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
       <c r="J8" s="21"/>
@@ -19066,13 +19066,13 @@
       <c r="B9" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="262" t="s">
+      <c r="C9" s="268" t="s">
         <v>113</v>
       </c>
-      <c r="D9" s="262"/>
-      <c r="E9" s="263"/>
-      <c r="F9" s="263"/>
-      <c r="G9" s="264"/>
+      <c r="D9" s="268"/>
+      <c r="E9" s="269"/>
+      <c r="F9" s="269"/>
+      <c r="G9" s="270"/>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
       <c r="J9" s="21"/>
@@ -19132,13 +19132,13 @@
       <c r="B10" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="C10" s="262" t="s">
+      <c r="C10" s="268" t="s">
         <v>115</v>
       </c>
-      <c r="D10" s="262"/>
-      <c r="E10" s="263"/>
-      <c r="F10" s="263"/>
-      <c r="G10" s="264"/>
+      <c r="D10" s="268"/>
+      <c r="E10" s="269"/>
+      <c r="F10" s="269"/>
+      <c r="G10" s="270"/>
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
       <c r="J10" s="21"/>
@@ -19198,13 +19198,13 @@
       <c r="B11" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="C11" s="262" t="s">
+      <c r="C11" s="268" t="s">
         <v>117</v>
       </c>
-      <c r="D11" s="262"/>
-      <c r="E11" s="263"/>
-      <c r="F11" s="263"/>
-      <c r="G11" s="264"/>
+      <c r="D11" s="268"/>
+      <c r="E11" s="269"/>
+      <c r="F11" s="269"/>
+      <c r="G11" s="270"/>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
       <c r="J11" s="21"/>
@@ -19264,13 +19264,13 @@
       <c r="B12" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="C12" s="267" t="s">
+      <c r="C12" s="271" t="s">
         <v>119</v>
       </c>
-      <c r="D12" s="267"/>
-      <c r="E12" s="268"/>
-      <c r="F12" s="268"/>
-      <c r="G12" s="269"/>
+      <c r="D12" s="271"/>
+      <c r="E12" s="272"/>
+      <c r="F12" s="272"/>
+      <c r="G12" s="273"/>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
@@ -19474,60 +19474,60 @@
     </row>
     <row r="16" spans="1:60" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="112"/>
-      <c r="B16" s="251" t="s">
+      <c r="B16" s="253" t="s">
         <v>122</v>
       </c>
-      <c r="C16" s="253" t="s">
+      <c r="C16" s="274" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="284" t="s">
+      <c r="D16" s="255" t="s">
         <v>124</v>
       </c>
-      <c r="E16" s="273" t="s">
+      <c r="E16" s="279" t="s">
         <v>125</v>
       </c>
-      <c r="F16" s="274"/>
-      <c r="G16" s="271" t="s">
+      <c r="F16" s="280"/>
+      <c r="G16" s="277" t="s">
         <v>126</v>
       </c>
-      <c r="H16" s="271"/>
-      <c r="I16" s="271"/>
-      <c r="J16" s="271"/>
-      <c r="K16" s="272"/>
-      <c r="L16" s="255" t="s">
+      <c r="H16" s="277"/>
+      <c r="I16" s="277"/>
+      <c r="J16" s="277"/>
+      <c r="K16" s="278"/>
+      <c r="L16" s="265" t="s">
         <v>127</v>
       </c>
-      <c r="M16" s="256"/>
-      <c r="N16" s="256"/>
-      <c r="O16" s="256"/>
-      <c r="P16" s="257"/>
+      <c r="M16" s="266"/>
+      <c r="N16" s="266"/>
+      <c r="O16" s="266"/>
+      <c r="P16" s="267"/>
       <c r="Q16" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="R16" s="244" t="s">
+      <c r="R16" s="258" t="s">
         <v>129</v>
       </c>
       <c r="S16" s="112"/>
       <c r="T16" s="52"/>
       <c r="U16" s="52"/>
       <c r="V16" s="52"/>
-      <c r="W16" s="265"/>
-      <c r="X16" s="265"/>
-      <c r="Y16" s="265"/>
-      <c r="Z16" s="265"/>
-      <c r="AA16" s="265"/>
-      <c r="AB16" s="265"/>
-      <c r="AC16" s="265"/>
-      <c r="AD16" s="265"/>
-      <c r="AE16" s="265"/>
-      <c r="AF16" s="265"/>
-      <c r="AG16" s="265"/>
-      <c r="AH16" s="265"/>
-      <c r="AI16" s="265"/>
-      <c r="AJ16" s="265"/>
-      <c r="AK16" s="265"/>
+      <c r="W16" s="244"/>
+      <c r="X16" s="244"/>
+      <c r="Y16" s="244"/>
+      <c r="Z16" s="244"/>
+      <c r="AA16" s="244"/>
+      <c r="AB16" s="244"/>
+      <c r="AC16" s="244"/>
+      <c r="AD16" s="244"/>
+      <c r="AE16" s="244"/>
+      <c r="AF16" s="244"/>
+      <c r="AG16" s="244"/>
+      <c r="AH16" s="244"/>
+      <c r="AI16" s="244"/>
+      <c r="AJ16" s="244"/>
+      <c r="AK16" s="244"/>
       <c r="AL16" s="52"/>
-      <c r="AM16" s="265"/>
+      <c r="AM16" s="244"/>
       <c r="AN16" s="112"/>
       <c r="AO16" s="112"/>
       <c r="AP16" s="112"/>
@@ -19552,13 +19552,13 @@
     </row>
     <row r="17" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="112"/>
-      <c r="B17" s="252"/>
-      <c r="C17" s="254"/>
-      <c r="D17" s="285"/>
+      <c r="B17" s="254"/>
+      <c r="C17" s="275"/>
+      <c r="D17" s="256"/>
       <c r="E17" s="185" t="s">
         <v>130</v>
       </c>
-      <c r="F17" s="275" t="s">
+      <c r="F17" s="281" t="s">
         <v>131</v>
       </c>
       <c r="G17" s="85" t="s">
@@ -19573,7 +19573,7 @@
       <c r="J17" s="85" t="s">
         <v>130</v>
       </c>
-      <c r="K17" s="246" t="s">
+      <c r="K17" s="260" t="s">
         <v>131</v>
       </c>
       <c r="L17" s="84" t="s">
@@ -19588,13 +19588,13 @@
       <c r="O17" s="85" t="s">
         <v>130</v>
       </c>
-      <c r="P17" s="248" t="s">
+      <c r="P17" s="262" t="s">
         <v>131</v>
       </c>
-      <c r="Q17" s="249" t="s">
+      <c r="Q17" s="263" t="s">
         <v>131</v>
       </c>
-      <c r="R17" s="245"/>
+      <c r="R17" s="259"/>
       <c r="S17" s="112"/>
       <c r="T17" s="54"/>
       <c r="U17" s="54"/>
@@ -19603,19 +19603,19 @@
       <c r="X17" s="52"/>
       <c r="Y17" s="52"/>
       <c r="Z17" s="52"/>
-      <c r="AA17" s="266"/>
+      <c r="AA17" s="245"/>
       <c r="AB17" s="52"/>
       <c r="AC17" s="52"/>
       <c r="AD17" s="52"/>
       <c r="AE17" s="52"/>
-      <c r="AF17" s="266"/>
+      <c r="AF17" s="245"/>
       <c r="AG17" s="52"/>
       <c r="AH17" s="52"/>
       <c r="AI17" s="52"/>
       <c r="AJ17" s="52"/>
-      <c r="AK17" s="266"/>
-      <c r="AL17" s="266"/>
-      <c r="AM17" s="265"/>
+      <c r="AK17" s="245"/>
+      <c r="AL17" s="245"/>
+      <c r="AM17" s="244"/>
       <c r="AN17" s="112"/>
       <c r="AO17" s="112"/>
       <c r="AP17" s="112"/>
@@ -19640,13 +19640,13 @@
     </row>
     <row r="18" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="112"/>
-      <c r="B18" s="252"/>
-      <c r="C18" s="270"/>
-      <c r="D18" s="286"/>
+      <c r="B18" s="254"/>
+      <c r="C18" s="276"/>
+      <c r="D18" s="257"/>
       <c r="E18" s="183" t="s">
         <v>135</v>
       </c>
-      <c r="F18" s="276"/>
+      <c r="F18" s="282"/>
       <c r="G18" s="179" t="s">
         <v>136</v>
       </c>
@@ -19659,7 +19659,7 @@
       <c r="J18" s="68" t="s">
         <v>136</v>
       </c>
-      <c r="K18" s="247"/>
+      <c r="K18" s="261"/>
       <c r="L18" s="68" t="s">
         <v>136</v>
       </c>
@@ -19672,9 +19672,9 @@
       <c r="O18" s="68" t="s">
         <v>136</v>
       </c>
-      <c r="P18" s="247"/>
-      <c r="Q18" s="250"/>
-      <c r="R18" s="245"/>
+      <c r="P18" s="261"/>
+      <c r="Q18" s="264"/>
+      <c r="R18" s="259"/>
       <c r="S18" s="112"/>
       <c r="T18" s="53"/>
       <c r="U18" s="53"/>
@@ -19683,19 +19683,19 @@
       <c r="X18" s="55"/>
       <c r="Y18" s="55"/>
       <c r="Z18" s="55"/>
-      <c r="AA18" s="266"/>
+      <c r="AA18" s="245"/>
       <c r="AB18" s="55"/>
       <c r="AC18" s="55"/>
       <c r="AD18" s="55"/>
       <c r="AE18" s="55"/>
-      <c r="AF18" s="266"/>
+      <c r="AF18" s="245"/>
       <c r="AG18" s="55"/>
       <c r="AH18" s="55"/>
       <c r="AI18" s="55"/>
       <c r="AJ18" s="55"/>
-      <c r="AK18" s="266"/>
-      <c r="AL18" s="266"/>
-      <c r="AM18" s="265"/>
+      <c r="AK18" s="245"/>
+      <c r="AL18" s="245"/>
+      <c r="AM18" s="244"/>
       <c r="AN18" s="112"/>
       <c r="AO18" s="112"/>
       <c r="AP18" s="112"/>
@@ -21486,37 +21486,37 @@
     </row>
     <row r="42" spans="1:60" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="112"/>
-      <c r="B42" s="251" t="s">
+      <c r="B42" s="253" t="s">
         <v>122</v>
       </c>
-      <c r="C42" s="251" t="s">
+      <c r="C42" s="253" t="s">
         <v>123</v>
       </c>
-      <c r="D42" s="253" t="s">
+      <c r="D42" s="274" t="s">
         <v>124</v>
       </c>
-      <c r="E42" s="255" t="s">
+      <c r="E42" s="265" t="s">
         <v>125</v>
       </c>
-      <c r="F42" s="256"/>
-      <c r="G42" s="255" t="s">
+      <c r="F42" s="266"/>
+      <c r="G42" s="265" t="s">
         <v>126</v>
       </c>
-      <c r="H42" s="256"/>
-      <c r="I42" s="256"/>
-      <c r="J42" s="256"/>
-      <c r="K42" s="257"/>
-      <c r="L42" s="255" t="s">
+      <c r="H42" s="266"/>
+      <c r="I42" s="266"/>
+      <c r="J42" s="266"/>
+      <c r="K42" s="267"/>
+      <c r="L42" s="265" t="s">
         <v>127</v>
       </c>
-      <c r="M42" s="256"/>
-      <c r="N42" s="256"/>
-      <c r="O42" s="256"/>
-      <c r="P42" s="257"/>
+      <c r="M42" s="266"/>
+      <c r="N42" s="266"/>
+      <c r="O42" s="266"/>
+      <c r="P42" s="267"/>
       <c r="Q42" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="R42" s="244" t="s">
+      <c r="R42" s="258" t="s">
         <v>129</v>
       </c>
       <c r="S42" s="112"/>
@@ -21528,18 +21528,18 @@
       <c r="Y42" s="112"/>
       <c r="Z42" s="112"/>
       <c r="AA42" s="112"/>
-      <c r="AB42" s="265"/>
-      <c r="AC42" s="265"/>
-      <c r="AD42" s="265"/>
-      <c r="AE42" s="265"/>
-      <c r="AF42" s="265"/>
-      <c r="AG42" s="265"/>
-      <c r="AH42" s="265"/>
-      <c r="AI42" s="265"/>
-      <c r="AJ42" s="265"/>
-      <c r="AK42" s="265"/>
+      <c r="AB42" s="244"/>
+      <c r="AC42" s="244"/>
+      <c r="AD42" s="244"/>
+      <c r="AE42" s="244"/>
+      <c r="AF42" s="244"/>
+      <c r="AG42" s="244"/>
+      <c r="AH42" s="244"/>
+      <c r="AI42" s="244"/>
+      <c r="AJ42" s="244"/>
+      <c r="AK42" s="244"/>
       <c r="AL42" s="52"/>
-      <c r="AM42" s="265"/>
+      <c r="AM42" s="244"/>
       <c r="AN42" s="112"/>
       <c r="AO42" s="112"/>
       <c r="AP42" s="112"/>
@@ -21564,13 +21564,13 @@
     </row>
     <row r="43" spans="1:60" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="112"/>
-      <c r="B43" s="252"/>
-      <c r="C43" s="252"/>
-      <c r="D43" s="254"/>
+      <c r="B43" s="254"/>
+      <c r="C43" s="254"/>
+      <c r="D43" s="275"/>
       <c r="E43" s="84" t="s">
         <v>130</v>
       </c>
-      <c r="F43" s="246" t="s">
+      <c r="F43" s="260" t="s">
         <v>131</v>
       </c>
       <c r="G43" s="84" t="s">
@@ -21585,7 +21585,7 @@
       <c r="J43" s="85" t="s">
         <v>130</v>
       </c>
-      <c r="K43" s="246" t="s">
+      <c r="K43" s="260" t="s">
         <v>131</v>
       </c>
       <c r="L43" s="84" t="s">
@@ -21600,13 +21600,13 @@
       <c r="O43" s="85" t="s">
         <v>130</v>
       </c>
-      <c r="P43" s="248" t="s">
+      <c r="P43" s="262" t="s">
         <v>131</v>
       </c>
-      <c r="Q43" s="249" t="s">
+      <c r="Q43" s="263" t="s">
         <v>131</v>
       </c>
-      <c r="R43" s="245"/>
+      <c r="R43" s="259"/>
       <c r="S43" s="112"/>
       <c r="T43" s="54"/>
       <c r="U43" s="54"/>
@@ -21615,19 +21615,19 @@
       <c r="X43" s="52"/>
       <c r="Y43" s="52"/>
       <c r="Z43" s="52"/>
-      <c r="AA43" s="266"/>
+      <c r="AA43" s="245"/>
       <c r="AB43" s="52"/>
       <c r="AC43" s="52"/>
       <c r="AD43" s="52"/>
       <c r="AE43" s="52"/>
-      <c r="AF43" s="266"/>
+      <c r="AF43" s="245"/>
       <c r="AG43" s="52"/>
       <c r="AH43" s="52"/>
       <c r="AI43" s="52"/>
       <c r="AJ43" s="52"/>
-      <c r="AK43" s="266"/>
-      <c r="AL43" s="266"/>
-      <c r="AM43" s="265"/>
+      <c r="AK43" s="245"/>
+      <c r="AL43" s="245"/>
+      <c r="AM43" s="244"/>
       <c r="AN43" s="112"/>
       <c r="AO43" s="112"/>
       <c r="AP43" s="112"/>
@@ -21652,13 +21652,13 @@
     </row>
     <row r="44" spans="1:60" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="112"/>
-      <c r="B44" s="252"/>
-      <c r="C44" s="252"/>
-      <c r="D44" s="252"/>
+      <c r="B44" s="254"/>
+      <c r="C44" s="254"/>
+      <c r="D44" s="254"/>
       <c r="E44" s="67" t="s">
         <v>135</v>
       </c>
-      <c r="F44" s="247"/>
+      <c r="F44" s="261"/>
       <c r="G44" s="67" t="s">
         <v>136</v>
       </c>
@@ -21671,7 +21671,7 @@
       <c r="J44" s="68" t="s">
         <v>136</v>
       </c>
-      <c r="K44" s="247"/>
+      <c r="K44" s="261"/>
       <c r="L44" s="68" t="s">
         <v>136</v>
       </c>
@@ -21684,9 +21684,9 @@
       <c r="O44" s="68" t="s">
         <v>136</v>
       </c>
-      <c r="P44" s="247"/>
-      <c r="Q44" s="250"/>
-      <c r="R44" s="245"/>
+      <c r="P44" s="261"/>
+      <c r="Q44" s="264"/>
+      <c r="R44" s="259"/>
       <c r="S44" s="112"/>
       <c r="T44" s="53"/>
       <c r="U44" s="53"/>
@@ -21695,19 +21695,19 @@
       <c r="X44" s="55"/>
       <c r="Y44" s="55"/>
       <c r="Z44" s="55"/>
-      <c r="AA44" s="266"/>
+      <c r="AA44" s="245"/>
       <c r="AB44" s="55"/>
       <c r="AC44" s="55"/>
       <c r="AD44" s="55"/>
       <c r="AE44" s="55"/>
-      <c r="AF44" s="266"/>
+      <c r="AF44" s="245"/>
       <c r="AG44" s="55"/>
       <c r="AH44" s="55"/>
       <c r="AI44" s="55"/>
       <c r="AJ44" s="55"/>
-      <c r="AK44" s="266"/>
-      <c r="AL44" s="266"/>
-      <c r="AM44" s="265"/>
+      <c r="AK44" s="245"/>
+      <c r="AL44" s="245"/>
+      <c r="AM44" s="244"/>
       <c r="AN44" s="112"/>
       <c r="AO44" s="112"/>
       <c r="AP44" s="112"/>
@@ -29342,6 +29342,37 @@
     <protectedRange sqref="L45:O45" name="Section_B_1_5"/>
   </protectedRanges>
   <mergeCells count="47">
+    <mergeCell ref="R42:R44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="P43:P44"/>
+    <mergeCell ref="Q43:Q44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="G42:K42"/>
+    <mergeCell ref="L42:P42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="AM16:AM18"/>
+    <mergeCell ref="AA17:AA18"/>
+    <mergeCell ref="AF17:AF18"/>
+    <mergeCell ref="AK17:AK18"/>
+    <mergeCell ref="AL17:AL18"/>
+    <mergeCell ref="W16:AA16"/>
+    <mergeCell ref="AB16:AF16"/>
+    <mergeCell ref="AG16:AK16"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="F17:F18"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="AB42:AF42"/>
     <mergeCell ref="AG42:AK42"/>
@@ -29358,37 +29389,6 @@
     <mergeCell ref="K17:K18"/>
     <mergeCell ref="P17:P18"/>
     <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="AM16:AM18"/>
-    <mergeCell ref="AA17:AA18"/>
-    <mergeCell ref="AF17:AF18"/>
-    <mergeCell ref="AK17:AK18"/>
-    <mergeCell ref="AL17:AL18"/>
-    <mergeCell ref="W16:AA16"/>
-    <mergeCell ref="AB16:AF16"/>
-    <mergeCell ref="AG16:AK16"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="R42:R44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="P43:P44"/>
-    <mergeCell ref="Q43:Q44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="G42:K42"/>
-    <mergeCell ref="L42:P42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="F43:F44"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="E18 G18:J18">
@@ -29603,14 +29603,14 @@
     </row>
     <row r="2" spans="1:41" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="216" t="s">
+      <c r="B2" s="214" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="226"/>
-      <c r="D2" s="226"/>
-      <c r="E2" s="226"/>
-      <c r="F2" s="226"/>
-      <c r="G2" s="217"/>
+      <c r="C2" s="232"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="232"/>
+      <c r="F2" s="232"/>
+      <c r="G2" s="215"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -29691,14 +29691,14 @@
     </row>
     <row r="4" spans="1:41" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="112"/>
-      <c r="B4" s="290" t="s">
+      <c r="B4" s="297" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="291"/>
-      <c r="D4" s="291"/>
-      <c r="E4" s="291"/>
-      <c r="F4" s="291"/>
-      <c r="G4" s="292"/>
+      <c r="C4" s="298"/>
+      <c r="D4" s="298"/>
+      <c r="E4" s="298"/>
+      <c r="F4" s="298"/>
+      <c r="G4" s="299"/>
       <c r="H4" s="112"/>
       <c r="I4"/>
       <c r="J4"/>
@@ -29736,14 +29736,14 @@
     </row>
     <row r="5" spans="1:41" ht="138.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="112"/>
-      <c r="B5" s="293" t="s">
+      <c r="B5" s="300" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="294"/>
-      <c r="D5" s="294"/>
-      <c r="E5" s="294"/>
-      <c r="F5" s="294"/>
-      <c r="G5" s="295"/>
+      <c r="C5" s="301"/>
+      <c r="D5" s="301"/>
+      <c r="E5" s="301"/>
+      <c r="F5" s="301"/>
+      <c r="G5" s="302"/>
       <c r="H5" s="112"/>
       <c r="I5"/>
       <c r="J5"/>
@@ -29781,14 +29781,14 @@
     </row>
     <row r="6" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="112"/>
-      <c r="B6" s="296" t="s">
+      <c r="B6" s="303" t="s">
         <v>107</v>
       </c>
-      <c r="C6" s="297"/>
-      <c r="D6" s="297"/>
-      <c r="E6" s="297"/>
-      <c r="F6" s="297"/>
-      <c r="G6" s="298"/>
+      <c r="C6" s="304"/>
+      <c r="D6" s="304"/>
+      <c r="E6" s="304"/>
+      <c r="F6" s="304"/>
+      <c r="G6" s="305"/>
       <c r="H6" s="112"/>
       <c r="I6"/>
       <c r="J6"/>
@@ -29829,13 +29829,13 @@
       <c r="B7" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="C7" s="260" t="s">
+      <c r="C7" s="285" t="s">
         <v>109</v>
       </c>
-      <c r="D7" s="297"/>
-      <c r="E7" s="297"/>
-      <c r="F7" s="297"/>
-      <c r="G7" s="298"/>
+      <c r="D7" s="304"/>
+      <c r="E7" s="304"/>
+      <c r="F7" s="304"/>
+      <c r="G7" s="305"/>
       <c r="H7" s="112"/>
       <c r="I7"/>
       <c r="J7"/>
@@ -29876,13 +29876,13 @@
       <c r="B8" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="C8" s="263" t="s">
+      <c r="C8" s="269" t="s">
         <v>111</v>
       </c>
-      <c r="D8" s="299"/>
-      <c r="E8" s="299"/>
-      <c r="F8" s="299"/>
-      <c r="G8" s="300"/>
+      <c r="D8" s="292"/>
+      <c r="E8" s="292"/>
+      <c r="F8" s="292"/>
+      <c r="G8" s="293"/>
       <c r="H8" s="112"/>
       <c r="I8"/>
       <c r="J8"/>
@@ -29923,13 +29923,13 @@
       <c r="B9" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="263" t="s">
+      <c r="C9" s="269" t="s">
         <v>113</v>
       </c>
-      <c r="D9" s="299"/>
-      <c r="E9" s="299"/>
-      <c r="F9" s="299"/>
-      <c r="G9" s="300"/>
+      <c r="D9" s="292"/>
+      <c r="E9" s="292"/>
+      <c r="F9" s="292"/>
+      <c r="G9" s="293"/>
       <c r="H9" s="112"/>
       <c r="I9"/>
       <c r="J9"/>
@@ -29970,13 +29970,13 @@
       <c r="B10" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="C10" s="263" t="s">
+      <c r="C10" s="269" t="s">
         <v>115</v>
       </c>
-      <c r="D10" s="299"/>
-      <c r="E10" s="299"/>
-      <c r="F10" s="299"/>
-      <c r="G10" s="300"/>
+      <c r="D10" s="292"/>
+      <c r="E10" s="292"/>
+      <c r="F10" s="292"/>
+      <c r="G10" s="293"/>
       <c r="H10" s="112"/>
       <c r="I10"/>
       <c r="J10"/>
@@ -30017,13 +30017,13 @@
       <c r="B11" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="C11" s="263" t="s">
+      <c r="C11" s="269" t="s">
         <v>117</v>
       </c>
-      <c r="D11" s="299"/>
-      <c r="E11" s="299"/>
-      <c r="F11" s="299"/>
-      <c r="G11" s="300"/>
+      <c r="D11" s="292"/>
+      <c r="E11" s="292"/>
+      <c r="F11" s="292"/>
+      <c r="G11" s="293"/>
       <c r="H11" s="112"/>
       <c r="I11"/>
       <c r="J11"/>
@@ -30064,13 +30064,13 @@
       <c r="B12" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="C12" s="268" t="s">
+      <c r="C12" s="272" t="s">
         <v>119</v>
       </c>
-      <c r="D12" s="301"/>
-      <c r="E12" s="301"/>
-      <c r="F12" s="301"/>
-      <c r="G12" s="302"/>
+      <c r="D12" s="294"/>
+      <c r="E12" s="294"/>
+      <c r="F12" s="294"/>
+      <c r="G12" s="295"/>
       <c r="H12" s="112"/>
       <c r="I12"/>
       <c r="J12"/>
@@ -30217,37 +30217,37 @@
     </row>
     <row r="16" spans="1:41" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="112"/>
-      <c r="B16" s="251" t="s">
+      <c r="B16" s="253" t="s">
         <v>122</v>
       </c>
-      <c r="C16" s="251" t="s">
+      <c r="C16" s="253" t="s">
         <v>144</v>
       </c>
-      <c r="D16" s="253" t="s">
+      <c r="D16" s="274" t="s">
         <v>124</v>
       </c>
-      <c r="E16" s="255" t="s">
+      <c r="E16" s="265" t="s">
         <v>125</v>
       </c>
-      <c r="F16" s="256"/>
-      <c r="G16" s="255" t="s">
+      <c r="F16" s="266"/>
+      <c r="G16" s="265" t="s">
         <v>126</v>
       </c>
-      <c r="H16" s="256"/>
-      <c r="I16" s="256"/>
-      <c r="J16" s="256"/>
-      <c r="K16" s="257"/>
-      <c r="L16" s="255" t="s">
+      <c r="H16" s="266"/>
+      <c r="I16" s="266"/>
+      <c r="J16" s="266"/>
+      <c r="K16" s="267"/>
+      <c r="L16" s="265" t="s">
         <v>127</v>
       </c>
-      <c r="M16" s="256"/>
-      <c r="N16" s="256"/>
-      <c r="O16" s="256"/>
-      <c r="P16" s="257"/>
+      <c r="M16" s="266"/>
+      <c r="N16" s="266"/>
+      <c r="O16" s="266"/>
+      <c r="P16" s="267"/>
       <c r="Q16" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="R16" s="244" t="s">
+      <c r="R16" s="258" t="s">
         <v>129</v>
       </c>
       <c r="S16" s="112"/>
@@ -30276,9 +30276,9 @@
     </row>
     <row r="17" spans="1:41" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="112"/>
-      <c r="B17" s="252"/>
-      <c r="C17" s="252"/>
-      <c r="D17" s="254"/>
+      <c r="B17" s="254"/>
+      <c r="C17" s="254"/>
+      <c r="D17" s="275"/>
       <c r="E17" s="84" t="s">
         <v>130</v>
       </c>
@@ -30315,10 +30315,10 @@
       <c r="P17" s="287" t="s">
         <v>131</v>
       </c>
-      <c r="Q17" s="249" t="s">
+      <c r="Q17" s="263" t="s">
         <v>131</v>
       </c>
-      <c r="R17" s="245"/>
+      <c r="R17" s="259"/>
       <c r="S17" s="112"/>
       <c r="T17" s="112"/>
       <c r="U17" s="112"/>
@@ -30345,9 +30345,9 @@
     </row>
     <row r="18" spans="1:41" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="112"/>
-      <c r="B18" s="289"/>
-      <c r="C18" s="289"/>
-      <c r="D18" s="252"/>
+      <c r="B18" s="296"/>
+      <c r="C18" s="296"/>
+      <c r="D18" s="254"/>
       <c r="E18" s="22" t="s">
         <v>135</v>
       </c>
@@ -30378,8 +30378,8 @@
         <v>136</v>
       </c>
       <c r="P18" s="288"/>
-      <c r="Q18" s="303"/>
-      <c r="R18" s="305"/>
+      <c r="Q18" s="289"/>
+      <c r="R18" s="291"/>
       <c r="S18" s="112"/>
       <c r="T18" s="112"/>
       <c r="U18" s="112"/>
@@ -31459,9 +31459,9 @@
       <c r="W36"/>
       <c r="X36"/>
       <c r="Y36" s="112"/>
-      <c r="Z36" s="304"/>
-      <c r="AA36" s="304"/>
-      <c r="AB36" s="304"/>
+      <c r="Z36" s="290"/>
+      <c r="AA36" s="290"/>
+      <c r="AB36" s="290"/>
       <c r="AC36" s="112"/>
       <c r="AD36" s="112"/>
       <c r="AE36" s="112"/>
@@ -31714,37 +31714,37 @@
     </row>
     <row r="42" spans="1:41" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="112"/>
-      <c r="B42" s="251" t="s">
+      <c r="B42" s="253" t="s">
         <v>122</v>
       </c>
-      <c r="C42" s="251" t="s">
+      <c r="C42" s="253" t="s">
         <v>144</v>
       </c>
-      <c r="D42" s="253" t="s">
+      <c r="D42" s="274" t="s">
         <v>124</v>
       </c>
-      <c r="E42" s="255" t="s">
+      <c r="E42" s="265" t="s">
         <v>125</v>
       </c>
-      <c r="F42" s="256"/>
-      <c r="G42" s="255" t="s">
+      <c r="F42" s="266"/>
+      <c r="G42" s="265" t="s">
         <v>126</v>
       </c>
-      <c r="H42" s="256"/>
-      <c r="I42" s="256"/>
-      <c r="J42" s="256"/>
-      <c r="K42" s="257"/>
-      <c r="L42" s="255" t="s">
+      <c r="H42" s="266"/>
+      <c r="I42" s="266"/>
+      <c r="J42" s="266"/>
+      <c r="K42" s="267"/>
+      <c r="L42" s="265" t="s">
         <v>127</v>
       </c>
-      <c r="M42" s="256"/>
-      <c r="N42" s="256"/>
-      <c r="O42" s="256"/>
-      <c r="P42" s="257"/>
+      <c r="M42" s="266"/>
+      <c r="N42" s="266"/>
+      <c r="O42" s="266"/>
+      <c r="P42" s="267"/>
       <c r="Q42" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="R42" s="244" t="s">
+      <c r="R42" s="258" t="s">
         <v>129</v>
       </c>
       <c r="S42" s="112"/>
@@ -31773,9 +31773,9 @@
     </row>
     <row r="43" spans="1:41" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="112"/>
-      <c r="B43" s="252"/>
-      <c r="C43" s="252"/>
-      <c r="D43" s="254"/>
+      <c r="B43" s="254"/>
+      <c r="C43" s="254"/>
+      <c r="D43" s="275"/>
       <c r="E43" s="84" t="s">
         <v>130</v>
       </c>
@@ -31812,10 +31812,10 @@
       <c r="P43" s="287" t="s">
         <v>131</v>
       </c>
-      <c r="Q43" s="249" t="s">
+      <c r="Q43" s="263" t="s">
         <v>131</v>
       </c>
-      <c r="R43" s="245"/>
+      <c r="R43" s="259"/>
       <c r="S43" s="112"/>
       <c r="T43" s="112"/>
       <c r="U43" s="112"/>
@@ -31842,9 +31842,9 @@
     </row>
     <row r="44" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="112"/>
-      <c r="B44" s="252"/>
-      <c r="C44" s="252"/>
-      <c r="D44" s="252"/>
+      <c r="B44" s="254"/>
+      <c r="C44" s="254"/>
+      <c r="D44" s="254"/>
       <c r="E44" s="22" t="s">
         <v>135</v>
       </c>
@@ -31861,7 +31861,7 @@
       <c r="J44" s="141" t="s">
         <v>136</v>
       </c>
-      <c r="K44" s="247"/>
+      <c r="K44" s="261"/>
       <c r="L44" s="141" t="s">
         <v>136</v>
       </c>
@@ -31874,9 +31874,9 @@
       <c r="O44" s="141" t="s">
         <v>136</v>
       </c>
-      <c r="P44" s="247"/>
-      <c r="Q44" s="250"/>
-      <c r="R44" s="245"/>
+      <c r="P44" s="261"/>
+      <c r="Q44" s="264"/>
+      <c r="R44" s="259"/>
       <c r="S44" s="112"/>
       <c r="T44" s="112"/>
       <c r="U44" s="112"/>
@@ -37444,25 +37444,11 @@
     <protectedRange sqref="Q19" name="Section_B_1_3"/>
   </protectedRanges>
   <mergeCells count="33">
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="G42:K42"/>
-    <mergeCell ref="L42:P42"/>
-    <mergeCell ref="R42:R44"/>
-    <mergeCell ref="P43:P44"/>
-    <mergeCell ref="Q43:Q44"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="Z36:AB36"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="R16:R18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="C16:C18"/>
     <mergeCell ref="D16:D18"/>
@@ -37472,11 +37458,25 @@
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G8"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="Z36:AB36"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="R16:R18"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="G42:K42"/>
+    <mergeCell ref="L42:P42"/>
+    <mergeCell ref="R42:R44"/>
+    <mergeCell ref="P43:P44"/>
+    <mergeCell ref="Q43:Q44"/>
   </mergeCells>
   <conditionalFormatting sqref="E18">
     <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
@@ -37594,15 +37594,15 @@
   <sheetData>
     <row r="2" spans="1:32" s="97" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
       <c r="A2" s="112"/>
-      <c r="B2" s="359" t="s">
+      <c r="B2" s="306" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="360"/>
-      <c r="D2" s="360"/>
-      <c r="E2" s="360"/>
-      <c r="F2" s="360"/>
-      <c r="G2" s="360"/>
-      <c r="H2" s="361"/>
+      <c r="C2" s="307"/>
+      <c r="D2" s="307"/>
+      <c r="E2" s="307"/>
+      <c r="F2" s="307"/>
+      <c r="G2" s="307"/>
+      <c r="H2" s="308"/>
       <c r="I2" s="18"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -37630,15 +37630,15 @@
     </row>
     <row r="4" spans="1:32" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="112"/>
-      <c r="B4" s="223" t="s">
+      <c r="B4" s="219" t="s">
         <v>149</v>
       </c>
-      <c r="C4" s="224"/>
-      <c r="D4" s="224"/>
-      <c r="E4" s="224"/>
-      <c r="F4" s="224"/>
-      <c r="G4" s="224"/>
-      <c r="H4" s="225"/>
+      <c r="C4" s="220"/>
+      <c r="D4" s="220"/>
+      <c r="E4" s="220"/>
+      <c r="F4" s="220"/>
+      <c r="G4" s="220"/>
+      <c r="H4" s="221"/>
       <c r="I4" s="112"/>
       <c r="J4" s="112"/>
       <c r="K4" s="112"/>
@@ -37666,15 +37666,15 @@
     </row>
     <row r="5" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="112"/>
-      <c r="B5" s="375" t="s">
+      <c r="B5" s="329" t="s">
         <v>150</v>
       </c>
-      <c r="C5" s="376"/>
-      <c r="D5" s="376"/>
-      <c r="E5" s="376"/>
-      <c r="F5" s="376"/>
-      <c r="G5" s="376"/>
-      <c r="H5" s="377"/>
+      <c r="C5" s="330"/>
+      <c r="D5" s="330"/>
+      <c r="E5" s="330"/>
+      <c r="F5" s="330"/>
+      <c r="G5" s="330"/>
+      <c r="H5" s="331"/>
       <c r="I5" s="112"/>
       <c r="J5" s="112"/>
       <c r="K5" s="112"/>
@@ -37737,18 +37737,18 @@
       <c r="AF6" s="112"/>
     </row>
     <row r="7" spans="1:32" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="368" t="s">
+      <c r="A7" s="322" t="s">
         <v>152</v>
       </c>
-      <c r="B7" s="378" t="s">
+      <c r="B7" s="332" t="s">
         <v>153</v>
       </c>
-      <c r="C7" s="379"/>
-      <c r="D7" s="379"/>
-      <c r="E7" s="379"/>
-      <c r="F7" s="379"/>
-      <c r="G7" s="379"/>
-      <c r="H7" s="380"/>
+      <c r="C7" s="333"/>
+      <c r="D7" s="333"/>
+      <c r="E7" s="333"/>
+      <c r="F7" s="333"/>
+      <c r="G7" s="333"/>
+      <c r="H7" s="334"/>
       <c r="I7" s="112"/>
       <c r="J7" s="112"/>
       <c r="K7" s="112"/>
@@ -37775,16 +37775,16 @@
       <c r="AF7" s="112"/>
     </row>
     <row r="8" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="368"/>
-      <c r="B8" s="369" t="s">
+      <c r="A8" s="322"/>
+      <c r="B8" s="323" t="s">
         <v>154</v>
       </c>
-      <c r="C8" s="370"/>
-      <c r="D8" s="370"/>
-      <c r="E8" s="370"/>
-      <c r="F8" s="370"/>
-      <c r="G8" s="370"/>
-      <c r="H8" s="371"/>
+      <c r="C8" s="324"/>
+      <c r="D8" s="324"/>
+      <c r="E8" s="324"/>
+      <c r="F8" s="324"/>
+      <c r="G8" s="324"/>
+      <c r="H8" s="325"/>
       <c r="I8" s="112"/>
       <c r="J8" s="112"/>
       <c r="K8" s="112"/>
@@ -37811,16 +37811,16 @@
       <c r="AF8" s="112"/>
     </row>
     <row r="9" spans="1:32" ht="70.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="368"/>
-      <c r="B9" s="381" t="s">
+      <c r="A9" s="322"/>
+      <c r="B9" s="335" t="s">
         <v>155</v>
       </c>
-      <c r="C9" s="382"/>
-      <c r="D9" s="382"/>
-      <c r="E9" s="382"/>
-      <c r="F9" s="382"/>
-      <c r="G9" s="382"/>
-      <c r="H9" s="383"/>
+      <c r="C9" s="336"/>
+      <c r="D9" s="336"/>
+      <c r="E9" s="336"/>
+      <c r="F9" s="336"/>
+      <c r="G9" s="336"/>
+      <c r="H9" s="337"/>
       <c r="I9" s="112"/>
       <c r="J9" s="112"/>
       <c r="K9" s="112"/>
@@ -37847,7 +37847,7 @@
       <c r="AF9" s="112"/>
     </row>
     <row r="10" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="368"/>
+      <c r="A10" s="322"/>
       <c r="B10" s="112"/>
       <c r="C10" s="112"/>
       <c r="D10" s="112"/>
@@ -37881,7 +37881,7 @@
       <c r="AF10" s="112"/>
     </row>
     <row r="11" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="368"/>
+      <c r="A11" s="322"/>
       <c r="B11" s="169" t="s">
         <v>259</v>
       </c>
@@ -37989,18 +37989,18 @@
       <c r="AF13" s="112"/>
     </row>
     <row r="14" spans="1:32" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="384" t="s">
+      <c r="A14" s="338" t="s">
         <v>158</v>
       </c>
-      <c r="B14" s="365" t="s">
+      <c r="B14" s="319" t="s">
         <v>159</v>
       </c>
-      <c r="C14" s="366"/>
-      <c r="D14" s="366"/>
-      <c r="E14" s="366"/>
-      <c r="F14" s="366"/>
-      <c r="G14" s="366"/>
-      <c r="H14" s="367"/>
+      <c r="C14" s="320"/>
+      <c r="D14" s="320"/>
+      <c r="E14" s="320"/>
+      <c r="F14" s="320"/>
+      <c r="G14" s="320"/>
+      <c r="H14" s="321"/>
       <c r="I14" s="112"/>
       <c r="J14" s="112"/>
       <c r="K14" s="112"/>
@@ -38027,16 +38027,16 @@
       <c r="AF14" s="112"/>
     </row>
     <row r="15" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="384"/>
-      <c r="B15" s="372" t="s">
+      <c r="A15" s="338"/>
+      <c r="B15" s="326" t="s">
         <v>160</v>
       </c>
-      <c r="C15" s="373"/>
-      <c r="D15" s="373"/>
-      <c r="E15" s="373"/>
-      <c r="F15" s="373"/>
-      <c r="G15" s="373"/>
-      <c r="H15" s="374"/>
+      <c r="C15" s="327"/>
+      <c r="D15" s="327"/>
+      <c r="E15" s="327"/>
+      <c r="F15" s="327"/>
+      <c r="G15" s="327"/>
+      <c r="H15" s="328"/>
       <c r="I15" s="112"/>
       <c r="J15" s="112"/>
       <c r="K15" s="112"/>
@@ -38063,7 +38063,7 @@
       <c r="AF15" s="112"/>
     </row>
     <row r="16" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="384"/>
+      <c r="A16" s="338"/>
       <c r="B16" s="340" t="s">
         <v>161</v>
       </c>
@@ -38099,7 +38099,7 @@
       <c r="AF16" s="112"/>
     </row>
     <row r="17" spans="1:32" s="97" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="384"/>
+      <c r="A17" s="338"/>
       <c r="B17" s="171" t="s">
         <v>162</v>
       </c>
@@ -38135,7 +38135,7 @@
       <c r="AF17" s="3"/>
     </row>
     <row r="18" spans="1:32" s="97" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="384"/>
+      <c r="A18" s="338"/>
       <c r="B18" s="128">
         <v>120</v>
       </c>
@@ -38243,18 +38243,18 @@
       <c r="AF20" s="3"/>
     </row>
     <row r="21" spans="1:32" s="97" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="384" t="s">
+      <c r="A21" s="338" t="s">
         <v>165</v>
       </c>
-      <c r="B21" s="365" t="s">
+      <c r="B21" s="319" t="s">
         <v>166</v>
       </c>
-      <c r="C21" s="366"/>
-      <c r="D21" s="366"/>
-      <c r="E21" s="366"/>
-      <c r="F21" s="366"/>
-      <c r="G21" s="366"/>
-      <c r="H21" s="367"/>
+      <c r="C21" s="320"/>
+      <c r="D21" s="320"/>
+      <c r="E21" s="320"/>
+      <c r="F21" s="320"/>
+      <c r="G21" s="320"/>
+      <c r="H21" s="321"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -38281,16 +38281,16 @@
       <c r="AF21" s="3"/>
     </row>
     <row r="22" spans="1:32" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="384"/>
-      <c r="B22" s="372" t="s">
+      <c r="A22" s="338"/>
+      <c r="B22" s="326" t="s">
         <v>167</v>
       </c>
-      <c r="C22" s="373"/>
-      <c r="D22" s="373"/>
-      <c r="E22" s="373"/>
-      <c r="F22" s="373"/>
-      <c r="G22" s="373"/>
-      <c r="H22" s="374"/>
+      <c r="C22" s="327"/>
+      <c r="D22" s="327"/>
+      <c r="E22" s="327"/>
+      <c r="F22" s="327"/>
+      <c r="G22" s="327"/>
+      <c r="H22" s="328"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -38317,16 +38317,16 @@
       <c r="AF22" s="3"/>
     </row>
     <row r="23" spans="1:32" s="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="384"/>
-      <c r="B23" s="343" t="s">
+      <c r="A23" s="338"/>
+      <c r="B23" s="309" t="s">
         <v>161</v>
       </c>
-      <c r="C23" s="344"/>
-      <c r="D23" s="344"/>
-      <c r="E23" s="344"/>
-      <c r="F23" s="344"/>
-      <c r="G23" s="344"/>
-      <c r="H23" s="345"/>
+      <c r="C23" s="310"/>
+      <c r="D23" s="310"/>
+      <c r="E23" s="310"/>
+      <c r="F23" s="310"/>
+      <c r="G23" s="310"/>
+      <c r="H23" s="311"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -38353,7 +38353,7 @@
       <c r="AF23" s="3"/>
     </row>
     <row r="24" spans="1:32" s="97" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="384"/>
+      <c r="A24" s="338"/>
       <c r="B24" s="171" t="s">
         <v>162</v>
       </c>
@@ -38389,7 +38389,7 @@
       <c r="AF24" s="3"/>
     </row>
     <row r="25" spans="1:32" s="97" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="384"/>
+      <c r="A25" s="338"/>
       <c r="B25" s="128">
         <v>119</v>
       </c>
@@ -38497,18 +38497,18 @@
       <c r="AF27" s="3"/>
     </row>
     <row r="28" spans="1:32" s="97" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="385" t="s">
+      <c r="A28" s="339" t="s">
         <v>170</v>
       </c>
-      <c r="B28" s="365" t="s">
+      <c r="B28" s="319" t="s">
         <v>171</v>
       </c>
-      <c r="C28" s="366"/>
-      <c r="D28" s="366"/>
-      <c r="E28" s="366"/>
-      <c r="F28" s="366"/>
-      <c r="G28" s="366"/>
-      <c r="H28" s="367"/>
+      <c r="C28" s="320"/>
+      <c r="D28" s="320"/>
+      <c r="E28" s="320"/>
+      <c r="F28" s="320"/>
+      <c r="G28" s="320"/>
+      <c r="H28" s="321"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
@@ -38535,16 +38535,16 @@
       <c r="AF28" s="3"/>
     </row>
     <row r="29" spans="1:32" s="97" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="385"/>
-      <c r="B29" s="372" t="s">
+      <c r="A29" s="339"/>
+      <c r="B29" s="326" t="s">
         <v>172</v>
       </c>
-      <c r="C29" s="373"/>
-      <c r="D29" s="373"/>
-      <c r="E29" s="373"/>
-      <c r="F29" s="373"/>
-      <c r="G29" s="373"/>
-      <c r="H29" s="374"/>
+      <c r="C29" s="327"/>
+      <c r="D29" s="327"/>
+      <c r="E29" s="327"/>
+      <c r="F29" s="327"/>
+      <c r="G29" s="327"/>
+      <c r="H29" s="328"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
@@ -38571,16 +38571,16 @@
       <c r="AF29" s="3"/>
     </row>
     <row r="30" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="385"/>
-      <c r="B30" s="343" t="s">
+      <c r="A30" s="339"/>
+      <c r="B30" s="309" t="s">
         <v>161</v>
       </c>
-      <c r="C30" s="344"/>
-      <c r="D30" s="344"/>
-      <c r="E30" s="344"/>
-      <c r="F30" s="344"/>
-      <c r="G30" s="344"/>
-      <c r="H30" s="345"/>
+      <c r="C30" s="310"/>
+      <c r="D30" s="310"/>
+      <c r="E30" s="310"/>
+      <c r="F30" s="310"/>
+      <c r="G30" s="310"/>
+      <c r="H30" s="311"/>
       <c r="I30" s="112"/>
       <c r="J30" s="112"/>
       <c r="K30" s="112"/>
@@ -38607,16 +38607,16 @@
       <c r="AF30" s="112"/>
     </row>
     <row r="31" spans="1:32" ht="239.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="385"/>
-      <c r="B31" s="326" t="s">
+      <c r="A31" s="339"/>
+      <c r="B31" s="312" t="s">
         <v>1089</v>
       </c>
-      <c r="C31" s="222"/>
-      <c r="D31" s="222"/>
-      <c r="E31" s="327"/>
-      <c r="F31" s="327"/>
-      <c r="G31" s="327"/>
-      <c r="H31" s="328"/>
+      <c r="C31" s="231"/>
+      <c r="D31" s="231"/>
+      <c r="E31" s="313"/>
+      <c r="F31" s="313"/>
+      <c r="G31" s="313"/>
+      <c r="H31" s="314"/>
       <c r="I31" s="112"/>
       <c r="J31" s="112"/>
       <c r="K31" s="112"/>
@@ -38643,13 +38643,13 @@
       <c r="AF31" s="112"/>
     </row>
     <row r="32" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="385"/>
-      <c r="B32" s="221" t="s">
+      <c r="A32" s="339"/>
+      <c r="B32" s="218" t="s">
         <v>77</v>
       </c>
-      <c r="C32" s="221"/>
-      <c r="D32" s="221"/>
-      <c r="E32" s="221"/>
+      <c r="C32" s="218"/>
+      <c r="D32" s="218"/>
+      <c r="E32" s="218"/>
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
       <c r="H32" s="59" t="s">
@@ -38717,18 +38717,18 @@
       <c r="AF33" s="112"/>
     </row>
     <row r="34" spans="1:32" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="368" t="s">
+      <c r="A34" s="322" t="s">
         <v>175</v>
       </c>
-      <c r="B34" s="365" t="s">
+      <c r="B34" s="319" t="s">
         <v>176</v>
       </c>
-      <c r="C34" s="366"/>
-      <c r="D34" s="366"/>
-      <c r="E34" s="366"/>
-      <c r="F34" s="366"/>
-      <c r="G34" s="366"/>
-      <c r="H34" s="367"/>
+      <c r="C34" s="320"/>
+      <c r="D34" s="320"/>
+      <c r="E34" s="320"/>
+      <c r="F34" s="320"/>
+      <c r="G34" s="320"/>
+      <c r="H34" s="321"/>
       <c r="I34" s="112"/>
       <c r="J34" s="112"/>
       <c r="K34" s="112"/>
@@ -38755,16 +38755,16 @@
       <c r="AF34" s="112"/>
     </row>
     <row r="35" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="368"/>
-      <c r="B35" s="372" t="s">
+      <c r="A35" s="322"/>
+      <c r="B35" s="326" t="s">
         <v>177</v>
       </c>
-      <c r="C35" s="373"/>
-      <c r="D35" s="373"/>
-      <c r="E35" s="373"/>
-      <c r="F35" s="373"/>
-      <c r="G35" s="373"/>
-      <c r="H35" s="374"/>
+      <c r="C35" s="327"/>
+      <c r="D35" s="327"/>
+      <c r="E35" s="327"/>
+      <c r="F35" s="327"/>
+      <c r="G35" s="327"/>
+      <c r="H35" s="328"/>
       <c r="I35" s="112"/>
       <c r="J35" s="112"/>
       <c r="K35" s="112"/>
@@ -38791,16 +38791,16 @@
       <c r="AF35" s="112"/>
     </row>
     <row r="36" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="368"/>
+      <c r="A36" s="322"/>
       <c r="B36" s="356" t="s">
         <v>178</v>
       </c>
       <c r="C36" s="357"/>
       <c r="D36" s="357"/>
-      <c r="E36" s="344"/>
-      <c r="F36" s="344"/>
-      <c r="G36" s="344"/>
-      <c r="H36" s="345"/>
+      <c r="E36" s="310"/>
+      <c r="F36" s="310"/>
+      <c r="G36" s="310"/>
+      <c r="H36" s="311"/>
       <c r="I36" s="112"/>
       <c r="J36" s="112"/>
       <c r="K36" s="112"/>
@@ -38827,7 +38827,7 @@
       <c r="AF36" s="112"/>
     </row>
     <row r="37" spans="1:32" s="97" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="368"/>
+      <c r="A37" s="322"/>
       <c r="B37" s="171" t="s">
         <v>162</v>
       </c>
@@ -38863,7 +38863,7 @@
       <c r="AF37" s="3"/>
     </row>
     <row r="38" spans="1:32" s="97" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="368"/>
+      <c r="A38" s="322"/>
       <c r="B38" s="128">
         <v>120</v>
       </c>
@@ -38936,22 +38936,22 @@
     </row>
     <row r="40" spans="1:32" s="107" customFormat="1" ht="21" x14ac:dyDescent="0.5">
       <c r="A40" s="105"/>
-      <c r="B40" s="346" t="s">
+      <c r="B40" s="343" t="s">
         <v>180</v>
       </c>
-      <c r="C40" s="347"/>
-      <c r="D40" s="347"/>
-      <c r="E40" s="347"/>
-      <c r="F40" s="347"/>
-      <c r="G40" s="347"/>
-      <c r="H40" s="347"/>
-      <c r="I40" s="347"/>
-      <c r="J40" s="347"/>
-      <c r="K40" s="347"/>
-      <c r="L40" s="347"/>
-      <c r="M40" s="347"/>
-      <c r="N40" s="347"/>
-      <c r="O40" s="348"/>
+      <c r="C40" s="344"/>
+      <c r="D40" s="344"/>
+      <c r="E40" s="344"/>
+      <c r="F40" s="344"/>
+      <c r="G40" s="344"/>
+      <c r="H40" s="344"/>
+      <c r="I40" s="344"/>
+      <c r="J40" s="344"/>
+      <c r="K40" s="344"/>
+      <c r="L40" s="344"/>
+      <c r="M40" s="344"/>
+      <c r="N40" s="344"/>
+      <c r="O40" s="345"/>
       <c r="P40" s="112"/>
       <c r="Q40" s="105"/>
       <c r="R40" s="105"/>
@@ -39008,28 +39008,28 @@
     </row>
     <row r="42" spans="1:32" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="112"/>
-      <c r="B42" s="329" t="s">
+      <c r="B42" s="364" t="s">
         <v>182</v>
       </c>
-      <c r="C42" s="255" t="s">
+      <c r="C42" s="265" t="s">
         <v>125</v>
       </c>
-      <c r="D42" s="256"/>
-      <c r="E42" s="255" t="s">
+      <c r="D42" s="266"/>
+      <c r="E42" s="265" t="s">
         <v>126</v>
       </c>
-      <c r="F42" s="256"/>
-      <c r="G42" s="256"/>
-      <c r="H42" s="256"/>
+      <c r="F42" s="266"/>
+      <c r="G42" s="266"/>
+      <c r="H42" s="266"/>
       <c r="I42" s="358"/>
-      <c r="J42" s="256" t="s">
+      <c r="J42" s="266" t="s">
         <v>127</v>
       </c>
-      <c r="K42" s="256"/>
-      <c r="L42" s="256"/>
-      <c r="M42" s="256"/>
-      <c r="N42" s="257"/>
-      <c r="O42" s="353" t="s">
+      <c r="K42" s="266"/>
+      <c r="L42" s="266"/>
+      <c r="M42" s="266"/>
+      <c r="N42" s="267"/>
+      <c r="O42" s="352" t="s">
         <v>129</v>
       </c>
       <c r="P42" s="112"/>
@@ -39052,11 +39052,11 @@
     </row>
     <row r="43" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="112"/>
-      <c r="B43" s="330"/>
+      <c r="B43" s="365"/>
       <c r="C43" s="173" t="s">
         <v>130</v>
       </c>
-      <c r="D43" s="355" t="s">
+      <c r="D43" s="318" t="s">
         <v>131</v>
       </c>
       <c r="E43" s="173" t="s">
@@ -39071,7 +39071,7 @@
       <c r="H43" s="174" t="s">
         <v>130</v>
       </c>
-      <c r="I43" s="355" t="s">
+      <c r="I43" s="318" t="s">
         <v>131</v>
       </c>
       <c r="J43" s="173" t="s">
@@ -39086,10 +39086,10 @@
       <c r="M43" s="174" t="s">
         <v>130</v>
       </c>
-      <c r="N43" s="355" t="s">
+      <c r="N43" s="318" t="s">
         <v>131</v>
       </c>
-      <c r="O43" s="354"/>
+      <c r="O43" s="353"/>
       <c r="P43" s="112"/>
       <c r="Q43" s="112"/>
       <c r="R43" s="112"/>
@@ -39110,11 +39110,11 @@
     </row>
     <row r="44" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="112"/>
-      <c r="B44" s="330"/>
+      <c r="B44" s="365"/>
       <c r="C44" s="175" t="s">
         <v>135</v>
       </c>
-      <c r="D44" s="275"/>
+      <c r="D44" s="281"/>
       <c r="E44" s="176" t="s">
         <v>136</v>
       </c>
@@ -39127,7 +39127,7 @@
       <c r="H44" s="176" t="s">
         <v>136</v>
       </c>
-      <c r="I44" s="275"/>
+      <c r="I44" s="281"/>
       <c r="J44" s="175" t="s">
         <v>136</v>
       </c>
@@ -39140,8 +39140,8 @@
       <c r="M44" s="176" t="s">
         <v>136</v>
       </c>
-      <c r="N44" s="275"/>
-      <c r="O44" s="354"/>
+      <c r="N44" s="281"/>
+      <c r="O44" s="353"/>
       <c r="P44" s="112"/>
       <c r="Q44" s="112"/>
       <c r="R44" s="112"/>
@@ -39737,15 +39737,15 @@
     </row>
     <row r="54" spans="1:32" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A54" s="112"/>
-      <c r="B54" s="337" t="s">
+      <c r="B54" s="372" t="s">
         <v>192</v>
       </c>
-      <c r="C54" s="338"/>
-      <c r="D54" s="338"/>
-      <c r="E54" s="338"/>
-      <c r="F54" s="338"/>
-      <c r="G54" s="338"/>
-      <c r="H54" s="339"/>
+      <c r="C54" s="373"/>
+      <c r="D54" s="373"/>
+      <c r="E54" s="373"/>
+      <c r="F54" s="373"/>
+      <c r="G54" s="373"/>
+      <c r="H54" s="374"/>
       <c r="I54" s="112"/>
       <c r="J54" s="112"/>
       <c r="K54" s="112"/>
@@ -39773,15 +39773,15 @@
     </row>
     <row r="55" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="112"/>
-      <c r="B55" s="331" t="s">
+      <c r="B55" s="366" t="s">
         <v>193</v>
       </c>
-      <c r="C55" s="332"/>
-      <c r="D55" s="332"/>
-      <c r="E55" s="332"/>
-      <c r="F55" s="332"/>
-      <c r="G55" s="332"/>
-      <c r="H55" s="333"/>
+      <c r="C55" s="367"/>
+      <c r="D55" s="367"/>
+      <c r="E55" s="367"/>
+      <c r="F55" s="367"/>
+      <c r="G55" s="367"/>
+      <c r="H55" s="368"/>
       <c r="I55" s="112"/>
       <c r="J55" s="112"/>
       <c r="K55" s="112"/>
@@ -39809,15 +39809,15 @@
     </row>
     <row r="56" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="112"/>
-      <c r="B56" s="350" t="s">
+      <c r="B56" s="348" t="s">
         <v>194</v>
       </c>
-      <c r="C56" s="351"/>
-      <c r="D56" s="351"/>
-      <c r="E56" s="351"/>
-      <c r="F56" s="351"/>
-      <c r="G56" s="351"/>
-      <c r="H56" s="352"/>
+      <c r="C56" s="349"/>
+      <c r="D56" s="349"/>
+      <c r="E56" s="349"/>
+      <c r="F56" s="349"/>
+      <c r="G56" s="349"/>
+      <c r="H56" s="350"/>
       <c r="I56" s="112"/>
       <c r="J56" s="112"/>
       <c r="K56" s="112"/>
@@ -39845,15 +39845,15 @@
     </row>
     <row r="57" spans="1:32" ht="238.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="112"/>
-      <c r="B57" s="326" t="s">
+      <c r="B57" s="312" t="s">
         <v>1090</v>
       </c>
-      <c r="C57" s="222"/>
-      <c r="D57" s="222"/>
-      <c r="E57" s="327"/>
-      <c r="F57" s="327"/>
-      <c r="G57" s="327"/>
-      <c r="H57" s="328"/>
+      <c r="C57" s="231"/>
+      <c r="D57" s="231"/>
+      <c r="E57" s="313"/>
+      <c r="F57" s="313"/>
+      <c r="G57" s="313"/>
+      <c r="H57" s="314"/>
       <c r="I57" s="112"/>
       <c r="J57" s="112"/>
       <c r="K57" s="112"/>
@@ -39881,12 +39881,12 @@
     </row>
     <row r="58" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="112"/>
-      <c r="B58" s="221" t="s">
+      <c r="B58" s="218" t="s">
         <v>77</v>
       </c>
-      <c r="C58" s="221"/>
-      <c r="D58" s="221"/>
-      <c r="E58" s="221"/>
+      <c r="C58" s="218"/>
+      <c r="D58" s="218"/>
+      <c r="E58" s="218"/>
       <c r="F58" s="15"/>
       <c r="G58" s="15"/>
       <c r="H58" s="59" t="s">
@@ -39955,15 +39955,15 @@
     </row>
     <row r="60" spans="1:32" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A60" s="112"/>
-      <c r="B60" s="362" t="s">
+      <c r="B60" s="315" t="s">
         <v>197</v>
       </c>
-      <c r="C60" s="363"/>
-      <c r="D60" s="363"/>
-      <c r="E60" s="363"/>
-      <c r="F60" s="363"/>
-      <c r="G60" s="363"/>
-      <c r="H60" s="364"/>
+      <c r="C60" s="316"/>
+      <c r="D60" s="316"/>
+      <c r="E60" s="316"/>
+      <c r="F60" s="316"/>
+      <c r="G60" s="316"/>
+      <c r="H60" s="317"/>
       <c r="I60" s="112"/>
       <c r="J60" s="112"/>
       <c r="K60" s="112"/>
@@ -39991,15 +39991,15 @@
     </row>
     <row r="61" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="112"/>
-      <c r="B61" s="334" t="s">
+      <c r="B61" s="369" t="s">
         <v>198</v>
       </c>
-      <c r="C61" s="335"/>
-      <c r="D61" s="335"/>
-      <c r="E61" s="335"/>
-      <c r="F61" s="335"/>
-      <c r="G61" s="335"/>
-      <c r="H61" s="336"/>
+      <c r="C61" s="370"/>
+      <c r="D61" s="370"/>
+      <c r="E61" s="370"/>
+      <c r="F61" s="370"/>
+      <c r="G61" s="370"/>
+      <c r="H61" s="371"/>
       <c r="I61" s="112"/>
       <c r="J61" s="112"/>
       <c r="K61" s="112"/>
@@ -40027,15 +40027,15 @@
     </row>
     <row r="62" spans="1:32" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="112"/>
-      <c r="B62" s="323" t="s">
+      <c r="B62" s="361" t="s">
         <v>199</v>
       </c>
-      <c r="C62" s="324"/>
-      <c r="D62" s="324"/>
-      <c r="E62" s="324"/>
-      <c r="F62" s="324"/>
-      <c r="G62" s="324"/>
-      <c r="H62" s="325"/>
+      <c r="C62" s="362"/>
+      <c r="D62" s="362"/>
+      <c r="E62" s="362"/>
+      <c r="F62" s="362"/>
+      <c r="G62" s="362"/>
+      <c r="H62" s="363"/>
       <c r="I62" s="112"/>
       <c r="J62" s="112"/>
       <c r="K62" s="112"/>
@@ -40063,15 +40063,15 @@
     </row>
     <row r="63" spans="1:32" ht="238.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="112"/>
-      <c r="B63" s="326" t="s">
+      <c r="B63" s="312" t="s">
         <v>1091</v>
       </c>
-      <c r="C63" s="222"/>
-      <c r="D63" s="222"/>
-      <c r="E63" s="327"/>
-      <c r="F63" s="327"/>
-      <c r="G63" s="327"/>
-      <c r="H63" s="328"/>
+      <c r="C63" s="231"/>
+      <c r="D63" s="231"/>
+      <c r="E63" s="313"/>
+      <c r="F63" s="313"/>
+      <c r="G63" s="313"/>
+      <c r="H63" s="314"/>
       <c r="I63" s="112"/>
       <c r="J63" s="112"/>
       <c r="K63" s="112"/>
@@ -40282,41 +40282,41 @@
       <c r="B69" s="178" t="s">
         <v>205</v>
       </c>
-      <c r="C69" s="314" t="s">
+      <c r="C69" s="354" t="s">
         <v>206</v>
       </c>
-      <c r="D69" s="315"/>
-      <c r="E69" s="314" t="s">
+      <c r="D69" s="355"/>
+      <c r="E69" s="354" t="s">
         <v>207</v>
       </c>
-      <c r="F69" s="315"/>
-      <c r="G69" s="316" t="s">
+      <c r="F69" s="355"/>
+      <c r="G69" s="346" t="s">
         <v>208</v>
       </c>
-      <c r="H69" s="317"/>
-      <c r="I69" s="314" t="s">
+      <c r="H69" s="351"/>
+      <c r="I69" s="354" t="s">
         <v>209</v>
       </c>
-      <c r="J69" s="315"/>
+      <c r="J69" s="355"/>
       <c r="K69" s="130" t="s">
         <v>210</v>
       </c>
-      <c r="L69" s="312" t="s">
+      <c r="L69" s="383" t="s">
         <v>211</v>
       </c>
-      <c r="M69" s="313"/>
-      <c r="N69" s="316" t="s">
+      <c r="M69" s="384"/>
+      <c r="N69" s="346" t="s">
         <v>212</v>
       </c>
-      <c r="O69" s="317"/>
-      <c r="P69" s="314" t="s">
+      <c r="O69" s="351"/>
+      <c r="P69" s="354" t="s">
         <v>213</v>
       </c>
-      <c r="Q69" s="315"/>
-      <c r="R69" s="316" t="s">
+      <c r="Q69" s="355"/>
+      <c r="R69" s="346" t="s">
         <v>214</v>
       </c>
-      <c r="S69" s="349"/>
+      <c r="S69" s="347"/>
       <c r="T69" s="112"/>
       <c r="U69" s="112"/>
       <c r="V69" s="112"/>
@@ -40336,41 +40336,41 @@
       <c r="B70" s="123">
         <v>1</v>
       </c>
-      <c r="C70" s="310" t="s">
+      <c r="C70" s="379" t="s">
         <v>422</v>
       </c>
-      <c r="D70" s="310"/>
-      <c r="E70" s="311" t="s">
+      <c r="D70" s="379"/>
+      <c r="E70" s="359" t="s">
         <v>301</v>
       </c>
-      <c r="F70" s="311"/>
-      <c r="G70" s="310" t="s">
+      <c r="F70" s="359"/>
+      <c r="G70" s="379" t="s">
         <v>419</v>
       </c>
-      <c r="H70" s="310"/>
-      <c r="I70" s="311" t="s">
+      <c r="H70" s="379"/>
+      <c r="I70" s="359" t="s">
         <v>304</v>
       </c>
-      <c r="J70" s="311"/>
+      <c r="J70" s="359"/>
       <c r="K70" s="114">
         <v>20</v>
       </c>
-      <c r="L70" s="318" t="s">
+      <c r="L70" s="385" t="s">
         <v>1092</v>
       </c>
-      <c r="M70" s="318"/>
-      <c r="N70" s="321" t="s">
+      <c r="M70" s="385"/>
+      <c r="N70" s="376" t="s">
         <v>1093</v>
       </c>
-      <c r="O70" s="321"/>
-      <c r="P70" s="310" t="s">
+      <c r="O70" s="376"/>
+      <c r="P70" s="379" t="s">
         <v>135</v>
       </c>
-      <c r="Q70" s="310"/>
-      <c r="R70" s="311" t="s">
+      <c r="Q70" s="379"/>
+      <c r="R70" s="359" t="s">
         <v>6</v>
       </c>
-      <c r="S70" s="322"/>
+      <c r="S70" s="378"/>
       <c r="T70" s="112"/>
       <c r="U70" s="112"/>
       <c r="V70" s="112"/>
@@ -40388,45 +40388,45 @@
     <row r="71" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A71" s="112"/>
       <c r="B71" s="194"/>
-      <c r="C71" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="D71" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="E71" s="308" t="s">
-        <v>90</v>
-      </c>
-      <c r="F71" s="308" t="s">
-        <v>90</v>
-      </c>
-      <c r="G71" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="H71" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="I71" s="308" t="s">
-        <v>90</v>
-      </c>
-      <c r="J71" s="308" t="s">
+      <c r="C71" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="D71" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="E71" s="360" t="s">
+        <v>90</v>
+      </c>
+      <c r="F71" s="360" t="s">
+        <v>90</v>
+      </c>
+      <c r="G71" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="H71" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="I71" s="360" t="s">
+        <v>90</v>
+      </c>
+      <c r="J71" s="360" t="s">
         <v>90</v>
       </c>
       <c r="K71" s="193"/>
-      <c r="L71" s="307"/>
-      <c r="M71" s="307"/>
-      <c r="N71" s="308"/>
-      <c r="O71" s="308"/>
-      <c r="P71" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q71" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="R71" s="308" t="s">
-        <v>90</v>
-      </c>
-      <c r="S71" s="309" t="s">
+      <c r="L71" s="375"/>
+      <c r="M71" s="375"/>
+      <c r="N71" s="360"/>
+      <c r="O71" s="360"/>
+      <c r="P71" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q71" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="R71" s="360" t="s">
+        <v>90</v>
+      </c>
+      <c r="S71" s="377" t="s">
         <v>90</v>
       </c>
       <c r="T71" s="112"/>
@@ -40446,45 +40446,45 @@
     <row r="72" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A72" s="112"/>
       <c r="B72" s="194"/>
-      <c r="C72" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="D72" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="E72" s="308" t="s">
-        <v>90</v>
-      </c>
-      <c r="F72" s="308" t="s">
-        <v>90</v>
-      </c>
-      <c r="G72" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="H72" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="I72" s="308" t="s">
-        <v>90</v>
-      </c>
-      <c r="J72" s="308" t="s">
+      <c r="C72" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="D72" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="E72" s="360" t="s">
+        <v>90</v>
+      </c>
+      <c r="F72" s="360" t="s">
+        <v>90</v>
+      </c>
+      <c r="G72" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="H72" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="I72" s="360" t="s">
+        <v>90</v>
+      </c>
+      <c r="J72" s="360" t="s">
         <v>90</v>
       </c>
       <c r="K72" s="193"/>
-      <c r="L72" s="307"/>
-      <c r="M72" s="307"/>
-      <c r="N72" s="308"/>
-      <c r="O72" s="308"/>
-      <c r="P72" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q72" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="R72" s="308" t="s">
-        <v>90</v>
-      </c>
-      <c r="S72" s="309" t="s">
+      <c r="L72" s="375"/>
+      <c r="M72" s="375"/>
+      <c r="N72" s="360"/>
+      <c r="O72" s="360"/>
+      <c r="P72" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q72" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="R72" s="360" t="s">
+        <v>90</v>
+      </c>
+      <c r="S72" s="377" t="s">
         <v>90</v>
       </c>
       <c r="T72" s="112"/>
@@ -40504,45 +40504,45 @@
     <row r="73" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A73" s="112"/>
       <c r="B73" s="194"/>
-      <c r="C73" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="D73" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="E73" s="308" t="s">
-        <v>90</v>
-      </c>
-      <c r="F73" s="308" t="s">
-        <v>90</v>
-      </c>
-      <c r="G73" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="H73" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="I73" s="308" t="s">
-        <v>90</v>
-      </c>
-      <c r="J73" s="308" t="s">
+      <c r="C73" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="D73" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="E73" s="360" t="s">
+        <v>90</v>
+      </c>
+      <c r="F73" s="360" t="s">
+        <v>90</v>
+      </c>
+      <c r="G73" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="H73" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="I73" s="360" t="s">
+        <v>90</v>
+      </c>
+      <c r="J73" s="360" t="s">
         <v>90</v>
       </c>
       <c r="K73" s="193"/>
-      <c r="L73" s="307"/>
-      <c r="M73" s="307"/>
-      <c r="N73" s="308"/>
-      <c r="O73" s="308"/>
-      <c r="P73" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q73" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="R73" s="308" t="s">
-        <v>90</v>
-      </c>
-      <c r="S73" s="309" t="s">
+      <c r="L73" s="375"/>
+      <c r="M73" s="375"/>
+      <c r="N73" s="360"/>
+      <c r="O73" s="360"/>
+      <c r="P73" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q73" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="R73" s="360" t="s">
+        <v>90</v>
+      </c>
+      <c r="S73" s="377" t="s">
         <v>90</v>
       </c>
       <c r="T73" s="112"/>
@@ -40562,45 +40562,45 @@
     <row r="74" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A74" s="112"/>
       <c r="B74" s="194"/>
-      <c r="C74" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="D74" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="E74" s="308" t="s">
-        <v>90</v>
-      </c>
-      <c r="F74" s="308" t="s">
-        <v>90</v>
-      </c>
-      <c r="G74" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="H74" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="I74" s="308" t="s">
-        <v>90</v>
-      </c>
-      <c r="J74" s="308" t="s">
+      <c r="C74" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="D74" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="E74" s="360" t="s">
+        <v>90</v>
+      </c>
+      <c r="F74" s="360" t="s">
+        <v>90</v>
+      </c>
+      <c r="G74" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="H74" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="I74" s="360" t="s">
+        <v>90</v>
+      </c>
+      <c r="J74" s="360" t="s">
         <v>90</v>
       </c>
       <c r="K74" s="193"/>
-      <c r="L74" s="307"/>
-      <c r="M74" s="307"/>
-      <c r="N74" s="308"/>
-      <c r="O74" s="308"/>
-      <c r="P74" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q74" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="R74" s="308" t="s">
-        <v>90</v>
-      </c>
-      <c r="S74" s="309" t="s">
+      <c r="L74" s="375"/>
+      <c r="M74" s="375"/>
+      <c r="N74" s="360"/>
+      <c r="O74" s="360"/>
+      <c r="P74" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q74" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="R74" s="360" t="s">
+        <v>90</v>
+      </c>
+      <c r="S74" s="377" t="s">
         <v>90</v>
       </c>
       <c r="T74" s="112"/>
@@ -40620,45 +40620,45 @@
     <row r="75" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A75" s="112"/>
       <c r="B75" s="194"/>
-      <c r="C75" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="D75" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="E75" s="308" t="s">
-        <v>90</v>
-      </c>
-      <c r="F75" s="308" t="s">
-        <v>90</v>
-      </c>
-      <c r="G75" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="H75" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="I75" s="308" t="s">
-        <v>90</v>
-      </c>
-      <c r="J75" s="308" t="s">
+      <c r="C75" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="D75" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="E75" s="360" t="s">
+        <v>90</v>
+      </c>
+      <c r="F75" s="360" t="s">
+        <v>90</v>
+      </c>
+      <c r="G75" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="H75" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="I75" s="360" t="s">
+        <v>90</v>
+      </c>
+      <c r="J75" s="360" t="s">
         <v>90</v>
       </c>
       <c r="K75" s="193"/>
-      <c r="L75" s="307"/>
-      <c r="M75" s="307"/>
-      <c r="N75" s="308"/>
-      <c r="O75" s="308"/>
-      <c r="P75" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q75" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="R75" s="308" t="s">
-        <v>90</v>
-      </c>
-      <c r="S75" s="309" t="s">
+      <c r="L75" s="375"/>
+      <c r="M75" s="375"/>
+      <c r="N75" s="360"/>
+      <c r="O75" s="360"/>
+      <c r="P75" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q75" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="R75" s="360" t="s">
+        <v>90</v>
+      </c>
+      <c r="S75" s="377" t="s">
         <v>90</v>
       </c>
       <c r="T75" s="112"/>
@@ -40678,45 +40678,45 @@
     <row r="76" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A76" s="112"/>
       <c r="B76" s="194"/>
-      <c r="C76" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="D76" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="E76" s="308" t="s">
-        <v>90</v>
-      </c>
-      <c r="F76" s="308" t="s">
-        <v>90</v>
-      </c>
-      <c r="G76" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="H76" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="I76" s="308" t="s">
-        <v>90</v>
-      </c>
-      <c r="J76" s="308" t="s">
+      <c r="C76" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="D76" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="E76" s="360" t="s">
+        <v>90</v>
+      </c>
+      <c r="F76" s="360" t="s">
+        <v>90</v>
+      </c>
+      <c r="G76" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="H76" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="I76" s="360" t="s">
+        <v>90</v>
+      </c>
+      <c r="J76" s="360" t="s">
         <v>90</v>
       </c>
       <c r="K76" s="193"/>
-      <c r="L76" s="307"/>
-      <c r="M76" s="307"/>
-      <c r="N76" s="308"/>
-      <c r="O76" s="308"/>
-      <c r="P76" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q76" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="R76" s="308" t="s">
-        <v>90</v>
-      </c>
-      <c r="S76" s="309" t="s">
+      <c r="L76" s="375"/>
+      <c r="M76" s="375"/>
+      <c r="N76" s="360"/>
+      <c r="O76" s="360"/>
+      <c r="P76" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q76" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="R76" s="360" t="s">
+        <v>90</v>
+      </c>
+      <c r="S76" s="377" t="s">
         <v>90</v>
       </c>
       <c r="T76" s="112"/>
@@ -40736,45 +40736,45 @@
     <row r="77" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A77" s="112"/>
       <c r="B77" s="194"/>
-      <c r="C77" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="D77" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="E77" s="308" t="s">
-        <v>90</v>
-      </c>
-      <c r="F77" s="308" t="s">
-        <v>90</v>
-      </c>
-      <c r="G77" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="H77" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="I77" s="308" t="s">
-        <v>90</v>
-      </c>
-      <c r="J77" s="308" t="s">
+      <c r="C77" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="D77" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="E77" s="360" t="s">
+        <v>90</v>
+      </c>
+      <c r="F77" s="360" t="s">
+        <v>90</v>
+      </c>
+      <c r="G77" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="H77" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="I77" s="360" t="s">
+        <v>90</v>
+      </c>
+      <c r="J77" s="360" t="s">
         <v>90</v>
       </c>
       <c r="K77" s="193"/>
-      <c r="L77" s="307"/>
-      <c r="M77" s="307"/>
-      <c r="N77" s="308"/>
-      <c r="O77" s="308"/>
-      <c r="P77" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q77" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="R77" s="308" t="s">
-        <v>90</v>
-      </c>
-      <c r="S77" s="309" t="s">
+      <c r="L77" s="375"/>
+      <c r="M77" s="375"/>
+      <c r="N77" s="360"/>
+      <c r="O77" s="360"/>
+      <c r="P77" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q77" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="R77" s="360" t="s">
+        <v>90</v>
+      </c>
+      <c r="S77" s="377" t="s">
         <v>90</v>
       </c>
       <c r="T77" s="112"/>
@@ -40794,45 +40794,45 @@
     <row r="78" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A78" s="112"/>
       <c r="B78" s="194"/>
-      <c r="C78" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="D78" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="E78" s="308" t="s">
-        <v>90</v>
-      </c>
-      <c r="F78" s="308" t="s">
-        <v>90</v>
-      </c>
-      <c r="G78" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="H78" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="I78" s="308" t="s">
-        <v>90</v>
-      </c>
-      <c r="J78" s="308" t="s">
+      <c r="C78" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="D78" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="E78" s="360" t="s">
+        <v>90</v>
+      </c>
+      <c r="F78" s="360" t="s">
+        <v>90</v>
+      </c>
+      <c r="G78" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="H78" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="I78" s="360" t="s">
+        <v>90</v>
+      </c>
+      <c r="J78" s="360" t="s">
         <v>90</v>
       </c>
       <c r="K78" s="193"/>
-      <c r="L78" s="307"/>
-      <c r="M78" s="307"/>
-      <c r="N78" s="308"/>
-      <c r="O78" s="308"/>
-      <c r="P78" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q78" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="R78" s="308" t="s">
-        <v>90</v>
-      </c>
-      <c r="S78" s="309" t="s">
+      <c r="L78" s="375"/>
+      <c r="M78" s="375"/>
+      <c r="N78" s="360"/>
+      <c r="O78" s="360"/>
+      <c r="P78" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q78" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="R78" s="360" t="s">
+        <v>90</v>
+      </c>
+      <c r="S78" s="377" t="s">
         <v>90</v>
       </c>
       <c r="T78" s="112"/>
@@ -40852,45 +40852,45 @@
     <row r="79" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A79" s="112"/>
       <c r="B79" s="194"/>
-      <c r="C79" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="D79" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="E79" s="308" t="s">
-        <v>90</v>
-      </c>
-      <c r="F79" s="308" t="s">
-        <v>90</v>
-      </c>
-      <c r="G79" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="H79" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="I79" s="308" t="s">
-        <v>90</v>
-      </c>
-      <c r="J79" s="308" t="s">
+      <c r="C79" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="D79" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="E79" s="360" t="s">
+        <v>90</v>
+      </c>
+      <c r="F79" s="360" t="s">
+        <v>90</v>
+      </c>
+      <c r="G79" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="H79" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="I79" s="360" t="s">
+        <v>90</v>
+      </c>
+      <c r="J79" s="360" t="s">
         <v>90</v>
       </c>
       <c r="K79" s="193"/>
-      <c r="L79" s="307"/>
-      <c r="M79" s="307"/>
-      <c r="N79" s="308"/>
-      <c r="O79" s="308"/>
-      <c r="P79" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q79" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="R79" s="308" t="s">
-        <v>90</v>
-      </c>
-      <c r="S79" s="309" t="s">
+      <c r="L79" s="375"/>
+      <c r="M79" s="375"/>
+      <c r="N79" s="360"/>
+      <c r="O79" s="360"/>
+      <c r="P79" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q79" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="R79" s="360" t="s">
+        <v>90</v>
+      </c>
+      <c r="S79" s="377" t="s">
         <v>90</v>
       </c>
       <c r="T79" s="112"/>
@@ -40910,45 +40910,45 @@
     <row r="80" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A80" s="112"/>
       <c r="B80" s="194"/>
-      <c r="C80" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="D80" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="E80" s="308" t="s">
-        <v>90</v>
-      </c>
-      <c r="F80" s="308" t="s">
-        <v>90</v>
-      </c>
-      <c r="G80" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="H80" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="I80" s="308" t="s">
-        <v>90</v>
-      </c>
-      <c r="J80" s="308" t="s">
+      <c r="C80" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="D80" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="E80" s="360" t="s">
+        <v>90</v>
+      </c>
+      <c r="F80" s="360" t="s">
+        <v>90</v>
+      </c>
+      <c r="G80" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="H80" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="I80" s="360" t="s">
+        <v>90</v>
+      </c>
+      <c r="J80" s="360" t="s">
         <v>90</v>
       </c>
       <c r="K80" s="193"/>
-      <c r="L80" s="307"/>
-      <c r="M80" s="307"/>
-      <c r="N80" s="308"/>
-      <c r="O80" s="308"/>
-      <c r="P80" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q80" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="R80" s="308" t="s">
-        <v>90</v>
-      </c>
-      <c r="S80" s="309" t="s">
+      <c r="L80" s="375"/>
+      <c r="M80" s="375"/>
+      <c r="N80" s="360"/>
+      <c r="O80" s="360"/>
+      <c r="P80" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q80" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="R80" s="360" t="s">
+        <v>90</v>
+      </c>
+      <c r="S80" s="377" t="s">
         <v>90</v>
       </c>
       <c r="T80" s="112"/>
@@ -40968,45 +40968,45 @@
     <row r="81" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A81" s="112"/>
       <c r="B81" s="194"/>
-      <c r="C81" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="D81" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="E81" s="308" t="s">
-        <v>90</v>
-      </c>
-      <c r="F81" s="308" t="s">
-        <v>90</v>
-      </c>
-      <c r="G81" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="H81" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="I81" s="308" t="s">
-        <v>90</v>
-      </c>
-      <c r="J81" s="308" t="s">
+      <c r="C81" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="D81" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="E81" s="360" t="s">
+        <v>90</v>
+      </c>
+      <c r="F81" s="360" t="s">
+        <v>90</v>
+      </c>
+      <c r="G81" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="H81" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="I81" s="360" t="s">
+        <v>90</v>
+      </c>
+      <c r="J81" s="360" t="s">
         <v>90</v>
       </c>
       <c r="K81" s="193"/>
-      <c r="L81" s="307"/>
-      <c r="M81" s="307"/>
-      <c r="N81" s="308"/>
-      <c r="O81" s="308"/>
-      <c r="P81" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q81" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="R81" s="308" t="s">
-        <v>90</v>
-      </c>
-      <c r="S81" s="309" t="s">
+      <c r="L81" s="375"/>
+      <c r="M81" s="375"/>
+      <c r="N81" s="360"/>
+      <c r="O81" s="360"/>
+      <c r="P81" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q81" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="R81" s="360" t="s">
+        <v>90</v>
+      </c>
+      <c r="S81" s="377" t="s">
         <v>90</v>
       </c>
       <c r="T81" s="112"/>
@@ -41026,45 +41026,45 @@
     <row r="82" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A82" s="112"/>
       <c r="B82" s="194"/>
-      <c r="C82" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="D82" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="E82" s="308" t="s">
-        <v>90</v>
-      </c>
-      <c r="F82" s="308" t="s">
-        <v>90</v>
-      </c>
-      <c r="G82" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="H82" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="I82" s="308" t="s">
-        <v>90</v>
-      </c>
-      <c r="J82" s="308" t="s">
+      <c r="C82" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="D82" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="E82" s="360" t="s">
+        <v>90</v>
+      </c>
+      <c r="F82" s="360" t="s">
+        <v>90</v>
+      </c>
+      <c r="G82" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="H82" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="I82" s="360" t="s">
+        <v>90</v>
+      </c>
+      <c r="J82" s="360" t="s">
         <v>90</v>
       </c>
       <c r="K82" s="193"/>
-      <c r="L82" s="307"/>
-      <c r="M82" s="307"/>
-      <c r="N82" s="308"/>
-      <c r="O82" s="308"/>
-      <c r="P82" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q82" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="R82" s="308" t="s">
-        <v>90</v>
-      </c>
-      <c r="S82" s="309" t="s">
+      <c r="L82" s="375"/>
+      <c r="M82" s="375"/>
+      <c r="N82" s="360"/>
+      <c r="O82" s="360"/>
+      <c r="P82" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q82" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="R82" s="360" t="s">
+        <v>90</v>
+      </c>
+      <c r="S82" s="377" t="s">
         <v>90</v>
       </c>
       <c r="T82" s="112"/>
@@ -41084,45 +41084,45 @@
     <row r="83" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A83" s="112"/>
       <c r="B83" s="194"/>
-      <c r="C83" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="D83" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="E83" s="308" t="s">
-        <v>90</v>
-      </c>
-      <c r="F83" s="308" t="s">
-        <v>90</v>
-      </c>
-      <c r="G83" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="H83" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="I83" s="308" t="s">
-        <v>90</v>
-      </c>
-      <c r="J83" s="308" t="s">
+      <c r="C83" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="D83" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="E83" s="360" t="s">
+        <v>90</v>
+      </c>
+      <c r="F83" s="360" t="s">
+        <v>90</v>
+      </c>
+      <c r="G83" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="H83" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="I83" s="360" t="s">
+        <v>90</v>
+      </c>
+      <c r="J83" s="360" t="s">
         <v>90</v>
       </c>
       <c r="K83" s="193"/>
-      <c r="L83" s="307"/>
-      <c r="M83" s="307"/>
-      <c r="N83" s="308"/>
-      <c r="O83" s="308"/>
-      <c r="P83" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q83" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="R83" s="308" t="s">
-        <v>90</v>
-      </c>
-      <c r="S83" s="309" t="s">
+      <c r="L83" s="375"/>
+      <c r="M83" s="375"/>
+      <c r="N83" s="360"/>
+      <c r="O83" s="360"/>
+      <c r="P83" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q83" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="R83" s="360" t="s">
+        <v>90</v>
+      </c>
+      <c r="S83" s="377" t="s">
         <v>90</v>
       </c>
       <c r="T83" s="112"/>
@@ -41142,45 +41142,45 @@
     <row r="84" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A84" s="112"/>
       <c r="B84" s="194"/>
-      <c r="C84" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="D84" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="E84" s="308" t="s">
-        <v>90</v>
-      </c>
-      <c r="F84" s="308" t="s">
-        <v>90</v>
-      </c>
-      <c r="G84" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="H84" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="I84" s="308" t="s">
-        <v>90</v>
-      </c>
-      <c r="J84" s="308" t="s">
+      <c r="C84" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="D84" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="E84" s="360" t="s">
+        <v>90</v>
+      </c>
+      <c r="F84" s="360" t="s">
+        <v>90</v>
+      </c>
+      <c r="G84" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="H84" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="I84" s="360" t="s">
+        <v>90</v>
+      </c>
+      <c r="J84" s="360" t="s">
         <v>90</v>
       </c>
       <c r="K84" s="193"/>
-      <c r="L84" s="307"/>
-      <c r="M84" s="307"/>
-      <c r="N84" s="308"/>
-      <c r="O84" s="308"/>
-      <c r="P84" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q84" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="R84" s="308" t="s">
-        <v>90</v>
-      </c>
-      <c r="S84" s="309" t="s">
+      <c r="L84" s="375"/>
+      <c r="M84" s="375"/>
+      <c r="N84" s="360"/>
+      <c r="O84" s="360"/>
+      <c r="P84" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q84" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="R84" s="360" t="s">
+        <v>90</v>
+      </c>
+      <c r="S84" s="377" t="s">
         <v>90</v>
       </c>
       <c r="T84" s="112"/>
@@ -41200,45 +41200,45 @@
     <row r="85" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A85" s="112"/>
       <c r="B85" s="194"/>
-      <c r="C85" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="D85" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="E85" s="308" t="s">
-        <v>90</v>
-      </c>
-      <c r="F85" s="308" t="s">
-        <v>90</v>
-      </c>
-      <c r="G85" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="H85" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="I85" s="308" t="s">
-        <v>90</v>
-      </c>
-      <c r="J85" s="308" t="s">
+      <c r="C85" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="D85" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="E85" s="360" t="s">
+        <v>90</v>
+      </c>
+      <c r="F85" s="360" t="s">
+        <v>90</v>
+      </c>
+      <c r="G85" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="H85" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="I85" s="360" t="s">
+        <v>90</v>
+      </c>
+      <c r="J85" s="360" t="s">
         <v>90</v>
       </c>
       <c r="K85" s="193"/>
-      <c r="L85" s="307"/>
-      <c r="M85" s="307"/>
-      <c r="N85" s="308"/>
-      <c r="O85" s="308"/>
-      <c r="P85" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q85" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="R85" s="308" t="s">
-        <v>90</v>
-      </c>
-      <c r="S85" s="309" t="s">
+      <c r="L85" s="375"/>
+      <c r="M85" s="375"/>
+      <c r="N85" s="360"/>
+      <c r="O85" s="360"/>
+      <c r="P85" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q85" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="R85" s="360" t="s">
+        <v>90</v>
+      </c>
+      <c r="S85" s="377" t="s">
         <v>90</v>
       </c>
       <c r="T85" s="112"/>
@@ -41258,45 +41258,45 @@
     <row r="86" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A86" s="112"/>
       <c r="B86" s="194"/>
-      <c r="C86" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="D86" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="E86" s="308" t="s">
-        <v>90</v>
-      </c>
-      <c r="F86" s="308" t="s">
-        <v>90</v>
-      </c>
-      <c r="G86" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="H86" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="I86" s="308" t="s">
-        <v>90</v>
-      </c>
-      <c r="J86" s="308" t="s">
+      <c r="C86" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="D86" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="E86" s="360" t="s">
+        <v>90</v>
+      </c>
+      <c r="F86" s="360" t="s">
+        <v>90</v>
+      </c>
+      <c r="G86" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="H86" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="I86" s="360" t="s">
+        <v>90</v>
+      </c>
+      <c r="J86" s="360" t="s">
         <v>90</v>
       </c>
       <c r="K86" s="193"/>
-      <c r="L86" s="307"/>
-      <c r="M86" s="307"/>
-      <c r="N86" s="308"/>
-      <c r="O86" s="308"/>
-      <c r="P86" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q86" s="307" t="s">
-        <v>90</v>
-      </c>
-      <c r="R86" s="308" t="s">
-        <v>90</v>
-      </c>
-      <c r="S86" s="309" t="s">
+      <c r="L86" s="375"/>
+      <c r="M86" s="375"/>
+      <c r="N86" s="360"/>
+      <c r="O86" s="360"/>
+      <c r="P86" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q86" s="375" t="s">
+        <v>90</v>
+      </c>
+      <c r="R86" s="360" t="s">
+        <v>90</v>
+      </c>
+      <c r="S86" s="377" t="s">
         <v>90</v>
       </c>
       <c r="T86" s="112"/>
@@ -41316,45 +41316,45 @@
     <row r="87" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A87" s="112"/>
       <c r="B87" s="195"/>
-      <c r="C87" s="306" t="s">
-        <v>90</v>
-      </c>
-      <c r="D87" s="306" t="s">
-        <v>90</v>
-      </c>
-      <c r="E87" s="319" t="s">
-        <v>90</v>
-      </c>
-      <c r="F87" s="319" t="s">
-        <v>90</v>
-      </c>
-      <c r="G87" s="306" t="s">
-        <v>90</v>
-      </c>
-      <c r="H87" s="306" t="s">
-        <v>90</v>
-      </c>
-      <c r="I87" s="319" t="s">
-        <v>90</v>
-      </c>
-      <c r="J87" s="319" t="s">
+      <c r="C87" s="382" t="s">
+        <v>90</v>
+      </c>
+      <c r="D87" s="382" t="s">
+        <v>90</v>
+      </c>
+      <c r="E87" s="380" t="s">
+        <v>90</v>
+      </c>
+      <c r="F87" s="380" t="s">
+        <v>90</v>
+      </c>
+      <c r="G87" s="382" t="s">
+        <v>90</v>
+      </c>
+      <c r="H87" s="382" t="s">
+        <v>90</v>
+      </c>
+      <c r="I87" s="380" t="s">
+        <v>90</v>
+      </c>
+      <c r="J87" s="380" t="s">
         <v>90</v>
       </c>
       <c r="K87" s="196"/>
-      <c r="L87" s="306"/>
-      <c r="M87" s="306"/>
-      <c r="N87" s="319"/>
-      <c r="O87" s="319"/>
-      <c r="P87" s="306" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q87" s="306" t="s">
-        <v>90</v>
-      </c>
-      <c r="R87" s="319" t="s">
-        <v>90</v>
-      </c>
-      <c r="S87" s="320" t="s">
+      <c r="L87" s="382"/>
+      <c r="M87" s="382"/>
+      <c r="N87" s="380"/>
+      <c r="O87" s="380"/>
+      <c r="P87" s="382" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q87" s="382" t="s">
+        <v>90</v>
+      </c>
+      <c r="R87" s="380" t="s">
+        <v>90</v>
+      </c>
+      <c r="S87" s="381" t="s">
         <v>90</v>
       </c>
       <c r="T87" s="112"/>
@@ -41477,6 +41477,177 @@
     </row>
   </sheetData>
   <mergeCells count="195">
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="I82:J82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="I79:J79"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="R79:S79"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="R73:S73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="I78:J78"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="R82:S82"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="I83:J83"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="R81:S81"/>
+    <mergeCell ref="R80:S80"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="I80:J80"/>
+    <mergeCell ref="R87:S87"/>
+    <mergeCell ref="R86:S86"/>
+    <mergeCell ref="R85:S85"/>
+    <mergeCell ref="R84:S84"/>
+    <mergeCell ref="R83:S83"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="I87:J87"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="R72:S72"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="R78:S78"/>
+    <mergeCell ref="R77:S77"/>
+    <mergeCell ref="R76:S76"/>
+    <mergeCell ref="R75:S75"/>
+    <mergeCell ref="R74:S74"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="R70:S70"/>
+    <mergeCell ref="R71:S71"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="I77:J77"/>
+    <mergeCell ref="B62:H62"/>
+    <mergeCell ref="B63:H63"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B55:H55"/>
+    <mergeCell ref="B61:H61"/>
+    <mergeCell ref="B54:H54"/>
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B40:O40"/>
+    <mergeCell ref="R69:S69"/>
+    <mergeCell ref="B56:H56"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="O42:O44"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="J42:N42"/>
+    <mergeCell ref="N43:N44"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="D43:D44"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B30:H30"/>
     <mergeCell ref="B31:H31"/>
@@ -41501,177 +41672,6 @@
     <mergeCell ref="B22:H22"/>
     <mergeCell ref="B29:H29"/>
     <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B40:O40"/>
-    <mergeCell ref="R69:S69"/>
-    <mergeCell ref="B56:H56"/>
-    <mergeCell ref="N69:O69"/>
-    <mergeCell ref="O42:O44"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="J42:N42"/>
-    <mergeCell ref="N43:N44"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="I77:J77"/>
-    <mergeCell ref="B62:H62"/>
-    <mergeCell ref="B63:H63"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B55:H55"/>
-    <mergeCell ref="B61:H61"/>
-    <mergeCell ref="B54:H54"/>
-    <mergeCell ref="B57:H57"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="I73:J73"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="N70:O70"/>
-    <mergeCell ref="R72:S72"/>
-    <mergeCell ref="N77:O77"/>
-    <mergeCell ref="N78:O78"/>
-    <mergeCell ref="N74:O74"/>
-    <mergeCell ref="N79:O79"/>
-    <mergeCell ref="N75:O75"/>
-    <mergeCell ref="N76:O76"/>
-    <mergeCell ref="L71:M71"/>
-    <mergeCell ref="N71:O71"/>
-    <mergeCell ref="R78:S78"/>
-    <mergeCell ref="R77:S77"/>
-    <mergeCell ref="R76:S76"/>
-    <mergeCell ref="R75:S75"/>
-    <mergeCell ref="R74:S74"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="R70:S70"/>
-    <mergeCell ref="R71:S71"/>
-    <mergeCell ref="L72:M72"/>
-    <mergeCell ref="N72:O72"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="R87:S87"/>
-    <mergeCell ref="R86:S86"/>
-    <mergeCell ref="R85:S85"/>
-    <mergeCell ref="R84:S84"/>
-    <mergeCell ref="R83:S83"/>
-    <mergeCell ref="N87:O87"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="I87:J87"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="I85:J85"/>
-    <mergeCell ref="N85:O85"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="N86:O86"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="I84:J84"/>
-    <mergeCell ref="N84:O84"/>
-    <mergeCell ref="R82:S82"/>
-    <mergeCell ref="N83:O83"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="I83:J83"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="R81:S81"/>
-    <mergeCell ref="R80:S80"/>
-    <mergeCell ref="N82:O82"/>
-    <mergeCell ref="N81:O81"/>
-    <mergeCell ref="N80:O80"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="I80:J80"/>
-    <mergeCell ref="R79:S79"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="L70:M70"/>
-    <mergeCell ref="L73:M73"/>
-    <mergeCell ref="N73:O73"/>
-    <mergeCell ref="R73:S73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="L74:M74"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="I78:J78"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="L77:M77"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="L83:M83"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="L75:M75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="L76:M76"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="I79:J79"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="L87:M87"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="I82:J82"/>
-    <mergeCell ref="L82:M82"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="L84:M84"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="L78:M78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="L79:M79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="L80:M80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="L81:M81"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="L85:M85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="L86:M86"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="I86:J86"/>
   </mergeCells>
   <conditionalFormatting sqref="C44 E44:H44">
     <cfRule type="cellIs" dxfId="6" priority="11" operator="equal">
@@ -41763,12 +41763,12 @@
     <row r="1" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:41" s="12" customFormat="1" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3"/>
-      <c r="B2" s="216" t="s">
+      <c r="B2" s="214" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="226"/>
-      <c r="D2" s="226"/>
-      <c r="E2" s="217"/>
+      <c r="C2" s="232"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="215"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -41809,12 +41809,12 @@
     <row r="3" spans="1:41" ht="14.5" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:41" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="112"/>
-      <c r="B4" s="223" t="s">
+      <c r="B4" s="219" t="s">
         <v>216</v>
       </c>
-      <c r="C4" s="224"/>
-      <c r="D4" s="224"/>
-      <c r="E4" s="225"/>
+      <c r="C4" s="220"/>
+      <c r="D4" s="220"/>
+      <c r="E4" s="221"/>
       <c r="F4" s="112"/>
       <c r="G4" s="112"/>
       <c r="H4" s="112"/>
@@ -41854,12 +41854,12 @@
     </row>
     <row r="5" spans="1:41" s="7" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="112"/>
-      <c r="B5" s="343" t="s">
+      <c r="B5" s="309" t="s">
         <v>217</v>
       </c>
-      <c r="C5" s="344"/>
-      <c r="D5" s="344"/>
-      <c r="E5" s="345"/>
+      <c r="C5" s="310"/>
+      <c r="D5" s="310"/>
+      <c r="E5" s="311"/>
       <c r="F5" s="112"/>
       <c r="G5" s="112"/>
       <c r="H5" s="112"/>
@@ -42253,35 +42253,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="681fe441-c46c-4ea5-a5c5-b45872725697">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="83a87e31-bf32-46ab-8e70-9fa18461fa4d" xsi:nil="true"/>
-    <SharedWithUsers xmlns="6bac55d2-c587-47e2-866b-bbb6fe14d104">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AB5DDB95A7ECBD49AA08D06BA3EF1CDA" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fe5bfd8c052041f57bea8be2fc23aae3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="681fe441-c46c-4ea5-a5c5-b45872725697" xmlns:ns3="6bac55d2-c587-47e2-866b-bbb6fe14d104" xmlns:ns4="83a87e31-bf32-46ab-8e70-9fa18461fa4d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2f48421f1dce13a43278cc3c99628998" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -42552,28 +42523,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4FE8F99-283B-450B-9291-1D0662914CE9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="681fe441-c46c-4ea5-a5c5-b45872725697">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="83a87e31-bf32-46ab-8e70-9fa18461fa4d" xsi:nil="true"/>
+    <SharedWithUsers xmlns="6bac55d2-c587-47e2-866b-bbb6fe14d104">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12714E09-E476-4024-A743-EBE78B46D4FD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="681fe441-c46c-4ea5-a5c5-b45872725697"/>
-    <ds:schemaRef ds:uri="83a87e31-bf32-46ab-8e70-9fa18461fa4d"/>
-    <ds:schemaRef ds:uri="6bac55d2-c587-47e2-866b-bbb6fe14d104"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38A08E56-31DD-4856-904D-CF4B4BDF8261}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -42594,6 +42573,27 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12714E09-E476-4024-A743-EBE78B46D4FD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="681fe441-c46c-4ea5-a5c5-b45872725697"/>
+    <ds:schemaRef ds:uri="83a87e31-bf32-46ab-8e70-9fa18461fa4d"/>
+    <ds:schemaRef ds:uri="6bac55d2-c587-47e2-866b-bbb6fe14d104"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4FE8F99-283B-450B-9291-1D0662914CE9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{95c71a0f-75e1-4c8f-90e2-641c9351dd98}" enabled="1" method="Standard" siteId="{3e0088dc-0629-4ae6-aa8c-813e7a296f50}" removed="0"/>
